--- a/ha-asset/01_design/03_batch/設計書_3.0.健康情報登録バッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.0.健康情報登録バッチ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okazaki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA47F8F-39F5-43BA-836E-547330D2A9CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F226E83-7085-411D-A305-CA5B79CEA0A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="1455" windowWidth="24240" windowHeight="15735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -23,28 +23,32 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.健康情報登録バッチ'!$A$1:$BK$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'3.1. ファイルIF'!$A$1:$BF$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.健康情報登録バッチ'!$A$1:$BK$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'3.1. ファイルIF'!$A$1:$BF$20</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
   <si>
-    <t>2.1.健康情報登録バッチ</t>
+    <t>0.更新履歴</t>
   </si>
   <si>
-    <t>0.更新履歴</t>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>バージョン</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>新規作成</t>
   </si>
   <si>
     <t>1.機能一覧</t>
@@ -53,28 +57,16 @@
     <t>1.1.健康情報登録バッチ</t>
   </si>
   <si>
-    <t>更新日時</t>
-  </si>
-  <si>
     <t>指定されたディレクトリに配置されたJSONをもとに健康情報登録APIを実行する</t>
   </si>
   <si>
-    <t>バージョン</t>
-  </si>
-  <si>
-    <t>内容</t>
+    <t>2.1.健康情報登録バッチ</t>
   </si>
   <si>
     <t>2.1.1.バッチ仕様</t>
   </si>
   <si>
     <t>バッチ仕様</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>新規作成</t>
   </si>
   <si>
     <t>シェル名</t>
@@ -122,41 +114,152 @@
     <t>ファイル存在エラー</t>
   </si>
   <si>
-    <t>3.1. ファイルIF</t>
-  </si>
-  <si>
     <t>#1より取得したファイル毎に処理</t>
   </si>
   <si>
     <t>健康情報ファイルを読込</t>
   </si>
   <si>
-    <t>3.1.1.健康情報ファイル</t>
+    <t>エラーコード：CE0001
+エラーメッセージ：実行時にエラーが発生しました</t>
+  </si>
+  <si>
+    <t>API情報を設定</t>
+  </si>
+  <si>
+    <t>2.1.4.1.API設定情報 参照</t>
+  </si>
+  <si>
+    <t>妥当性チェック</t>
+  </si>
+  <si>
+    <t>設計書_2.0.健康情報API#健康情報登録APIの妥当性チェック 参照</t>
+  </si>
+  <si>
+    <t>アカウント情報検索</t>
+  </si>
+  <si>
+    <t>2.1.3.1. アカウント情報検索 参照</t>
+  </si>
+  <si>
+    <t>API実行</t>
+  </si>
+  <si>
+    <t>2.1.3.DB処理</t>
+  </si>
+  <si>
+    <t>2.1.3.1. アカウント情報検索</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+  </si>
+  <si>
+    <t>WHERE</t>
+  </si>
+  <si>
+    <t>SEQ_USER_ID = JSON.seqUserId</t>
+  </si>
+  <si>
+    <t>2.1.4.備考</t>
+  </si>
+  <si>
+    <t>2.1.4.1.API設定情報</t>
   </si>
   <si>
     <t>入力</t>
   </si>
   <si>
+    <t>項目名</t>
+  </si>
+  <si>
+    <t>編集仕様</t>
+  </si>
+  <si>
+    <t>出力</t>
+  </si>
+  <si>
+    <t>"001"</t>
+  </si>
+  <si>
+    <t>APIデータ</t>
+  </si>
+  <si>
+    <t>requestType</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>seqUserId</t>
+  </si>
+  <si>
+    <t>apiKey</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>"0"</t>
+  </si>
+  <si>
+    <t>testMode</t>
+  </si>
+  <si>
+    <t>3.1. ファイルIF</t>
+  </si>
+  <si>
+    <t>3.1.1.健康情報ファイル</t>
+  </si>
+  <si>
     <t>3.1.1.1 概要</t>
+  </si>
+  <si>
+    <t>ファイル名</t>
+  </si>
+  <si>
+    <t>ファイル形式</t>
+  </si>
+  <si>
+    <t>UTF-8</t>
+  </si>
+  <si>
+    <t>ファイル配置場所</t>
+  </si>
+  <si>
+    <t>C:\app\data\healthInfoRegist</t>
+  </si>
+  <si>
+    <t>3.1.1.2 ファイル内容</t>
+  </si>
+  <si>
+    <t>半角英数字</t>
+  </si>
+  <si>
+    <t>◯：必須</t>
+  </si>
+  <si>
+    <t>healthInfoRequestData[i]</t>
+  </si>
+  <si>
+    <t>半角数字とピリオド</t>
   </si>
   <si>
     <t>半角数字</t>
   </si>
   <si>
-    <t>◯：必須</t>
-  </si>
-  <si>
     <t>表示</t>
-  </si>
-  <si>
-    <t>ファイル名</t>
-  </si>
-  <si>
-    <t>エラーコード：CE0001
-エラーメッセージ：実行時にエラーが発生しました</t>
-  </si>
-  <si>
-    <t>半角数字とピリオド</t>
   </si>
   <si>
     <t>△：任意</t>
@@ -180,16 +283,10 @@
     <t>チェックボックス</t>
   </si>
   <si>
-    <t>半角英数字</t>
-  </si>
-  <si>
     <t>ラジオボタン</t>
   </si>
   <si>
     <t>半角英数記号</t>
-  </si>
-  <si>
-    <t>API情報を設定</t>
   </si>
   <si>
     <t>YYYY</t>
@@ -198,19 +295,10 @@
     <t>MM</t>
   </si>
   <si>
-    <t>ファイル形式</t>
-  </si>
-  <si>
-    <t>2.1.4.1.API設定情報 参照</t>
-  </si>
-  <si>
     <t>DD</t>
   </si>
   <si>
     <t>YYYYMM</t>
-  </si>
-  <si>
-    <t>JSON</t>
   </si>
   <si>
     <t>YYYYMMDD</t>
@@ -224,75 +312,6 @@
   <si>
     <t>MI</t>
   </si>
-  <si>
-    <t>UTF-8</t>
-  </si>
-  <si>
-    <t>妥当性チェック</t>
-  </si>
-  <si>
-    <t>設計書_2.0.健康情報API#健康情報登録APIの妥当性チェック 参照</t>
-  </si>
-  <si>
-    <t>ファイル配置場所</t>
-  </si>
-  <si>
-    <t>C:\app\data\healthInfoRegist</t>
-  </si>
-  <si>
-    <t>API実行</t>
-  </si>
-  <si>
-    <t>3.1.1.2 ファイル内容</t>
-  </si>
-  <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t>apiKey</t>
-  </si>
-  <si>
-    <t>2.1.3.DB処理</t>
-  </si>
-  <si>
-    <t>healthInfoRequestData[i]</t>
-  </si>
-  <si>
-    <t>2.1.4.備考</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>2.1.4.1.API設定情報</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>項目名</t>
-  </si>
-  <si>
-    <t>編集仕様</t>
-  </si>
-  <si>
-    <t>出力</t>
-  </si>
-  <si>
-    <t>"001"</t>
-  </si>
-  <si>
-    <t>APIデータ</t>
-  </si>
-  <si>
-    <t>requestType</t>
-  </si>
-  <si>
-    <t>"0"</t>
-  </si>
-  <si>
-    <t>testMode</t>
-  </si>
 </sst>
 </file>
 
@@ -301,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -341,13 +360,24 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +406,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
   </fills>
@@ -527,6 +563,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -551,15 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -576,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -671,13 +707,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -696,20 +728,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -718,8 +743,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,25 +758,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,13 +793,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -791,9 +814,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1047,7 +1100,9 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD23" sqref="AD23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1056,7 +1111,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1116,681 +1171,681 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="3"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="3"/>
+      <c r="B4" s="94">
+        <v>43771</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82" t="s">
-        <v>6</v>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="90" t="s">
+        <v>5</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="3"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="3"/>
-      <c r="B4" s="83">
-        <v>43771</v>
-      </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="81"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="91"/>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="92"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="81"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="92"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="81"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="91"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="91"/>
+      <c r="W6" s="91"/>
+      <c r="X6" s="91"/>
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="92"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="81"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="92"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="3"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="81"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="92"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="3"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="81"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="92"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="3"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="81"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="92"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="81"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="92"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="3"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="81"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="92"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="3"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="81"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="92"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="81"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="92"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="81"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="91"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="92"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="81"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="92"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="3"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="80"/>
-      <c r="Y17" s="80"/>
-      <c r="Z17" s="81"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="92"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="3"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="80"/>
-      <c r="U18" s="80"/>
-      <c r="V18" s="80"/>
-      <c r="W18" s="80"/>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="80"/>
-      <c r="Z18" s="81"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="92"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="3"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="80"/>
-      <c r="Z19" s="81"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="92"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="3"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="80"/>
-      <c r="Z20" s="81"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="91"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="91"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="92"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="3"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="80"/>
-      <c r="Y21" s="80"/>
-      <c r="Z21" s="81"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="92"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="3"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="81"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="91"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="91"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="91"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="92"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="3"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="80"/>
-      <c r="Y23" s="80"/>
-      <c r="Z23" s="81"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="91"/>
+      <c r="T23" s="91"/>
+      <c r="U23" s="91"/>
+      <c r="V23" s="91"/>
+      <c r="W23" s="91"/>
+      <c r="X23" s="91"/>
+      <c r="Y23" s="91"/>
+      <c r="Z23" s="92"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="3"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="80"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="80"/>
-      <c r="X24" s="80"/>
-      <c r="Y24" s="80"/>
-      <c r="Z24" s="81"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="91"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="91"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="92"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="80"/>
-      <c r="Z25" s="81"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="91"/>
+      <c r="U25" s="91"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="91"/>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="92"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
@@ -1923,7 +1978,7 @@
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1936,9 +1991,7 @@
   </sheetPr>
   <dimension ref="A1:AW31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1947,7 +2000,7 @@
   <sheetData>
     <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2052,7 +2105,7 @@
     <row r="3" spans="1:49">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2106,7 +2159,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3533,9 +3586,9 @@
       <c r="AW31" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3544,10 +3597,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BK36"/>
+  <dimension ref="A1:BK45"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -3557,7 +3610,7 @@
   <sheetData>
     <row r="1" spans="1:63">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3754,7 +3807,7 @@
     </row>
     <row r="4" spans="1:63">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -3887,7 +3940,7 @@
     <row r="6" spans="1:63" outlineLevel="1">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -3954,53 +4007,53 @@
     <row r="7" spans="1:63" outlineLevel="1">
       <c r="A7" s="3"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="86" t="s">
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="80"/>
-      <c r="AG7" s="80"/>
-      <c r="AH7" s="80"/>
-      <c r="AI7" s="80"/>
-      <c r="AJ7" s="80"/>
-      <c r="AK7" s="80"/>
-      <c r="AL7" s="80"/>
-      <c r="AM7" s="80"/>
-      <c r="AN7" s="80"/>
-      <c r="AO7" s="80"/>
-      <c r="AP7" s="80"/>
-      <c r="AQ7" s="80"/>
-      <c r="AR7" s="80"/>
-      <c r="AS7" s="81"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="91"/>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="91"/>
+      <c r="AM7" s="91"/>
+      <c r="AN7" s="91"/>
+      <c r="AO7" s="91"/>
+      <c r="AP7" s="91"/>
+      <c r="AQ7" s="91"/>
+      <c r="AR7" s="91"/>
+      <c r="AS7" s="92"/>
       <c r="AT7" s="14"/>
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
@@ -4023,53 +4076,53 @@
     <row r="8" spans="1:63" outlineLevel="1">
       <c r="A8" s="3"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="87" t="s">
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="80"/>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="80"/>
-      <c r="AC8" s="80"/>
-      <c r="AD8" s="80"/>
-      <c r="AE8" s="80"/>
-      <c r="AF8" s="80"/>
-      <c r="AG8" s="80"/>
-      <c r="AH8" s="80"/>
-      <c r="AI8" s="80"/>
-      <c r="AJ8" s="80"/>
-      <c r="AK8" s="80"/>
-      <c r="AL8" s="80"/>
-      <c r="AM8" s="80"/>
-      <c r="AN8" s="80"/>
-      <c r="AO8" s="80"/>
-      <c r="AP8" s="80"/>
-      <c r="AQ8" s="80"/>
-      <c r="AR8" s="80"/>
-      <c r="AS8" s="81"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="91"/>
+      <c r="AH8" s="91"/>
+      <c r="AI8" s="91"/>
+      <c r="AJ8" s="91"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="91"/>
+      <c r="AM8" s="91"/>
+      <c r="AN8" s="91"/>
+      <c r="AO8" s="91"/>
+      <c r="AP8" s="91"/>
+      <c r="AQ8" s="91"/>
+      <c r="AR8" s="91"/>
+      <c r="AS8" s="92"/>
       <c r="AT8" s="14"/>
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
@@ -4092,53 +4145,53 @@
     <row r="9" spans="1:63" outlineLevel="1">
       <c r="A9" s="3"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="87" t="s">
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="80"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="80"/>
-      <c r="AF9" s="80"/>
-      <c r="AG9" s="80"/>
-      <c r="AH9" s="80"/>
-      <c r="AI9" s="80"/>
-      <c r="AJ9" s="80"/>
-      <c r="AK9" s="80"/>
-      <c r="AL9" s="80"/>
-      <c r="AM9" s="80"/>
-      <c r="AN9" s="80"/>
-      <c r="AO9" s="80"/>
-      <c r="AP9" s="80"/>
-      <c r="AQ9" s="80"/>
-      <c r="AR9" s="80"/>
-      <c r="AS9" s="81"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="91"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="91"/>
+      <c r="AN9" s="91"/>
+      <c r="AO9" s="91"/>
+      <c r="AP9" s="91"/>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="91"/>
+      <c r="AS9" s="92"/>
       <c r="AT9" s="14"/>
       <c r="AU9" s="4"/>
       <c r="AV9" s="4"/>
@@ -4433,7 +4486,7 @@
     <row r="14" spans="1:63" outlineLevel="1">
       <c r="A14" s="17"/>
       <c r="B14" s="25">
-        <f t="shared" ref="B14:B20" si="0">ROW()-13</f>
+        <f t="shared" ref="B14:B21" si="0">ROW()-13</f>
         <v>1</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -4512,64 +4565,64 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>28</v>
+      <c r="C15" s="32" t="s">
+        <v>27</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="37"/>
-      <c r="AS15" s="37"/>
-      <c r="AT15" s="37"/>
-      <c r="AU15" s="37"/>
-      <c r="AV15" s="37"/>
-      <c r="AW15" s="37"/>
-      <c r="AX15" s="37"/>
-      <c r="AY15" s="37"/>
-      <c r="AZ15" s="37"/>
-      <c r="BA15" s="37"/>
-      <c r="BB15" s="37"/>
-      <c r="BC15" s="37"/>
-      <c r="BD15" s="37"/>
-      <c r="BE15" s="37"/>
-      <c r="BF15" s="38"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="33"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="33"/>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="33"/>
+      <c r="AR15" s="33"/>
+      <c r="AS15" s="33"/>
+      <c r="AT15" s="33"/>
+      <c r="AU15" s="33"/>
+      <c r="AV15" s="33"/>
+      <c r="AW15" s="33"/>
+      <c r="AX15" s="33"/>
+      <c r="AY15" s="33"/>
+      <c r="AZ15" s="33"/>
+      <c r="BA15" s="33"/>
+      <c r="BB15" s="33"/>
+      <c r="BC15" s="33"/>
+      <c r="BD15" s="33"/>
+      <c r="BE15" s="33"/>
+      <c r="BF15" s="34"/>
       <c r="BG15" s="3"/>
       <c r="BH15" s="3"/>
       <c r="BI15" s="3"/>
@@ -4582,68 +4635,68 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="88" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="42"/>
-      <c r="AM16" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="41"/>
-      <c r="AP16" s="41"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="41"/>
-      <c r="AT16" s="41"/>
-      <c r="AU16" s="41"/>
-      <c r="AV16" s="41"/>
-      <c r="AW16" s="41"/>
-      <c r="AX16" s="41"/>
-      <c r="AY16" s="41"/>
-      <c r="AZ16" s="41"/>
-      <c r="BA16" s="41"/>
-      <c r="BB16" s="41"/>
-      <c r="BC16" s="41"/>
-      <c r="BD16" s="41"/>
-      <c r="BE16" s="41"/>
-      <c r="BF16" s="42"/>
+      <c r="AN16" s="37"/>
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="37"/>
+      <c r="AQ16" s="37"/>
+      <c r="AR16" s="37"/>
+      <c r="AS16" s="37"/>
+      <c r="AT16" s="37"/>
+      <c r="AU16" s="37"/>
+      <c r="AV16" s="37"/>
+      <c r="AW16" s="37"/>
+      <c r="AX16" s="37"/>
+      <c r="AY16" s="37"/>
+      <c r="AZ16" s="37"/>
+      <c r="BA16" s="37"/>
+      <c r="BB16" s="37"/>
+      <c r="BC16" s="37"/>
+      <c r="BD16" s="37"/>
+      <c r="BE16" s="37"/>
+      <c r="BF16" s="38"/>
       <c r="BG16" s="3"/>
       <c r="BH16" s="3"/>
       <c r="BI16" s="3"/>
@@ -4656,70 +4709,70 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="88" t="s">
-        <v>49</v>
+      <c r="C17" s="35"/>
+      <c r="D17" s="99" t="s">
+        <v>30</v>
       </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="49" t="s">
-        <v>53</v>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="40" t="s">
+        <v>31</v>
       </c>
-      <c r="L17" s="41"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="40" t="s">
+      <c r="L17" s="37"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="50"/>
-      <c r="AI17" s="50"/>
-      <c r="AJ17" s="50"/>
-      <c r="AK17" s="50"/>
-      <c r="AL17" s="51"/>
-      <c r="AM17" s="40" t="s">
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AN17" s="50"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="50"/>
-      <c r="AQ17" s="50"/>
-      <c r="AR17" s="50"/>
-      <c r="AS17" s="50"/>
-      <c r="AT17" s="50"/>
-      <c r="AU17" s="50"/>
-      <c r="AV17" s="50"/>
-      <c r="AW17" s="50"/>
-      <c r="AX17" s="50"/>
-      <c r="AY17" s="50"/>
-      <c r="AZ17" s="50"/>
-      <c r="BA17" s="50"/>
-      <c r="BB17" s="50"/>
-      <c r="BC17" s="50"/>
-      <c r="BD17" s="50"/>
-      <c r="BE17" s="50"/>
-      <c r="BF17" s="51"/>
+      <c r="AN17" s="41"/>
+      <c r="AO17" s="41"/>
+      <c r="AP17" s="41"/>
+      <c r="AQ17" s="41"/>
+      <c r="AR17" s="41"/>
+      <c r="AS17" s="41"/>
+      <c r="AT17" s="41"/>
+      <c r="AU17" s="41"/>
+      <c r="AV17" s="41"/>
+      <c r="AW17" s="41"/>
+      <c r="AX17" s="41"/>
+      <c r="AY17" s="41"/>
+      <c r="AZ17" s="41"/>
+      <c r="BA17" s="41"/>
+      <c r="BB17" s="41"/>
+      <c r="BC17" s="41"/>
+      <c r="BD17" s="41"/>
+      <c r="BE17" s="41"/>
+      <c r="BF17" s="42"/>
       <c r="BG17" s="3"/>
       <c r="BH17" s="3"/>
       <c r="BI17" s="3"/>
@@ -4732,70 +4785,70 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="52" t="s">
-        <v>62</v>
+      <c r="C18" s="35"/>
+      <c r="D18" s="43" t="s">
+        <v>32</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="54" t="s">
-        <v>63</v>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="44" t="s">
+        <v>33</v>
       </c>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="40" t="s">
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="50"/>
-      <c r="AI18" s="50"/>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="51"/>
-      <c r="AM18" s="40" t="s">
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="42"/>
+      <c r="AM18" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="50"/>
-      <c r="AZ18" s="50"/>
-      <c r="BA18" s="50"/>
-      <c r="BB18" s="50"/>
-      <c r="BC18" s="50"/>
-      <c r="BD18" s="50"/>
-      <c r="BE18" s="50"/>
-      <c r="BF18" s="51"/>
+      <c r="AN18" s="41"/>
+      <c r="AO18" s="41"/>
+      <c r="AP18" s="41"/>
+      <c r="AQ18" s="41"/>
+      <c r="AR18" s="41"/>
+      <c r="AS18" s="41"/>
+      <c r="AT18" s="41"/>
+      <c r="AU18" s="41"/>
+      <c r="AV18" s="41"/>
+      <c r="AW18" s="41"/>
+      <c r="AX18" s="41"/>
+      <c r="AY18" s="41"/>
+      <c r="AZ18" s="41"/>
+      <c r="BA18" s="41"/>
+      <c r="BB18" s="41"/>
+      <c r="BC18" s="41"/>
+      <c r="BD18" s="41"/>
+      <c r="BE18" s="41"/>
+      <c r="BF18" s="42"/>
       <c r="BG18" s="3"/>
       <c r="BH18" s="3"/>
       <c r="BI18" s="3"/>
@@ -4808,68 +4861,66 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="52" t="s">
-        <v>66</v>
+      <c r="C19" s="35"/>
+      <c r="D19" s="45" t="s">
+        <v>34</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="40" t="s">
-        <v>17</v>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="46" t="s">
+        <v>35</v>
       </c>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
-      <c r="AH19" s="50"/>
-      <c r="AI19" s="50"/>
-      <c r="AJ19" s="50"/>
-      <c r="AK19" s="50"/>
-      <c r="AL19" s="51"/>
-      <c r="AM19" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN19" s="50"/>
-      <c r="AO19" s="50"/>
-      <c r="AP19" s="50"/>
-      <c r="AQ19" s="50"/>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
-      <c r="AT19" s="50"/>
-      <c r="AU19" s="50"/>
-      <c r="AV19" s="50"/>
-      <c r="AW19" s="50"/>
-      <c r="AX19" s="50"/>
-      <c r="AY19" s="50"/>
-      <c r="AZ19" s="50"/>
-      <c r="BA19" s="50"/>
-      <c r="BB19" s="50"/>
-      <c r="BC19" s="50"/>
-      <c r="BD19" s="50"/>
-      <c r="BE19" s="50"/>
-      <c r="BF19" s="51"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="42"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="41"/>
+      <c r="AO19" s="41"/>
+      <c r="AP19" s="41"/>
+      <c r="AQ19" s="41"/>
+      <c r="AR19" s="41"/>
+      <c r="AS19" s="41"/>
+      <c r="AT19" s="41"/>
+      <c r="AU19" s="41"/>
+      <c r="AV19" s="41"/>
+      <c r="AW19" s="41"/>
+      <c r="AX19" s="41"/>
+      <c r="AY19" s="41"/>
+      <c r="AZ19" s="41"/>
+      <c r="BA19" s="41"/>
+      <c r="BB19" s="41"/>
+      <c r="BC19" s="41"/>
+      <c r="BD19" s="41"/>
+      <c r="BE19" s="41"/>
+      <c r="BF19" s="42"/>
       <c r="BG19" s="3"/>
       <c r="BH19" s="3"/>
       <c r="BI19" s="3"/>
@@ -4882,127 +4933,136 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="56"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="56"/>
-      <c r="AQ20" s="56"/>
-      <c r="AR20" s="56"/>
-      <c r="AS20" s="56"/>
-      <c r="AT20" s="56"/>
-      <c r="AU20" s="56"/>
-      <c r="AV20" s="56"/>
-      <c r="AW20" s="56"/>
-      <c r="AX20" s="56"/>
-      <c r="AY20" s="56"/>
-      <c r="AZ20" s="56"/>
-      <c r="BA20" s="56"/>
-      <c r="BB20" s="56"/>
-      <c r="BC20" s="56"/>
-      <c r="BD20" s="56"/>
-      <c r="BE20" s="56"/>
-      <c r="BF20" s="60"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN20" s="41"/>
+      <c r="AO20" s="41"/>
+      <c r="AP20" s="41"/>
+      <c r="AQ20" s="41"/>
+      <c r="AR20" s="41"/>
+      <c r="AS20" s="41"/>
+      <c r="AT20" s="41"/>
+      <c r="AU20" s="41"/>
+      <c r="AV20" s="41"/>
+      <c r="AW20" s="41"/>
+      <c r="AX20" s="41"/>
+      <c r="AY20" s="41"/>
+      <c r="AZ20" s="41"/>
+      <c r="BA20" s="41"/>
+      <c r="BB20" s="41"/>
+      <c r="BC20" s="41"/>
+      <c r="BD20" s="41"/>
+      <c r="BE20" s="41"/>
+      <c r="BF20" s="42"/>
       <c r="BG20" s="3"/>
       <c r="BH20" s="3"/>
       <c r="BI20" s="3"/>
       <c r="BJ20" s="3"/>
       <c r="BK20" s="3"/>
     </row>
-    <row r="21" spans="1:63">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3"/>
-      <c r="BB21" s="3"/>
-      <c r="BC21" s="3"/>
-      <c r="BD21" s="3"/>
-      <c r="BE21" s="3"/>
-      <c r="BF21" s="3"/>
+    <row r="21" spans="1:63" outlineLevel="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="48"/>
+      <c r="AQ21" s="48"/>
+      <c r="AR21" s="48"/>
+      <c r="AS21" s="48"/>
+      <c r="AT21" s="48"/>
+      <c r="AU21" s="48"/>
+      <c r="AV21" s="48"/>
+      <c r="AW21" s="48"/>
+      <c r="AX21" s="48"/>
+      <c r="AY21" s="48"/>
+      <c r="AZ21" s="48"/>
+      <c r="BA21" s="48"/>
+      <c r="BB21" s="48"/>
+      <c r="BC21" s="48"/>
+      <c r="BD21" s="48"/>
+      <c r="BE21" s="48"/>
+      <c r="BF21" s="49"/>
       <c r="BG21" s="3"/>
       <c r="BH21" s="3"/>
       <c r="BI21" s="3"/>
@@ -5010,136 +5070,136 @@
       <c r="BK21" s="3"/>
     </row>
     <row r="22" spans="1:63">
-      <c r="A22" s="5" t="s">
-        <v>70</v>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="5" t="s">
+        <v>37</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="8"/>
-      <c r="AO22" s="8"/>
-      <c r="AP22" s="8"/>
-      <c r="AQ22" s="8"/>
-      <c r="AR22" s="8"/>
-      <c r="AS22" s="8"/>
-      <c r="AT22" s="8"/>
-      <c r="AU22" s="8"/>
-      <c r="AV22" s="8"/>
-      <c r="AW22" s="8"/>
-      <c r="AX22" s="8"/>
-      <c r="AY22" s="8"/>
-      <c r="AZ22" s="8"/>
-      <c r="BA22" s="8"/>
-      <c r="BB22" s="8"/>
-      <c r="BC22" s="8"/>
-      <c r="BD22" s="8"/>
-      <c r="BE22" s="8"/>
-      <c r="BF22" s="8"/>
-      <c r="BG22" s="8"/>
-      <c r="BH22" s="8"/>
-      <c r="BI22" s="8"/>
-      <c r="BJ22" s="8"/>
-      <c r="BK22" s="8"/>
-    </row>
-    <row r="23" spans="1:63">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
-      <c r="AU23" s="3"/>
-      <c r="AV23" s="3"/>
-      <c r="AW23" s="3"/>
-      <c r="AX23" s="3"/>
-      <c r="AY23" s="3"/>
-      <c r="AZ23" s="3"/>
-      <c r="BA23" s="3"/>
-      <c r="BB23" s="3"/>
-      <c r="BC23" s="3"/>
-      <c r="BD23" s="3"/>
-      <c r="BE23" s="3"/>
-      <c r="BF23" s="3"/>
-      <c r="BG23" s="3"/>
-      <c r="BH23" s="3"/>
-      <c r="BI23" s="3"/>
-      <c r="BJ23" s="3"/>
-      <c r="BK23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="8"/>
+      <c r="AT23" s="8"/>
+      <c r="AU23" s="8"/>
+      <c r="AV23" s="8"/>
+      <c r="AW23" s="8"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="8"/>
+      <c r="AZ23" s="8"/>
+      <c r="BA23" s="8"/>
+      <c r="BB23" s="8"/>
+      <c r="BC23" s="8"/>
+      <c r="BD23" s="8"/>
+      <c r="BE23" s="8"/>
+      <c r="BF23" s="8"/>
+      <c r="BG23" s="8"/>
+      <c r="BH23" s="8"/>
+      <c r="BI23" s="8"/>
+      <c r="BJ23" s="8"/>
+      <c r="BK23" s="8"/>
     </row>
     <row r="24" spans="1:63">
       <c r="A24" s="3"/>
@@ -5206,88 +5266,90 @@
       <c r="BJ24" s="3"/>
       <c r="BK24" s="3"/>
     </row>
-    <row r="25" spans="1:63">
-      <c r="A25" s="5" t="s">
-        <v>72</v>
+    <row r="25" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="50" t="s">
+        <v>38</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
-      <c r="AM25" s="2"/>
-      <c r="AN25" s="2"/>
-      <c r="AO25" s="2"/>
-      <c r="AP25" s="2"/>
-      <c r="AQ25" s="2"/>
-      <c r="AR25" s="2"/>
-      <c r="AS25" s="2"/>
-      <c r="AT25" s="2"/>
-      <c r="AU25" s="2"/>
-      <c r="AV25" s="2"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="2"/>
-      <c r="AZ25" s="2"/>
-      <c r="BA25" s="2"/>
-      <c r="BB25" s="2"/>
-      <c r="BC25" s="2"/>
-      <c r="BD25" s="2"/>
-      <c r="BE25" s="2"/>
-      <c r="BF25" s="2"/>
-      <c r="BG25" s="2"/>
-      <c r="BH25" s="2"/>
-      <c r="BI25" s="2"/>
-      <c r="BJ25" s="2"/>
-      <c r="BK25" s="2"/>
-    </row>
-    <row r="26" spans="1:63">
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="3"/>
+    </row>
+    <row r="26" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -5338,23 +5400,23 @@
       <c r="BJ26" s="3"/>
       <c r="BK26" s="3"/>
     </row>
-    <row r="27" spans="1:63" outlineLevel="1">
+    <row r="27" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="44" t="s">
-        <v>74</v>
+      <c r="B27" s="52"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56" t="s">
+        <v>40</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -5405,68 +5467,60 @@
       <c r="BJ27" s="3"/>
       <c r="BK27" s="3"/>
     </row>
-    <row r="28" spans="1:63" outlineLevel="1">
+    <row r="28" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="23" t="s">
-        <v>31</v>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53" t="s">
+        <v>41</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="S28" s="66"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="64"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="67"/>
-      <c r="AF28" s="64"/>
-      <c r="AG28" s="64"/>
-      <c r="AH28" s="64"/>
-      <c r="AI28" s="64"/>
-      <c r="AJ28" s="65"/>
-      <c r="AK28" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL28" s="67"/>
-      <c r="AM28" s="64"/>
-      <c r="AN28" s="64"/>
-      <c r="AO28" s="64"/>
-      <c r="AP28" s="64"/>
-      <c r="AQ28" s="64"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT28" s="64"/>
-      <c r="AU28" s="64"/>
-      <c r="AV28" s="64"/>
-      <c r="AW28" s="64"/>
-      <c r="AX28" s="64"/>
-      <c r="AY28" s="65"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
       <c r="AZ28" s="3"/>
       <c r="BA28" s="3"/>
       <c r="BB28" s="3"/>
@@ -5480,64 +5534,60 @@
       <c r="BJ28" s="3"/>
       <c r="BK28" s="3"/>
     </row>
-    <row r="29" spans="1:63" outlineLevel="1">
+    <row r="29" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="73" t="s">
-        <v>79</v>
+      <c r="B29" s="52"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="53" t="s">
+        <v>42</v>
       </c>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="71"/>
-      <c r="AD29" s="71"/>
-      <c r="AE29" s="71"/>
-      <c r="AF29" s="71"/>
-      <c r="AG29" s="71"/>
-      <c r="AH29" s="71"/>
-      <c r="AI29" s="71"/>
-      <c r="AJ29" s="72"/>
-      <c r="AK29" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL29" s="75"/>
-      <c r="AM29" s="75"/>
-      <c r="AN29" s="75"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
-      <c r="AR29" s="76"/>
-      <c r="AS29" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT29" s="71"/>
-      <c r="AU29" s="71"/>
-      <c r="AV29" s="71"/>
-      <c r="AW29" s="71"/>
-      <c r="AX29" s="71"/>
-      <c r="AY29" s="72"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
       <c r="AZ29" s="3"/>
       <c r="BA29" s="3"/>
       <c r="BB29" s="3"/>
@@ -5551,64 +5601,60 @@
       <c r="BJ29" s="3"/>
       <c r="BK29" s="3"/>
     </row>
-    <row r="30" spans="1:63" outlineLevel="1">
+    <row r="30" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="77" t="s">
-        <v>56</v>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53" t="s">
+        <v>43</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="71"/>
-      <c r="AD30" s="71"/>
-      <c r="AE30" s="71"/>
-      <c r="AF30" s="71"/>
-      <c r="AG30" s="71"/>
-      <c r="AH30" s="71"/>
-      <c r="AI30" s="71"/>
-      <c r="AJ30" s="71"/>
-      <c r="AK30" s="78"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
-      <c r="AR30" s="76"/>
-      <c r="AS30" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT30" s="71"/>
-      <c r="AU30" s="71"/>
-      <c r="AV30" s="71"/>
-      <c r="AW30" s="71"/>
-      <c r="AX30" s="71"/>
-      <c r="AY30" s="72"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
       <c r="AZ30" s="3"/>
       <c r="BA30" s="3"/>
       <c r="BB30" s="3"/>
@@ -5622,62 +5668,60 @@
       <c r="BJ30" s="3"/>
       <c r="BK30" s="3"/>
     </row>
-    <row r="31" spans="1:63" outlineLevel="1">
+    <row r="31" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="73" t="s">
-        <v>69</v>
+      <c r="B31" s="52"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="57" t="s">
+        <v>44</v>
       </c>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="71"/>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="71"/>
-      <c r="AC31" s="71"/>
-      <c r="AD31" s="71"/>
-      <c r="AE31" s="71"/>
-      <c r="AF31" s="71"/>
-      <c r="AG31" s="71"/>
-      <c r="AH31" s="71"/>
-      <c r="AI31" s="71"/>
-      <c r="AJ31" s="71"/>
-      <c r="AK31" s="78"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3"/>
-      <c r="AR31" s="76"/>
-      <c r="AS31" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT31" s="71"/>
-      <c r="AU31" s="71"/>
-      <c r="AV31" s="71"/>
-      <c r="AW31" s="71"/>
-      <c r="AX31" s="71"/>
-      <c r="AY31" s="72"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
       <c r="AZ31" s="3"/>
       <c r="BA31" s="3"/>
       <c r="BB31" s="3"/>
@@ -5693,60 +5737,56 @@
     </row>
     <row r="32" spans="1:63" outlineLevel="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="78"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="71"/>
-      <c r="W32" s="71"/>
-      <c r="X32" s="71"/>
-      <c r="Y32" s="71"/>
-      <c r="Z32" s="71"/>
-      <c r="AA32" s="71"/>
-      <c r="AB32" s="71"/>
-      <c r="AC32" s="71"/>
-      <c r="AD32" s="71"/>
-      <c r="AE32" s="71"/>
-      <c r="AF32" s="71"/>
-      <c r="AG32" s="71"/>
-      <c r="AH32" s="71"/>
-      <c r="AI32" s="71"/>
-      <c r="AJ32" s="71"/>
-      <c r="AK32" s="78"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3"/>
-      <c r="AR32" s="76"/>
-      <c r="AS32" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT32" s="71"/>
-      <c r="AU32" s="71"/>
-      <c r="AV32" s="71"/>
-      <c r="AW32" s="71"/>
-      <c r="AX32" s="71"/>
-      <c r="AY32" s="72"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
       <c r="AZ32" s="3"/>
       <c r="BA32" s="3"/>
       <c r="BB32" s="3"/>
@@ -5760,62 +5800,58 @@
       <c r="BJ32" s="3"/>
       <c r="BK32" s="3"/>
     </row>
-    <row r="33" spans="1:63" outlineLevel="1">
+    <row r="33" spans="1:63">
       <c r="A33" s="3"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="71"/>
-      <c r="Y33" s="71"/>
-      <c r="Z33" s="71"/>
-      <c r="AA33" s="71"/>
-      <c r="AB33" s="71"/>
-      <c r="AC33" s="71"/>
-      <c r="AD33" s="71"/>
-      <c r="AE33" s="71"/>
-      <c r="AF33" s="71"/>
-      <c r="AG33" s="71"/>
-      <c r="AH33" s="71"/>
-      <c r="AI33" s="71"/>
-      <c r="AJ33" s="71"/>
-      <c r="AK33" s="78"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
-      <c r="AR33" s="76"/>
-      <c r="AS33" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT33" s="71"/>
-      <c r="AU33" s="71"/>
-      <c r="AV33" s="71"/>
-      <c r="AW33" s="71"/>
-      <c r="AX33" s="71"/>
-      <c r="AY33" s="72"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
       <c r="AZ33" s="3"/>
       <c r="BA33" s="3"/>
       <c r="BB33" s="3"/>
@@ -5829,78 +5865,76 @@
       <c r="BJ33" s="3"/>
       <c r="BK33" s="3"/>
     </row>
-    <row r="34" spans="1:63" outlineLevel="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="73" t="s">
-        <v>82</v>
+    <row r="34" spans="1:63">
+      <c r="A34" s="5" t="s">
+        <v>45</v>
       </c>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="71"/>
-      <c r="AD34" s="71"/>
-      <c r="AE34" s="71"/>
-      <c r="AF34" s="71"/>
-      <c r="AG34" s="71"/>
-      <c r="AH34" s="71"/>
-      <c r="AI34" s="71"/>
-      <c r="AJ34" s="71"/>
-      <c r="AK34" s="70"/>
-      <c r="AL34" s="71"/>
-      <c r="AM34" s="71"/>
-      <c r="AN34" s="71"/>
-      <c r="AO34" s="71"/>
-      <c r="AP34" s="71"/>
-      <c r="AQ34" s="71"/>
-      <c r="AR34" s="72"/>
-      <c r="AS34" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT34" s="71"/>
-      <c r="AU34" s="71"/>
-      <c r="AV34" s="71"/>
-      <c r="AW34" s="71"/>
-      <c r="AX34" s="71"/>
-      <c r="AY34" s="72"/>
-      <c r="AZ34" s="3"/>
-      <c r="BA34" s="3"/>
-      <c r="BB34" s="3"/>
-      <c r="BC34" s="3"/>
-      <c r="BD34" s="3"/>
-      <c r="BE34" s="3"/>
-      <c r="BF34" s="3"/>
-      <c r="BG34" s="3"/>
-      <c r="BH34" s="3"/>
-      <c r="BI34" s="3"/>
-      <c r="BJ34" s="3"/>
-      <c r="BK34" s="3"/>
-    </row>
-    <row r="35" spans="1:63" outlineLevel="1">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="2"/>
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
+      <c r="BJ34" s="2"/>
+      <c r="BK34" s="2"/>
+    </row>
+    <row r="35" spans="1:63">
       <c r="A35" s="3"/>
-      <c r="B35" s="44"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -5963,9 +5997,11 @@
       <c r="BJ35" s="3"/>
       <c r="BK35" s="3"/>
     </row>
-    <row r="36" spans="1:63">
+    <row r="36" spans="1:63" outlineLevel="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="44"/>
+      <c r="B36" s="58" t="s">
+        <v>46</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -6028,23 +6064,652 @@
       <c r="BJ36" s="3"/>
       <c r="BK36" s="3"/>
     </row>
+    <row r="37" spans="1:63" outlineLevel="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="S37" s="61"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="62"/>
+      <c r="AF37" s="59"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="60"/>
+      <c r="AK37" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL37" s="62"/>
+      <c r="AM37" s="59"/>
+      <c r="AN37" s="59"/>
+      <c r="AO37" s="59"/>
+      <c r="AP37" s="59"/>
+      <c r="AQ37" s="59"/>
+      <c r="AR37" s="60"/>
+      <c r="AS37" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT37" s="59"/>
+      <c r="AU37" s="59"/>
+      <c r="AV37" s="59"/>
+      <c r="AW37" s="59"/>
+      <c r="AX37" s="59"/>
+      <c r="AY37" s="60"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
+      <c r="BE37" s="3"/>
+      <c r="BF37" s="3"/>
+      <c r="BG37" s="3"/>
+      <c r="BH37" s="3"/>
+      <c r="BI37" s="3"/>
+      <c r="BJ37" s="3"/>
+      <c r="BK37" s="3"/>
+    </row>
+    <row r="38" spans="1:63" outlineLevel="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="66"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="66"/>
+      <c r="AF38" s="66"/>
+      <c r="AG38" s="66"/>
+      <c r="AH38" s="66"/>
+      <c r="AI38" s="66"/>
+      <c r="AJ38" s="67"/>
+      <c r="AK38" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL38" s="70"/>
+      <c r="AM38" s="70"/>
+      <c r="AN38" s="70"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="71"/>
+      <c r="AS38" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT38" s="66"/>
+      <c r="AU38" s="66"/>
+      <c r="AV38" s="66"/>
+      <c r="AW38" s="66"/>
+      <c r="AX38" s="66"/>
+      <c r="AY38" s="67"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
+      <c r="BE38" s="3"/>
+      <c r="BF38" s="3"/>
+      <c r="BG38" s="3"/>
+      <c r="BH38" s="3"/>
+      <c r="BI38" s="3"/>
+      <c r="BJ38" s="3"/>
+      <c r="BK38" s="3"/>
+    </row>
+    <row r="39" spans="1:63" outlineLevel="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="67"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="66"/>
+      <c r="AC39" s="66"/>
+      <c r="AD39" s="66"/>
+      <c r="AE39" s="66"/>
+      <c r="AF39" s="66"/>
+      <c r="AG39" s="66"/>
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="66"/>
+      <c r="AJ39" s="66"/>
+      <c r="AK39" s="74"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="71"/>
+      <c r="AS39" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT39" s="66"/>
+      <c r="AU39" s="66"/>
+      <c r="AV39" s="66"/>
+      <c r="AW39" s="66"/>
+      <c r="AX39" s="66"/>
+      <c r="AY39" s="67"/>
+      <c r="AZ39" s="3"/>
+      <c r="BA39" s="3"/>
+      <c r="BB39" s="3"/>
+      <c r="BC39" s="3"/>
+      <c r="BD39" s="3"/>
+      <c r="BE39" s="3"/>
+      <c r="BF39" s="3"/>
+      <c r="BG39" s="3"/>
+      <c r="BH39" s="3"/>
+      <c r="BI39" s="3"/>
+      <c r="BJ39" s="3"/>
+      <c r="BK39" s="3"/>
+    </row>
+    <row r="40" spans="1:63" outlineLevel="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
+      <c r="AD40" s="66"/>
+      <c r="AE40" s="66"/>
+      <c r="AF40" s="66"/>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="66"/>
+      <c r="AJ40" s="66"/>
+      <c r="AK40" s="74"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="71"/>
+      <c r="AS40" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT40" s="66"/>
+      <c r="AU40" s="66"/>
+      <c r="AV40" s="66"/>
+      <c r="AW40" s="66"/>
+      <c r="AX40" s="66"/>
+      <c r="AY40" s="67"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BC40" s="3"/>
+      <c r="BD40" s="3"/>
+      <c r="BE40" s="3"/>
+      <c r="BF40" s="3"/>
+      <c r="BG40" s="3"/>
+      <c r="BH40" s="3"/>
+      <c r="BI40" s="3"/>
+      <c r="BJ40" s="3"/>
+      <c r="BK40" s="3"/>
+    </row>
+    <row r="41" spans="1:63" outlineLevel="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="67"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="66"/>
+      <c r="AB41" s="66"/>
+      <c r="AC41" s="66"/>
+      <c r="AD41" s="66"/>
+      <c r="AE41" s="66"/>
+      <c r="AF41" s="66"/>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="66"/>
+      <c r="AJ41" s="66"/>
+      <c r="AK41" s="74"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="71"/>
+      <c r="AS41" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT41" s="66"/>
+      <c r="AU41" s="66"/>
+      <c r="AV41" s="66"/>
+      <c r="AW41" s="66"/>
+      <c r="AX41" s="66"/>
+      <c r="AY41" s="67"/>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="3"/>
+      <c r="BD41" s="3"/>
+      <c r="BE41" s="3"/>
+      <c r="BF41" s="3"/>
+      <c r="BG41" s="3"/>
+      <c r="BH41" s="3"/>
+      <c r="BI41" s="3"/>
+      <c r="BJ41" s="3"/>
+      <c r="BK41" s="3"/>
+    </row>
+    <row r="42" spans="1:63" outlineLevel="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="66"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="66"/>
+      <c r="W42" s="66"/>
+      <c r="X42" s="66"/>
+      <c r="Y42" s="66"/>
+      <c r="Z42" s="66"/>
+      <c r="AA42" s="66"/>
+      <c r="AB42" s="66"/>
+      <c r="AC42" s="66"/>
+      <c r="AD42" s="66"/>
+      <c r="AE42" s="66"/>
+      <c r="AF42" s="66"/>
+      <c r="AG42" s="66"/>
+      <c r="AH42" s="66"/>
+      <c r="AI42" s="66"/>
+      <c r="AJ42" s="66"/>
+      <c r="AK42" s="74"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="71"/>
+      <c r="AS42" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT42" s="66"/>
+      <c r="AU42" s="66"/>
+      <c r="AV42" s="66"/>
+      <c r="AW42" s="66"/>
+      <c r="AX42" s="66"/>
+      <c r="AY42" s="67"/>
+      <c r="AZ42" s="3"/>
+      <c r="BA42" s="3"/>
+      <c r="BB42" s="3"/>
+      <c r="BC42" s="3"/>
+      <c r="BD42" s="3"/>
+      <c r="BE42" s="3"/>
+      <c r="BF42" s="3"/>
+      <c r="BG42" s="3"/>
+      <c r="BH42" s="3"/>
+      <c r="BI42" s="3"/>
+      <c r="BJ42" s="3"/>
+      <c r="BK42" s="3"/>
+    </row>
+    <row r="43" spans="1:63" outlineLevel="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="S43" s="66"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="66"/>
+      <c r="Y43" s="66"/>
+      <c r="Z43" s="66"/>
+      <c r="AA43" s="66"/>
+      <c r="AB43" s="66"/>
+      <c r="AC43" s="66"/>
+      <c r="AD43" s="66"/>
+      <c r="AE43" s="66"/>
+      <c r="AF43" s="66"/>
+      <c r="AG43" s="66"/>
+      <c r="AH43" s="66"/>
+      <c r="AI43" s="66"/>
+      <c r="AJ43" s="66"/>
+      <c r="AK43" s="65"/>
+      <c r="AL43" s="66"/>
+      <c r="AM43" s="66"/>
+      <c r="AN43" s="66"/>
+      <c r="AO43" s="66"/>
+      <c r="AP43" s="66"/>
+      <c r="AQ43" s="66"/>
+      <c r="AR43" s="67"/>
+      <c r="AS43" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT43" s="66"/>
+      <c r="AU43" s="66"/>
+      <c r="AV43" s="66"/>
+      <c r="AW43" s="66"/>
+      <c r="AX43" s="66"/>
+      <c r="AY43" s="67"/>
+      <c r="AZ43" s="3"/>
+      <c r="BA43" s="3"/>
+      <c r="BB43" s="3"/>
+      <c r="BC43" s="3"/>
+      <c r="BD43" s="3"/>
+      <c r="BE43" s="3"/>
+      <c r="BF43" s="3"/>
+      <c r="BG43" s="3"/>
+      <c r="BH43" s="3"/>
+      <c r="BI43" s="3"/>
+      <c r="BJ43" s="3"/>
+      <c r="BK43" s="3"/>
+    </row>
+    <row r="44" spans="1:63" outlineLevel="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="3"/>
+      <c r="AQ44" s="3"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
+      <c r="AW44" s="3"/>
+      <c r="AX44" s="3"/>
+      <c r="AY44" s="3"/>
+      <c r="AZ44" s="3"/>
+      <c r="BA44" s="3"/>
+      <c r="BB44" s="3"/>
+      <c r="BC44" s="3"/>
+      <c r="BD44" s="3"/>
+      <c r="BE44" s="3"/>
+      <c r="BF44" s="3"/>
+      <c r="BG44" s="3"/>
+      <c r="BH44" s="3"/>
+      <c r="BI44" s="3"/>
+      <c r="BJ44" s="3"/>
+      <c r="BK44" s="3"/>
+    </row>
+    <row r="45" spans="1:63">
+      <c r="A45" s="3"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="3"/>
+      <c r="AQ45" s="3"/>
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="3"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="3"/>
+      <c r="AW45" s="3"/>
+      <c r="AX45" s="3"/>
+      <c r="AY45" s="3"/>
+      <c r="AZ45" s="3"/>
+      <c r="BA45" s="3"/>
+      <c r="BB45" s="3"/>
+      <c r="BC45" s="3"/>
+      <c r="BD45" s="3"/>
+      <c r="BE45" s="3"/>
+      <c r="BF45" s="3"/>
+      <c r="BG45" s="3"/>
+      <c r="BH45" s="3"/>
+      <c r="BI45" s="3"/>
+      <c r="BJ45" s="3"/>
+      <c r="BK45" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D16:J16"/>
     <mergeCell ref="D17:J17"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:AS7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="I8:AS8"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:AS7"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="I9:AS9"/>
-    <mergeCell ref="D16:J16"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="8"/>
   <hyperlinks>
     <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId2"/>
+  <rowBreaks count="4" manualBreakCount="4">
+    <brk id="3" max="16383" man="1"/>
+    <brk id="10" max="16383" man="1"/>
+    <brk id="22" max="16383" man="1"/>
+    <brk id="33" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -6056,7 +6721,7 @@
   <dimension ref="A1:BF19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -6065,66 +6730,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15.75" customHeight="1">
-      <c r="A1" s="32" t="s">
-        <v>27</v>
+      <c r="A1" s="75" t="s">
+        <v>61</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
     </row>
     <row r="2" spans="1:58">
       <c r="A2" s="3"/>
@@ -6247,66 +6912,66 @@
       <c r="BF3" s="3"/>
     </row>
     <row r="4" spans="1:58" ht="15.75" customHeight="1">
-      <c r="A4" s="32" t="s">
-        <v>30</v>
+      <c r="A4" s="75" t="s">
+        <v>62</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
-      <c r="BF4" s="36"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="78"/>
+      <c r="AM4" s="78"/>
+      <c r="AN4" s="78"/>
+      <c r="AO4" s="78"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="78"/>
+      <c r="AS4" s="78"/>
+      <c r="AT4" s="78"/>
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="78"/>
+      <c r="AW4" s="78"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="78"/>
+      <c r="AZ4" s="78"/>
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="78"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="78"/>
     </row>
     <row r="5" spans="1:58">
       <c r="A5" s="3"/>
@@ -6370,8 +7035,8 @@
     </row>
     <row r="6" spans="1:58" outlineLevel="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="44" t="s">
-        <v>32</v>
+      <c r="B6" s="58" t="s">
+        <v>63</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -6433,42 +7098,42 @@
     <row r="7" spans="1:58" outlineLevel="1">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="85" t="s">
-        <v>36</v>
+      <c r="C7" s="96" t="s">
+        <v>64</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="87" t="s">
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="80"/>
-      <c r="AG7" s="80"/>
-      <c r="AH7" s="81"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="92"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
@@ -6497,42 +7162,42 @@
     <row r="8" spans="1:58" outlineLevel="1">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="85" t="s">
-        <v>52</v>
+      <c r="C8" s="96" t="s">
+        <v>65</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="87" t="s">
-        <v>56</v>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="98" t="s">
+        <v>54</v>
       </c>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="80"/>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="80"/>
-      <c r="AC8" s="80"/>
-      <c r="AD8" s="80"/>
-      <c r="AE8" s="80"/>
-      <c r="AF8" s="80"/>
-      <c r="AG8" s="80"/>
-      <c r="AH8" s="81"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="91"/>
+      <c r="AH8" s="92"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
@@ -6561,42 +7226,42 @@
     <row r="9" spans="1:58" outlineLevel="1">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="87" t="s">
-        <v>61</v>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="98" t="s">
+        <v>66</v>
       </c>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="80"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="80"/>
-      <c r="AF9" s="80"/>
-      <c r="AG9" s="80"/>
-      <c r="AH9" s="81"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="92"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
@@ -6625,42 +7290,42 @@
     <row r="10" spans="1:58" outlineLevel="1">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="85" t="s">
-        <v>64</v>
+      <c r="C10" s="96" t="s">
+        <v>67</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="87" t="s">
-        <v>65</v>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="98" t="s">
+        <v>68</v>
       </c>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="80"/>
-      <c r="AC10" s="80"/>
-      <c r="AD10" s="80"/>
-      <c r="AE10" s="80"/>
-      <c r="AF10" s="80"/>
-      <c r="AG10" s="80"/>
-      <c r="AH10" s="81"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="91"/>
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="91"/>
+      <c r="AH10" s="92"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
@@ -6748,8 +7413,8 @@
     </row>
     <row r="12" spans="1:58" outlineLevel="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="44" t="s">
-        <v>67</v>
+      <c r="B12" s="58" t="s">
+        <v>69</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -6812,37 +7477,37 @@
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="57"/>
-      <c r="AH13" s="58"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="79"/>
+      <c r="AH13" s="80"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
@@ -6871,44 +7536,44 @@
     <row r="14" spans="1:58" outlineLevel="1">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="91" t="s">
-        <v>68</v>
+      <c r="C14" s="81"/>
+      <c r="D14" s="102" t="s">
+        <v>55</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="91" t="s">
-        <v>46</v>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="102" t="s">
+        <v>70</v>
       </c>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="91" t="s">
-        <v>34</v>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="102" t="s">
+        <v>71</v>
       </c>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="61"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="82"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
@@ -6937,44 +7602,44 @@
     <row r="15" spans="1:58" outlineLevel="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="91" t="s">
-        <v>69</v>
+      <c r="C15" s="81"/>
+      <c r="D15" s="102" t="s">
+        <v>56</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="91" t="s">
-        <v>46</v>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="102" t="s">
+        <v>70</v>
       </c>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="91" t="s">
-        <v>34</v>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="102" t="s">
+        <v>71</v>
       </c>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="49"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="49"/>
-      <c r="AG15" s="49"/>
-      <c r="AH15" s="61"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="82"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
@@ -7003,40 +7668,40 @@
     <row r="16" spans="1:58" outlineLevel="1">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="59"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="62"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="83"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
@@ -7065,44 +7730,44 @@
     <row r="17" spans="1:58" outlineLevel="1">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="89" t="s">
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="88" t="s">
-        <v>38</v>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="102" t="s">
+        <v>71</v>
       </c>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="49"/>
-      <c r="AH17" s="61"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="82"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
@@ -7131,44 +7796,44 @@
     <row r="18" spans="1:58" outlineLevel="1">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="91" t="s">
-        <v>75</v>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="102" t="s">
+        <v>58</v>
       </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="88" t="s">
-        <v>38</v>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="99" t="s">
+        <v>73</v>
       </c>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="91" t="s">
-        <v>34</v>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="102" t="s">
+        <v>71</v>
       </c>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="61"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="82"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
@@ -7277,9 +7942,9 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="I9:AH9"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -7320,323 +7985,323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A1" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>48</v>
+      <c r="B1" s="85" t="s">
+        <v>74</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="C1" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="47" t="s">
-        <v>50</v>
+      <c r="A7" s="88"/>
+      <c r="B7" s="87" t="s">
+        <v>85</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="47" t="s">
-        <v>51</v>
+      <c r="A8" s="88"/>
+      <c r="B8" s="87" t="s">
+        <v>86</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="47" t="s">
-        <v>54</v>
+      <c r="A9" s="88"/>
+      <c r="B9" s="87" t="s">
+        <v>87</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="47" t="s">
-        <v>55</v>
+      <c r="A10" s="88"/>
+      <c r="B10" s="87" t="s">
+        <v>88</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="47" t="s">
-        <v>57</v>
+      <c r="A11" s="88"/>
+      <c r="B11" s="87" t="s">
+        <v>89</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="47" t="s">
-        <v>58</v>
+      <c r="A12" s="88"/>
+      <c r="B12" s="87" t="s">
+        <v>90</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="47" t="s">
-        <v>59</v>
+      <c r="A13" s="88"/>
+      <c r="B13" s="87" t="s">
+        <v>91</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="47" t="s">
-        <v>60</v>
+      <c r="A14" s="88"/>
+      <c r="B14" s="87" t="s">
+        <v>92</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -58656,7 +59321,7 @@
       <c r="AW1000" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ha-asset/01_design/03_batch/設計書_3.0.健康情報登録バッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.0.健康情報登録バッチ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F226E83-7085-411D-A305-CA5B79CEA0A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13454F00-70AB-42A6-8633-4557A37E3C05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="2685" windowWidth="21600" windowHeight="12855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.健康情報登録バッチ'!$A$1:$BK$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'3.1. ファイルIF'!$A$1:$BF$20</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>健康情報ファイルを取得</t>
-  </si>
-  <si>
-    <t>healthInfo.properties#healthInfoRegistBatchFilePath配下のファイルをすべて取得</t>
   </si>
   <si>
     <t>ファイル存在エラー</t>
@@ -238,9 +235,6 @@
     <t>ファイル配置場所</t>
   </si>
   <si>
-    <t>C:\app\data\healthInfoRegist</t>
-  </si>
-  <si>
     <t>3.1.1.2 ファイル内容</t>
   </si>
   <si>
@@ -312,6 +306,21 @@
   <si>
     <t>MI</t>
   </si>
+  <si>
+    <t>データ部</t>
+    <rPh sb="3" eb="4">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>healthInfo.properties#healthInfoRegistBatchFilePath配下のファイルをすべて取得</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>healthInfo.properties#healthInfoRegistBatchFilePath</t>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
@@ -320,7 +329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -376,6 +385,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -415,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -608,11 +624,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -822,12 +890,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -848,6 +912,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -861,6 +928,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -870,14 +940,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1171,681 +1277,681 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="3"/>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93" t="s">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="93" t="s">
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="92"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="91"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="3"/>
-      <c r="B4" s="94">
+      <c r="B4" s="93">
         <v>43771</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="95" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="90" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="91"/>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="92"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="91"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="92"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="91"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="91"/>
-      <c r="V6" s="91"/>
-      <c r="W6" s="91"/>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="91"/>
-      <c r="Z6" s="92"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="91"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="92"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="91"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="3"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="92"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="91"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="3"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="92"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="91"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="3"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="92"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="91"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="91"/>
-      <c r="X11" s="91"/>
-      <c r="Y11" s="91"/>
-      <c r="Z11" s="92"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="91"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="3"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="91"/>
-      <c r="U12" s="91"/>
-      <c r="V12" s="91"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="91"/>
-      <c r="Y12" s="91"/>
-      <c r="Z12" s="92"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="91"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="3"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="91"/>
-      <c r="U13" s="91"/>
-      <c r="V13" s="91"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="91"/>
-      <c r="Z13" s="92"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="91"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="91"/>
-      <c r="U14" s="91"/>
-      <c r="V14" s="91"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="91"/>
-      <c r="Y14" s="91"/>
-      <c r="Z14" s="92"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="91"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="91"/>
-      <c r="W15" s="91"/>
-      <c r="X15" s="91"/>
-      <c r="Y15" s="91"/>
-      <c r="Z15" s="92"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="91"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="91"/>
-      <c r="U16" s="91"/>
-      <c r="V16" s="91"/>
-      <c r="W16" s="91"/>
-      <c r="X16" s="91"/>
-      <c r="Y16" s="91"/>
-      <c r="Z16" s="92"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="91"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="3"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="91"/>
-      <c r="V17" s="91"/>
-      <c r="W17" s="91"/>
-      <c r="X17" s="91"/>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="92"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="91"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="3"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="91"/>
-      <c r="W18" s="91"/>
-      <c r="X18" s="91"/>
-      <c r="Y18" s="91"/>
-      <c r="Z18" s="92"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="91"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="3"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="91"/>
-      <c r="T19" s="91"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="91"/>
-      <c r="W19" s="91"/>
-      <c r="X19" s="91"/>
-      <c r="Y19" s="91"/>
-      <c r="Z19" s="92"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="91"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="3"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="91"/>
-      <c r="S20" s="91"/>
-      <c r="T20" s="91"/>
-      <c r="U20" s="91"/>
-      <c r="V20" s="91"/>
-      <c r="W20" s="91"/>
-      <c r="X20" s="91"/>
-      <c r="Y20" s="91"/>
-      <c r="Z20" s="92"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="91"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="3"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="91"/>
-      <c r="T21" s="91"/>
-      <c r="U21" s="91"/>
-      <c r="V21" s="91"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="91"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="92"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="91"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="3"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="91"/>
-      <c r="U22" s="91"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="91"/>
-      <c r="Z22" s="92"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="91"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="3"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="91"/>
-      <c r="T23" s="91"/>
-      <c r="U23" s="91"/>
-      <c r="V23" s="91"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="91"/>
-      <c r="Y23" s="91"/>
-      <c r="Z23" s="92"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="91"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="3"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="91"/>
-      <c r="S24" s="91"/>
-      <c r="T24" s="91"/>
-      <c r="U24" s="91"/>
-      <c r="V24" s="91"/>
-      <c r="W24" s="91"/>
-      <c r="X24" s="91"/>
-      <c r="Y24" s="91"/>
-      <c r="Z24" s="92"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="91"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="91"/>
-      <c r="T25" s="91"/>
-      <c r="U25" s="91"/>
-      <c r="V25" s="91"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="91"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="92"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="91"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
@@ -1908,12 +2014,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1923,60 +2077,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3600,7 +3706,7 @@
   <dimension ref="A1:BK45"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -3608,7 +3714,7 @@
     <col min="1" max="63" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:63" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3675,7 +3781,7 @@
       <c r="BJ1" s="2"/>
       <c r="BK1" s="2"/>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:63" ht="16.5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3740,7 +3846,7 @@
       <c r="BJ2" s="3"/>
       <c r="BK2" s="3"/>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" ht="16.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3805,7 +3911,7 @@
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:63" ht="16.5">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -3872,7 +3978,7 @@
       <c r="BJ4" s="8"/>
       <c r="BK4" s="8"/>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:63" ht="16.5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3937,7 +4043,7 @@
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
     </row>
-    <row r="6" spans="1:63" outlineLevel="1">
+    <row r="6" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
         <v>11</v>
@@ -4004,56 +4110,56 @@
       <c r="BJ6" s="3"/>
       <c r="BK6" s="3"/>
     </row>
-    <row r="7" spans="1:63" outlineLevel="1">
+    <row r="7" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A7" s="3"/>
       <c r="B7" s="15"/>
       <c r="C7" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="91"/>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="91"/>
-      <c r="AL7" s="91"/>
-      <c r="AM7" s="91"/>
-      <c r="AN7" s="91"/>
-      <c r="AO7" s="91"/>
-      <c r="AP7" s="91"/>
-      <c r="AQ7" s="91"/>
-      <c r="AR7" s="91"/>
-      <c r="AS7" s="92"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="90"/>
+      <c r="AJ7" s="90"/>
+      <c r="AK7" s="90"/>
+      <c r="AL7" s="90"/>
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="90"/>
+      <c r="AO7" s="90"/>
+      <c r="AP7" s="90"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="91"/>
       <c r="AT7" s="14"/>
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
@@ -4073,56 +4179,56 @@
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3"/>
     </row>
-    <row r="8" spans="1:63" outlineLevel="1">
+    <row r="8" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A8" s="3"/>
       <c r="B8" s="15"/>
       <c r="C8" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
       <c r="I8" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="91"/>
-      <c r="AD8" s="91"/>
-      <c r="AE8" s="91"/>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="91"/>
-      <c r="AH8" s="91"/>
-      <c r="AI8" s="91"/>
-      <c r="AJ8" s="91"/>
-      <c r="AK8" s="91"/>
-      <c r="AL8" s="91"/>
-      <c r="AM8" s="91"/>
-      <c r="AN8" s="91"/>
-      <c r="AO8" s="91"/>
-      <c r="AP8" s="91"/>
-      <c r="AQ8" s="91"/>
-      <c r="AR8" s="91"/>
-      <c r="AS8" s="92"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
+      <c r="AI8" s="90"/>
+      <c r="AJ8" s="90"/>
+      <c r="AK8" s="90"/>
+      <c r="AL8" s="90"/>
+      <c r="AM8" s="90"/>
+      <c r="AN8" s="90"/>
+      <c r="AO8" s="90"/>
+      <c r="AP8" s="90"/>
+      <c r="AQ8" s="90"/>
+      <c r="AR8" s="90"/>
+      <c r="AS8" s="91"/>
       <c r="AT8" s="14"/>
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
@@ -4142,56 +4248,56 @@
       <c r="BJ8" s="3"/>
       <c r="BK8" s="3"/>
     </row>
-    <row r="9" spans="1:63" outlineLevel="1">
+    <row r="9" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A9" s="3"/>
       <c r="B9" s="16"/>
       <c r="C9" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91"/>
       <c r="I9" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="91"/>
-      <c r="AI9" s="91"/>
-      <c r="AJ9" s="91"/>
-      <c r="AK9" s="91"/>
-      <c r="AL9" s="91"/>
-      <c r="AM9" s="91"/>
-      <c r="AN9" s="91"/>
-      <c r="AO9" s="91"/>
-      <c r="AP9" s="91"/>
-      <c r="AQ9" s="91"/>
-      <c r="AR9" s="91"/>
-      <c r="AS9" s="92"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="90"/>
+      <c r="AM9" s="90"/>
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="90"/>
+      <c r="AR9" s="90"/>
+      <c r="AS9" s="91"/>
       <c r="AT9" s="14"/>
       <c r="AU9" s="4"/>
       <c r="AV9" s="4"/>
@@ -4211,7 +4317,7 @@
       <c r="BJ9" s="3"/>
       <c r="BK9" s="3"/>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:63" ht="16.5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4276,7 +4382,7 @@
       <c r="BJ10" s="3"/>
       <c r="BK10" s="3"/>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:63" ht="16.5">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -4343,7 +4449,7 @@
       <c r="BJ11" s="8"/>
       <c r="BK11" s="8"/>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:63" ht="16.5">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4408,7 +4514,7 @@
       <c r="BJ12" s="3"/>
       <c r="BK12" s="3"/>
     </row>
-    <row r="13" spans="1:63" outlineLevel="1">
+    <row r="13" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A13" s="17"/>
       <c r="B13" s="18" t="s">
         <v>19</v>
@@ -4483,7 +4589,7 @@
       <c r="BJ13" s="3"/>
       <c r="BK13" s="3"/>
     </row>
-    <row r="14" spans="1:63" outlineLevel="1">
+    <row r="14" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A14" s="17"/>
       <c r="B14" s="25">
         <f t="shared" ref="B14:B21" si="0">ROW()-13</f>
@@ -4500,7 +4606,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="29"/>
       <c r="K14" s="30" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
@@ -4522,7 +4628,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF14" s="28"/>
       <c r="AG14" s="28"/>
@@ -4559,14 +4665,14 @@
       <c r="BJ14" s="3"/>
       <c r="BK14" s="3"/>
     </row>
-    <row r="15" spans="1:63" outlineLevel="1">
+    <row r="15" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A15" s="17"/>
       <c r="B15" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -4629,22 +4735,22 @@
       <c r="BJ15" s="3"/>
       <c r="BK15" s="3"/>
     </row>
-    <row r="16" spans="1:63" outlineLevel="1">
+    <row r="16" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A16" s="17"/>
       <c r="B16" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="99" t="s">
-        <v>28</v>
+      <c r="D16" s="95" t="s">
+        <v>27</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="92"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="91"/>
       <c r="K16" s="36" t="s">
         <v>17</v>
       </c>
@@ -4676,7 +4782,7 @@
       <c r="AK16" s="37"/>
       <c r="AL16" s="38"/>
       <c r="AM16" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN16" s="37"/>
       <c r="AO16" s="37"/>
@@ -4703,24 +4809,24 @@
       <c r="BJ16" s="3"/>
       <c r="BK16" s="3"/>
     </row>
-    <row r="17" spans="1:63" outlineLevel="1">
+    <row r="17" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A17" s="17"/>
       <c r="B17" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C17" s="35"/>
-      <c r="D17" s="99" t="s">
+      <c r="D17" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="40" t="s">
         <v>30</v>
-      </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="40" t="s">
-        <v>31</v>
       </c>
       <c r="L17" s="37"/>
       <c r="M17" s="41"/>
@@ -4779,7 +4885,7 @@
       <c r="BJ17" s="3"/>
       <c r="BK17" s="3"/>
     </row>
-    <row r="18" spans="1:63" outlineLevel="1">
+    <row r="18" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A18" s="17"/>
       <c r="B18" s="25">
         <f t="shared" si="0"/>
@@ -4787,7 +4893,7 @@
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -4796,7 +4902,7 @@
       <c r="I18" s="41"/>
       <c r="J18" s="42"/>
       <c r="K18" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L18" s="41"/>
       <c r="M18" s="41"/>
@@ -4855,7 +4961,7 @@
       <c r="BJ18" s="3"/>
       <c r="BK18" s="3"/>
     </row>
-    <row r="19" spans="1:63" outlineLevel="1">
+    <row r="19" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A19" s="17"/>
       <c r="B19" s="25">
         <f t="shared" si="0"/>
@@ -4863,7 +4969,7 @@
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
@@ -4872,7 +4978,7 @@
       <c r="I19" s="41"/>
       <c r="J19" s="42"/>
       <c r="K19" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
@@ -4927,7 +5033,7 @@
       <c r="BJ19" s="3"/>
       <c r="BK19" s="3"/>
     </row>
-    <row r="20" spans="1:63" outlineLevel="1">
+    <row r="20" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A20" s="17"/>
       <c r="B20" s="25">
         <f t="shared" si="0"/>
@@ -4935,7 +5041,7 @@
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
@@ -5001,7 +5107,7 @@
       <c r="BJ20" s="3"/>
       <c r="BK20" s="3"/>
     </row>
-    <row r="21" spans="1:63" outlineLevel="1">
+    <row r="21" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A21" s="17"/>
       <c r="B21" s="25">
         <f t="shared" si="0"/>
@@ -5069,7 +5175,7 @@
       <c r="BJ21" s="3"/>
       <c r="BK21" s="3"/>
     </row>
-    <row r="22" spans="1:63">
+    <row r="22" spans="1:63" ht="16.5">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5134,9 +5240,9 @@
       <c r="BJ22" s="3"/>
       <c r="BK22" s="3"/>
     </row>
-    <row r="23" spans="1:63">
+    <row r="23" spans="1:63" ht="16.5">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -5201,7 +5307,7 @@
       <c r="BJ23" s="8"/>
       <c r="BK23" s="8"/>
     </row>
-    <row r="24" spans="1:63">
+    <row r="24" spans="1:63" ht="16.5">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5269,7 +5375,7 @@
     <row r="25" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A25" s="3"/>
       <c r="B25" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
@@ -5337,7 +5443,7 @@
       <c r="A26" s="3"/>
       <c r="B26" s="52"/>
       <c r="C26" s="53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="54"/>
       <c r="E26" s="55"/>
@@ -5405,7 +5511,7 @@
       <c r="B27" s="52"/>
       <c r="C27" s="55"/>
       <c r="D27" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
@@ -5471,7 +5577,7 @@
       <c r="A28" s="3"/>
       <c r="B28" s="52"/>
       <c r="C28" s="53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
@@ -5539,7 +5645,7 @@
       <c r="B29" s="52"/>
       <c r="C29" s="55"/>
       <c r="D29" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="55"/>
@@ -5605,7 +5711,7 @@
       <c r="A30" s="3"/>
       <c r="B30" s="52"/>
       <c r="C30" s="53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
@@ -5673,7 +5779,7 @@
       <c r="B31" s="52"/>
       <c r="C31" s="55"/>
       <c r="D31" s="57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" s="54"/>
       <c r="F31" s="54"/>
@@ -5735,7 +5841,7 @@
       <c r="BJ31" s="3"/>
       <c r="BK31" s="3"/>
     </row>
-    <row r="32" spans="1:63" outlineLevel="1">
+    <row r="32" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5800,7 +5906,7 @@
       <c r="BJ32" s="3"/>
       <c r="BK32" s="3"/>
     </row>
-    <row r="33" spans="1:63">
+    <row r="33" spans="1:63" ht="16.5">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5865,9 +5971,9 @@
       <c r="BJ33" s="3"/>
       <c r="BK33" s="3"/>
     </row>
-    <row r="34" spans="1:63">
+    <row r="34" spans="1:63" ht="16.5">
       <c r="A34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -5932,7 +6038,7 @@
       <c r="BJ34" s="2"/>
       <c r="BK34" s="2"/>
     </row>
-    <row r="35" spans="1:63">
+    <row r="35" spans="1:63" ht="16.5">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5997,10 +6103,10 @@
       <c r="BJ35" s="3"/>
       <c r="BK35" s="3"/>
     </row>
-    <row r="36" spans="1:63" outlineLevel="1">
+    <row r="36" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A36" s="3"/>
       <c r="B36" s="58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -6064,11 +6170,11 @@
       <c r="BJ36" s="3"/>
       <c r="BK36" s="3"/>
     </row>
-    <row r="37" spans="1:63" outlineLevel="1">
+    <row r="37" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A37" s="3"/>
       <c r="B37" s="58"/>
       <c r="C37" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="59"/>
       <c r="E37" s="59"/>
@@ -6078,7 +6184,7 @@
       <c r="I37" s="59"/>
       <c r="J37" s="60"/>
       <c r="K37" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L37" s="59"/>
       <c r="M37" s="59"/>
@@ -6087,7 +6193,7 @@
       <c r="P37" s="59"/>
       <c r="Q37" s="60"/>
       <c r="R37" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S37" s="61"/>
       <c r="T37" s="59"/>
@@ -6108,7 +6214,7 @@
       <c r="AI37" s="59"/>
       <c r="AJ37" s="60"/>
       <c r="AK37" s="63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AL37" s="62"/>
       <c r="AM37" s="59"/>
@@ -6118,7 +6224,7 @@
       <c r="AQ37" s="59"/>
       <c r="AR37" s="60"/>
       <c r="AS37" s="64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AT37" s="59"/>
       <c r="AU37" s="59"/>
@@ -6139,7 +6245,7 @@
       <c r="BJ37" s="3"/>
       <c r="BK37" s="3"/>
     </row>
-    <row r="38" spans="1:63" outlineLevel="1">
+    <row r="38" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A38" s="3"/>
       <c r="B38" s="58"/>
       <c r="C38" s="65"/>
@@ -6158,7 +6264,7 @@
       <c r="P38" s="66"/>
       <c r="Q38" s="67"/>
       <c r="R38" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S38" s="66"/>
       <c r="T38" s="66"/>
@@ -6179,7 +6285,7 @@
       <c r="AI38" s="66"/>
       <c r="AJ38" s="67"/>
       <c r="AK38" s="69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AL38" s="70"/>
       <c r="AM38" s="70"/>
@@ -6189,7 +6295,7 @@
       <c r="AQ38" s="3"/>
       <c r="AR38" s="71"/>
       <c r="AS38" s="68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AT38" s="66"/>
       <c r="AU38" s="66"/>
@@ -6210,11 +6316,11 @@
       <c r="BJ38" s="3"/>
       <c r="BK38" s="3"/>
     </row>
-    <row r="39" spans="1:63" outlineLevel="1">
+    <row r="39" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A39" s="3"/>
       <c r="B39" s="58"/>
       <c r="C39" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -6224,7 +6330,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="71"/>
       <c r="K39" s="73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L39" s="66"/>
       <c r="M39" s="66"/>
@@ -6260,7 +6366,7 @@
       <c r="AQ39" s="3"/>
       <c r="AR39" s="71"/>
       <c r="AS39" s="73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AT39" s="66"/>
       <c r="AU39" s="66"/>
@@ -6281,7 +6387,7 @@
       <c r="BJ39" s="3"/>
       <c r="BK39" s="3"/>
     </row>
-    <row r="40" spans="1:63" outlineLevel="1">
+    <row r="40" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A40" s="3"/>
       <c r="B40" s="58"/>
       <c r="C40" s="72"/>
@@ -6293,7 +6399,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="71"/>
       <c r="K40" s="68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L40" s="66"/>
       <c r="M40" s="66"/>
@@ -6329,7 +6435,7 @@
       <c r="AQ40" s="3"/>
       <c r="AR40" s="71"/>
       <c r="AS40" s="68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AT40" s="66"/>
       <c r="AU40" s="66"/>
@@ -6350,7 +6456,7 @@
       <c r="BJ40" s="3"/>
       <c r="BK40" s="3"/>
     </row>
-    <row r="41" spans="1:63" outlineLevel="1">
+    <row r="41" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A41" s="3"/>
       <c r="B41" s="58"/>
       <c r="C41" s="74"/>
@@ -6362,7 +6468,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="71"/>
       <c r="K41" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L41" s="66"/>
       <c r="M41" s="66"/>
@@ -6398,7 +6504,7 @@
       <c r="AQ41" s="3"/>
       <c r="AR41" s="71"/>
       <c r="AS41" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT41" s="66"/>
       <c r="AU41" s="66"/>
@@ -6419,7 +6525,7 @@
       <c r="BJ41" s="3"/>
       <c r="BK41" s="3"/>
     </row>
-    <row r="42" spans="1:63" outlineLevel="1">
+    <row r="42" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A42" s="3"/>
       <c r="B42" s="58"/>
       <c r="C42" s="65"/>
@@ -6431,7 +6537,7 @@
       <c r="I42" s="66"/>
       <c r="J42" s="67"/>
       <c r="K42" s="68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L42" s="66"/>
       <c r="M42" s="66"/>
@@ -6467,7 +6573,7 @@
       <c r="AQ42" s="3"/>
       <c r="AR42" s="71"/>
       <c r="AS42" s="68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AT42" s="66"/>
       <c r="AU42" s="66"/>
@@ -6488,7 +6594,7 @@
       <c r="BJ42" s="3"/>
       <c r="BK42" s="3"/>
     </row>
-    <row r="43" spans="1:63" outlineLevel="1">
+    <row r="43" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A43" s="3"/>
       <c r="B43" s="58"/>
       <c r="C43" s="65"/>
@@ -6507,7 +6613,7 @@
       <c r="P43" s="66"/>
       <c r="Q43" s="67"/>
       <c r="R43" s="68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S43" s="66"/>
       <c r="T43" s="66"/>
@@ -6536,7 +6642,7 @@
       <c r="AQ43" s="66"/>
       <c r="AR43" s="67"/>
       <c r="AS43" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AT43" s="66"/>
       <c r="AU43" s="66"/>
@@ -6557,7 +6663,7 @@
       <c r="BJ43" s="3"/>
       <c r="BK43" s="3"/>
     </row>
-    <row r="44" spans="1:63" outlineLevel="1">
+    <row r="44" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A44" s="3"/>
       <c r="B44" s="58"/>
       <c r="C44" s="3"/>
@@ -6622,7 +6728,7 @@
       <c r="BJ44" s="3"/>
       <c r="BK44" s="3"/>
     </row>
-    <row r="45" spans="1:63">
+    <row r="45" spans="1:63" ht="16.5">
       <c r="A45" s="3"/>
       <c r="B45" s="58"/>
       <c r="C45" s="3"/>
@@ -6721,843 +6827,846 @@
   <dimension ref="A1:BF19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="58" width="3.5703125" customWidth="1"/>
+    <col min="1" max="58" width="3.5703125" style="102" customWidth="1"/>
+    <col min="59" max="16384" width="14.42578125" style="102"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15.75" customHeight="1">
       <c r="A1" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
+    </row>
+    <row r="2" spans="1:58" ht="16.5">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="14"/>
+      <c r="BF2" s="14"/>
+    </row>
+    <row r="3" spans="1:58" ht="16.5">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+    </row>
+    <row r="4" spans="1:58" ht="15.75" customHeight="1">
+      <c r="A4" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="78"/>
-      <c r="BC1" s="78"/>
-      <c r="BD1" s="78"/>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="78"/>
-    </row>
-    <row r="2" spans="1:58">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-    </row>
-    <row r="3" spans="1:58">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-    </row>
-    <row r="4" spans="1:58" ht="15.75" customHeight="1">
-      <c r="A4" s="75" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="77"/>
+      <c r="AY4" s="77"/>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="77"/>
+      <c r="BC4" s="77"/>
+      <c r="BD4" s="77"/>
+      <c r="BE4" s="77"/>
+      <c r="BF4" s="77"/>
+    </row>
+    <row r="5" spans="1:58" ht="16.5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+    </row>
+    <row r="6" spans="1:58" ht="16.5" outlineLevel="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="78"/>
-      <c r="AL4" s="78"/>
-      <c r="AM4" s="78"/>
-      <c r="AN4" s="78"/>
-      <c r="AO4" s="78"/>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="78"/>
-      <c r="AS4" s="78"/>
-      <c r="AT4" s="78"/>
-      <c r="AU4" s="78"/>
-      <c r="AV4" s="78"/>
-      <c r="AW4" s="78"/>
-      <c r="AX4" s="78"/>
-      <c r="AY4" s="78"/>
-      <c r="AZ4" s="78"/>
-      <c r="BA4" s="78"/>
-      <c r="BB4" s="78"/>
-      <c r="BC4" s="78"/>
-      <c r="BD4" s="78"/>
-      <c r="BE4" s="78"/>
-      <c r="BF4" s="78"/>
-    </row>
-    <row r="5" spans="1:58">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="3"/>
-      <c r="BE5" s="3"/>
-      <c r="BF5" s="3"/>
-    </row>
-    <row r="6" spans="1:58" outlineLevel="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="58" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="14"/>
+      <c r="BF6" s="14"/>
+    </row>
+    <row r="7" spans="1:58" ht="16.5" outlineLevel="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="3"/>
-      <c r="BE6" s="3"/>
-      <c r="BF6" s="3"/>
-    </row>
-    <row r="7" spans="1:58" outlineLevel="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="96" t="s">
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="109"/>
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="109"/>
+      <c r="AE7" s="109"/>
+      <c r="AF7" s="109"/>
+      <c r="AG7" s="109"/>
+      <c r="AH7" s="110"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+    </row>
+    <row r="8" spans="1:58" ht="16.5" outlineLevel="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="98" t="s">
-        <v>17</v>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="100" t="s">
+        <v>53</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-    </row>
-    <row r="8" spans="1:58" outlineLevel="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="96" t="s">
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="109"/>
+      <c r="AF8" s="109"/>
+      <c r="AG8" s="109"/>
+      <c r="AH8" s="110"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+    </row>
+    <row r="9" spans="1:58" ht="16.5" outlineLevel="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="98" t="s">
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="112"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="112"/>
+      <c r="AB9" s="112"/>
+      <c r="AC9" s="112"/>
+      <c r="AD9" s="112"/>
+      <c r="AE9" s="112"/>
+      <c r="AF9" s="112"/>
+      <c r="AG9" s="112"/>
+      <c r="AH9" s="113"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="14"/>
+    </row>
+    <row r="10" spans="1:58" ht="16.5" outlineLevel="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="115"/>
+      <c r="AB10" s="115"/>
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="115"/>
+      <c r="AE10" s="115"/>
+      <c r="AF10" s="115"/>
+      <c r="AG10" s="115"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+    </row>
+    <row r="11" spans="1:58" ht="16.5" outlineLevel="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="14"/>
+      <c r="BB11" s="14"/>
+      <c r="BC11" s="14"/>
+      <c r="BD11" s="14"/>
+      <c r="BE11" s="14"/>
+      <c r="BF11" s="14"/>
+    </row>
+    <row r="12" spans="1:58" ht="16.5" outlineLevel="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="14"/>
+      <c r="BC12" s="14"/>
+      <c r="BD12" s="14"/>
+      <c r="BE12" s="14"/>
+      <c r="BF12" s="14"/>
+    </row>
+    <row r="13" spans="1:58" ht="16.5" outlineLevel="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="78"/>
+      <c r="AB13" s="78"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="78"/>
+      <c r="AE13" s="78"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="81"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="14"/>
+      <c r="BB13" s="14"/>
+      <c r="BC13" s="14"/>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="14"/>
+      <c r="BF13" s="14"/>
+    </row>
+    <row r="14" spans="1:58" ht="16.5" outlineLevel="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="91"/>
-      <c r="AD8" s="91"/>
-      <c r="AE8" s="91"/>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="91"/>
-      <c r="AH8" s="92"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-    </row>
-    <row r="9" spans="1:58" outlineLevel="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="3"/>
-      <c r="BD9" s="3"/>
-      <c r="BE9" s="3"/>
-      <c r="BF9" s="3"/>
-    </row>
-    <row r="10" spans="1:58" outlineLevel="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="98" t="s">
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="91"/>
-      <c r="AD10" s="91"/>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="3"/>
-      <c r="BE10" s="3"/>
-      <c r="BF10" s="3"/>
-    </row>
-    <row r="11" spans="1:58" outlineLevel="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="3"/>
-      <c r="AY11" s="3"/>
-      <c r="AZ11" s="3"/>
-      <c r="BA11" s="3"/>
-      <c r="BB11" s="3"/>
-      <c r="BC11" s="3"/>
-      <c r="BD11" s="3"/>
-      <c r="BE11" s="3"/>
-      <c r="BF11" s="3"/>
-    </row>
-    <row r="12" spans="1:58" outlineLevel="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="58" t="s">
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-    </row>
-    <row r="13" spans="1:58" outlineLevel="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="79"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="79"/>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="79"/>
-      <c r="AH13" s="80"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-    </row>
-    <row r="14" spans="1:58" outlineLevel="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="102" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="36"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="88"/>
       <c r="S14" s="40"/>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
@@ -7573,57 +7682,57 @@
       <c r="AE14" s="40"/>
       <c r="AF14" s="40"/>
       <c r="AG14" s="40"/>
-      <c r="AH14" s="82"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
-    </row>
-    <row r="15" spans="1:58" outlineLevel="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="102" t="s">
-        <v>56</v>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
+      <c r="BF14" s="14"/>
+    </row>
+    <row r="15" spans="1:58" ht="16.5" outlineLevel="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="100" t="s">
+        <v>55</v>
       </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="102" t="s">
-        <v>70</v>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="100" t="s">
+        <v>68</v>
       </c>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="102" t="s">
-        <v>71</v>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="100" t="s">
+        <v>69</v>
       </c>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="36"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="88"/>
       <c r="S15" s="40"/>
       <c r="T15" s="40"/>
       <c r="U15" s="40"/>
@@ -7639,118 +7748,118 @@
       <c r="AE15" s="40"/>
       <c r="AF15" s="40"/>
       <c r="AG15" s="40"/>
-      <c r="AH15" s="82"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-    </row>
-    <row r="16" spans="1:58" outlineLevel="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="81"/>
+      <c r="AH15" s="80"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
+    </row>
+    <row r="16" spans="1:58" ht="16.5" outlineLevel="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="79"/>
-      <c r="AH16" s="83"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
-      <c r="AY16" s="3"/>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="3"/>
-      <c r="BC16" s="3"/>
-      <c r="BD16" s="3"/>
-      <c r="BE16" s="3"/>
-      <c r="BF16" s="3"/>
-    </row>
-    <row r="17" spans="1:58" outlineLevel="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="100" t="s">
-        <v>57</v>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="78"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="81"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="14"/>
+      <c r="AZ16" s="14"/>
+      <c r="BA16" s="14"/>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="14"/>
+      <c r="BF16" s="14"/>
+    </row>
+    <row r="17" spans="1:58" ht="33.75" customHeight="1" outlineLevel="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="99" t="s">
+        <v>56</v>
       </c>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="102" t="s">
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="92"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="104"/>
       <c r="R17" s="40"/>
       <c r="S17" s="40"/>
       <c r="T17" s="40"/>
@@ -7767,56 +7876,56 @@
       <c r="AE17" s="40"/>
       <c r="AF17" s="40"/>
       <c r="AG17" s="40"/>
-      <c r="AH17" s="82"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="3"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
-    </row>
-    <row r="18" spans="1:58" outlineLevel="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="102" t="s">
-        <v>58</v>
+      <c r="AH17" s="80"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14"/>
+      <c r="BA17" s="14"/>
+      <c r="BB17" s="14"/>
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="14"/>
+      <c r="BE17" s="14"/>
+      <c r="BF17" s="14"/>
+    </row>
+    <row r="18" spans="1:58" ht="33.75" customHeight="1" outlineLevel="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="100" t="s">
+        <v>57</v>
       </c>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="102" t="s">
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="92"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="104"/>
       <c r="R18" s="40"/>
       <c r="S18" s="40"/>
       <c r="T18" s="40"/>
@@ -7833,118 +7942,120 @@
       <c r="AE18" s="40"/>
       <c r="AF18" s="40"/>
       <c r="AG18" s="40"/>
-      <c r="AH18" s="82"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-    </row>
-    <row r="19" spans="1:58">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
-      <c r="BD19" s="3"/>
-      <c r="BE19" s="3"/>
-      <c r="BF19" s="3"/>
+      <c r="AH18" s="80"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="14"/>
+      <c r="BA18" s="14"/>
+      <c r="BB18" s="14"/>
+      <c r="BC18" s="14"/>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="14"/>
+      <c r="BF18" s="14"/>
+    </row>
+    <row r="19" spans="1:58" ht="16.5">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="14"/>
+      <c r="BF19" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="I10:AH10"/>
+  <mergeCells count="19">
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:AH7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:AH8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:AH9"/>
     <mergeCell ref="E17:I17"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="N17:Q17"/>
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="C10:H10"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="N14:Q14"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:AH7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:AH8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:AH9"/>
+    <mergeCell ref="C10:H10"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="3" max="16383" man="1"/>
+  </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -7985,320 +8096,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>47</v>
+      <c r="A1" s="83" t="s">
+        <v>46</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="87" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="87" t="s">
+      <c r="B3" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="C3" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="B4" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="87" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B5" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="87" t="s">
+      <c r="B6" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="87" t="s">
+      <c r="C6" s="85"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="86"/>
+      <c r="B7" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="86"/>
+      <c r="B8" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="88"/>
-      <c r="B7" s="87" t="s">
+      <c r="C8" s="85"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="86"/>
+      <c r="B9" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="87" t="s">
+      <c r="C9" s="85"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="86"/>
+      <c r="B10" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="88"/>
-      <c r="B9" s="87" t="s">
+      <c r="C10" s="85"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="86"/>
+      <c r="B11" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="88"/>
-      <c r="B10" s="87" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="86"/>
+      <c r="B12" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="87" t="s">
+      <c r="C12" s="85"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="86"/>
+      <c r="B13" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="88"/>
-      <c r="B12" s="87" t="s">
+      <c r="C13" s="85"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="86"/>
+      <c r="B14" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="88"/>
-      <c r="B13" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="88"/>
-      <c r="B14" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="88"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="88"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>

--- a/ha-asset/01_design/03_batch/設計書_3.0.健康情報登録バッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.0.健康情報登録バッチ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13454F00-70AB-42A6-8633-4557A37E3C05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2A5754-0211-4407-ABFD-2C64A60B493F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="2685" windowWidth="21600" windowHeight="12855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.健康情報登録バッチ'!$A$1:$BK$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.健康情報登録バッチ'!$A$1:$BK$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'3.1. ファイルIF'!$A$1:$BF$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -63,9 +63,6 @@
     <t>2.1.健康情報登録バッチ</t>
   </si>
   <si>
-    <t>2.1.1.バッチ仕様</t>
-  </si>
-  <si>
     <t>バッチ仕様</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
   </si>
   <si>
     <t>文字コード</t>
-  </si>
-  <si>
-    <t>Shift-JIS</t>
   </si>
   <si>
     <t>起動方法/タイミング</t>
@@ -321,6 +315,21 @@
     <t>healthInfo.properties#healthInfoRegistBatchFilePath</t>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>2.1.1.バッチ仕様</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>引数1:</t>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>MS932</t>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
@@ -329,7 +338,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -392,6 +401,11 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -431,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -676,11 +690,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -914,6 +952,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -934,31 +982,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -966,6 +989,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,14 +1003,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1277,681 +1329,681 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="3"/>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92" t="s">
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="92" t="s">
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="91"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="95"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="3"/>
-      <c r="B4" s="93">
+      <c r="B4" s="97">
         <v>43771</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="94" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="89" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="91"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="95"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="91"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="95"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="91"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="95"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="91"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="95"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="3"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="91"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="95"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="3"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="91"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="95"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="3"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="91"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="95"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="91"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="95"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="3"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="91"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="95"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="3"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="91"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="95"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="91"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="95"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="91"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="95"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="91"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="95"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="3"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="91"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="95"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="3"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="91"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="95"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="3"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="91"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="95"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="3"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="91"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="95"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="3"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="90"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="95"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="3"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="91"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="95"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="3"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="91"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="95"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="3"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="90"/>
-      <c r="Z24" s="91"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="95"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="91"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="95"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
@@ -2014,6 +2066,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -2023,66 +2135,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3703,10 +3755,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BK45"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:BJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -3913,7 +3965,7 @@
     </row>
     <row r="4" spans="1:63" ht="16.5">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -4023,30 +4075,30 @@
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="3"/>
-      <c r="BE5" s="3"/>
-      <c r="BF5" s="3"/>
-      <c r="BG5" s="3"/>
-      <c r="BH5" s="3"/>
-      <c r="BI5" s="3"/>
-      <c r="BJ5" s="3"/>
-      <c r="BK5" s="3"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="14"/>
+      <c r="BJ5" s="14"/>
+      <c r="BK5" s="14"/>
     </row>
     <row r="6" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -4090,499 +4142,491 @@
       <c r="AP6" s="12"/>
       <c r="AQ6" s="12"/>
       <c r="AR6" s="12"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="14"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-      <c r="BE6" s="4"/>
-      <c r="BF6" s="4"/>
-      <c r="BG6" s="3"/>
-      <c r="BH6" s="3"/>
-      <c r="BI6" s="3"/>
-      <c r="BJ6" s="3"/>
-      <c r="BK6" s="3"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="13"/>
+      <c r="BK6" s="14"/>
     </row>
     <row r="7" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A7" s="3"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
-      <c r="AI7" s="90"/>
-      <c r="AJ7" s="90"/>
-      <c r="AK7" s="90"/>
-      <c r="AL7" s="90"/>
-      <c r="AM7" s="90"/>
-      <c r="AN7" s="90"/>
-      <c r="AO7" s="90"/>
-      <c r="AP7" s="90"/>
-      <c r="AQ7" s="90"/>
-      <c r="AR7" s="90"/>
-      <c r="AS7" s="91"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3"/>
-      <c r="BJ7" s="3"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="122"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="122"/>
+      <c r="AB7" s="122"/>
+      <c r="AC7" s="122"/>
+      <c r="AD7" s="122"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="122"/>
+      <c r="AG7" s="122"/>
+      <c r="AH7" s="122"/>
+      <c r="AI7" s="122"/>
+      <c r="AJ7" s="122"/>
+      <c r="AK7" s="122"/>
+      <c r="AL7" s="122"/>
+      <c r="AM7" s="122"/>
+      <c r="AN7" s="122"/>
+      <c r="AO7" s="122"/>
+      <c r="AP7" s="122"/>
+      <c r="AQ7" s="122"/>
+      <c r="AR7" s="122"/>
+      <c r="AS7" s="122"/>
+      <c r="AT7" s="122"/>
+      <c r="AU7" s="122"/>
+      <c r="AV7" s="122"/>
+      <c r="AW7" s="122"/>
+      <c r="AX7" s="122"/>
+      <c r="AY7" s="122"/>
+      <c r="AZ7" s="122"/>
+      <c r="BA7" s="122"/>
+      <c r="BB7" s="122"/>
+      <c r="BC7" s="122"/>
+      <c r="BD7" s="122"/>
+      <c r="BE7" s="122"/>
+      <c r="BF7" s="122"/>
+      <c r="BG7" s="122"/>
+      <c r="BH7" s="122"/>
+      <c r="BI7" s="122"/>
+      <c r="BJ7" s="122"/>
       <c r="BK7" s="3"/>
     </row>
     <row r="8" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A8" s="3"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="119"/>
+      <c r="AF8" s="119"/>
+      <c r="AG8" s="119"/>
+      <c r="AH8" s="119"/>
+      <c r="AI8" s="119"/>
+      <c r="AJ8" s="119"/>
+      <c r="AK8" s="119"/>
+      <c r="AL8" s="119"/>
+      <c r="AM8" s="119"/>
+      <c r="AN8" s="119"/>
+      <c r="AO8" s="119"/>
+      <c r="AP8" s="119"/>
+      <c r="AQ8" s="119"/>
+      <c r="AR8" s="119"/>
+      <c r="AS8" s="119"/>
+      <c r="AT8" s="119"/>
+      <c r="AU8" s="119"/>
+      <c r="AV8" s="119"/>
+      <c r="AW8" s="119"/>
+      <c r="AX8" s="119"/>
+      <c r="AY8" s="119"/>
+      <c r="AZ8" s="119"/>
+      <c r="BA8" s="119"/>
+      <c r="BB8" s="119"/>
+      <c r="BC8" s="119"/>
+      <c r="BD8" s="119"/>
+      <c r="BE8" s="119"/>
+      <c r="BF8" s="119"/>
+      <c r="BG8" s="119"/>
+      <c r="BH8" s="119"/>
+      <c r="BI8" s="119"/>
+      <c r="BJ8" s="119"/>
+      <c r="BK8" s="3"/>
+    </row>
+    <row r="9" spans="1:63" ht="16.5" outlineLevel="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="98" t="s">
-        <v>15</v>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="120"/>
+      <c r="V9" s="120"/>
+      <c r="W9" s="120"/>
+      <c r="X9" s="120"/>
+      <c r="Y9" s="120"/>
+      <c r="Z9" s="120"/>
+      <c r="AA9" s="120"/>
+      <c r="AB9" s="120"/>
+      <c r="AC9" s="120"/>
+      <c r="AD9" s="120"/>
+      <c r="AE9" s="120"/>
+      <c r="AF9" s="120"/>
+      <c r="AG9" s="120"/>
+      <c r="AH9" s="120"/>
+      <c r="AI9" s="120"/>
+      <c r="AJ9" s="120"/>
+      <c r="AK9" s="120"/>
+      <c r="AL9" s="120"/>
+      <c r="AM9" s="120"/>
+      <c r="AN9" s="120"/>
+      <c r="AO9" s="120"/>
+      <c r="AP9" s="120"/>
+      <c r="AQ9" s="120"/>
+      <c r="AR9" s="120"/>
+      <c r="AS9" s="120"/>
+      <c r="AT9" s="120"/>
+      <c r="AU9" s="120"/>
+      <c r="AV9" s="120"/>
+      <c r="AW9" s="120"/>
+      <c r="AX9" s="120"/>
+      <c r="AY9" s="120"/>
+      <c r="AZ9" s="120"/>
+      <c r="BA9" s="120"/>
+      <c r="BB9" s="120"/>
+      <c r="BC9" s="120"/>
+      <c r="BD9" s="120"/>
+      <c r="BE9" s="120"/>
+      <c r="BF9" s="120"/>
+      <c r="BG9" s="120"/>
+      <c r="BH9" s="120"/>
+      <c r="BI9" s="120"/>
+      <c r="BJ9" s="120"/>
+      <c r="BK9" s="14"/>
+    </row>
+    <row r="10" spans="1:63" ht="16.5" outlineLevel="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="115" t="s">
+        <v>93</v>
       </c>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="90"/>
-      <c r="AJ8" s="90"/>
-      <c r="AK8" s="90"/>
-      <c r="AL8" s="90"/>
-      <c r="AM8" s="90"/>
-      <c r="AN8" s="90"/>
-      <c r="AO8" s="90"/>
-      <c r="AP8" s="90"/>
-      <c r="AQ8" s="90"/>
-      <c r="AR8" s="90"/>
-      <c r="AS8" s="91"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="3"/>
-      <c r="BK8" s="3"/>
-    </row>
-    <row r="9" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="96" t="s">
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="118" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="116"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="116"/>
+      <c r="AF10" s="116"/>
+      <c r="AG10" s="116"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="116"/>
+      <c r="AK10" s="116"/>
+      <c r="AL10" s="116"/>
+      <c r="AM10" s="116"/>
+      <c r="AN10" s="116"/>
+      <c r="AO10" s="116"/>
+      <c r="AP10" s="116"/>
+      <c r="AQ10" s="116"/>
+      <c r="AR10" s="116"/>
+      <c r="AS10" s="116"/>
+      <c r="AT10" s="116"/>
+      <c r="AU10" s="116"/>
+      <c r="AV10" s="116"/>
+      <c r="AW10" s="116"/>
+      <c r="AX10" s="116"/>
+      <c r="AY10" s="116"/>
+      <c r="AZ10" s="116"/>
+      <c r="BA10" s="116"/>
+      <c r="BB10" s="116"/>
+      <c r="BC10" s="116"/>
+      <c r="BD10" s="116"/>
+      <c r="BE10" s="116"/>
+      <c r="BF10" s="116"/>
+      <c r="BG10" s="116"/>
+      <c r="BH10" s="116"/>
+      <c r="BI10" s="116"/>
+      <c r="BJ10" s="117"/>
+      <c r="BK10" s="3"/>
+    </row>
+    <row r="11" spans="1:63" ht="16.5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+      <c r="BK11" s="3"/>
+    </row>
+    <row r="12" spans="1:63" ht="16.5">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="90"/>
-      <c r="AM9" s="90"/>
-      <c r="AN9" s="90"/>
-      <c r="AO9" s="90"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="90"/>
-      <c r="AR9" s="90"/>
-      <c r="AS9" s="91"/>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
-      <c r="AY9" s="4"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="4"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4"/>
-      <c r="BD9" s="4"/>
-      <c r="BE9" s="4"/>
-      <c r="BF9" s="4"/>
-      <c r="BG9" s="3"/>
-      <c r="BH9" s="3"/>
-      <c r="BI9" s="3"/>
-      <c r="BJ9" s="3"/>
-      <c r="BK9" s="3"/>
-    </row>
-    <row r="10" spans="1:63" ht="16.5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="3"/>
-      <c r="BE10" s="3"/>
-      <c r="BF10" s="3"/>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="3"/>
-      <c r="BI10" s="3"/>
-      <c r="BJ10" s="3"/>
-      <c r="BK10" s="3"/>
-    </row>
-    <row r="11" spans="1:63" ht="16.5">
-      <c r="A11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
-      <c r="AP11" s="8"/>
-      <c r="AQ11" s="8"/>
-      <c r="AR11" s="8"/>
-      <c r="AS11" s="8"/>
-      <c r="AT11" s="8"/>
-      <c r="AU11" s="8"/>
-      <c r="AV11" s="8"/>
-      <c r="AW11" s="8"/>
-      <c r="AX11" s="8"/>
-      <c r="AY11" s="8"/>
-      <c r="AZ11" s="8"/>
-      <c r="BA11" s="8"/>
-      <c r="BB11" s="8"/>
-      <c r="BC11" s="8"/>
-      <c r="BD11" s="8"/>
-      <c r="BE11" s="8"/>
-      <c r="BF11" s="8"/>
-      <c r="BG11" s="8"/>
-      <c r="BH11" s="8"/>
-      <c r="BI11" s="8"/>
-      <c r="BJ11" s="8"/>
-      <c r="BK11" s="8"/>
-    </row>
-    <row r="12" spans="1:63" ht="16.5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-      <c r="BF12" s="4"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="3"/>
-    </row>
-    <row r="13" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="22"/>
-      <c r="AM13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="21"/>
-      <c r="AP13" s="21"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="24"/>
-      <c r="AV13" s="24"/>
-      <c r="AW13" s="24"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="24"/>
-      <c r="AZ13" s="21"/>
-      <c r="BA13" s="21"/>
-      <c r="BB13" s="21"/>
-      <c r="BC13" s="21"/>
-      <c r="BD13" s="21"/>
-      <c r="BE13" s="21"/>
-      <c r="BF13" s="22"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8"/>
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="8"/>
+      <c r="BG12" s="8"/>
+      <c r="BH12" s="8"/>
+      <c r="BI12" s="8"/>
+      <c r="BJ12" s="8"/>
+      <c r="BK12" s="8"/>
+    </row>
+    <row r="13" spans="1:63" ht="16.5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
       <c r="BG13" s="3"/>
       <c r="BH13" s="3"/>
       <c r="BI13" s="3"/>
@@ -4591,74 +4635,73 @@
     </row>
     <row r="14" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="25">
-        <f t="shared" ref="B14:B21" si="0">ROW()-13</f>
-        <v>1</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="29"/>
-      <c r="AM14" s="31" t="s">
+      <c r="B14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AN14" s="30"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="28"/>
-      <c r="AQ14" s="28"/>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="28"/>
-      <c r="AT14" s="28"/>
-      <c r="AU14" s="28"/>
-      <c r="AV14" s="28"/>
-      <c r="AW14" s="28"/>
-      <c r="AX14" s="28"/>
-      <c r="AY14" s="28"/>
-      <c r="AZ14" s="28"/>
-      <c r="BA14" s="28"/>
-      <c r="BB14" s="28"/>
-      <c r="BC14" s="28"/>
-      <c r="BD14" s="28"/>
-      <c r="BE14" s="28"/>
-      <c r="BF14" s="29"/>
+      <c r="C14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="24"/>
+      <c r="AR14" s="24"/>
+      <c r="AS14" s="24"/>
+      <c r="AT14" s="24"/>
+      <c r="AU14" s="24"/>
+      <c r="AV14" s="24"/>
+      <c r="AW14" s="24"/>
+      <c r="AX14" s="24"/>
+      <c r="AY14" s="24"/>
+      <c r="AZ14" s="21"/>
+      <c r="BA14" s="21"/>
+      <c r="BB14" s="21"/>
+      <c r="BC14" s="21"/>
+      <c r="BD14" s="21"/>
+      <c r="BE14" s="21"/>
+      <c r="BF14" s="22"/>
       <c r="BG14" s="3"/>
       <c r="BH14" s="3"/>
       <c r="BI14" s="3"/>
@@ -4668,67 +4711,73 @@
     <row r="15" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A15" s="17"/>
       <c r="B15" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B15:B22" si="0">ROW()-13</f>
         <v>2</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>26</v>
+      <c r="C15" s="26" t="s">
+        <v>22</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="33"/>
-      <c r="AR15" s="33"/>
-      <c r="AS15" s="33"/>
-      <c r="AT15" s="33"/>
-      <c r="AU15" s="33"/>
-      <c r="AV15" s="33"/>
-      <c r="AW15" s="33"/>
-      <c r="AX15" s="33"/>
-      <c r="AY15" s="33"/>
-      <c r="AZ15" s="33"/>
-      <c r="BA15" s="33"/>
-      <c r="BB15" s="33"/>
-      <c r="BC15" s="33"/>
-      <c r="BD15" s="33"/>
-      <c r="BE15" s="33"/>
-      <c r="BF15" s="34"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="29"/>
+      <c r="AM15" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="28"/>
+      <c r="AU15" s="28"/>
+      <c r="AV15" s="28"/>
+      <c r="AW15" s="28"/>
+      <c r="AX15" s="28"/>
+      <c r="AY15" s="28"/>
+      <c r="AZ15" s="28"/>
+      <c r="BA15" s="28"/>
+      <c r="BB15" s="28"/>
+      <c r="BC15" s="28"/>
+      <c r="BD15" s="28"/>
+      <c r="BE15" s="28"/>
+      <c r="BF15" s="29"/>
       <c r="BG15" s="3"/>
       <c r="BH15" s="3"/>
       <c r="BI15" s="3"/>
@@ -4741,68 +4790,64 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="95" t="s">
-        <v>27</v>
+      <c r="C16" s="32" t="s">
+        <v>24</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN16" s="37"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="37"/>
-      <c r="AQ16" s="37"/>
-      <c r="AR16" s="37"/>
-      <c r="AS16" s="37"/>
-      <c r="AT16" s="37"/>
-      <c r="AU16" s="37"/>
-      <c r="AV16" s="37"/>
-      <c r="AW16" s="37"/>
-      <c r="AX16" s="37"/>
-      <c r="AY16" s="37"/>
-      <c r="AZ16" s="37"/>
-      <c r="BA16" s="37"/>
-      <c r="BB16" s="37"/>
-      <c r="BC16" s="37"/>
-      <c r="BD16" s="37"/>
-      <c r="BE16" s="37"/>
-      <c r="BF16" s="38"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="33"/>
+      <c r="AQ16" s="33"/>
+      <c r="AR16" s="33"/>
+      <c r="AS16" s="33"/>
+      <c r="AT16" s="33"/>
+      <c r="AU16" s="33"/>
+      <c r="AV16" s="33"/>
+      <c r="AW16" s="33"/>
+      <c r="AX16" s="33"/>
+      <c r="AY16" s="33"/>
+      <c r="AZ16" s="33"/>
+      <c r="BA16" s="33"/>
+      <c r="BB16" s="33"/>
+      <c r="BC16" s="33"/>
+      <c r="BD16" s="33"/>
+      <c r="BE16" s="33"/>
+      <c r="BF16" s="34"/>
       <c r="BG16" s="3"/>
       <c r="BH16" s="3"/>
       <c r="BI16" s="3"/>
@@ -4816,69 +4861,67 @@
         <v>4</v>
       </c>
       <c r="C17" s="35"/>
-      <c r="D17" s="95" t="s">
-        <v>29</v>
+      <c r="D17" s="99" t="s">
+        <v>25</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="40" t="s">
-        <v>30</v>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="36" t="s">
+        <v>15</v>
       </c>
       <c r="L17" s="37"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="36" t="s">
-        <v>17</v>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="36" t="s">
+        <v>26</v>
       </c>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="42"/>
-      <c r="AM17" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN17" s="41"/>
-      <c r="AO17" s="41"/>
-      <c r="AP17" s="41"/>
-      <c r="AQ17" s="41"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="41"/>
-      <c r="AT17" s="41"/>
-      <c r="AU17" s="41"/>
-      <c r="AV17" s="41"/>
-      <c r="AW17" s="41"/>
-      <c r="AX17" s="41"/>
-      <c r="AY17" s="41"/>
-      <c r="AZ17" s="41"/>
-      <c r="BA17" s="41"/>
-      <c r="BB17" s="41"/>
-      <c r="BC17" s="41"/>
-      <c r="BD17" s="41"/>
-      <c r="BE17" s="41"/>
-      <c r="BF17" s="42"/>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="37"/>
+      <c r="AT17" s="37"/>
+      <c r="AU17" s="37"/>
+      <c r="AV17" s="37"/>
+      <c r="AW17" s="37"/>
+      <c r="AX17" s="37"/>
+      <c r="AY17" s="37"/>
+      <c r="AZ17" s="37"/>
+      <c r="BA17" s="37"/>
+      <c r="BB17" s="37"/>
+      <c r="BC17" s="37"/>
+      <c r="BD17" s="37"/>
+      <c r="BE17" s="37"/>
+      <c r="BF17" s="38"/>
       <c r="BG17" s="3"/>
       <c r="BH17" s="3"/>
       <c r="BI17" s="3"/>
@@ -4892,19 +4935,19 @@
         <v>5</v>
       </c>
       <c r="C18" s="35"/>
-      <c r="D18" s="43" t="s">
-        <v>31</v>
+      <c r="D18" s="99" t="s">
+        <v>27</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="44" t="s">
-        <v>32</v>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="40" t="s">
+        <v>28</v>
       </c>
-      <c r="L18" s="41"/>
+      <c r="L18" s="37"/>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
@@ -4924,7 +4967,7 @@
       <c r="AC18" s="41"/>
       <c r="AD18" s="42"/>
       <c r="AE18" s="36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF18" s="41"/>
       <c r="AG18" s="41"/>
@@ -4934,7 +4977,7 @@
       <c r="AK18" s="41"/>
       <c r="AL18" s="42"/>
       <c r="AM18" s="36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN18" s="41"/>
       <c r="AO18" s="41"/>
@@ -4968,8 +5011,8 @@
         <v>6</v>
       </c>
       <c r="C19" s="35"/>
-      <c r="D19" s="45" t="s">
-        <v>33</v>
+      <c r="D19" s="43" t="s">
+        <v>29</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
@@ -4977,8 +5020,8 @@
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
       <c r="J19" s="42"/>
-      <c r="K19" s="46" t="s">
-        <v>34</v>
+      <c r="K19" s="44" t="s">
+        <v>30</v>
       </c>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
@@ -4999,7 +5042,9 @@
       <c r="AB19" s="41"/>
       <c r="AC19" s="41"/>
       <c r="AD19" s="42"/>
-      <c r="AE19" s="36"/>
+      <c r="AE19" s="36" t="s">
+        <v>15</v>
+      </c>
       <c r="AF19" s="41"/>
       <c r="AG19" s="41"/>
       <c r="AH19" s="41"/>
@@ -5007,7 +5052,9 @@
       <c r="AJ19" s="41"/>
       <c r="AK19" s="41"/>
       <c r="AL19" s="42"/>
-      <c r="AM19" s="36"/>
+      <c r="AM19" s="36" t="s">
+        <v>15</v>
+      </c>
       <c r="AN19" s="41"/>
       <c r="AO19" s="41"/>
       <c r="AP19" s="41"/>
@@ -5040,8 +5087,8 @@
         <v>7</v>
       </c>
       <c r="C20" s="35"/>
-      <c r="D20" s="43" t="s">
-        <v>35</v>
+      <c r="D20" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
@@ -5049,7 +5096,9 @@
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
       <c r="J20" s="42"/>
-      <c r="K20" s="41"/>
+      <c r="K20" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="L20" s="41"/>
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
@@ -5069,9 +5118,7 @@
       <c r="AB20" s="41"/>
       <c r="AC20" s="41"/>
       <c r="AD20" s="42"/>
-      <c r="AE20" s="36" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE20" s="36"/>
       <c r="AF20" s="41"/>
       <c r="AG20" s="41"/>
       <c r="AH20" s="41"/>
@@ -5079,9 +5126,7 @@
       <c r="AJ20" s="41"/>
       <c r="AK20" s="41"/>
       <c r="AL20" s="42"/>
-      <c r="AM20" s="36" t="s">
-        <v>17</v>
-      </c>
+      <c r="AM20" s="36"/>
       <c r="AN20" s="41"/>
       <c r="AO20" s="41"/>
       <c r="AP20" s="41"/>
@@ -5113,127 +5158,136 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="48"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="48"/>
-      <c r="AM21" s="48"/>
-      <c r="AN21" s="48"/>
-      <c r="AO21" s="48"/>
-      <c r="AP21" s="48"/>
-      <c r="AQ21" s="48"/>
-      <c r="AR21" s="48"/>
-      <c r="AS21" s="48"/>
-      <c r="AT21" s="48"/>
-      <c r="AU21" s="48"/>
-      <c r="AV21" s="48"/>
-      <c r="AW21" s="48"/>
-      <c r="AX21" s="48"/>
-      <c r="AY21" s="48"/>
-      <c r="AZ21" s="48"/>
-      <c r="BA21" s="48"/>
-      <c r="BB21" s="48"/>
-      <c r="BC21" s="48"/>
-      <c r="BD21" s="48"/>
-      <c r="BE21" s="48"/>
-      <c r="BF21" s="49"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="41"/>
+      <c r="AK21" s="41"/>
+      <c r="AL21" s="42"/>
+      <c r="AM21" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN21" s="41"/>
+      <c r="AO21" s="41"/>
+      <c r="AP21" s="41"/>
+      <c r="AQ21" s="41"/>
+      <c r="AR21" s="41"/>
+      <c r="AS21" s="41"/>
+      <c r="AT21" s="41"/>
+      <c r="AU21" s="41"/>
+      <c r="AV21" s="41"/>
+      <c r="AW21" s="41"/>
+      <c r="AX21" s="41"/>
+      <c r="AY21" s="41"/>
+      <c r="AZ21" s="41"/>
+      <c r="BA21" s="41"/>
+      <c r="BB21" s="41"/>
+      <c r="BC21" s="41"/>
+      <c r="BD21" s="41"/>
+      <c r="BE21" s="41"/>
+      <c r="BF21" s="42"/>
       <c r="BG21" s="3"/>
       <c r="BH21" s="3"/>
       <c r="BI21" s="3"/>
       <c r="BJ21" s="3"/>
       <c r="BK21" s="3"/>
     </row>
-    <row r="22" spans="1:63" ht="16.5">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="3"/>
-      <c r="BC22" s="3"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
+    <row r="22" spans="1:63" ht="16.5" outlineLevel="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="25">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="48"/>
+      <c r="AK22" s="48"/>
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="48"/>
+      <c r="AO22" s="48"/>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="48"/>
+      <c r="AS22" s="48"/>
+      <c r="AT22" s="48"/>
+      <c r="AU22" s="48"/>
+      <c r="AV22" s="48"/>
+      <c r="AW22" s="48"/>
+      <c r="AX22" s="48"/>
+      <c r="AY22" s="48"/>
+      <c r="AZ22" s="48"/>
+      <c r="BA22" s="48"/>
+      <c r="BB22" s="48"/>
+      <c r="BC22" s="48"/>
+      <c r="BD22" s="48"/>
+      <c r="BE22" s="48"/>
+      <c r="BF22" s="49"/>
       <c r="BG22" s="3"/>
       <c r="BH22" s="3"/>
       <c r="BI22" s="3"/>
@@ -5241,152 +5295,150 @@
       <c r="BK22" s="3"/>
     </row>
     <row r="23" spans="1:63" ht="16.5">
-      <c r="A23" s="5" t="s">
-        <v>36</v>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+    </row>
+    <row r="24" spans="1:63" ht="16.5">
+      <c r="A24" s="5" t="s">
+        <v>34</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="8"/>
-      <c r="AM23" s="8"/>
-      <c r="AN23" s="8"/>
-      <c r="AO23" s="8"/>
-      <c r="AP23" s="8"/>
-      <c r="AQ23" s="8"/>
-      <c r="AR23" s="8"/>
-      <c r="AS23" s="8"/>
-      <c r="AT23" s="8"/>
-      <c r="AU23" s="8"/>
-      <c r="AV23" s="8"/>
-      <c r="AW23" s="8"/>
-      <c r="AX23" s="8"/>
-      <c r="AY23" s="8"/>
-      <c r="AZ23" s="8"/>
-      <c r="BA23" s="8"/>
-      <c r="BB23" s="8"/>
-      <c r="BC23" s="8"/>
-      <c r="BD23" s="8"/>
-      <c r="BE23" s="8"/>
-      <c r="BF23" s="8"/>
-      <c r="BG23" s="8"/>
-      <c r="BH23" s="8"/>
-      <c r="BI23" s="8"/>
-      <c r="BJ23" s="8"/>
-      <c r="BK23" s="8"/>
-    </row>
-    <row r="24" spans="1:63" ht="16.5">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="3"/>
-      <c r="BA24" s="3"/>
-      <c r="BB24" s="3"/>
-      <c r="BC24" s="3"/>
-      <c r="BD24" s="3"/>
-      <c r="BE24" s="3"/>
-      <c r="BF24" s="3"/>
-      <c r="BG24" s="3"/>
-      <c r="BH24" s="3"/>
-      <c r="BI24" s="3"/>
-      <c r="BJ24" s="3"/>
-      <c r="BK24" s="3"/>
-    </row>
-    <row r="25" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
+      <c r="BC24" s="8"/>
+      <c r="BD24" s="8"/>
+      <c r="BE24" s="8"/>
+      <c r="BF24" s="8"/>
+      <c r="BG24" s="8"/>
+      <c r="BH24" s="8"/>
+      <c r="BI24" s="8"/>
+      <c r="BJ24" s="8"/>
+      <c r="BK24" s="8"/>
+    </row>
+    <row r="25" spans="1:63" ht="16.5">
       <c r="A25" s="3"/>
-      <c r="B25" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -5441,21 +5493,21 @@
     </row>
     <row r="26" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53" t="s">
-        <v>38</v>
+      <c r="B26" s="50" t="s">
+        <v>35</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -5509,10 +5561,10 @@
     <row r="27" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A27" s="3"/>
       <c r="B27" s="52"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56" t="s">
-        <v>39</v>
+      <c r="C27" s="53" t="s">
+        <v>36</v>
       </c>
+      <c r="D27" s="54"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
@@ -5576,10 +5628,10 @@
     <row r="28" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A28" s="3"/>
       <c r="B28" s="52"/>
-      <c r="C28" s="53" t="s">
-        <v>40</v>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56" t="s">
+        <v>37</v>
       </c>
-      <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
       <c r="G28" s="55"/>
@@ -5643,11 +5695,11 @@
     <row r="29" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A29" s="3"/>
       <c r="B29" s="52"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="53" t="s">
-        <v>41</v>
+      <c r="C29" s="53" t="s">
+        <v>38</v>
       </c>
-      <c r="E29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
       <c r="H29" s="55"/>
@@ -5710,11 +5762,11 @@
     <row r="30" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A30" s="3"/>
       <c r="B30" s="52"/>
-      <c r="C30" s="53" t="s">
-        <v>42</v>
+      <c r="C30" s="55"/>
+      <c r="D30" s="53" t="s">
+        <v>39</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
+      <c r="E30" s="54"/>
       <c r="F30" s="55"/>
       <c r="G30" s="55"/>
       <c r="H30" s="55"/>
@@ -5777,16 +5829,16 @@
     <row r="31" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A31" s="3"/>
       <c r="B31" s="52"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="57" t="s">
-        <v>43</v>
+      <c r="C31" s="53" t="s">
+        <v>40</v>
       </c>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
       <c r="K31" s="55"/>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -5841,21 +5893,23 @@
       <c r="BJ31" s="3"/>
       <c r="BK31" s="3"/>
     </row>
-    <row r="32" spans="1:63" ht="16.5" outlineLevel="1">
+    <row r="32" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -5906,7 +5960,7 @@
       <c r="BJ32" s="3"/>
       <c r="BK32" s="3"/>
     </row>
-    <row r="33" spans="1:63" ht="16.5">
+    <row r="33" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5972,142 +6026,140 @@
       <c r="BK33" s="3"/>
     </row>
     <row r="34" spans="1:63" ht="16.5">
-      <c r="A34" s="5" t="s">
-        <v>44</v>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="3"/>
+      <c r="BK34" s="3"/>
+    </row>
+    <row r="35" spans="1:63" ht="16.5">
+      <c r="A35" s="5" t="s">
+        <v>42</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
-      <c r="AM34" s="2"/>
-      <c r="AN34" s="2"/>
-      <c r="AO34" s="2"/>
-      <c r="AP34" s="2"/>
-      <c r="AQ34" s="2"/>
-      <c r="AR34" s="2"/>
-      <c r="AS34" s="2"/>
-      <c r="AT34" s="2"/>
-      <c r="AU34" s="2"/>
-      <c r="AV34" s="2"/>
-      <c r="AW34" s="2"/>
-      <c r="AX34" s="2"/>
-      <c r="AY34" s="2"/>
-      <c r="AZ34" s="2"/>
-      <c r="BA34" s="2"/>
-      <c r="BB34" s="2"/>
-      <c r="BC34" s="2"/>
-      <c r="BD34" s="2"/>
-      <c r="BE34" s="2"/>
-      <c r="BF34" s="2"/>
-      <c r="BG34" s="2"/>
-      <c r="BH34" s="2"/>
-      <c r="BI34" s="2"/>
-      <c r="BJ34" s="2"/>
-      <c r="BK34" s="2"/>
-    </row>
-    <row r="35" spans="1:63" ht="16.5">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="3"/>
-      <c r="AU35" s="3"/>
-      <c r="AV35" s="3"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="3"/>
-      <c r="AY35" s="3"/>
-      <c r="AZ35" s="3"/>
-      <c r="BA35" s="3"/>
-      <c r="BB35" s="3"/>
-      <c r="BC35" s="3"/>
-      <c r="BD35" s="3"/>
-      <c r="BE35" s="3"/>
-      <c r="BF35" s="3"/>
-      <c r="BG35" s="3"/>
-      <c r="BH35" s="3"/>
-      <c r="BI35" s="3"/>
-      <c r="BJ35" s="3"/>
-      <c r="BK35" s="3"/>
-    </row>
-    <row r="36" spans="1:63" ht="16.5" outlineLevel="1">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="2"/>
+    </row>
+    <row r="36" spans="1:63" ht="16.5">
       <c r="A36" s="3"/>
-      <c r="B36" s="58" t="s">
-        <v>45</v>
-      </c>
+      <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -6172,66 +6224,58 @@
     </row>
     <row r="37" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="23" t="s">
-        <v>46</v>
+      <c r="B37" s="58" t="s">
+        <v>43</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="S37" s="61"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="59"/>
-      <c r="AB37" s="59"/>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="59"/>
-      <c r="AE37" s="62"/>
-      <c r="AF37" s="59"/>
-      <c r="AG37" s="59"/>
-      <c r="AH37" s="59"/>
-      <c r="AI37" s="59"/>
-      <c r="AJ37" s="60"/>
-      <c r="AK37" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL37" s="62"/>
-      <c r="AM37" s="59"/>
-      <c r="AN37" s="59"/>
-      <c r="AO37" s="59"/>
-      <c r="AP37" s="59"/>
-      <c r="AQ37" s="59"/>
-      <c r="AR37" s="60"/>
-      <c r="AS37" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT37" s="59"/>
-      <c r="AU37" s="59"/>
-      <c r="AV37" s="59"/>
-      <c r="AW37" s="59"/>
-      <c r="AX37" s="59"/>
-      <c r="AY37" s="60"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
       <c r="AZ37" s="3"/>
       <c r="BA37" s="3"/>
       <c r="BB37" s="3"/>
@@ -6248,61 +6292,65 @@
     <row r="38" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A38" s="3"/>
       <c r="B38" s="58"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="68" t="s">
-        <v>50</v>
+      <c r="C38" s="23" t="s">
+        <v>44</v>
       </c>
-      <c r="S38" s="66"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="66"/>
-      <c r="X38" s="66"/>
-      <c r="Y38" s="66"/>
-      <c r="Z38" s="66"/>
-      <c r="AA38" s="66"/>
-      <c r="AB38" s="66"/>
-      <c r="AC38" s="66"/>
-      <c r="AD38" s="66"/>
-      <c r="AE38" s="66"/>
-      <c r="AF38" s="66"/>
-      <c r="AG38" s="66"/>
-      <c r="AH38" s="66"/>
-      <c r="AI38" s="66"/>
-      <c r="AJ38" s="67"/>
-      <c r="AK38" s="69" t="s">
-        <v>51</v>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="19" t="s">
+        <v>45</v>
       </c>
-      <c r="AL38" s="70"/>
-      <c r="AM38" s="70"/>
-      <c r="AN38" s="70"/>
-      <c r="AO38" s="3"/>
-      <c r="AP38" s="3"/>
-      <c r="AQ38" s="3"/>
-      <c r="AR38" s="71"/>
-      <c r="AS38" s="68" t="s">
-        <v>52</v>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="19" t="s">
+        <v>46</v>
       </c>
-      <c r="AT38" s="66"/>
-      <c r="AU38" s="66"/>
-      <c r="AV38" s="66"/>
-      <c r="AW38" s="66"/>
-      <c r="AX38" s="66"/>
-      <c r="AY38" s="67"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="62"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="59"/>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="60"/>
+      <c r="AK38" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL38" s="62"/>
+      <c r="AM38" s="59"/>
+      <c r="AN38" s="59"/>
+      <c r="AO38" s="59"/>
+      <c r="AP38" s="59"/>
+      <c r="AQ38" s="59"/>
+      <c r="AR38" s="60"/>
+      <c r="AS38" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT38" s="59"/>
+      <c r="AU38" s="59"/>
+      <c r="AV38" s="59"/>
+      <c r="AW38" s="59"/>
+      <c r="AX38" s="59"/>
+      <c r="AY38" s="60"/>
       <c r="AZ38" s="3"/>
       <c r="BA38" s="3"/>
       <c r="BB38" s="3"/>
@@ -6319,26 +6367,24 @@
     <row r="39" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A39" s="3"/>
       <c r="B39" s="58"/>
-      <c r="C39" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="73" t="s">
-        <v>54</v>
-      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="66"/>
       <c r="L39" s="66"/>
       <c r="M39" s="66"/>
       <c r="N39" s="66"/>
       <c r="O39" s="66"/>
       <c r="P39" s="66"/>
       <c r="Q39" s="67"/>
-      <c r="R39" s="66"/>
+      <c r="R39" s="68" t="s">
+        <v>48</v>
+      </c>
       <c r="S39" s="66"/>
       <c r="T39" s="66"/>
       <c r="U39" s="66"/>
@@ -6356,17 +6402,19 @@
       <c r="AG39" s="66"/>
       <c r="AH39" s="66"/>
       <c r="AI39" s="66"/>
-      <c r="AJ39" s="66"/>
-      <c r="AK39" s="74"/>
-      <c r="AL39" s="3"/>
-      <c r="AM39" s="3"/>
-      <c r="AN39" s="3"/>
+      <c r="AJ39" s="67"/>
+      <c r="AK39" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL39" s="70"/>
+      <c r="AM39" s="70"/>
+      <c r="AN39" s="70"/>
       <c r="AO39" s="3"/>
       <c r="AP39" s="3"/>
       <c r="AQ39" s="3"/>
       <c r="AR39" s="71"/>
-      <c r="AS39" s="73" t="s">
-        <v>54</v>
+      <c r="AS39" s="68" t="s">
+        <v>50</v>
       </c>
       <c r="AT39" s="66"/>
       <c r="AU39" s="66"/>
@@ -6390,7 +6438,9 @@
     <row r="40" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A40" s="3"/>
       <c r="B40" s="58"/>
-      <c r="C40" s="72"/>
+      <c r="C40" s="72" t="s">
+        <v>51</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -6398,8 +6448,8 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="71"/>
-      <c r="K40" s="68" t="s">
-        <v>55</v>
+      <c r="K40" s="73" t="s">
+        <v>52</v>
       </c>
       <c r="L40" s="66"/>
       <c r="M40" s="66"/>
@@ -6434,8 +6484,8 @@
       <c r="AP40" s="3"/>
       <c r="AQ40" s="3"/>
       <c r="AR40" s="71"/>
-      <c r="AS40" s="68" t="s">
-        <v>55</v>
+      <c r="AS40" s="73" t="s">
+        <v>52</v>
       </c>
       <c r="AT40" s="66"/>
       <c r="AU40" s="66"/>
@@ -6459,7 +6509,7 @@
     <row r="41" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A41" s="3"/>
       <c r="B41" s="58"/>
-      <c r="C41" s="74"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -6468,7 +6518,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="71"/>
       <c r="K41" s="68" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L41" s="66"/>
       <c r="M41" s="66"/>
@@ -6504,7 +6554,7 @@
       <c r="AQ41" s="3"/>
       <c r="AR41" s="71"/>
       <c r="AS41" s="68" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AT41" s="66"/>
       <c r="AU41" s="66"/>
@@ -6528,16 +6578,16 @@
     <row r="42" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A42" s="3"/>
       <c r="B42" s="58"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="67"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="71"/>
       <c r="K42" s="68" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L42" s="66"/>
       <c r="M42" s="66"/>
@@ -6573,7 +6623,7 @@
       <c r="AQ42" s="3"/>
       <c r="AR42" s="71"/>
       <c r="AS42" s="68" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AT42" s="66"/>
       <c r="AU42" s="66"/>
@@ -6605,16 +6655,16 @@
       <c r="H43" s="66"/>
       <c r="I43" s="66"/>
       <c r="J43" s="67"/>
-      <c r="K43" s="66"/>
+      <c r="K43" s="68" t="s">
+        <v>55</v>
+      </c>
       <c r="L43" s="66"/>
       <c r="M43" s="66"/>
       <c r="N43" s="66"/>
       <c r="O43" s="66"/>
       <c r="P43" s="66"/>
       <c r="Q43" s="67"/>
-      <c r="R43" s="68" t="s">
-        <v>58</v>
-      </c>
+      <c r="R43" s="66"/>
       <c r="S43" s="66"/>
       <c r="T43" s="66"/>
       <c r="U43" s="66"/>
@@ -6633,16 +6683,16 @@
       <c r="AH43" s="66"/>
       <c r="AI43" s="66"/>
       <c r="AJ43" s="66"/>
-      <c r="AK43" s="65"/>
-      <c r="AL43" s="66"/>
-      <c r="AM43" s="66"/>
-      <c r="AN43" s="66"/>
-      <c r="AO43" s="66"/>
-      <c r="AP43" s="66"/>
-      <c r="AQ43" s="66"/>
-      <c r="AR43" s="67"/>
+      <c r="AK43" s="74"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="71"/>
       <c r="AS43" s="68" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AT43" s="66"/>
       <c r="AU43" s="66"/>
@@ -6666,55 +6716,59 @@
     <row r="44" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A44" s="3"/>
       <c r="B44" s="58"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
-      <c r="AG44" s="3"/>
-      <c r="AH44" s="3"/>
-      <c r="AI44" s="3"/>
-      <c r="AJ44" s="3"/>
-      <c r="AK44" s="3"/>
-      <c r="AL44" s="3"/>
-      <c r="AM44" s="3"/>
-      <c r="AN44" s="3"/>
-      <c r="AO44" s="3"/>
-      <c r="AP44" s="3"/>
-      <c r="AQ44" s="3"/>
-      <c r="AR44" s="3"/>
-      <c r="AS44" s="3"/>
-      <c r="AT44" s="3"/>
-      <c r="AU44" s="3"/>
-      <c r="AV44" s="3"/>
-      <c r="AW44" s="3"/>
-      <c r="AX44" s="3"/>
-      <c r="AY44" s="3"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="67"/>
+      <c r="R44" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="S44" s="66"/>
+      <c r="T44" s="66"/>
+      <c r="U44" s="66"/>
+      <c r="V44" s="66"/>
+      <c r="W44" s="66"/>
+      <c r="X44" s="66"/>
+      <c r="Y44" s="66"/>
+      <c r="Z44" s="66"/>
+      <c r="AA44" s="66"/>
+      <c r="AB44" s="66"/>
+      <c r="AC44" s="66"/>
+      <c r="AD44" s="66"/>
+      <c r="AE44" s="66"/>
+      <c r="AF44" s="66"/>
+      <c r="AG44" s="66"/>
+      <c r="AH44" s="66"/>
+      <c r="AI44" s="66"/>
+      <c r="AJ44" s="66"/>
+      <c r="AK44" s="65"/>
+      <c r="AL44" s="66"/>
+      <c r="AM44" s="66"/>
+      <c r="AN44" s="66"/>
+      <c r="AO44" s="66"/>
+      <c r="AP44" s="66"/>
+      <c r="AQ44" s="66"/>
+      <c r="AR44" s="67"/>
+      <c r="AS44" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT44" s="66"/>
+      <c r="AU44" s="66"/>
+      <c r="AV44" s="66"/>
+      <c r="AW44" s="66"/>
+      <c r="AX44" s="66"/>
+      <c r="AY44" s="67"/>
       <c r="AZ44" s="3"/>
       <c r="BA44" s="3"/>
       <c r="BB44" s="3"/>
@@ -6728,7 +6782,7 @@
       <c r="BJ44" s="3"/>
       <c r="BK44" s="3"/>
     </row>
-    <row r="45" spans="1:63" ht="16.5">
+    <row r="45" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A45" s="3"/>
       <c r="B45" s="58"/>
       <c r="C45" s="3"/>
@@ -6793,16 +6847,83 @@
       <c r="BJ45" s="3"/>
       <c r="BK45" s="3"/>
     </row>
+    <row r="46" spans="1:63" ht="16.5">
+      <c r="A46" s="3"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="3"/>
+      <c r="AM46" s="3"/>
+      <c r="AN46" s="3"/>
+      <c r="AO46" s="3"/>
+      <c r="AP46" s="3"/>
+      <c r="AQ46" s="3"/>
+      <c r="AR46" s="3"/>
+      <c r="AS46" s="3"/>
+      <c r="AT46" s="3"/>
+      <c r="AU46" s="3"/>
+      <c r="AV46" s="3"/>
+      <c r="AW46" s="3"/>
+      <c r="AX46" s="3"/>
+      <c r="AY46" s="3"/>
+      <c r="AZ46" s="3"/>
+      <c r="BA46" s="3"/>
+      <c r="BB46" s="3"/>
+      <c r="BC46" s="3"/>
+      <c r="BD46" s="3"/>
+      <c r="BE46" s="3"/>
+      <c r="BF46" s="3"/>
+      <c r="BG46" s="3"/>
+      <c r="BH46" s="3"/>
+      <c r="BI46" s="3"/>
+      <c r="BJ46" s="3"/>
+      <c r="BK46" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D16:J16"/>
+  <mergeCells count="10">
     <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
     <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:AS7"/>
     <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:AS8"/>
+    <mergeCell ref="C10:H10"/>
     <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:AS9"/>
+    <mergeCell ref="I10:BJ10"/>
+    <mergeCell ref="I8:BJ8"/>
+    <mergeCell ref="I9:BJ9"/>
+    <mergeCell ref="I7:BJ7"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <hyperlinks>
@@ -6812,9 +6933,9 @@
   <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId2"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="3" max="16383" man="1"/>
-    <brk id="10" max="16383" man="1"/>
-    <brk id="22" max="16383" man="1"/>
-    <brk id="33" max="16383" man="1"/>
+    <brk id="11" max="16383" man="1"/>
+    <brk id="23" max="16383" man="1"/>
+    <brk id="34" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -6826,19 +6947,19 @@
   </sheetPr>
   <dimension ref="A1:BF19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="58" width="3.5703125" style="102" customWidth="1"/>
-    <col min="59" max="16384" width="14.42578125" style="102"/>
+    <col min="1" max="58" width="3.5703125" style="89" customWidth="1"/>
+    <col min="59" max="16384" width="14.42578125" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15.75" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -7020,7 +7141,7 @@
     </row>
     <row r="4" spans="1:58" ht="15.75" customHeight="1">
       <c r="A4" s="75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
@@ -7143,7 +7264,7 @@
     <row r="6" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A6" s="14"/>
       <c r="B6" s="58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -7205,42 +7326,42 @@
     <row r="7" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="108" t="s">
-        <v>63</v>
+      <c r="C7" s="101" t="s">
+        <v>61</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="100" t="s">
-        <v>17</v>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="104" t="s">
+        <v>15</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109"/>
-      <c r="AB7" s="109"/>
-      <c r="AC7" s="109"/>
-      <c r="AD7" s="109"/>
-      <c r="AE7" s="109"/>
-      <c r="AF7" s="109"/>
-      <c r="AG7" s="109"/>
-      <c r="AH7" s="110"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="102"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="102"/>
+      <c r="AG7" s="102"/>
+      <c r="AH7" s="103"/>
       <c r="AI7" s="14"/>
       <c r="AJ7" s="14"/>
       <c r="AK7" s="14"/>
@@ -7269,42 +7390,42 @@
     <row r="8" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="108" t="s">
-        <v>64</v>
+      <c r="C8" s="101" t="s">
+        <v>62</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="100" t="s">
-        <v>53</v>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="104" t="s">
+        <v>51</v>
       </c>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="109"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="109"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="109"/>
-      <c r="AF8" s="109"/>
-      <c r="AG8" s="109"/>
-      <c r="AH8" s="110"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="102"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="102"/>
+      <c r="AD8" s="102"/>
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="102"/>
+      <c r="AH8" s="103"/>
       <c r="AI8" s="14"/>
       <c r="AJ8" s="14"/>
       <c r="AK8" s="14"/>
@@ -7333,42 +7454,42 @@
     <row r="9" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="111" t="s">
-        <v>14</v>
+      <c r="C9" s="105" t="s">
+        <v>13</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="99" t="s">
-        <v>65</v>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="108" t="s">
+        <v>63</v>
       </c>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="112"/>
-      <c r="Y9" s="112"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="112"/>
-      <c r="AB9" s="112"/>
-      <c r="AC9" s="112"/>
-      <c r="AD9" s="112"/>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="112"/>
-      <c r="AG9" s="112"/>
-      <c r="AH9" s="113"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="106"/>
+      <c r="AE9" s="106"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="106"/>
+      <c r="AH9" s="107"/>
       <c r="AI9" s="14"/>
       <c r="AJ9" s="14"/>
       <c r="AK9" s="14"/>
@@ -7397,42 +7518,42 @@
     <row r="10" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="101" t="s">
-        <v>66</v>
+      <c r="C10" s="114" t="s">
+        <v>64</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="114" t="s">
-        <v>93</v>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="90" t="s">
+        <v>91</v>
       </c>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="115"/>
-      <c r="X10" s="115"/>
-      <c r="Y10" s="115"/>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="115"/>
-      <c r="AB10" s="115"/>
-      <c r="AC10" s="115"/>
-      <c r="AD10" s="115"/>
-      <c r="AE10" s="115"/>
-      <c r="AF10" s="115"/>
-      <c r="AG10" s="115"/>
-      <c r="AH10" s="116"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="91"/>
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="91"/>
+      <c r="AH10" s="92"/>
       <c r="AI10" s="14"/>
       <c r="AJ10" s="14"/>
       <c r="AK10" s="14"/>
@@ -7521,7 +7642,7 @@
     <row r="12" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A12" s="14"/>
       <c r="B12" s="58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -7584,7 +7705,7 @@
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="78"/>
       <c r="E13" s="78"/>
@@ -7646,26 +7767,26 @@
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="79"/>
-      <c r="D14" s="100" t="s">
-        <v>54</v>
+      <c r="D14" s="104" t="s">
+        <v>52</v>
       </c>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="100" t="s">
-        <v>68</v>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="104" t="s">
+        <v>66</v>
       </c>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="100" t="s">
-        <v>69</v>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="104" t="s">
+        <v>67</v>
       </c>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
       <c r="R14" s="88"/>
       <c r="S14" s="40"/>
       <c r="T14" s="40"/>
@@ -7712,26 +7833,26 @@
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="79"/>
-      <c r="D15" s="100" t="s">
-        <v>55</v>
+      <c r="D15" s="104" t="s">
+        <v>53</v>
       </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="100" t="s">
-        <v>68</v>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="104" t="s">
+        <v>66</v>
       </c>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="100" t="s">
-        <v>69</v>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="104" t="s">
+        <v>67</v>
       </c>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="112"/>
       <c r="R15" s="88"/>
       <c r="S15" s="40"/>
       <c r="T15" s="40"/>
@@ -7779,7 +7900,7 @@
       <c r="B16" s="14"/>
       <c r="C16" s="79"/>
       <c r="D16" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" s="78"/>
       <c r="F16" s="78"/>
@@ -7841,25 +7962,25 @@
       <c r="B17" s="14"/>
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
-      <c r="E17" s="99" t="s">
-        <v>56</v>
+      <c r="E17" s="108" t="s">
+        <v>54</v>
       </c>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="100" t="s">
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="104"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="113"/>
       <c r="R17" s="40"/>
       <c r="S17" s="40"/>
       <c r="T17" s="40"/>
@@ -7907,25 +8028,25 @@
       <c r="B18" s="14"/>
       <c r="C18" s="82"/>
       <c r="D18" s="82"/>
-      <c r="E18" s="100" t="s">
-        <v>57</v>
+      <c r="E18" s="104" t="s">
+        <v>55</v>
       </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="100" t="s">
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="104"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="113"/>
       <c r="R18" s="40"/>
       <c r="S18" s="40"/>
       <c r="T18" s="40"/>
@@ -8030,25 +8151,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="I7:AH7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="I8:AH8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="I9:AH9"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="C10:H10"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8097,13 +8218,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C1" s="83" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="84"/>
       <c r="E1" s="84"/>
@@ -8113,13 +8234,13 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="85" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="85" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="84"/>
       <c r="E2" s="84"/>
@@ -8129,13 +8250,13 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="85" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="84"/>
       <c r="E3" s="84"/>
@@ -8145,10 +8266,10 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="85" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="85" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="85"/>
       <c r="D4" s="84"/>
@@ -8159,10 +8280,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="85" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="85"/>
       <c r="D5" s="84"/>
@@ -8173,10 +8294,10 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="85"/>
       <c r="D6" s="84"/>
@@ -8188,7 +8309,7 @@
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="86"/>
       <c r="B7" s="85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="85"/>
       <c r="D7" s="84"/>
@@ -8200,7 +8321,7 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="86"/>
       <c r="B8" s="85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="85"/>
       <c r="D8" s="84"/>
@@ -8212,7 +8333,7 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="86"/>
       <c r="B9" s="85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="84"/>
@@ -8224,7 +8345,7 @@
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="86"/>
       <c r="B10" s="85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="85"/>
       <c r="D10" s="84"/>
@@ -8236,7 +8357,7 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="86"/>
       <c r="B11" s="85" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="85"/>
       <c r="D11" s="84"/>
@@ -8248,7 +8369,7 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="86"/>
       <c r="B12" s="85" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="85"/>
       <c r="D12" s="84"/>
@@ -8260,7 +8381,7 @@
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="86"/>
       <c r="B13" s="85" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="85"/>
       <c r="D13" s="84"/>
@@ -8272,7 +8393,7 @@
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="86"/>
       <c r="B14" s="85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="86"/>
       <c r="D14" s="84"/>

--- a/ha-asset/01_design/03_batch/設計書_3.0.健康情報登録バッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.0.健康情報登録バッチ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FEA670-A986-4730-BC40-30767F715DC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D041C14-3BD3-491C-B582-4F88284215DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7800" yWindow="735" windowWidth="20655" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="137">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>シェル名</t>
-  </si>
-  <si>
-    <t>HealthInfoRegistBatch.sh</t>
   </si>
   <si>
     <t>文字コード</t>
@@ -115,9 +112,6 @@
   </si>
   <si>
     <t>WHERE</t>
-  </si>
-  <si>
-    <t>SEQ_USER_ID = JSON.seqUserId</t>
   </si>
   <si>
     <t>2.1.4.備考</t>
@@ -244,10 +238,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>healthInfo.properties#healthInfoRegistBatchFilePath配下のファイルをすべて取得</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>ファイル存在エラー</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -339,10 +329,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>healthInfo.properties#healthInfoRegistBatchFilePath</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>なし</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -360,10 +346,6 @@
   </si>
   <si>
     <t>備考</t>
-  </si>
-  <si>
-    <t>seqUserId</t>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>GET</t>
@@ -409,10 +391,6 @@
   </si>
   <si>
     <t>height</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>healthInfoRequestData[i]</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -517,6 +495,38 @@
     <rPh sb="9" eb="10">
       <t>カ</t>
     </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>healthInfoFileRegist.bat/healthInfoFileRegist.sh</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>healthInfo.properties#healthinfo.regist.batch.file.path配下のファイルをすべて取得</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>healthInfo.properties#healthinfo.regist.batch.file.path</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>seq_user_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>health_info_request_data_list[i]</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>SEQ_USER_ID = JSON.seq_user_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CW0018</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ディレクトリが存在しません.ディレクトリ=${healthinfo.regist.batch.file.path}</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1011,51 +1021,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1066,24 +1036,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1106,23 +1058,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1166,18 +1106,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1202,32 +1130,28 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1238,11 +1162,97 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,7 +1474,9 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1533,688 +1545,688 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="3"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="26"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="67"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="3"/>
-      <c r="B4" s="28">
+      <c r="B4" s="69">
         <v>43771</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="24" t="s">
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="26"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="67"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="108">
+      <c r="B5" s="71">
         <v>44158</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="24">
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="65">
         <f>F4+0.01</f>
         <v>1.01</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="24" t="s">
-        <v>134</v>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="65" t="s">
+        <v>128</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="26"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="67"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="26"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="67"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="26"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="67"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="3"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="26"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="67"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="3"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="26"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="67"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="3"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="26"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="67"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="26"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="67"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="3"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="26"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="67"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="3"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="26"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="67"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="26"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="67"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="26"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="67"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="26"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="67"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="3"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="26"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="67"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="3"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="26"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="67"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="3"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="26"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="67"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="3"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="26"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="67"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="3"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="26"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="67"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="3"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="26"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="67"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="3"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="26"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="67"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="3"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="26"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="67"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="26"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="67"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
@@ -2277,6 +2289,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -2286,66 +2358,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3968,7 +3980,9 @@
   </sheetPr>
   <dimension ref="A1:BQ51"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:K19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -4190,7 +4204,7 @@
     </row>
     <row r="4" spans="1:68" ht="16.5">
       <c r="A4" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -4405,70 +4419,70 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="9"/>
       <c r="B7" s="19"/>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="38" t="s">
-        <v>12</v>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="102" t="s">
+        <v>129</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="38"/>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="38"/>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="38"/>
-      <c r="BB7" s="38"/>
-      <c r="BC7" s="38"/>
-      <c r="BD7" s="38"/>
-      <c r="BE7" s="38"/>
-      <c r="BF7" s="38"/>
-      <c r="BG7" s="38"/>
-      <c r="BH7" s="38"/>
-      <c r="BI7" s="38"/>
-      <c r="BJ7" s="38"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="102"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="102"/>
+      <c r="AG7" s="102"/>
+      <c r="AH7" s="102"/>
+      <c r="AI7" s="102"/>
+      <c r="AJ7" s="102"/>
+      <c r="AK7" s="102"/>
+      <c r="AL7" s="102"/>
+      <c r="AM7" s="102"/>
+      <c r="AN7" s="102"/>
+      <c r="AO7" s="102"/>
+      <c r="AP7" s="102"/>
+      <c r="AQ7" s="102"/>
+      <c r="AR7" s="102"/>
+      <c r="AS7" s="102"/>
+      <c r="AT7" s="102"/>
+      <c r="AU7" s="102"/>
+      <c r="AV7" s="102"/>
+      <c r="AW7" s="102"/>
+      <c r="AX7" s="102"/>
+      <c r="AY7" s="102"/>
+      <c r="AZ7" s="102"/>
+      <c r="BA7" s="102"/>
+      <c r="BB7" s="102"/>
+      <c r="BC7" s="102"/>
+      <c r="BD7" s="102"/>
+      <c r="BE7" s="102"/>
+      <c r="BF7" s="102"/>
+      <c r="BG7" s="102"/>
+      <c r="BH7" s="102"/>
+      <c r="BI7" s="102"/>
+      <c r="BJ7" s="102"/>
       <c r="BK7" s="9"/>
       <c r="BL7" s="9"/>
       <c r="BM7" s="9"/>
@@ -4479,70 +4493,70 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="9"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="30" t="s">
-        <v>13</v>
+      <c r="C8" s="95" t="s">
+        <v>12</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="33" t="s">
-        <v>64</v>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="100" t="s">
+        <v>62</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="33"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="33"/>
-      <c r="AO8" s="33"/>
-      <c r="AP8" s="33"/>
-      <c r="AQ8" s="33"/>
-      <c r="AR8" s="33"/>
-      <c r="AS8" s="33"/>
-      <c r="AT8" s="33"/>
-      <c r="AU8" s="33"/>
-      <c r="AV8" s="33"/>
-      <c r="AW8" s="33"/>
-      <c r="AX8" s="33"/>
-      <c r="AY8" s="33"/>
-      <c r="AZ8" s="33"/>
-      <c r="BA8" s="33"/>
-      <c r="BB8" s="33"/>
-      <c r="BC8" s="33"/>
-      <c r="BD8" s="33"/>
-      <c r="BE8" s="33"/>
-      <c r="BF8" s="33"/>
-      <c r="BG8" s="33"/>
-      <c r="BH8" s="33"/>
-      <c r="BI8" s="33"/>
-      <c r="BJ8" s="33"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="100"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="100"/>
+      <c r="Y8" s="100"/>
+      <c r="Z8" s="100"/>
+      <c r="AA8" s="100"/>
+      <c r="AB8" s="100"/>
+      <c r="AC8" s="100"/>
+      <c r="AD8" s="100"/>
+      <c r="AE8" s="100"/>
+      <c r="AF8" s="100"/>
+      <c r="AG8" s="100"/>
+      <c r="AH8" s="100"/>
+      <c r="AI8" s="100"/>
+      <c r="AJ8" s="100"/>
+      <c r="AK8" s="100"/>
+      <c r="AL8" s="100"/>
+      <c r="AM8" s="100"/>
+      <c r="AN8" s="100"/>
+      <c r="AO8" s="100"/>
+      <c r="AP8" s="100"/>
+      <c r="AQ8" s="100"/>
+      <c r="AR8" s="100"/>
+      <c r="AS8" s="100"/>
+      <c r="AT8" s="100"/>
+      <c r="AU8" s="100"/>
+      <c r="AV8" s="100"/>
+      <c r="AW8" s="100"/>
+      <c r="AX8" s="100"/>
+      <c r="AY8" s="100"/>
+      <c r="AZ8" s="100"/>
+      <c r="BA8" s="100"/>
+      <c r="BB8" s="100"/>
+      <c r="BC8" s="100"/>
+      <c r="BD8" s="100"/>
+      <c r="BE8" s="100"/>
+      <c r="BF8" s="100"/>
+      <c r="BG8" s="100"/>
+      <c r="BH8" s="100"/>
+      <c r="BI8" s="100"/>
+      <c r="BJ8" s="100"/>
       <c r="BK8" s="9"/>
       <c r="BL8" s="9"/>
       <c r="BM8" s="9"/>
@@ -4553,68 +4567,68 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="9"/>
       <c r="B9" s="19"/>
-      <c r="C9" s="30" t="s">
-        <v>14</v>
+      <c r="C9" s="95" t="s">
+        <v>13</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="34"/>
-      <c r="AQ9" s="34"/>
-      <c r="AR9" s="34"/>
-      <c r="AS9" s="34"/>
-      <c r="AT9" s="34"/>
-      <c r="AU9" s="34"/>
-      <c r="AV9" s="34"/>
-      <c r="AW9" s="34"/>
-      <c r="AX9" s="34"/>
-      <c r="AY9" s="34"/>
-      <c r="AZ9" s="34"/>
-      <c r="BA9" s="34"/>
-      <c r="BB9" s="34"/>
-      <c r="BC9" s="34"/>
-      <c r="BD9" s="34"/>
-      <c r="BE9" s="34"/>
-      <c r="BF9" s="34"/>
-      <c r="BG9" s="34"/>
-      <c r="BH9" s="34"/>
-      <c r="BI9" s="34"/>
-      <c r="BJ9" s="34"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="101"/>
+      <c r="AF9" s="101"/>
+      <c r="AG9" s="101"/>
+      <c r="AH9" s="101"/>
+      <c r="AI9" s="101"/>
+      <c r="AJ9" s="101"/>
+      <c r="AK9" s="101"/>
+      <c r="AL9" s="101"/>
+      <c r="AM9" s="101"/>
+      <c r="AN9" s="101"/>
+      <c r="AO9" s="101"/>
+      <c r="AP9" s="101"/>
+      <c r="AQ9" s="101"/>
+      <c r="AR9" s="101"/>
+      <c r="AS9" s="101"/>
+      <c r="AT9" s="101"/>
+      <c r="AU9" s="101"/>
+      <c r="AV9" s="101"/>
+      <c r="AW9" s="101"/>
+      <c r="AX9" s="101"/>
+      <c r="AY9" s="101"/>
+      <c r="AZ9" s="101"/>
+      <c r="BA9" s="101"/>
+      <c r="BB9" s="101"/>
+      <c r="BC9" s="101"/>
+      <c r="BD9" s="101"/>
+      <c r="BE9" s="101"/>
+      <c r="BF9" s="101"/>
+      <c r="BG9" s="101"/>
+      <c r="BH9" s="101"/>
+      <c r="BI9" s="101"/>
+      <c r="BJ9" s="101"/>
       <c r="BK9" s="9"/>
       <c r="BL9" s="9"/>
       <c r="BM9" s="9"/>
@@ -4625,70 +4639,70 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="9"/>
       <c r="B10" s="21"/>
-      <c r="C10" s="31" t="s">
-        <v>62</v>
+      <c r="C10" s="98" t="s">
+        <v>60</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="32" t="s">
-        <v>63</v>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="99" t="s">
+        <v>61</v>
       </c>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="84"/>
-      <c r="AS10" s="84"/>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="84"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="84"/>
-      <c r="BD10" s="84"/>
-      <c r="BE10" s="84"/>
-      <c r="BF10" s="84"/>
-      <c r="BG10" s="84"/>
-      <c r="BH10" s="84"/>
-      <c r="BI10" s="84"/>
-      <c r="BJ10" s="36"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="76"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="76"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="76"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="76"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="76"/>
+      <c r="AY10" s="76"/>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="76"/>
+      <c r="BB10" s="76"/>
+      <c r="BC10" s="76"/>
+      <c r="BD10" s="76"/>
+      <c r="BE10" s="76"/>
+      <c r="BF10" s="76"/>
+      <c r="BG10" s="76"/>
+      <c r="BH10" s="76"/>
+      <c r="BI10" s="76"/>
+      <c r="BJ10" s="97"/>
       <c r="BK10" s="9"/>
       <c r="BL10" s="9"/>
       <c r="BM10" s="9"/>
@@ -4768,7 +4782,7 @@
     </row>
     <row r="12" spans="1:68" ht="16.5">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4908,733 +4922,733 @@
       <c r="BO13" s="9"/>
       <c r="BP13" s="9"/>
     </row>
-    <row r="14" spans="1:68" s="42" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40" t="s">
+    <row r="14" spans="1:68" s="26" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41" t="s">
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41" t="s">
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="94"/>
+      <c r="AH14" s="94"/>
+      <c r="AI14" s="94"/>
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
-      <c r="AL14" s="41" t="s">
-        <v>20</v>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="94"/>
+      <c r="AP14" s="94"/>
+      <c r="AQ14" s="94"/>
+      <c r="AR14" s="94"/>
+      <c r="AS14" s="94"/>
+      <c r="AT14" s="94"/>
+      <c r="AU14" s="94"/>
+      <c r="AV14" s="94"/>
+      <c r="AW14" s="94"/>
+      <c r="AX14" s="94"/>
+      <c r="AY14" s="94"/>
+      <c r="AZ14" s="94"/>
+      <c r="BA14" s="94"/>
+      <c r="BB14" s="94"/>
+      <c r="BC14" s="94"/>
+      <c r="BD14" s="94"/>
+      <c r="BE14" s="94"/>
+      <c r="BF14" s="94"/>
+      <c r="BG14" s="94"/>
+      <c r="BH14" s="94"/>
+      <c r="BI14" s="94"/>
+      <c r="BJ14" s="94"/>
+      <c r="BK14" s="94"/>
+      <c r="BL14" s="94"/>
+      <c r="BM14" s="94"/>
+      <c r="BN14" s="94"/>
+      <c r="BO14" s="94"/>
+      <c r="BP14" s="25"/>
+    </row>
+    <row r="15" spans="1:68" s="26" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="94"/>
+      <c r="AJ15" s="94"/>
+      <c r="AK15" s="94"/>
+      <c r="AL15" s="94" t="s">
+        <v>63</v>
       </c>
-      <c r="AM14" s="41"/>
-      <c r="AN14" s="41"/>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="41"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="41"/>
-      <c r="AU14" s="41"/>
-      <c r="AV14" s="41"/>
-      <c r="AW14" s="41"/>
-      <c r="AX14" s="41"/>
-      <c r="AY14" s="41"/>
-      <c r="AZ14" s="41"/>
-      <c r="BA14" s="41"/>
-      <c r="BB14" s="41"/>
-      <c r="BC14" s="41"/>
-      <c r="BD14" s="41"/>
-      <c r="BE14" s="41"/>
-      <c r="BF14" s="41"/>
-      <c r="BG14" s="41"/>
-      <c r="BH14" s="41"/>
-      <c r="BI14" s="41"/>
-      <c r="BJ14" s="41"/>
-      <c r="BK14" s="41"/>
-      <c r="BL14" s="41"/>
-      <c r="BM14" s="41"/>
-      <c r="BN14" s="41"/>
-      <c r="BO14" s="41"/>
-      <c r="BP14" s="39"/>
-    </row>
-    <row r="15" spans="1:68" s="42" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="41"/>
-      <c r="AL15" s="41" t="s">
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="94"/>
+      <c r="AP15" s="94"/>
+      <c r="AQ15" s="94"/>
+      <c r="AR15" s="94"/>
+      <c r="AS15" s="94"/>
+      <c r="AT15" s="94"/>
+      <c r="AU15" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV15" s="94"/>
+      <c r="AW15" s="94"/>
+      <c r="AX15" s="94"/>
+      <c r="AY15" s="94"/>
+      <c r="AZ15" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="AM15" s="41"/>
-      <c r="AN15" s="41"/>
-      <c r="AO15" s="41"/>
-      <c r="AP15" s="41"/>
-      <c r="AQ15" s="41"/>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV15" s="41"/>
-      <c r="AW15" s="41"/>
-      <c r="AX15" s="41"/>
-      <c r="AY15" s="41"/>
-      <c r="AZ15" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA15" s="41"/>
-      <c r="BB15" s="41"/>
-      <c r="BC15" s="41"/>
-      <c r="BD15" s="41"/>
-      <c r="BE15" s="41"/>
-      <c r="BF15" s="41"/>
-      <c r="BG15" s="41"/>
-      <c r="BH15" s="41"/>
-      <c r="BI15" s="41"/>
-      <c r="BJ15" s="41"/>
-      <c r="BK15" s="41"/>
-      <c r="BL15" s="41"/>
-      <c r="BM15" s="41"/>
-      <c r="BN15" s="41"/>
-      <c r="BO15" s="41"/>
-      <c r="BP15" s="39"/>
-    </row>
-    <row r="16" spans="1:68" s="42" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="37">
+      <c r="BA15" s="94"/>
+      <c r="BB15" s="94"/>
+      <c r="BC15" s="94"/>
+      <c r="BD15" s="94"/>
+      <c r="BE15" s="94"/>
+      <c r="BF15" s="94"/>
+      <c r="BG15" s="94"/>
+      <c r="BH15" s="94"/>
+      <c r="BI15" s="94"/>
+      <c r="BJ15" s="94"/>
+      <c r="BK15" s="94"/>
+      <c r="BL15" s="94"/>
+      <c r="BM15" s="94"/>
+      <c r="BN15" s="94"/>
+      <c r="BO15" s="94"/>
+      <c r="BP15" s="25"/>
+    </row>
+    <row r="16" spans="1:68" s="26" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="24">
         <f ca="1">MAX(B$14:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C16" s="51" t="s">
-        <v>68</v>
+      <c r="C16" s="92" t="s">
+        <v>66</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51" t="s">
-        <v>69</v>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92" t="s">
+        <v>130</v>
       </c>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51" t="s">
-        <v>70</v>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92" t="s">
+        <v>67</v>
       </c>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51" t="s">
-        <v>82</v>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="92" t="s">
+        <v>79</v>
       </c>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="51"/>
-      <c r="AR16" s="51"/>
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="51"/>
-      <c r="AU16" s="51" t="s">
-        <v>82</v>
+      <c r="AM16" s="92"/>
+      <c r="AN16" s="92"/>
+      <c r="AO16" s="92"/>
+      <c r="AP16" s="92"/>
+      <c r="AQ16" s="92"/>
+      <c r="AR16" s="92"/>
+      <c r="AS16" s="92"/>
+      <c r="AT16" s="92"/>
+      <c r="AU16" s="92" t="s">
+        <v>135</v>
       </c>
-      <c r="AV16" s="51"/>
-      <c r="AW16" s="51"/>
-      <c r="AX16" s="51"/>
-      <c r="AY16" s="51"/>
-      <c r="AZ16" s="51" t="s">
-        <v>82</v>
+      <c r="AV16" s="92"/>
+      <c r="AW16" s="92"/>
+      <c r="AX16" s="92"/>
+      <c r="AY16" s="92"/>
+      <c r="AZ16" s="92" t="s">
+        <v>136</v>
       </c>
-      <c r="BA16" s="51"/>
-      <c r="BB16" s="51"/>
-      <c r="BC16" s="51"/>
-      <c r="BD16" s="51"/>
-      <c r="BE16" s="51"/>
-      <c r="BF16" s="51"/>
-      <c r="BG16" s="51"/>
-      <c r="BH16" s="51"/>
-      <c r="BI16" s="51"/>
-      <c r="BJ16" s="51"/>
-      <c r="BK16" s="51"/>
-      <c r="BL16" s="51"/>
-      <c r="BM16" s="51"/>
-      <c r="BN16" s="51"/>
-      <c r="BO16" s="51"/>
+      <c r="BA16" s="92"/>
+      <c r="BB16" s="92"/>
+      <c r="BC16" s="92"/>
+      <c r="BD16" s="92"/>
+      <c r="BE16" s="92"/>
+      <c r="BF16" s="92"/>
+      <c r="BG16" s="92"/>
+      <c r="BH16" s="92"/>
+      <c r="BI16" s="92"/>
+      <c r="BJ16" s="92"/>
+      <c r="BK16" s="92"/>
+      <c r="BL16" s="92"/>
+      <c r="BM16" s="92"/>
+      <c r="BN16" s="92"/>
+      <c r="BO16" s="92"/>
       <c r="BP16" s="9"/>
     </row>
-    <row r="17" spans="1:68" s="42" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="44">
+    <row r="17" spans="1:68" s="26" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="28">
         <f ca="1">MAX(B$14:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="52" t="s">
-        <v>21</v>
+      <c r="C17" s="30" t="s">
+        <v>20</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
-      <c r="AE17" s="53"/>
-      <c r="AF17" s="53"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="53"/>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="53"/>
-      <c r="AM17" s="53"/>
-      <c r="AN17" s="53"/>
-      <c r="AO17" s="53"/>
-      <c r="AP17" s="53"/>
-      <c r="AQ17" s="53"/>
-      <c r="AR17" s="53"/>
-      <c r="AS17" s="53"/>
-      <c r="AT17" s="53"/>
-      <c r="AU17" s="53"/>
-      <c r="AV17" s="53"/>
-      <c r="AW17" s="53"/>
-      <c r="AX17" s="53"/>
-      <c r="AY17" s="53"/>
-      <c r="AZ17" s="53"/>
-      <c r="BA17" s="53"/>
-      <c r="BB17" s="53"/>
-      <c r="BC17" s="53"/>
-      <c r="BD17" s="53"/>
-      <c r="BE17" s="53"/>
-      <c r="BF17" s="53"/>
-      <c r="BG17" s="53"/>
-      <c r="BH17" s="53"/>
-      <c r="BI17" s="53"/>
-      <c r="BJ17" s="53"/>
-      <c r="BK17" s="53"/>
-      <c r="BL17" s="53"/>
-      <c r="BM17" s="53"/>
-      <c r="BN17" s="53"/>
-      <c r="BO17" s="54"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
+      <c r="AQ17" s="31"/>
+      <c r="AR17" s="31"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="31"/>
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="31"/>
+      <c r="AW17" s="31"/>
+      <c r="AX17" s="31"/>
+      <c r="AY17" s="31"/>
+      <c r="AZ17" s="31"/>
+      <c r="BA17" s="31"/>
+      <c r="BB17" s="31"/>
+      <c r="BC17" s="31"/>
+      <c r="BD17" s="31"/>
+      <c r="BE17" s="31"/>
+      <c r="BF17" s="31"/>
+      <c r="BG17" s="31"/>
+      <c r="BH17" s="31"/>
+      <c r="BI17" s="31"/>
+      <c r="BJ17" s="31"/>
+      <c r="BK17" s="31"/>
+      <c r="BL17" s="31"/>
+      <c r="BM17" s="31"/>
+      <c r="BN17" s="31"/>
+      <c r="BO17" s="32"/>
       <c r="BP17" s="9"/>
     </row>
-    <row r="18" spans="1:68" s="42" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="44">
+    <row r="18" spans="1:68" s="26" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="28">
         <f ca="1">MAX(B$14:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="49" t="s">
-        <v>71</v>
+      <c r="C18" s="33"/>
+      <c r="D18" s="91" t="s">
+        <v>68</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49" t="s">
-        <v>82</v>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91" t="s">
+        <v>79</v>
       </c>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49" t="s">
-        <v>82</v>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="91" t="s">
+        <v>79</v>
       </c>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="49"/>
-      <c r="AJ18" s="49"/>
-      <c r="AK18" s="49"/>
-      <c r="AL18" s="49" t="s">
-        <v>78</v>
+      <c r="AD18" s="91"/>
+      <c r="AE18" s="91"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="91"/>
+      <c r="AH18" s="91"/>
+      <c r="AI18" s="91"/>
+      <c r="AJ18" s="91"/>
+      <c r="AK18" s="91"/>
+      <c r="AL18" s="91" t="s">
+        <v>75</v>
       </c>
-      <c r="AM18" s="49"/>
-      <c r="AN18" s="49"/>
-      <c r="AO18" s="49"/>
-      <c r="AP18" s="49"/>
-      <c r="AQ18" s="49"/>
-      <c r="AR18" s="49"/>
-      <c r="AS18" s="49"/>
-      <c r="AT18" s="49"/>
-      <c r="AU18" s="49" t="s">
-        <v>76</v>
+      <c r="AM18" s="91"/>
+      <c r="AN18" s="91"/>
+      <c r="AO18" s="91"/>
+      <c r="AP18" s="91"/>
+      <c r="AQ18" s="91"/>
+      <c r="AR18" s="91"/>
+      <c r="AS18" s="91"/>
+      <c r="AT18" s="91"/>
+      <c r="AU18" s="91" t="s">
+        <v>73</v>
       </c>
-      <c r="AV18" s="49"/>
-      <c r="AW18" s="49"/>
-      <c r="AX18" s="49"/>
-      <c r="AY18" s="49"/>
-      <c r="AZ18" s="49" t="s">
-        <v>77</v>
+      <c r="AV18" s="91"/>
+      <c r="AW18" s="91"/>
+      <c r="AX18" s="91"/>
+      <c r="AY18" s="91"/>
+      <c r="AZ18" s="91" t="s">
+        <v>74</v>
       </c>
-      <c r="BA18" s="49"/>
-      <c r="BB18" s="49"/>
-      <c r="BC18" s="49"/>
-      <c r="BD18" s="49"/>
-      <c r="BE18" s="49"/>
-      <c r="BF18" s="49"/>
-      <c r="BG18" s="49"/>
-      <c r="BH18" s="49"/>
-      <c r="BI18" s="49"/>
-      <c r="BJ18" s="49"/>
-      <c r="BK18" s="49"/>
-      <c r="BL18" s="49"/>
-      <c r="BM18" s="49"/>
-      <c r="BN18" s="49"/>
-      <c r="BO18" s="49"/>
+      <c r="BA18" s="91"/>
+      <c r="BB18" s="91"/>
+      <c r="BC18" s="91"/>
+      <c r="BD18" s="91"/>
+      <c r="BE18" s="91"/>
+      <c r="BF18" s="91"/>
+      <c r="BG18" s="91"/>
+      <c r="BH18" s="91"/>
+      <c r="BI18" s="91"/>
+      <c r="BJ18" s="91"/>
+      <c r="BK18" s="91"/>
+      <c r="BL18" s="91"/>
+      <c r="BM18" s="91"/>
+      <c r="BN18" s="91"/>
+      <c r="BO18" s="91"/>
       <c r="BP18" s="9"/>
     </row>
-    <row r="19" spans="1:68" s="42" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
-      <c r="A19" s="39"/>
-      <c r="B19" s="44">
+    <row r="19" spans="1:68" s="26" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="28">
         <f ca="1">MAX(B$14:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="49" t="s">
-        <v>72</v>
+      <c r="C19" s="33"/>
+      <c r="D19" s="91" t="s">
+        <v>69</v>
       </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49" t="s">
-        <v>81</v>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91" t="s">
+        <v>78</v>
       </c>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="49"/>
-      <c r="AI19" s="49"/>
-      <c r="AJ19" s="49"/>
-      <c r="AK19" s="49"/>
-      <c r="AL19" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM19" s="51"/>
-      <c r="AN19" s="51"/>
-      <c r="AO19" s="51"/>
-      <c r="AP19" s="51"/>
-      <c r="AQ19" s="51"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
-      <c r="AT19" s="51"/>
-      <c r="AU19" s="49" t="s">
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="91"/>
+      <c r="AA19" s="91"/>
+      <c r="AB19" s="91"/>
+      <c r="AC19" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="AV19" s="49"/>
-      <c r="AW19" s="49"/>
-      <c r="AX19" s="49"/>
-      <c r="AY19" s="49"/>
-      <c r="AZ19" s="49" t="s">
-        <v>80</v>
+      <c r="AD19" s="91"/>
+      <c r="AE19" s="91"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="91"/>
+      <c r="AH19" s="91"/>
+      <c r="AI19" s="91"/>
+      <c r="AJ19" s="91"/>
+      <c r="AK19" s="91"/>
+      <c r="AL19" s="92" t="s">
+        <v>108</v>
       </c>
-      <c r="BA19" s="49"/>
-      <c r="BB19" s="49"/>
-      <c r="BC19" s="49"/>
-      <c r="BD19" s="49"/>
-      <c r="BE19" s="49"/>
-      <c r="BF19" s="49"/>
-      <c r="BG19" s="49"/>
-      <c r="BH19" s="49"/>
-      <c r="BI19" s="49"/>
-      <c r="BJ19" s="49"/>
-      <c r="BK19" s="49"/>
-      <c r="BL19" s="49"/>
-      <c r="BM19" s="49"/>
-      <c r="BN19" s="49"/>
-      <c r="BO19" s="49"/>
+      <c r="AM19" s="92"/>
+      <c r="AN19" s="92"/>
+      <c r="AO19" s="92"/>
+      <c r="AP19" s="92"/>
+      <c r="AQ19" s="92"/>
+      <c r="AR19" s="92"/>
+      <c r="AS19" s="92"/>
+      <c r="AT19" s="92"/>
+      <c r="AU19" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV19" s="91"/>
+      <c r="AW19" s="91"/>
+      <c r="AX19" s="91"/>
+      <c r="AY19" s="91"/>
+      <c r="AZ19" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA19" s="91"/>
+      <c r="BB19" s="91"/>
+      <c r="BC19" s="91"/>
+      <c r="BD19" s="91"/>
+      <c r="BE19" s="91"/>
+      <c r="BF19" s="91"/>
+      <c r="BG19" s="91"/>
+      <c r="BH19" s="91"/>
+      <c r="BI19" s="91"/>
+      <c r="BJ19" s="91"/>
+      <c r="BK19" s="91"/>
+      <c r="BL19" s="91"/>
+      <c r="BM19" s="91"/>
+      <c r="BN19" s="91"/>
+      <c r="BO19" s="91"/>
       <c r="BP19" s="9"/>
     </row>
-    <row r="20" spans="1:68" s="42" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="44">
+    <row r="20" spans="1:68" s="26" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="28">
         <f ca="1">MAX(B$14:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="49" t="s">
-        <v>73</v>
+      <c r="C20" s="33"/>
+      <c r="D20" s="91" t="s">
+        <v>70</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49" t="s">
-        <v>75</v>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91" t="s">
+        <v>72</v>
       </c>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="49" t="s">
-        <v>82</v>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="91"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="91"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="91"/>
+      <c r="AA20" s="91"/>
+      <c r="AB20" s="91"/>
+      <c r="AC20" s="91" t="s">
+        <v>79</v>
       </c>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="49"/>
-      <c r="AG20" s="49"/>
-      <c r="AH20" s="49"/>
-      <c r="AI20" s="49"/>
-      <c r="AJ20" s="49"/>
-      <c r="AK20" s="49"/>
-      <c r="AL20" s="51" t="s">
-        <v>82</v>
+      <c r="AD20" s="91"/>
+      <c r="AE20" s="91"/>
+      <c r="AF20" s="91"/>
+      <c r="AG20" s="91"/>
+      <c r="AH20" s="91"/>
+      <c r="AI20" s="91"/>
+      <c r="AJ20" s="91"/>
+      <c r="AK20" s="91"/>
+      <c r="AL20" s="92" t="s">
+        <v>79</v>
       </c>
-      <c r="AM20" s="51"/>
-      <c r="AN20" s="51"/>
-      <c r="AO20" s="51"/>
-      <c r="AP20" s="51"/>
-      <c r="AQ20" s="51"/>
-      <c r="AR20" s="51"/>
-      <c r="AS20" s="51"/>
-      <c r="AT20" s="51"/>
-      <c r="AU20" s="51" t="s">
-        <v>82</v>
+      <c r="AM20" s="92"/>
+      <c r="AN20" s="92"/>
+      <c r="AO20" s="92"/>
+      <c r="AP20" s="92"/>
+      <c r="AQ20" s="92"/>
+      <c r="AR20" s="92"/>
+      <c r="AS20" s="92"/>
+      <c r="AT20" s="92"/>
+      <c r="AU20" s="92" t="s">
+        <v>79</v>
       </c>
-      <c r="AV20" s="51"/>
-      <c r="AW20" s="51"/>
-      <c r="AX20" s="51"/>
-      <c r="AY20" s="51"/>
-      <c r="AZ20" s="51" t="s">
-        <v>82</v>
+      <c r="AV20" s="92"/>
+      <c r="AW20" s="92"/>
+      <c r="AX20" s="92"/>
+      <c r="AY20" s="92"/>
+      <c r="AZ20" s="92" t="s">
+        <v>79</v>
       </c>
-      <c r="BA20" s="51"/>
-      <c r="BB20" s="51"/>
-      <c r="BC20" s="51"/>
-      <c r="BD20" s="51"/>
-      <c r="BE20" s="51"/>
-      <c r="BF20" s="51"/>
-      <c r="BG20" s="51"/>
-      <c r="BH20" s="51"/>
-      <c r="BI20" s="51"/>
-      <c r="BJ20" s="51"/>
-      <c r="BK20" s="51"/>
-      <c r="BL20" s="51"/>
-      <c r="BM20" s="51"/>
-      <c r="BN20" s="51"/>
-      <c r="BO20" s="51"/>
+      <c r="BA20" s="92"/>
+      <c r="BB20" s="92"/>
+      <c r="BC20" s="92"/>
+      <c r="BD20" s="92"/>
+      <c r="BE20" s="92"/>
+      <c r="BF20" s="92"/>
+      <c r="BG20" s="92"/>
+      <c r="BH20" s="92"/>
+      <c r="BI20" s="92"/>
+      <c r="BJ20" s="92"/>
+      <c r="BK20" s="92"/>
+      <c r="BL20" s="92"/>
+      <c r="BM20" s="92"/>
+      <c r="BN20" s="92"/>
+      <c r="BO20" s="92"/>
       <c r="BP20" s="9"/>
     </row>
-    <row r="21" spans="1:68" s="42" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="44">
+    <row r="21" spans="1:68" s="26" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="28">
         <f ca="1">MAX(B$14:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>6</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="49" t="s">
-        <v>74</v>
+      <c r="C21" s="33"/>
+      <c r="D21" s="91" t="s">
+        <v>71</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49" t="s">
-        <v>133</v>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91" t="s">
+        <v>127</v>
       </c>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="49"/>
-      <c r="AC21" s="49" t="s">
-        <v>82</v>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="91"/>
+      <c r="AB21" s="91"/>
+      <c r="AC21" s="91" t="s">
+        <v>79</v>
       </c>
-      <c r="AD21" s="49"/>
-      <c r="AE21" s="49"/>
-      <c r="AF21" s="49"/>
-      <c r="AG21" s="49"/>
-      <c r="AH21" s="49"/>
-      <c r="AI21" s="49"/>
-      <c r="AJ21" s="49"/>
-      <c r="AK21" s="49"/>
-      <c r="AL21" s="49" t="s">
-        <v>82</v>
+      <c r="AD21" s="91"/>
+      <c r="AE21" s="91"/>
+      <c r="AF21" s="91"/>
+      <c r="AG21" s="91"/>
+      <c r="AH21" s="91"/>
+      <c r="AI21" s="91"/>
+      <c r="AJ21" s="91"/>
+      <c r="AK21" s="91"/>
+      <c r="AL21" s="91" t="s">
+        <v>79</v>
       </c>
-      <c r="AM21" s="49"/>
-      <c r="AN21" s="49"/>
-      <c r="AO21" s="49"/>
-      <c r="AP21" s="49"/>
-      <c r="AQ21" s="49"/>
-      <c r="AR21" s="49"/>
-      <c r="AS21" s="49"/>
-      <c r="AT21" s="49"/>
-      <c r="AU21" s="49" t="s">
-        <v>82</v>
+      <c r="AM21" s="91"/>
+      <c r="AN21" s="91"/>
+      <c r="AO21" s="91"/>
+      <c r="AP21" s="91"/>
+      <c r="AQ21" s="91"/>
+      <c r="AR21" s="91"/>
+      <c r="AS21" s="91"/>
+      <c r="AT21" s="91"/>
+      <c r="AU21" s="91" t="s">
+        <v>79</v>
       </c>
-      <c r="AV21" s="49"/>
-      <c r="AW21" s="49"/>
-      <c r="AX21" s="49"/>
-      <c r="AY21" s="49"/>
-      <c r="AZ21" s="49" t="s">
-        <v>82</v>
+      <c r="AV21" s="91"/>
+      <c r="AW21" s="91"/>
+      <c r="AX21" s="91"/>
+      <c r="AY21" s="91"/>
+      <c r="AZ21" s="91" t="s">
+        <v>79</v>
       </c>
-      <c r="BA21" s="49"/>
-      <c r="BB21" s="49"/>
-      <c r="BC21" s="49"/>
-      <c r="BD21" s="49"/>
-      <c r="BE21" s="49"/>
-      <c r="BF21" s="49"/>
-      <c r="BG21" s="49"/>
-      <c r="BH21" s="49"/>
-      <c r="BI21" s="49"/>
-      <c r="BJ21" s="49"/>
-      <c r="BK21" s="49"/>
-      <c r="BL21" s="49"/>
-      <c r="BM21" s="49"/>
-      <c r="BN21" s="49"/>
-      <c r="BO21" s="49"/>
+      <c r="BA21" s="91"/>
+      <c r="BB21" s="91"/>
+      <c r="BC21" s="91"/>
+      <c r="BD21" s="91"/>
+      <c r="BE21" s="91"/>
+      <c r="BF21" s="91"/>
+      <c r="BG21" s="91"/>
+      <c r="BH21" s="91"/>
+      <c r="BI21" s="91"/>
+      <c r="BJ21" s="91"/>
+      <c r="BK21" s="91"/>
+      <c r="BL21" s="91"/>
+      <c r="BM21" s="91"/>
+      <c r="BN21" s="91"/>
+      <c r="BO21" s="91"/>
       <c r="BP21" s="9"/>
     </row>
-    <row r="22" spans="1:68" s="42" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="44">
+    <row r="22" spans="1:68" s="26" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A22" s="25"/>
+      <c r="B22" s="28">
         <f ca="1">MAX(B$14:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>7</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="57"/>
-      <c r="AC22" s="57"/>
-      <c r="AD22" s="57"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="57"/>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="57"/>
-      <c r="AJ22" s="57"/>
-      <c r="AK22" s="57"/>
-      <c r="AL22" s="57"/>
-      <c r="AM22" s="57"/>
-      <c r="AN22" s="57"/>
-      <c r="AO22" s="57"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="57"/>
-      <c r="AR22" s="57"/>
-      <c r="AS22" s="57"/>
-      <c r="AT22" s="57"/>
-      <c r="AU22" s="57"/>
-      <c r="AV22" s="57"/>
-      <c r="AW22" s="57"/>
-      <c r="AX22" s="57"/>
-      <c r="AY22" s="57"/>
-      <c r="AZ22" s="57"/>
-      <c r="BA22" s="57"/>
-      <c r="BB22" s="57"/>
-      <c r="BC22" s="57"/>
-      <c r="BD22" s="57"/>
-      <c r="BE22" s="57"/>
-      <c r="BF22" s="57"/>
-      <c r="BG22" s="57"/>
-      <c r="BH22" s="57"/>
-      <c r="BI22" s="57"/>
-      <c r="BJ22" s="57"/>
-      <c r="BK22" s="57"/>
-      <c r="BL22" s="57"/>
-      <c r="BM22" s="57"/>
-      <c r="BN22" s="57"/>
-      <c r="BO22" s="58"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="35"/>
+      <c r="AQ22" s="35"/>
+      <c r="AR22" s="35"/>
+      <c r="AS22" s="35"/>
+      <c r="AT22" s="35"/>
+      <c r="AU22" s="35"/>
+      <c r="AV22" s="35"/>
+      <c r="AW22" s="35"/>
+      <c r="AX22" s="35"/>
+      <c r="AY22" s="35"/>
+      <c r="AZ22" s="35"/>
+      <c r="BA22" s="35"/>
+      <c r="BB22" s="35"/>
+      <c r="BC22" s="35"/>
+      <c r="BD22" s="35"/>
+      <c r="BE22" s="35"/>
+      <c r="BF22" s="35"/>
+      <c r="BG22" s="35"/>
+      <c r="BH22" s="35"/>
+      <c r="BI22" s="35"/>
+      <c r="BJ22" s="35"/>
+      <c r="BK22" s="35"/>
+      <c r="BL22" s="35"/>
+      <c r="BM22" s="35"/>
+      <c r="BN22" s="35"/>
+      <c r="BO22" s="36"/>
       <c r="BP22" s="9"/>
     </row>
     <row r="23" spans="1:68" ht="16.5">
@@ -5709,7 +5723,7 @@
     </row>
     <row r="24" spans="1:68" ht="16.5">
       <c r="A24" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -5852,18 +5866,18 @@
     <row r="26" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -5923,11 +5937,11 @@
     </row>
     <row r="27" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A27" s="9"/>
-      <c r="B27" s="106"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
-      <c r="D27" s="107"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -5995,10 +6009,10 @@
     </row>
     <row r="28" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A28" s="9"/>
-      <c r="B28" s="106"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -6067,9 +6081,9 @@
     </row>
     <row r="29" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A29" s="9"/>
-      <c r="B29" s="106"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -6139,12 +6153,12 @@
     </row>
     <row r="30" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A30" s="9"/>
-      <c r="B30" s="106"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
-      <c r="E30" s="107"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -6211,9 +6225,9 @@
     </row>
     <row r="31" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A31" s="9"/>
-      <c r="B31" s="106"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -6283,17 +6297,17 @@
     </row>
     <row r="32" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A32" s="9"/>
-      <c r="B32" s="106"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
@@ -6495,7 +6509,7 @@
     </row>
     <row r="35" spans="1:69" ht="16.5">
       <c r="A35" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -6638,7 +6652,7 @@
     <row r="37" spans="1:69" ht="16.5" outlineLevel="1">
       <c r="A37" s="9"/>
       <c r="B37" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -6710,886 +6724,886 @@
     <row r="38" spans="1:69" ht="16.5" outlineLevel="1">
       <c r="A38" s="9"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="63" t="s">
-        <v>131</v>
+      <c r="C38" s="38" t="s">
+        <v>125</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
-      <c r="S38" s="65"/>
-      <c r="T38" s="65"/>
-      <c r="U38" s="65"/>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="65"/>
-      <c r="AD38" s="65"/>
-      <c r="AE38" s="65"/>
-      <c r="AF38" s="65"/>
-      <c r="AG38" s="65"/>
-      <c r="AH38" s="65"/>
-      <c r="AI38" s="65"/>
-      <c r="AJ38" s="65"/>
-      <c r="AK38" s="65"/>
-      <c r="AL38" s="65"/>
-      <c r="AM38" s="65"/>
-      <c r="AN38" s="65"/>
-      <c r="AO38" s="65"/>
-      <c r="AP38" s="65"/>
-      <c r="AQ38" s="65"/>
-      <c r="AR38" s="65"/>
-      <c r="AS38" s="65"/>
-      <c r="AT38" s="65"/>
-      <c r="AU38" s="65"/>
-      <c r="AV38" s="65"/>
-      <c r="AW38" s="65"/>
-      <c r="AX38" s="65"/>
-      <c r="AY38" s="65"/>
-      <c r="AZ38" s="65"/>
-      <c r="BA38" s="65"/>
-      <c r="BB38" s="65"/>
-      <c r="BC38" s="65"/>
-      <c r="BD38" s="65"/>
-      <c r="BE38" s="65"/>
-      <c r="BF38" s="65"/>
-      <c r="BG38" s="65"/>
-      <c r="BH38" s="65"/>
-      <c r="BI38" s="65"/>
-      <c r="BJ38" s="65"/>
-      <c r="BK38" s="65"/>
-      <c r="BL38" s="65"/>
-      <c r="BM38" s="65"/>
-      <c r="BN38" s="65"/>
-      <c r="BO38" s="66"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="39"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="39"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="39"/>
+      <c r="AK38" s="39"/>
+      <c r="AL38" s="39"/>
+      <c r="AM38" s="39"/>
+      <c r="AN38" s="39"/>
+      <c r="AO38" s="39"/>
+      <c r="AP38" s="39"/>
+      <c r="AQ38" s="39"/>
+      <c r="AR38" s="39"/>
+      <c r="AS38" s="39"/>
+      <c r="AT38" s="39"/>
+      <c r="AU38" s="39"/>
+      <c r="AV38" s="39"/>
+      <c r="AW38" s="39"/>
+      <c r="AX38" s="39"/>
+      <c r="AY38" s="39"/>
+      <c r="AZ38" s="39"/>
+      <c r="BA38" s="39"/>
+      <c r="BB38" s="39"/>
+      <c r="BC38" s="39"/>
+      <c r="BD38" s="39"/>
+      <c r="BE38" s="39"/>
+      <c r="BF38" s="39"/>
+      <c r="BG38" s="39"/>
+      <c r="BH38" s="39"/>
+      <c r="BI38" s="39"/>
+      <c r="BJ38" s="39"/>
+      <c r="BK38" s="39"/>
+      <c r="BL38" s="39"/>
+      <c r="BM38" s="39"/>
+      <c r="BN38" s="39"/>
+      <c r="BO38" s="40"/>
       <c r="BP38" s="9"/>
     </row>
     <row r="39" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A39" s="9"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="93" t="s">
+      <c r="C39" s="41"/>
+      <c r="D39" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="79"/>
+      <c r="U39" s="79"/>
+      <c r="V39" s="79"/>
+      <c r="W39" s="79"/>
+      <c r="X39" s="79"/>
+      <c r="Y39" s="79"/>
+      <c r="Z39" s="79"/>
+      <c r="AA39" s="79"/>
+      <c r="AB39" s="79"/>
+      <c r="AC39" s="79"/>
+      <c r="AD39" s="79"/>
+      <c r="AE39" s="79"/>
+      <c r="AF39" s="79"/>
+      <c r="AG39" s="79"/>
+      <c r="AH39" s="79"/>
+      <c r="AI39" s="79"/>
+      <c r="AJ39" s="79"/>
+      <c r="AK39" s="79"/>
+      <c r="AL39" s="79"/>
+      <c r="AM39" s="79"/>
+      <c r="AN39" s="79"/>
+      <c r="AO39" s="79"/>
+      <c r="AP39" s="79"/>
+      <c r="AQ39" s="79"/>
+      <c r="AR39" s="79"/>
+      <c r="AS39" s="79"/>
+      <c r="AT39" s="79"/>
+      <c r="AU39" s="79"/>
+      <c r="AV39" s="79"/>
+      <c r="AW39" s="79"/>
+      <c r="AX39" s="79"/>
+      <c r="AY39" s="79"/>
+      <c r="AZ39" s="79"/>
+      <c r="BA39" s="79"/>
+      <c r="BB39" s="79"/>
+      <c r="BC39" s="79"/>
+      <c r="BD39" s="79"/>
+      <c r="BE39" s="79"/>
+      <c r="BF39" s="79"/>
+      <c r="BG39" s="79"/>
+      <c r="BH39" s="79"/>
+      <c r="BI39" s="79"/>
+      <c r="BJ39" s="79"/>
+      <c r="BK39" s="79"/>
+      <c r="BL39" s="79"/>
+      <c r="BM39" s="79"/>
+      <c r="BN39" s="79"/>
+      <c r="BO39" s="80"/>
+    </row>
+    <row r="40" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A40" s="9"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="89"/>
+      <c r="V40" s="89"/>
+      <c r="W40" s="89"/>
+      <c r="X40" s="89"/>
+      <c r="Y40" s="89"/>
+      <c r="Z40" s="89"/>
+      <c r="AA40" s="89"/>
+      <c r="AB40" s="89"/>
+      <c r="AC40" s="89"/>
+      <c r="AD40" s="89"/>
+      <c r="AE40" s="89"/>
+      <c r="AF40" s="89"/>
+      <c r="AG40" s="89"/>
+      <c r="AH40" s="89"/>
+      <c r="AI40" s="89"/>
+      <c r="AJ40" s="89"/>
+      <c r="AK40" s="89"/>
+      <c r="AL40" s="89"/>
+      <c r="AM40" s="89"/>
+      <c r="AN40" s="89"/>
+      <c r="AO40" s="89"/>
+      <c r="AP40" s="89"/>
+      <c r="AQ40" s="89"/>
+      <c r="AR40" s="89"/>
+      <c r="AS40" s="89"/>
+      <c r="AT40" s="89"/>
+      <c r="AU40" s="89"/>
+      <c r="AV40" s="89"/>
+      <c r="AW40" s="89"/>
+      <c r="AX40" s="89"/>
+      <c r="AY40" s="89"/>
+      <c r="AZ40" s="89"/>
+      <c r="BA40" s="89"/>
+      <c r="BB40" s="89"/>
+      <c r="BC40" s="89"/>
+      <c r="BD40" s="89"/>
+      <c r="BE40" s="89"/>
+      <c r="BF40" s="89"/>
+      <c r="BG40" s="89"/>
+      <c r="BH40" s="89"/>
+      <c r="BI40" s="89"/>
+      <c r="BJ40" s="89"/>
+      <c r="BK40" s="89"/>
+      <c r="BL40" s="89"/>
+      <c r="BM40" s="89"/>
+      <c r="BN40" s="89"/>
+      <c r="BO40" s="90"/>
+    </row>
+    <row r="41" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A41" s="9"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="56"/>
+      <c r="Z41" s="56"/>
+      <c r="AA41" s="56"/>
+      <c r="AB41" s="56"/>
+      <c r="AC41" s="56"/>
+      <c r="AD41" s="56"/>
+      <c r="AE41" s="56"/>
+      <c r="AF41" s="56"/>
+      <c r="AG41" s="56"/>
+      <c r="AH41" s="56"/>
+      <c r="AI41" s="56"/>
+      <c r="AJ41" s="56"/>
+      <c r="AK41" s="56"/>
+      <c r="AL41" s="56"/>
+      <c r="AM41" s="56"/>
+      <c r="AN41" s="56"/>
+      <c r="AO41" s="56"/>
+      <c r="AP41" s="56"/>
+      <c r="AQ41" s="56"/>
+      <c r="AR41" s="56"/>
+      <c r="AS41" s="56"/>
+      <c r="AT41" s="56"/>
+      <c r="AU41" s="56"/>
+      <c r="AV41" s="56"/>
+      <c r="AW41" s="56"/>
+      <c r="AX41" s="56"/>
+      <c r="AY41" s="56"/>
+      <c r="AZ41" s="56"/>
+      <c r="BA41" s="56"/>
+      <c r="BB41" s="56"/>
+      <c r="BC41" s="56"/>
+      <c r="BD41" s="56"/>
+      <c r="BE41" s="56"/>
+      <c r="BF41" s="56"/>
+      <c r="BG41" s="56"/>
+      <c r="BH41" s="56"/>
+      <c r="BI41" s="56"/>
+      <c r="BJ41" s="56"/>
+      <c r="BK41" s="56"/>
+      <c r="BL41" s="56"/>
+      <c r="BM41" s="56"/>
+      <c r="BN41" s="56"/>
+      <c r="BO41" s="61"/>
+      <c r="BP41" s="9"/>
+      <c r="BQ41" s="9"/>
+    </row>
+    <row r="42" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A42" s="9"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="84"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="84"/>
+      <c r="R42" s="84"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="84"/>
+      <c r="U42" s="84"/>
+      <c r="V42" s="84"/>
+      <c r="W42" s="84"/>
+      <c r="X42" s="84"/>
+      <c r="Y42" s="84"/>
+      <c r="Z42" s="84"/>
+      <c r="AA42" s="84"/>
+      <c r="AB42" s="84"/>
+      <c r="AC42" s="84"/>
+      <c r="AD42" s="84"/>
+      <c r="AE42" s="84"/>
+      <c r="AF42" s="84"/>
+      <c r="AG42" s="84"/>
+      <c r="AH42" s="84"/>
+      <c r="AI42" s="84"/>
+      <c r="AJ42" s="84"/>
+      <c r="AK42" s="84"/>
+      <c r="AL42" s="84"/>
+      <c r="AM42" s="84"/>
+      <c r="AN42" s="84"/>
+      <c r="AO42" s="84"/>
+      <c r="AP42" s="84"/>
+      <c r="AQ42" s="84"/>
+      <c r="AR42" s="84"/>
+      <c r="AS42" s="84"/>
+      <c r="AT42" s="84"/>
+      <c r="AU42" s="84"/>
+      <c r="AV42" s="84"/>
+      <c r="AW42" s="84"/>
+      <c r="AX42" s="84"/>
+      <c r="AY42" s="84"/>
+      <c r="AZ42" s="84"/>
+      <c r="BA42" s="84"/>
+      <c r="BB42" s="84"/>
+      <c r="BC42" s="84"/>
+      <c r="BD42" s="84"/>
+      <c r="BE42" s="84"/>
+      <c r="BF42" s="84"/>
+      <c r="BG42" s="84"/>
+      <c r="BH42" s="84"/>
+      <c r="BI42" s="84"/>
+      <c r="BJ42" s="84"/>
+      <c r="BK42" s="84"/>
+      <c r="BL42" s="84"/>
+      <c r="BM42" s="84"/>
+      <c r="BN42" s="84"/>
+      <c r="BO42" s="84"/>
+    </row>
+    <row r="43" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A43" s="9"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="46" t="s">
-        <v>97</v>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="77"/>
+      <c r="T43" s="77"/>
+      <c r="U43" s="77"/>
+      <c r="V43" s="77"/>
+      <c r="W43" s="77"/>
+      <c r="X43" s="77"/>
+      <c r="Y43" s="77"/>
+      <c r="Z43" s="77"/>
+      <c r="AA43" s="77"/>
+      <c r="AB43" s="77"/>
+      <c r="AC43" s="77"/>
+      <c r="AD43" s="77"/>
+      <c r="AE43" s="77"/>
+      <c r="AF43" s="77"/>
+      <c r="AG43" s="77"/>
+      <c r="AH43" s="77"/>
+      <c r="AI43" s="77"/>
+      <c r="AJ43" s="77"/>
+      <c r="AK43" s="77"/>
+      <c r="AL43" s="77"/>
+      <c r="AM43" s="77"/>
+      <c r="AN43" s="77"/>
+      <c r="AO43" s="77"/>
+      <c r="AP43" s="77"/>
+      <c r="AQ43" s="77"/>
+      <c r="AR43" s="77"/>
+      <c r="AS43" s="77"/>
+      <c r="AT43" s="77"/>
+      <c r="AU43" s="77"/>
+      <c r="AV43" s="77"/>
+      <c r="AW43" s="77"/>
+      <c r="AX43" s="77"/>
+      <c r="AY43" s="77"/>
+      <c r="AZ43" s="77"/>
+      <c r="BA43" s="77"/>
+      <c r="BB43" s="77"/>
+      <c r="BC43" s="77"/>
+      <c r="BD43" s="77"/>
+      <c r="BE43" s="77"/>
+      <c r="BF43" s="77"/>
+      <c r="BG43" s="77"/>
+      <c r="BH43" s="77"/>
+      <c r="BI43" s="77"/>
+      <c r="BJ43" s="77"/>
+      <c r="BK43" s="77"/>
+      <c r="BL43" s="77"/>
+      <c r="BM43" s="77"/>
+      <c r="BN43" s="77"/>
+      <c r="BO43" s="77"/>
+    </row>
+    <row r="44" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A44" s="9"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="75" t="s">
+        <v>80</v>
       </c>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="47"/>
-      <c r="AC39" s="47"/>
-      <c r="AD39" s="47"/>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="47"/>
-      <c r="AG39" s="47"/>
-      <c r="AH39" s="47"/>
-      <c r="AI39" s="47"/>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="47"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="47"/>
-      <c r="AP39" s="47"/>
-      <c r="AQ39" s="47"/>
-      <c r="AR39" s="47"/>
-      <c r="AS39" s="47"/>
-      <c r="AT39" s="47"/>
-      <c r="AU39" s="47"/>
-      <c r="AV39" s="47"/>
-      <c r="AW39" s="47"/>
-      <c r="AX39" s="47"/>
-      <c r="AY39" s="47"/>
-      <c r="AZ39" s="47"/>
-      <c r="BA39" s="47"/>
-      <c r="BB39" s="47"/>
-      <c r="BC39" s="47"/>
-      <c r="BD39" s="47"/>
-      <c r="BE39" s="47"/>
-      <c r="BF39" s="47"/>
-      <c r="BG39" s="47"/>
-      <c r="BH39" s="47"/>
-      <c r="BI39" s="47"/>
-      <c r="BJ39" s="47"/>
-      <c r="BK39" s="47"/>
-      <c r="BL39" s="47"/>
-      <c r="BM39" s="47"/>
-      <c r="BN39" s="47"/>
-      <c r="BO39" s="48"/>
-    </row>
-    <row r="40" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A40" s="9"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="81" t="s">
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="77"/>
+      <c r="R44" s="77"/>
+      <c r="S44" s="77"/>
+      <c r="T44" s="77"/>
+      <c r="U44" s="77"/>
+      <c r="V44" s="77"/>
+      <c r="W44" s="77"/>
+      <c r="X44" s="77"/>
+      <c r="Y44" s="77"/>
+      <c r="Z44" s="77"/>
+      <c r="AA44" s="77"/>
+      <c r="AB44" s="77"/>
+      <c r="AC44" s="77"/>
+      <c r="AD44" s="77"/>
+      <c r="AE44" s="77"/>
+      <c r="AF44" s="77"/>
+      <c r="AG44" s="77"/>
+      <c r="AH44" s="77"/>
+      <c r="AI44" s="77"/>
+      <c r="AJ44" s="77"/>
+      <c r="AK44" s="77"/>
+      <c r="AL44" s="77"/>
+      <c r="AM44" s="77"/>
+      <c r="AN44" s="77"/>
+      <c r="AO44" s="77"/>
+      <c r="AP44" s="77"/>
+      <c r="AQ44" s="77"/>
+      <c r="AR44" s="77"/>
+      <c r="AS44" s="77"/>
+      <c r="AT44" s="77"/>
+      <c r="AU44" s="77"/>
+      <c r="AV44" s="77"/>
+      <c r="AW44" s="77"/>
+      <c r="AX44" s="77"/>
+      <c r="AY44" s="77"/>
+      <c r="AZ44" s="77"/>
+      <c r="BA44" s="77"/>
+      <c r="BB44" s="77"/>
+      <c r="BC44" s="77"/>
+      <c r="BD44" s="77"/>
+      <c r="BE44" s="77"/>
+      <c r="BF44" s="77"/>
+      <c r="BG44" s="77"/>
+      <c r="BH44" s="77"/>
+      <c r="BI44" s="77"/>
+      <c r="BJ44" s="77"/>
+      <c r="BK44" s="77"/>
+      <c r="BL44" s="77"/>
+      <c r="BM44" s="77"/>
+      <c r="BN44" s="77"/>
+      <c r="BO44" s="77"/>
+    </row>
+    <row r="45" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A45" s="9"/>
+      <c r="C45" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="96" t="s">
-        <v>126</v>
+      <c r="D45" s="59"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
+      <c r="Z45" s="39"/>
+      <c r="AA45" s="39"/>
+      <c r="AB45" s="39"/>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="39"/>
+      <c r="AE45" s="39"/>
+      <c r="AF45" s="39"/>
+      <c r="AG45" s="39"/>
+      <c r="AH45" s="39"/>
+      <c r="AI45" s="39"/>
+      <c r="AJ45" s="39"/>
+      <c r="AK45" s="39"/>
+      <c r="AL45" s="39"/>
+      <c r="AM45" s="39"/>
+      <c r="AN45" s="39"/>
+      <c r="AO45" s="39"/>
+      <c r="AP45" s="39"/>
+      <c r="AQ45" s="39"/>
+      <c r="AR45" s="39"/>
+      <c r="AS45" s="39"/>
+      <c r="AT45" s="39"/>
+      <c r="AU45" s="39"/>
+      <c r="AV45" s="39"/>
+      <c r="AW45" s="39"/>
+      <c r="AX45" s="39"/>
+      <c r="AY45" s="39"/>
+      <c r="AZ45" s="39"/>
+      <c r="BA45" s="39"/>
+      <c r="BB45" s="39"/>
+      <c r="BC45" s="39"/>
+      <c r="BD45" s="39"/>
+      <c r="BE45" s="39"/>
+      <c r="BF45" s="39"/>
+      <c r="BG45" s="39"/>
+      <c r="BH45" s="39"/>
+      <c r="BI45" s="39"/>
+      <c r="BJ45" s="39"/>
+      <c r="BK45" s="39"/>
+      <c r="BL45" s="39"/>
+      <c r="BM45" s="39"/>
+      <c r="BN45" s="39"/>
+      <c r="BO45" s="40"/>
+    </row>
+    <row r="46" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A46" s="9"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="81" t="s">
+        <v>29</v>
       </c>
-      <c r="K40" s="97"/>
-      <c r="L40" s="97"/>
-      <c r="M40" s="97"/>
-      <c r="N40" s="97"/>
-      <c r="O40" s="97"/>
-      <c r="P40" s="97"/>
-      <c r="Q40" s="97"/>
-      <c r="R40" s="97"/>
-      <c r="S40" s="97"/>
-      <c r="T40" s="97"/>
-      <c r="U40" s="97"/>
-      <c r="V40" s="97"/>
-      <c r="W40" s="97"/>
-      <c r="X40" s="97"/>
-      <c r="Y40" s="97"/>
-      <c r="Z40" s="97"/>
-      <c r="AA40" s="97"/>
-      <c r="AB40" s="97"/>
-      <c r="AC40" s="97"/>
-      <c r="AD40" s="97"/>
-      <c r="AE40" s="97"/>
-      <c r="AF40" s="97"/>
-      <c r="AG40" s="97"/>
-      <c r="AH40" s="97"/>
-      <c r="AI40" s="97"/>
-      <c r="AJ40" s="97"/>
-      <c r="AK40" s="97"/>
-      <c r="AL40" s="97"/>
-      <c r="AM40" s="97"/>
-      <c r="AN40" s="97"/>
-      <c r="AO40" s="97"/>
-      <c r="AP40" s="97"/>
-      <c r="AQ40" s="97"/>
-      <c r="AR40" s="97"/>
-      <c r="AS40" s="97"/>
-      <c r="AT40" s="97"/>
-      <c r="AU40" s="97"/>
-      <c r="AV40" s="97"/>
-      <c r="AW40" s="97"/>
-      <c r="AX40" s="97"/>
-      <c r="AY40" s="97"/>
-      <c r="AZ40" s="97"/>
-      <c r="BA40" s="97"/>
-      <c r="BB40" s="97"/>
-      <c r="BC40" s="97"/>
-      <c r="BD40" s="97"/>
-      <c r="BE40" s="97"/>
-      <c r="BF40" s="97"/>
-      <c r="BG40" s="97"/>
-      <c r="BH40" s="97"/>
-      <c r="BI40" s="97"/>
-      <c r="BJ40" s="97"/>
-      <c r="BK40" s="97"/>
-      <c r="BL40" s="97"/>
-      <c r="BM40" s="97"/>
-      <c r="BN40" s="97"/>
-      <c r="BO40" s="98"/>
-    </row>
-    <row r="41" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A41" s="9"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="85" t="s">
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="82"/>
+      <c r="O46" s="82"/>
+      <c r="P46" s="82"/>
+      <c r="Q46" s="83"/>
+      <c r="R46" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="S46" s="82"/>
+      <c r="T46" s="82"/>
+      <c r="U46" s="82"/>
+      <c r="V46" s="82"/>
+      <c r="W46" s="82"/>
+      <c r="X46" s="83"/>
+      <c r="Y46" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z46" s="82"/>
+      <c r="AA46" s="82"/>
+      <c r="AB46" s="82"/>
+      <c r="AC46" s="82"/>
+      <c r="AD46" s="82"/>
+      <c r="AE46" s="83"/>
+      <c r="AF46" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG46" s="82"/>
+      <c r="AH46" s="83"/>
+      <c r="AI46" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ46" s="73"/>
+      <c r="AK46" s="74"/>
+      <c r="AL46" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM46" s="82"/>
+      <c r="AN46" s="82"/>
+      <c r="AO46" s="82"/>
+      <c r="AP46" s="82"/>
+      <c r="AQ46" s="82"/>
+      <c r="AR46" s="82"/>
+      <c r="AS46" s="82"/>
+      <c r="AT46" s="82"/>
+      <c r="AU46" s="82"/>
+      <c r="AV46" s="82"/>
+      <c r="AW46" s="82"/>
+      <c r="AX46" s="82"/>
+      <c r="AY46" s="82"/>
+      <c r="AZ46" s="82"/>
+      <c r="BA46" s="82"/>
+      <c r="BB46" s="82"/>
+      <c r="BC46" s="82"/>
+      <c r="BD46" s="82"/>
+      <c r="BE46" s="82"/>
+      <c r="BF46" s="82"/>
+      <c r="BG46" s="82"/>
+      <c r="BH46" s="82"/>
+      <c r="BI46" s="82"/>
+      <c r="BJ46" s="82"/>
+      <c r="BK46" s="82"/>
+      <c r="BL46" s="82"/>
+      <c r="BM46" s="82"/>
+      <c r="BN46" s="82"/>
+      <c r="BO46" s="83"/>
+    </row>
+    <row r="47" spans="1:69" ht="16.5" customHeight="1" outlineLevel="1">
+      <c r="A47" s="9"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="79"/>
+      <c r="P47" s="79"/>
+      <c r="Q47" s="80"/>
+      <c r="R47" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="S47" s="79"/>
+      <c r="T47" s="79"/>
+      <c r="U47" s="79"/>
+      <c r="V47" s="79"/>
+      <c r="W47" s="79"/>
+      <c r="X47" s="80"/>
+      <c r="Y47" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z47" s="79"/>
+      <c r="AA47" s="79"/>
+      <c r="AB47" s="79"/>
+      <c r="AC47" s="79"/>
+      <c r="AD47" s="79"/>
+      <c r="AE47" s="80"/>
+      <c r="AF47" s="78"/>
+      <c r="AG47" s="79"/>
+      <c r="AH47" s="80"/>
+      <c r="AI47" s="78"/>
+      <c r="AJ47" s="79"/>
+      <c r="AK47" s="80"/>
+      <c r="AL47" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM47" s="79"/>
+      <c r="AN47" s="79"/>
+      <c r="AO47" s="79"/>
+      <c r="AP47" s="79"/>
+      <c r="AQ47" s="79"/>
+      <c r="AR47" s="79"/>
+      <c r="AS47" s="79"/>
+      <c r="AT47" s="79"/>
+      <c r="AU47" s="79"/>
+      <c r="AV47" s="79"/>
+      <c r="AW47" s="79"/>
+      <c r="AX47" s="79"/>
+      <c r="AY47" s="79"/>
+      <c r="AZ47" s="79"/>
+      <c r="BA47" s="79"/>
+      <c r="BB47" s="79"/>
+      <c r="BC47" s="79"/>
+      <c r="BD47" s="79"/>
+      <c r="BE47" s="79"/>
+      <c r="BF47" s="79"/>
+      <c r="BG47" s="79"/>
+      <c r="BH47" s="79"/>
+      <c r="BI47" s="79"/>
+      <c r="BJ47" s="79"/>
+      <c r="BK47" s="79"/>
+      <c r="BL47" s="79"/>
+      <c r="BM47" s="79"/>
+      <c r="BN47" s="79"/>
+      <c r="BO47" s="80"/>
+    </row>
+    <row r="48" spans="1:69" ht="16.5" customHeight="1" outlineLevel="1">
+      <c r="A48" s="9"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
+      <c r="N48" s="79"/>
+      <c r="O48" s="79"/>
+      <c r="P48" s="79"/>
+      <c r="Q48" s="80"/>
+      <c r="R48" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="S48" s="79"/>
+      <c r="T48" s="79"/>
+      <c r="U48" s="79"/>
+      <c r="V48" s="79"/>
+      <c r="W48" s="79"/>
+      <c r="X48" s="80"/>
+      <c r="Y48" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z48" s="79"/>
+      <c r="AA48" s="79"/>
+      <c r="AB48" s="79"/>
+      <c r="AC48" s="79"/>
+      <c r="AD48" s="79"/>
+      <c r="AE48" s="80"/>
+      <c r="AF48" s="78"/>
+      <c r="AG48" s="79"/>
+      <c r="AH48" s="80"/>
+      <c r="AI48" s="78"/>
+      <c r="AJ48" s="79"/>
+      <c r="AK48" s="80"/>
+      <c r="AL48" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM48" s="79"/>
+      <c r="AN48" s="79"/>
+      <c r="AO48" s="79"/>
+      <c r="AP48" s="79"/>
+      <c r="AQ48" s="79"/>
+      <c r="AR48" s="79"/>
+      <c r="AS48" s="79"/>
+      <c r="AT48" s="79"/>
+      <c r="AU48" s="79"/>
+      <c r="AV48" s="79"/>
+      <c r="AW48" s="79"/>
+      <c r="AX48" s="79"/>
+      <c r="AY48" s="79"/>
+      <c r="AZ48" s="79"/>
+      <c r="BA48" s="79"/>
+      <c r="BB48" s="79"/>
+      <c r="BC48" s="79"/>
+      <c r="BD48" s="79"/>
+      <c r="BE48" s="79"/>
+      <c r="BF48" s="79"/>
+      <c r="BG48" s="79"/>
+      <c r="BH48" s="79"/>
+      <c r="BI48" s="79"/>
+      <c r="BJ48" s="79"/>
+      <c r="BK48" s="79"/>
+      <c r="BL48" s="79"/>
+      <c r="BM48" s="79"/>
+      <c r="BN48" s="79"/>
+      <c r="BO48" s="80"/>
+    </row>
+    <row r="49" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A49" s="9"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
+      <c r="N49" s="79"/>
+      <c r="O49" s="79"/>
+      <c r="P49" s="79"/>
+      <c r="Q49" s="80"/>
+      <c r="R49" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="S49" s="79"/>
+      <c r="T49" s="79"/>
+      <c r="U49" s="79"/>
+      <c r="V49" s="79"/>
+      <c r="W49" s="79"/>
+      <c r="X49" s="80"/>
+      <c r="Y49" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z49" s="79"/>
+      <c r="AA49" s="79"/>
+      <c r="AB49" s="79"/>
+      <c r="AC49" s="79"/>
+      <c r="AD49" s="79"/>
+      <c r="AE49" s="80"/>
+      <c r="AF49" s="78">
+        <v>1</v>
+      </c>
+      <c r="AG49" s="79"/>
+      <c r="AH49" s="80"/>
+      <c r="AI49" s="78"/>
+      <c r="AJ49" s="79"/>
+      <c r="AK49" s="80"/>
+      <c r="AL49" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="88"/>
-      <c r="V41" s="88"/>
-      <c r="W41" s="88"/>
-      <c r="X41" s="88"/>
-      <c r="Y41" s="88"/>
-      <c r="Z41" s="88"/>
-      <c r="AA41" s="88"/>
-      <c r="AB41" s="88"/>
-      <c r="AC41" s="88"/>
-      <c r="AD41" s="88"/>
-      <c r="AE41" s="88"/>
-      <c r="AF41" s="88"/>
-      <c r="AG41" s="88"/>
-      <c r="AH41" s="88"/>
-      <c r="AI41" s="88"/>
-      <c r="AJ41" s="88"/>
-      <c r="AK41" s="88"/>
-      <c r="AL41" s="88"/>
-      <c r="AM41" s="88"/>
-      <c r="AN41" s="88"/>
-      <c r="AO41" s="88"/>
-      <c r="AP41" s="88"/>
-      <c r="AQ41" s="88"/>
-      <c r="AR41" s="88"/>
-      <c r="AS41" s="88"/>
-      <c r="AT41" s="88"/>
-      <c r="AU41" s="88"/>
-      <c r="AV41" s="88"/>
-      <c r="AW41" s="88"/>
-      <c r="AX41" s="88"/>
-      <c r="AY41" s="88"/>
-      <c r="AZ41" s="88"/>
-      <c r="BA41" s="88"/>
-      <c r="BB41" s="88"/>
-      <c r="BC41" s="88"/>
-      <c r="BD41" s="88"/>
-      <c r="BE41" s="88"/>
-      <c r="BF41" s="88"/>
-      <c r="BG41" s="88"/>
-      <c r="BH41" s="88"/>
-      <c r="BI41" s="88"/>
-      <c r="BJ41" s="88"/>
-      <c r="BK41" s="88"/>
-      <c r="BL41" s="88"/>
-      <c r="BM41" s="88"/>
-      <c r="BN41" s="88"/>
-      <c r="BO41" s="99"/>
-      <c r="BP41" s="9"/>
-      <c r="BQ41" s="9"/>
-    </row>
-    <row r="42" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A42" s="9"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="100" t="s">
-        <v>119</v>
-      </c>
-      <c r="K42" s="100"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="100"/>
-      <c r="N42" s="100"/>
-      <c r="O42" s="100"/>
-      <c r="P42" s="100"/>
-      <c r="Q42" s="100"/>
-      <c r="R42" s="100"/>
-      <c r="S42" s="100"/>
-      <c r="T42" s="100"/>
-      <c r="U42" s="100"/>
-      <c r="V42" s="100"/>
-      <c r="W42" s="100"/>
-      <c r="X42" s="100"/>
-      <c r="Y42" s="100"/>
-      <c r="Z42" s="100"/>
-      <c r="AA42" s="100"/>
-      <c r="AB42" s="100"/>
-      <c r="AC42" s="100"/>
-      <c r="AD42" s="100"/>
-      <c r="AE42" s="100"/>
-      <c r="AF42" s="100"/>
-      <c r="AG42" s="100"/>
-      <c r="AH42" s="100"/>
-      <c r="AI42" s="100"/>
-      <c r="AJ42" s="100"/>
-      <c r="AK42" s="100"/>
-      <c r="AL42" s="100"/>
-      <c r="AM42" s="100"/>
-      <c r="AN42" s="100"/>
-      <c r="AO42" s="100"/>
-      <c r="AP42" s="100"/>
-      <c r="AQ42" s="100"/>
-      <c r="AR42" s="100"/>
-      <c r="AS42" s="100"/>
-      <c r="AT42" s="100"/>
-      <c r="AU42" s="100"/>
-      <c r="AV42" s="100"/>
-      <c r="AW42" s="100"/>
-      <c r="AX42" s="100"/>
-      <c r="AY42" s="100"/>
-      <c r="AZ42" s="100"/>
-      <c r="BA42" s="100"/>
-      <c r="BB42" s="100"/>
-      <c r="BC42" s="100"/>
-      <c r="BD42" s="100"/>
-      <c r="BE42" s="100"/>
-      <c r="BF42" s="100"/>
-      <c r="BG42" s="100"/>
-      <c r="BH42" s="100"/>
-      <c r="BI42" s="100"/>
-      <c r="BJ42" s="100"/>
-      <c r="BK42" s="100"/>
-      <c r="BL42" s="100"/>
-      <c r="BM42" s="100"/>
-      <c r="BN42" s="100"/>
-      <c r="BO42" s="100"/>
-    </row>
-    <row r="43" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A43" s="9"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="101" t="s">
-        <v>121</v>
-      </c>
-      <c r="K43" s="101"/>
-      <c r="L43" s="101"/>
-      <c r="M43" s="101"/>
-      <c r="N43" s="101"/>
-      <c r="O43" s="101"/>
-      <c r="P43" s="101"/>
-      <c r="Q43" s="101"/>
-      <c r="R43" s="101"/>
-      <c r="S43" s="101"/>
-      <c r="T43" s="101"/>
-      <c r="U43" s="101"/>
-      <c r="V43" s="101"/>
-      <c r="W43" s="101"/>
-      <c r="X43" s="101"/>
-      <c r="Y43" s="101"/>
-      <c r="Z43" s="101"/>
-      <c r="AA43" s="101"/>
-      <c r="AB43" s="101"/>
-      <c r="AC43" s="101"/>
-      <c r="AD43" s="101"/>
-      <c r="AE43" s="101"/>
-      <c r="AF43" s="101"/>
-      <c r="AG43" s="101"/>
-      <c r="AH43" s="101"/>
-      <c r="AI43" s="101"/>
-      <c r="AJ43" s="101"/>
-      <c r="AK43" s="101"/>
-      <c r="AL43" s="101"/>
-      <c r="AM43" s="101"/>
-      <c r="AN43" s="101"/>
-      <c r="AO43" s="101"/>
-      <c r="AP43" s="101"/>
-      <c r="AQ43" s="101"/>
-      <c r="AR43" s="101"/>
-      <c r="AS43" s="101"/>
-      <c r="AT43" s="101"/>
-      <c r="AU43" s="101"/>
-      <c r="AV43" s="101"/>
-      <c r="AW43" s="101"/>
-      <c r="AX43" s="101"/>
-      <c r="AY43" s="101"/>
-      <c r="AZ43" s="101"/>
-      <c r="BA43" s="101"/>
-      <c r="BB43" s="101"/>
-      <c r="BC43" s="101"/>
-      <c r="BD43" s="101"/>
-      <c r="BE43" s="101"/>
-      <c r="BF43" s="101"/>
-      <c r="BG43" s="101"/>
-      <c r="BH43" s="101"/>
-      <c r="BI43" s="101"/>
-      <c r="BJ43" s="101"/>
-      <c r="BK43" s="101"/>
-      <c r="BL43" s="101"/>
-      <c r="BM43" s="101"/>
-      <c r="BN43" s="101"/>
-      <c r="BO43" s="101"/>
-    </row>
-    <row r="44" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A44" s="9"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="K44" s="101"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="101"/>
-      <c r="Q44" s="101"/>
-      <c r="R44" s="101"/>
-      <c r="S44" s="101"/>
-      <c r="T44" s="101"/>
-      <c r="U44" s="101"/>
-      <c r="V44" s="101"/>
-      <c r="W44" s="101"/>
-      <c r="X44" s="101"/>
-      <c r="Y44" s="101"/>
-      <c r="Z44" s="101"/>
-      <c r="AA44" s="101"/>
-      <c r="AB44" s="101"/>
-      <c r="AC44" s="101"/>
-      <c r="AD44" s="101"/>
-      <c r="AE44" s="101"/>
-      <c r="AF44" s="101"/>
-      <c r="AG44" s="101"/>
-      <c r="AH44" s="101"/>
-      <c r="AI44" s="101"/>
-      <c r="AJ44" s="101"/>
-      <c r="AK44" s="101"/>
-      <c r="AL44" s="101"/>
-      <c r="AM44" s="101"/>
-      <c r="AN44" s="101"/>
-      <c r="AO44" s="101"/>
-      <c r="AP44" s="101"/>
-      <c r="AQ44" s="101"/>
-      <c r="AR44" s="101"/>
-      <c r="AS44" s="101"/>
-      <c r="AT44" s="101"/>
-      <c r="AU44" s="101"/>
-      <c r="AV44" s="101"/>
-      <c r="AW44" s="101"/>
-      <c r="AX44" s="101"/>
-      <c r="AY44" s="101"/>
-      <c r="AZ44" s="101"/>
-      <c r="BA44" s="101"/>
-      <c r="BB44" s="101"/>
-      <c r="BC44" s="101"/>
-      <c r="BD44" s="101"/>
-      <c r="BE44" s="101"/>
-      <c r="BF44" s="101"/>
-      <c r="BG44" s="101"/>
-      <c r="BH44" s="101"/>
-      <c r="BI44" s="101"/>
-      <c r="BJ44" s="101"/>
-      <c r="BK44" s="101"/>
-      <c r="BL44" s="101"/>
-      <c r="BM44" s="101"/>
-      <c r="BN44" s="101"/>
-      <c r="BO44" s="101"/>
-    </row>
-    <row r="45" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A45" s="9"/>
-      <c r="C45" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="91"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="65"/>
-      <c r="O45" s="65"/>
-      <c r="P45" s="65"/>
-      <c r="Q45" s="65"/>
-      <c r="R45" s="65"/>
-      <c r="S45" s="65"/>
-      <c r="T45" s="65"/>
-      <c r="U45" s="65"/>
-      <c r="V45" s="65"/>
-      <c r="W45" s="65"/>
-      <c r="X45" s="65"/>
-      <c r="Y45" s="65"/>
-      <c r="Z45" s="65"/>
-      <c r="AA45" s="65"/>
-      <c r="AB45" s="65"/>
-      <c r="AC45" s="65"/>
-      <c r="AD45" s="65"/>
-      <c r="AE45" s="65"/>
-      <c r="AF45" s="65"/>
-      <c r="AG45" s="65"/>
-      <c r="AH45" s="65"/>
-      <c r="AI45" s="65"/>
-      <c r="AJ45" s="65"/>
-      <c r="AK45" s="65"/>
-      <c r="AL45" s="65"/>
-      <c r="AM45" s="65"/>
-      <c r="AN45" s="65"/>
-      <c r="AO45" s="65"/>
-      <c r="AP45" s="65"/>
-      <c r="AQ45" s="65"/>
-      <c r="AR45" s="65"/>
-      <c r="AS45" s="65"/>
-      <c r="AT45" s="65"/>
-      <c r="AU45" s="65"/>
-      <c r="AV45" s="65"/>
-      <c r="AW45" s="65"/>
-      <c r="AX45" s="65"/>
-      <c r="AY45" s="65"/>
-      <c r="AZ45" s="65"/>
-      <c r="BA45" s="65"/>
-      <c r="BB45" s="65"/>
-      <c r="BC45" s="65"/>
-      <c r="BD45" s="65"/>
-      <c r="BE45" s="65"/>
-      <c r="BF45" s="65"/>
-      <c r="BG45" s="65"/>
-      <c r="BH45" s="65"/>
-      <c r="BI45" s="65"/>
-      <c r="BJ45" s="65"/>
-      <c r="BK45" s="65"/>
-      <c r="BL45" s="65"/>
-      <c r="BM45" s="65"/>
-      <c r="BN45" s="65"/>
-      <c r="BO45" s="66"/>
-    </row>
-    <row r="46" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A46" s="9"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="93" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="94"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="S46" s="94"/>
-      <c r="T46" s="94"/>
-      <c r="U46" s="94"/>
-      <c r="V46" s="94"/>
-      <c r="W46" s="94"/>
-      <c r="X46" s="95"/>
-      <c r="Y46" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z46" s="94"/>
-      <c r="AA46" s="94"/>
-      <c r="AB46" s="94"/>
-      <c r="AC46" s="94"/>
-      <c r="AD46" s="94"/>
-      <c r="AE46" s="95"/>
-      <c r="AF46" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG46" s="94"/>
-      <c r="AH46" s="95"/>
-      <c r="AI46" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ46" s="103"/>
-      <c r="AK46" s="104"/>
-      <c r="AL46" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM46" s="94"/>
-      <c r="AN46" s="94"/>
-      <c r="AO46" s="94"/>
-      <c r="AP46" s="94"/>
-      <c r="AQ46" s="94"/>
-      <c r="AR46" s="94"/>
-      <c r="AS46" s="94"/>
-      <c r="AT46" s="94"/>
-      <c r="AU46" s="94"/>
-      <c r="AV46" s="94"/>
-      <c r="AW46" s="94"/>
-      <c r="AX46" s="94"/>
-      <c r="AY46" s="94"/>
-      <c r="AZ46" s="94"/>
-      <c r="BA46" s="94"/>
-      <c r="BB46" s="94"/>
-      <c r="BC46" s="94"/>
-      <c r="BD46" s="94"/>
-      <c r="BE46" s="94"/>
-      <c r="BF46" s="94"/>
-      <c r="BG46" s="94"/>
-      <c r="BH46" s="94"/>
-      <c r="BI46" s="94"/>
-      <c r="BJ46" s="94"/>
-      <c r="BK46" s="94"/>
-      <c r="BL46" s="94"/>
-      <c r="BM46" s="94"/>
-      <c r="BN46" s="94"/>
-      <c r="BO46" s="95"/>
-    </row>
-    <row r="47" spans="1:69" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A47" s="9"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="47"/>
-      <c r="X47" s="48"/>
-      <c r="Y47" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z47" s="47"/>
-      <c r="AA47" s="47"/>
-      <c r="AB47" s="47"/>
-      <c r="AC47" s="47"/>
-      <c r="AD47" s="47"/>
-      <c r="AE47" s="48"/>
-      <c r="AF47" s="46"/>
-      <c r="AG47" s="47"/>
-      <c r="AH47" s="48"/>
-      <c r="AI47" s="46"/>
-      <c r="AJ47" s="47"/>
-      <c r="AK47" s="48"/>
-      <c r="AL47" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM47" s="47"/>
-      <c r="AN47" s="47"/>
-      <c r="AO47" s="47"/>
-      <c r="AP47" s="47"/>
-      <c r="AQ47" s="47"/>
-      <c r="AR47" s="47"/>
-      <c r="AS47" s="47"/>
-      <c r="AT47" s="47"/>
-      <c r="AU47" s="47"/>
-      <c r="AV47" s="47"/>
-      <c r="AW47" s="47"/>
-      <c r="AX47" s="47"/>
-      <c r="AY47" s="47"/>
-      <c r="AZ47" s="47"/>
-      <c r="BA47" s="47"/>
-      <c r="BB47" s="47"/>
-      <c r="BC47" s="47"/>
-      <c r="BD47" s="47"/>
-      <c r="BE47" s="47"/>
-      <c r="BF47" s="47"/>
-      <c r="BG47" s="47"/>
-      <c r="BH47" s="47"/>
-      <c r="BI47" s="47"/>
-      <c r="BJ47" s="47"/>
-      <c r="BK47" s="47"/>
-      <c r="BL47" s="47"/>
-      <c r="BM47" s="47"/>
-      <c r="BN47" s="47"/>
-      <c r="BO47" s="48"/>
-    </row>
-    <row r="48" spans="1:69" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A48" s="9"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="S48" s="47"/>
-      <c r="T48" s="47"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="47"/>
-      <c r="X48" s="48"/>
-      <c r="Y48" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z48" s="47"/>
-      <c r="AA48" s="47"/>
-      <c r="AB48" s="47"/>
-      <c r="AC48" s="47"/>
-      <c r="AD48" s="47"/>
-      <c r="AE48" s="48"/>
-      <c r="AF48" s="46"/>
-      <c r="AG48" s="47"/>
-      <c r="AH48" s="48"/>
-      <c r="AI48" s="46"/>
-      <c r="AJ48" s="47"/>
-      <c r="AK48" s="48"/>
-      <c r="AL48" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM48" s="47"/>
-      <c r="AN48" s="47"/>
-      <c r="AO48" s="47"/>
-      <c r="AP48" s="47"/>
-      <c r="AQ48" s="47"/>
-      <c r="AR48" s="47"/>
-      <c r="AS48" s="47"/>
-      <c r="AT48" s="47"/>
-      <c r="AU48" s="47"/>
-      <c r="AV48" s="47"/>
-      <c r="AW48" s="47"/>
-      <c r="AX48" s="47"/>
-      <c r="AY48" s="47"/>
-      <c r="AZ48" s="47"/>
-      <c r="BA48" s="47"/>
-      <c r="BB48" s="47"/>
-      <c r="BC48" s="47"/>
-      <c r="BD48" s="47"/>
-      <c r="BE48" s="47"/>
-      <c r="BF48" s="47"/>
-      <c r="BG48" s="47"/>
-      <c r="BH48" s="47"/>
-      <c r="BI48" s="47"/>
-      <c r="BJ48" s="47"/>
-      <c r="BK48" s="47"/>
-      <c r="BL48" s="47"/>
-      <c r="BM48" s="47"/>
-      <c r="BN48" s="47"/>
-      <c r="BO48" s="48"/>
-    </row>
-    <row r="49" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A49" s="9"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="48"/>
-      <c r="Y49" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z49" s="47"/>
-      <c r="AA49" s="47"/>
-      <c r="AB49" s="47"/>
-      <c r="AC49" s="47"/>
-      <c r="AD49" s="47"/>
-      <c r="AE49" s="48"/>
-      <c r="AF49" s="46">
-        <v>1</v>
-      </c>
-      <c r="AG49" s="47"/>
-      <c r="AH49" s="48"/>
-      <c r="AI49" s="46"/>
-      <c r="AJ49" s="47"/>
-      <c r="AK49" s="48"/>
-      <c r="AL49" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM49" s="47"/>
-      <c r="AN49" s="47"/>
-      <c r="AO49" s="47"/>
-      <c r="AP49" s="47"/>
-      <c r="AQ49" s="47"/>
-      <c r="AR49" s="47"/>
-      <c r="AS49" s="47"/>
-      <c r="AT49" s="47"/>
-      <c r="AU49" s="47"/>
-      <c r="AV49" s="47"/>
-      <c r="AW49" s="47"/>
-      <c r="AX49" s="47"/>
-      <c r="AY49" s="47"/>
-      <c r="AZ49" s="47"/>
-      <c r="BA49" s="47"/>
-      <c r="BB49" s="47"/>
-      <c r="BC49" s="47"/>
-      <c r="BD49" s="47"/>
-      <c r="BE49" s="47"/>
-      <c r="BF49" s="47"/>
-      <c r="BG49" s="47"/>
-      <c r="BH49" s="47"/>
-      <c r="BI49" s="47"/>
-      <c r="BJ49" s="47"/>
-      <c r="BK49" s="47"/>
-      <c r="BL49" s="47"/>
-      <c r="BM49" s="47"/>
-      <c r="BN49" s="47"/>
-      <c r="BO49" s="48"/>
+      <c r="AM49" s="79"/>
+      <c r="AN49" s="79"/>
+      <c r="AO49" s="79"/>
+      <c r="AP49" s="79"/>
+      <c r="AQ49" s="79"/>
+      <c r="AR49" s="79"/>
+      <c r="AS49" s="79"/>
+      <c r="AT49" s="79"/>
+      <c r="AU49" s="79"/>
+      <c r="AV49" s="79"/>
+      <c r="AW49" s="79"/>
+      <c r="AX49" s="79"/>
+      <c r="AY49" s="79"/>
+      <c r="AZ49" s="79"/>
+      <c r="BA49" s="79"/>
+      <c r="BB49" s="79"/>
+      <c r="BC49" s="79"/>
+      <c r="BD49" s="79"/>
+      <c r="BE49" s="79"/>
+      <c r="BF49" s="79"/>
+      <c r="BG49" s="79"/>
+      <c r="BH49" s="79"/>
+      <c r="BI49" s="79"/>
+      <c r="BJ49" s="79"/>
+      <c r="BK49" s="79"/>
+      <c r="BL49" s="79"/>
+      <c r="BM49" s="79"/>
+      <c r="BN49" s="79"/>
+      <c r="BO49" s="80"/>
     </row>
     <row r="50" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A50" s="9"/>
@@ -7733,11 +7747,65 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="AI46:AK46"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J43:BO43"/>
-    <mergeCell ref="J44:BO44"/>
+    <mergeCell ref="AZ16:BO16"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="L16:AB16"/>
+    <mergeCell ref="AC16:AK16"/>
+    <mergeCell ref="AL16:AT16"/>
+    <mergeCell ref="AU16:AY16"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I10:BJ10"/>
+    <mergeCell ref="I8:BJ8"/>
+    <mergeCell ref="I9:BJ9"/>
+    <mergeCell ref="I7:BJ7"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:K15"/>
+    <mergeCell ref="L14:AB15"/>
+    <mergeCell ref="AC14:AK15"/>
+    <mergeCell ref="AL14:BO14"/>
+    <mergeCell ref="AL15:AT15"/>
+    <mergeCell ref="AU15:AY15"/>
+    <mergeCell ref="AZ15:BO15"/>
+    <mergeCell ref="AL19:AT19"/>
+    <mergeCell ref="AU19:AY19"/>
+    <mergeCell ref="AZ19:BO19"/>
+    <mergeCell ref="L18:AB18"/>
+    <mergeCell ref="AC18:AK18"/>
+    <mergeCell ref="AL18:AT18"/>
+    <mergeCell ref="AU18:AY18"/>
+    <mergeCell ref="AZ18:BO18"/>
+    <mergeCell ref="AZ21:BO21"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="L20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="AL20:AT20"/>
+    <mergeCell ref="AU20:AY20"/>
+    <mergeCell ref="AZ20:BO20"/>
+    <mergeCell ref="L21:AB21"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="AL21:AT21"/>
+    <mergeCell ref="AU21:AY21"/>
+    <mergeCell ref="L19:AB19"/>
+    <mergeCell ref="AC19:AK19"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:BO42"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="J39:BO39"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="J40:BO40"/>
+    <mergeCell ref="AF47:AH47"/>
+    <mergeCell ref="AI47:AK47"/>
+    <mergeCell ref="AL46:BO46"/>
+    <mergeCell ref="D46:Q46"/>
+    <mergeCell ref="R46:X46"/>
+    <mergeCell ref="Y46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
     <mergeCell ref="AL47:BO47"/>
     <mergeCell ref="D47:Q47"/>
     <mergeCell ref="D48:Q48"/>
@@ -7754,69 +7822,15 @@
     <mergeCell ref="AI48:AK48"/>
     <mergeCell ref="R47:X47"/>
     <mergeCell ref="Y47:AE47"/>
-    <mergeCell ref="AF47:AH47"/>
-    <mergeCell ref="AI47:AK47"/>
-    <mergeCell ref="AL46:BO46"/>
-    <mergeCell ref="D46:Q46"/>
-    <mergeCell ref="R46:X46"/>
-    <mergeCell ref="Y46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:BO42"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="J39:BO39"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="J40:BO40"/>
-    <mergeCell ref="AZ21:BO21"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="L20:AB20"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="AL20:AT20"/>
-    <mergeCell ref="AU20:AY20"/>
-    <mergeCell ref="AZ20:BO20"/>
-    <mergeCell ref="L21:AB21"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="AL21:AT21"/>
-    <mergeCell ref="AU21:AY21"/>
-    <mergeCell ref="L19:AB19"/>
-    <mergeCell ref="AC19:AK19"/>
-    <mergeCell ref="AL19:AT19"/>
-    <mergeCell ref="AU19:AY19"/>
-    <mergeCell ref="AZ19:BO19"/>
-    <mergeCell ref="L18:AB18"/>
-    <mergeCell ref="AC18:AK18"/>
-    <mergeCell ref="AL18:AT18"/>
-    <mergeCell ref="AU18:AY18"/>
-    <mergeCell ref="AZ18:BO18"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:K15"/>
-    <mergeCell ref="L14:AB15"/>
-    <mergeCell ref="AC14:AK15"/>
-    <mergeCell ref="AL14:BO14"/>
-    <mergeCell ref="AL15:AT15"/>
-    <mergeCell ref="AU15:AY15"/>
-    <mergeCell ref="AZ15:BO15"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I10:BJ10"/>
-    <mergeCell ref="I8:BJ8"/>
-    <mergeCell ref="I9:BJ9"/>
-    <mergeCell ref="I7:BJ7"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="L16:AB16"/>
-    <mergeCell ref="AC16:AK16"/>
-    <mergeCell ref="AL16:AT16"/>
-    <mergeCell ref="AU16:AY16"/>
-    <mergeCell ref="AZ16:BO16"/>
+    <mergeCell ref="AI46:AK46"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J43:BO43"/>
+    <mergeCell ref="J44:BO44"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="I7" r:id="rId1" display="HealthInfoRegistBatch.sh" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId2"/>
@@ -7860,7 +7874,9 @@
   </sheetPr>
   <dimension ref="A1:BP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:V17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -7870,7 +7886,7 @@
   <sheetData>
     <row r="1" spans="1:68" ht="15.75" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -8082,7 +8098,7 @@
     </row>
     <row r="4" spans="1:68" ht="15.75" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -8225,7 +8241,7 @@
     <row r="6" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A6" s="9"/>
       <c r="B6" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -8297,70 +8313,70 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="60" t="s">
-        <v>35</v>
+      <c r="C7" s="107" t="s">
+        <v>33</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="50" t="s">
-        <v>82</v>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="106" t="s">
+        <v>79</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="50"/>
-      <c r="AT7" s="50"/>
-      <c r="AU7" s="50"/>
-      <c r="AV7" s="50"/>
-      <c r="AW7" s="50"/>
-      <c r="AX7" s="50"/>
-      <c r="AY7" s="50"/>
-      <c r="AZ7" s="50"/>
-      <c r="BA7" s="50"/>
-      <c r="BB7" s="50"/>
-      <c r="BC7" s="50"/>
-      <c r="BD7" s="50"/>
-      <c r="BE7" s="50"/>
-      <c r="BF7" s="50"/>
-      <c r="BG7" s="50"/>
-      <c r="BH7" s="50"/>
-      <c r="BI7" s="50"/>
-      <c r="BJ7" s="50"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="106"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="106"/>
+      <c r="AI7" s="106"/>
+      <c r="AJ7" s="106"/>
+      <c r="AK7" s="106"/>
+      <c r="AL7" s="106"/>
+      <c r="AM7" s="106"/>
+      <c r="AN7" s="106"/>
+      <c r="AO7" s="106"/>
+      <c r="AP7" s="106"/>
+      <c r="AQ7" s="106"/>
+      <c r="AR7" s="106"/>
+      <c r="AS7" s="106"/>
+      <c r="AT7" s="106"/>
+      <c r="AU7" s="106"/>
+      <c r="AV7" s="106"/>
+      <c r="AW7" s="106"/>
+      <c r="AX7" s="106"/>
+      <c r="AY7" s="106"/>
+      <c r="AZ7" s="106"/>
+      <c r="BA7" s="106"/>
+      <c r="BB7" s="106"/>
+      <c r="BC7" s="106"/>
+      <c r="BD7" s="106"/>
+      <c r="BE7" s="106"/>
+      <c r="BF7" s="106"/>
+      <c r="BG7" s="106"/>
+      <c r="BH7" s="106"/>
+      <c r="BI7" s="106"/>
+      <c r="BJ7" s="106"/>
       <c r="BK7" s="9"/>
       <c r="BL7" s="9"/>
       <c r="BM7" s="9"/>
@@ -8371,70 +8387,70 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="60" t="s">
-        <v>36</v>
+      <c r="C8" s="107" t="s">
+        <v>34</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="50" t="s">
-        <v>86</v>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="106" t="s">
+        <v>83</v>
       </c>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="50"/>
-      <c r="AK8" s="50"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="50"/>
-      <c r="AO8" s="50"/>
-      <c r="AP8" s="50"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
-      <c r="AT8" s="50"/>
-      <c r="AU8" s="50"/>
-      <c r="AV8" s="50"/>
-      <c r="AW8" s="50"/>
-      <c r="AX8" s="50"/>
-      <c r="AY8" s="50"/>
-      <c r="AZ8" s="50"/>
-      <c r="BA8" s="50"/>
-      <c r="BB8" s="50"/>
-      <c r="BC8" s="50"/>
-      <c r="BD8" s="50"/>
-      <c r="BE8" s="50"/>
-      <c r="BF8" s="50"/>
-      <c r="BG8" s="50"/>
-      <c r="BH8" s="50"/>
-      <c r="BI8" s="50"/>
-      <c r="BJ8" s="50"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="106"/>
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="106"/>
+      <c r="AF8" s="106"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="106"/>
+      <c r="AJ8" s="106"/>
+      <c r="AK8" s="106"/>
+      <c r="AL8" s="106"/>
+      <c r="AM8" s="106"/>
+      <c r="AN8" s="106"/>
+      <c r="AO8" s="106"/>
+      <c r="AP8" s="106"/>
+      <c r="AQ8" s="106"/>
+      <c r="AR8" s="106"/>
+      <c r="AS8" s="106"/>
+      <c r="AT8" s="106"/>
+      <c r="AU8" s="106"/>
+      <c r="AV8" s="106"/>
+      <c r="AW8" s="106"/>
+      <c r="AX8" s="106"/>
+      <c r="AY8" s="106"/>
+      <c r="AZ8" s="106"/>
+      <c r="BA8" s="106"/>
+      <c r="BB8" s="106"/>
+      <c r="BC8" s="106"/>
+      <c r="BD8" s="106"/>
+      <c r="BE8" s="106"/>
+      <c r="BF8" s="106"/>
+      <c r="BG8" s="106"/>
+      <c r="BH8" s="106"/>
+      <c r="BI8" s="106"/>
+      <c r="BJ8" s="106"/>
       <c r="BK8" s="9"/>
       <c r="BL8" s="9"/>
       <c r="BM8" s="9"/>
@@ -8445,70 +8461,70 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="60" t="s">
-        <v>13</v>
+      <c r="C9" s="107" t="s">
+        <v>12</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="50" t="s">
-        <v>87</v>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="106" t="s">
+        <v>84</v>
       </c>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="50"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="50"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="50"/>
-      <c r="AX9" s="50"/>
-      <c r="AY9" s="50"/>
-      <c r="AZ9" s="50"/>
-      <c r="BA9" s="50"/>
-      <c r="BB9" s="50"/>
-      <c r="BC9" s="50"/>
-      <c r="BD9" s="50"/>
-      <c r="BE9" s="50"/>
-      <c r="BF9" s="50"/>
-      <c r="BG9" s="50"/>
-      <c r="BH9" s="50"/>
-      <c r="BI9" s="50"/>
-      <c r="BJ9" s="50"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="106"/>
+      <c r="AE9" s="106"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="106"/>
+      <c r="AH9" s="106"/>
+      <c r="AI9" s="106"/>
+      <c r="AJ9" s="106"/>
+      <c r="AK9" s="106"/>
+      <c r="AL9" s="106"/>
+      <c r="AM9" s="106"/>
+      <c r="AN9" s="106"/>
+      <c r="AO9" s="106"/>
+      <c r="AP9" s="106"/>
+      <c r="AQ9" s="106"/>
+      <c r="AR9" s="106"/>
+      <c r="AS9" s="106"/>
+      <c r="AT9" s="106"/>
+      <c r="AU9" s="106"/>
+      <c r="AV9" s="106"/>
+      <c r="AW9" s="106"/>
+      <c r="AX9" s="106"/>
+      <c r="AY9" s="106"/>
+      <c r="AZ9" s="106"/>
+      <c r="BA9" s="106"/>
+      <c r="BB9" s="106"/>
+      <c r="BC9" s="106"/>
+      <c r="BD9" s="106"/>
+      <c r="BE9" s="106"/>
+      <c r="BF9" s="106"/>
+      <c r="BG9" s="106"/>
+      <c r="BH9" s="106"/>
+      <c r="BI9" s="106"/>
+      <c r="BJ9" s="106"/>
       <c r="BK9" s="9"/>
       <c r="BL9" s="9"/>
       <c r="BM9" s="9"/>
@@ -8519,70 +8535,70 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="60" t="s">
-        <v>37</v>
+      <c r="C10" s="107" t="s">
+        <v>35</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="50" t="s">
-        <v>88</v>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="106" t="s">
+        <v>131</v>
       </c>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="50"/>
-      <c r="AP10" s="50"/>
-      <c r="AQ10" s="50"/>
-      <c r="AR10" s="50"/>
-      <c r="AS10" s="50"/>
-      <c r="AT10" s="50"/>
-      <c r="AU10" s="50"/>
-      <c r="AV10" s="50"/>
-      <c r="AW10" s="50"/>
-      <c r="AX10" s="50"/>
-      <c r="AY10" s="50"/>
-      <c r="AZ10" s="50"/>
-      <c r="BA10" s="50"/>
-      <c r="BB10" s="50"/>
-      <c r="BC10" s="50"/>
-      <c r="BD10" s="50"/>
-      <c r="BE10" s="50"/>
-      <c r="BF10" s="50"/>
-      <c r="BG10" s="50"/>
-      <c r="BH10" s="50"/>
-      <c r="BI10" s="50"/>
-      <c r="BJ10" s="50"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="106"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="106"/>
+      <c r="AD10" s="106"/>
+      <c r="AE10" s="106"/>
+      <c r="AF10" s="106"/>
+      <c r="AG10" s="106"/>
+      <c r="AH10" s="106"/>
+      <c r="AI10" s="106"/>
+      <c r="AJ10" s="106"/>
+      <c r="AK10" s="106"/>
+      <c r="AL10" s="106"/>
+      <c r="AM10" s="106"/>
+      <c r="AN10" s="106"/>
+      <c r="AO10" s="106"/>
+      <c r="AP10" s="106"/>
+      <c r="AQ10" s="106"/>
+      <c r="AR10" s="106"/>
+      <c r="AS10" s="106"/>
+      <c r="AT10" s="106"/>
+      <c r="AU10" s="106"/>
+      <c r="AV10" s="106"/>
+      <c r="AW10" s="106"/>
+      <c r="AX10" s="106"/>
+      <c r="AY10" s="106"/>
+      <c r="AZ10" s="106"/>
+      <c r="BA10" s="106"/>
+      <c r="BB10" s="106"/>
+      <c r="BC10" s="106"/>
+      <c r="BD10" s="106"/>
+      <c r="BE10" s="106"/>
+      <c r="BF10" s="106"/>
+      <c r="BG10" s="106"/>
+      <c r="BH10" s="106"/>
+      <c r="BI10" s="106"/>
+      <c r="BJ10" s="106"/>
       <c r="BK10" s="9"/>
       <c r="BL10" s="9"/>
       <c r="BM10" s="9"/>
@@ -8593,70 +8609,70 @@
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="60" t="s">
-        <v>84</v>
+      <c r="C11" s="107" t="s">
+        <v>81</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="50" t="s">
-        <v>89</v>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="106" t="s">
+        <v>85</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="50"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50"/>
-      <c r="AW11" s="50"/>
-      <c r="AX11" s="50"/>
-      <c r="AY11" s="50"/>
-      <c r="AZ11" s="50"/>
-      <c r="BA11" s="50"/>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="50"/>
-      <c r="BD11" s="50"/>
-      <c r="BE11" s="50"/>
-      <c r="BF11" s="50"/>
-      <c r="BG11" s="50"/>
-      <c r="BH11" s="50"/>
-      <c r="BI11" s="50"/>
-      <c r="BJ11" s="50"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="106"/>
+      <c r="AI11" s="106"/>
+      <c r="AJ11" s="106"/>
+      <c r="AK11" s="106"/>
+      <c r="AL11" s="106"/>
+      <c r="AM11" s="106"/>
+      <c r="AN11" s="106"/>
+      <c r="AO11" s="106"/>
+      <c r="AP11" s="106"/>
+      <c r="AQ11" s="106"/>
+      <c r="AR11" s="106"/>
+      <c r="AS11" s="106"/>
+      <c r="AT11" s="106"/>
+      <c r="AU11" s="106"/>
+      <c r="AV11" s="106"/>
+      <c r="AW11" s="106"/>
+      <c r="AX11" s="106"/>
+      <c r="AY11" s="106"/>
+      <c r="AZ11" s="106"/>
+      <c r="BA11" s="106"/>
+      <c r="BB11" s="106"/>
+      <c r="BC11" s="106"/>
+      <c r="BD11" s="106"/>
+      <c r="BE11" s="106"/>
+      <c r="BF11" s="106"/>
+      <c r="BG11" s="106"/>
+      <c r="BH11" s="106"/>
+      <c r="BI11" s="106"/>
+      <c r="BJ11" s="106"/>
       <c r="BK11" s="9"/>
       <c r="BL11" s="9"/>
       <c r="BM11" s="9"/>
@@ -8667,70 +8683,70 @@
     <row r="12" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="50"/>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="50"/>
-      <c r="AS12" s="50"/>
-      <c r="AT12" s="50"/>
-      <c r="AU12" s="50"/>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
-      <c r="BB12" s="50"/>
-      <c r="BC12" s="50"/>
-      <c r="BD12" s="50"/>
-      <c r="BE12" s="50"/>
-      <c r="BF12" s="50"/>
-      <c r="BG12" s="50"/>
-      <c r="BH12" s="50"/>
-      <c r="BI12" s="50"/>
-      <c r="BJ12" s="50"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="106"/>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="106"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="106"/>
+      <c r="AC12" s="106"/>
+      <c r="AD12" s="106"/>
+      <c r="AE12" s="106"/>
+      <c r="AF12" s="106"/>
+      <c r="AG12" s="106"/>
+      <c r="AH12" s="106"/>
+      <c r="AI12" s="106"/>
+      <c r="AJ12" s="106"/>
+      <c r="AK12" s="106"/>
+      <c r="AL12" s="106"/>
+      <c r="AM12" s="106"/>
+      <c r="AN12" s="106"/>
+      <c r="AO12" s="106"/>
+      <c r="AP12" s="106"/>
+      <c r="AQ12" s="106"/>
+      <c r="AR12" s="106"/>
+      <c r="AS12" s="106"/>
+      <c r="AT12" s="106"/>
+      <c r="AU12" s="106"/>
+      <c r="AV12" s="106"/>
+      <c r="AW12" s="106"/>
+      <c r="AX12" s="106"/>
+      <c r="AY12" s="106"/>
+      <c r="AZ12" s="106"/>
+      <c r="BA12" s="106"/>
+      <c r="BB12" s="106"/>
+      <c r="BC12" s="106"/>
+      <c r="BD12" s="106"/>
+      <c r="BE12" s="106"/>
+      <c r="BF12" s="106"/>
+      <c r="BG12" s="106"/>
+      <c r="BH12" s="106"/>
+      <c r="BI12" s="106"/>
+      <c r="BJ12" s="106"/>
       <c r="BK12" s="9"/>
       <c r="BL12" s="9"/>
       <c r="BM12" s="9"/>
@@ -8811,7 +8827,7 @@
     <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A14" s="9"/>
       <c r="B14" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -8883,68 +8899,68 @@
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="9"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="63" t="s">
-        <v>90</v>
+      <c r="C15" s="38" t="s">
+        <v>86</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="65"/>
-      <c r="AY15" s="65"/>
-      <c r="AZ15" s="65"/>
-      <c r="BA15" s="65"/>
-      <c r="BB15" s="65"/>
-      <c r="BC15" s="65"/>
-      <c r="BD15" s="65"/>
-      <c r="BE15" s="65"/>
-      <c r="BF15" s="65"/>
-      <c r="BG15" s="65"/>
-      <c r="BH15" s="65"/>
-      <c r="BI15" s="65"/>
-      <c r="BJ15" s="66"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="39"/>
+      <c r="AM15" s="39"/>
+      <c r="AN15" s="39"/>
+      <c r="AO15" s="39"/>
+      <c r="AP15" s="39"/>
+      <c r="AQ15" s="39"/>
+      <c r="AR15" s="39"/>
+      <c r="AS15" s="39"/>
+      <c r="AT15" s="39"/>
+      <c r="AU15" s="39"/>
+      <c r="AV15" s="39"/>
+      <c r="AW15" s="39"/>
+      <c r="AX15" s="39"/>
+      <c r="AY15" s="39"/>
+      <c r="AZ15" s="39"/>
+      <c r="BA15" s="39"/>
+      <c r="BB15" s="39"/>
+      <c r="BC15" s="39"/>
+      <c r="BD15" s="39"/>
+      <c r="BE15" s="39"/>
+      <c r="BF15" s="39"/>
+      <c r="BG15" s="39"/>
+      <c r="BH15" s="39"/>
+      <c r="BI15" s="39"/>
+      <c r="BJ15" s="40"/>
       <c r="BK15" s="9"/>
       <c r="BL15" s="9"/>
       <c r="BM15" s="9"/>
@@ -8954,77 +8970,77 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="61" t="s">
-        <v>31</v>
+      <c r="B16" s="37"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="108" t="s">
+        <v>29</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61" t="s">
-        <v>91</v>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
+      <c r="V16" s="108"/>
+      <c r="W16" s="108" t="s">
+        <v>87</v>
       </c>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61" t="s">
-        <v>92</v>
+      <c r="X16" s="108"/>
+      <c r="Y16" s="108"/>
+      <c r="Z16" s="108"/>
+      <c r="AA16" s="108"/>
+      <c r="AB16" s="108"/>
+      <c r="AC16" s="108"/>
+      <c r="AD16" s="108" t="s">
+        <v>88</v>
       </c>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
-      <c r="AG16" s="61"/>
-      <c r="AH16" s="61"/>
-      <c r="AI16" s="61"/>
-      <c r="AJ16" s="61"/>
-      <c r="AK16" s="61" t="s">
-        <v>93</v>
+      <c r="AE16" s="108"/>
+      <c r="AF16" s="108"/>
+      <c r="AG16" s="108"/>
+      <c r="AH16" s="108"/>
+      <c r="AI16" s="108"/>
+      <c r="AJ16" s="108"/>
+      <c r="AK16" s="108" t="s">
+        <v>89</v>
       </c>
-      <c r="AL16" s="61"/>
-      <c r="AM16" s="61"/>
-      <c r="AN16" s="61" t="s">
-        <v>94</v>
+      <c r="AL16" s="108"/>
+      <c r="AM16" s="108"/>
+      <c r="AN16" s="108" t="s">
+        <v>90</v>
       </c>
-      <c r="AO16" s="61"/>
-      <c r="AP16" s="61"/>
-      <c r="AQ16" s="61"/>
-      <c r="AR16" s="61"/>
-      <c r="AS16" s="61"/>
-      <c r="AT16" s="61"/>
-      <c r="AU16" s="61"/>
-      <c r="AV16" s="61"/>
-      <c r="AW16" s="61"/>
-      <c r="AX16" s="61"/>
-      <c r="AY16" s="61"/>
-      <c r="AZ16" s="61"/>
-      <c r="BA16" s="61"/>
-      <c r="BB16" s="61"/>
-      <c r="BC16" s="61"/>
-      <c r="BD16" s="61"/>
-      <c r="BE16" s="61"/>
-      <c r="BF16" s="61"/>
-      <c r="BG16" s="61"/>
-      <c r="BH16" s="61"/>
-      <c r="BI16" s="61"/>
-      <c r="BJ16" s="61"/>
+      <c r="AO16" s="108"/>
+      <c r="AP16" s="108"/>
+      <c r="AQ16" s="108"/>
+      <c r="AR16" s="108"/>
+      <c r="AS16" s="108"/>
+      <c r="AT16" s="108"/>
+      <c r="AU16" s="108"/>
+      <c r="AV16" s="108"/>
+      <c r="AW16" s="108"/>
+      <c r="AX16" s="108"/>
+      <c r="AY16" s="108"/>
+      <c r="AZ16" s="108"/>
+      <c r="BA16" s="108"/>
+      <c r="BB16" s="108"/>
+      <c r="BC16" s="108"/>
+      <c r="BD16" s="108"/>
+      <c r="BE16" s="108"/>
+      <c r="BF16" s="108"/>
+      <c r="BG16" s="108"/>
+      <c r="BH16" s="108"/>
+      <c r="BI16" s="108"/>
+      <c r="BJ16" s="108"/>
       <c r="BK16" s="9"/>
       <c r="BL16" s="9"/>
       <c r="BM16" s="9"/>
@@ -9034,73 +9050,73 @@
     </row>
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="50" t="s">
-        <v>95</v>
+      <c r="B17" s="37"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="106" t="s">
+        <v>132</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50" t="s">
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="50"/>
-      <c r="AI17" s="50"/>
-      <c r="AJ17" s="50"/>
-      <c r="AK17" s="50"/>
-      <c r="AL17" s="50"/>
-      <c r="AM17" s="50"/>
-      <c r="AN17" s="50"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="50"/>
-      <c r="AQ17" s="50"/>
-      <c r="AR17" s="50"/>
-      <c r="AS17" s="50"/>
-      <c r="AT17" s="50"/>
-      <c r="AU17" s="50"/>
-      <c r="AV17" s="50"/>
-      <c r="AW17" s="50"/>
-      <c r="AX17" s="50"/>
-      <c r="AY17" s="50"/>
-      <c r="AZ17" s="50"/>
-      <c r="BA17" s="50"/>
-      <c r="BB17" s="50"/>
-      <c r="BC17" s="50"/>
-      <c r="BD17" s="50"/>
-      <c r="BE17" s="50"/>
-      <c r="BF17" s="50"/>
-      <c r="BG17" s="50"/>
-      <c r="BH17" s="50"/>
-      <c r="BI17" s="50"/>
-      <c r="BJ17" s="50"/>
+      <c r="X17" s="106"/>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="106"/>
+      <c r="AB17" s="106"/>
+      <c r="AC17" s="106"/>
+      <c r="AD17" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE17" s="106"/>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="106"/>
+      <c r="AH17" s="106"/>
+      <c r="AI17" s="106"/>
+      <c r="AJ17" s="106"/>
+      <c r="AK17" s="106"/>
+      <c r="AL17" s="106"/>
+      <c r="AM17" s="106"/>
+      <c r="AN17" s="106"/>
+      <c r="AO17" s="106"/>
+      <c r="AP17" s="106"/>
+      <c r="AQ17" s="106"/>
+      <c r="AR17" s="106"/>
+      <c r="AS17" s="106"/>
+      <c r="AT17" s="106"/>
+      <c r="AU17" s="106"/>
+      <c r="AV17" s="106"/>
+      <c r="AW17" s="106"/>
+      <c r="AX17" s="106"/>
+      <c r="AY17" s="106"/>
+      <c r="AZ17" s="106"/>
+      <c r="BA17" s="106"/>
+      <c r="BB17" s="106"/>
+      <c r="BC17" s="106"/>
+      <c r="BD17" s="106"/>
+      <c r="BE17" s="106"/>
+      <c r="BF17" s="106"/>
+      <c r="BG17" s="106"/>
+      <c r="BH17" s="106"/>
+      <c r="BI17" s="106"/>
+      <c r="BJ17" s="106"/>
       <c r="BK17" s="9"/>
       <c r="BL17" s="9"/>
       <c r="BM17" s="9"/>
@@ -9110,71 +9126,71 @@
     </row>
     <row r="18" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A18" s="9"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="79" t="s">
-        <v>112</v>
+      <c r="B18" s="37"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="103" t="s">
+        <v>106</v>
       </c>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="80"/>
-      <c r="U18" s="80"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="80"/>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="80"/>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="64"/>
-      <c r="AD18" s="79" t="s">
-        <v>40</v>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="103"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="105"/>
+      <c r="AD18" s="103" t="s">
+        <v>38</v>
       </c>
-      <c r="AE18" s="80"/>
-      <c r="AF18" s="80"/>
-      <c r="AG18" s="80"/>
-      <c r="AH18" s="80"/>
-      <c r="AI18" s="80"/>
-      <c r="AJ18" s="64"/>
-      <c r="AK18" s="79"/>
-      <c r="AL18" s="80"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="79"/>
-      <c r="AO18" s="80"/>
-      <c r="AP18" s="80"/>
-      <c r="AQ18" s="80"/>
-      <c r="AR18" s="80"/>
-      <c r="AS18" s="80"/>
-      <c r="AT18" s="80"/>
-      <c r="AU18" s="80"/>
-      <c r="AV18" s="80"/>
-      <c r="AW18" s="80"/>
-      <c r="AX18" s="80"/>
-      <c r="AY18" s="80"/>
-      <c r="AZ18" s="80"/>
-      <c r="BA18" s="80"/>
-      <c r="BB18" s="80"/>
-      <c r="BC18" s="80"/>
-      <c r="BD18" s="80"/>
-      <c r="BE18" s="80"/>
-      <c r="BF18" s="80"/>
-      <c r="BG18" s="80"/>
-      <c r="BH18" s="80"/>
-      <c r="BI18" s="80"/>
-      <c r="BJ18" s="64"/>
+      <c r="AE18" s="104"/>
+      <c r="AF18" s="104"/>
+      <c r="AG18" s="104"/>
+      <c r="AH18" s="104"/>
+      <c r="AI18" s="104"/>
+      <c r="AJ18" s="105"/>
+      <c r="AK18" s="103"/>
+      <c r="AL18" s="104"/>
+      <c r="AM18" s="105"/>
+      <c r="AN18" s="103"/>
+      <c r="AO18" s="104"/>
+      <c r="AP18" s="104"/>
+      <c r="AQ18" s="104"/>
+      <c r="AR18" s="104"/>
+      <c r="AS18" s="104"/>
+      <c r="AT18" s="104"/>
+      <c r="AU18" s="104"/>
+      <c r="AV18" s="104"/>
+      <c r="AW18" s="104"/>
+      <c r="AX18" s="104"/>
+      <c r="AY18" s="104"/>
+      <c r="AZ18" s="104"/>
+      <c r="BA18" s="104"/>
+      <c r="BB18" s="104"/>
+      <c r="BC18" s="104"/>
+      <c r="BD18" s="104"/>
+      <c r="BE18" s="104"/>
+      <c r="BF18" s="104"/>
+      <c r="BG18" s="104"/>
+      <c r="BH18" s="104"/>
+      <c r="BI18" s="104"/>
+      <c r="BJ18" s="105"/>
       <c r="BK18" s="9"/>
       <c r="BL18" s="9"/>
       <c r="BM18" s="9"/>
@@ -9184,69 +9200,69 @@
     </row>
     <row r="19" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A19" s="9"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="63" t="s">
-        <v>111</v>
+      <c r="B19" s="37"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="38" t="s">
+        <v>133</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
-      <c r="BC19" s="65"/>
-      <c r="BD19" s="65"/>
-      <c r="BE19" s="65"/>
-      <c r="BF19" s="65"/>
-      <c r="BG19" s="65"/>
-      <c r="BH19" s="65"/>
-      <c r="BI19" s="65"/>
-      <c r="BJ19" s="66"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="39"/>
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="39"/>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="39"/>
+      <c r="AR19" s="39"/>
+      <c r="AS19" s="39"/>
+      <c r="AT19" s="39"/>
+      <c r="AU19" s="39"/>
+      <c r="AV19" s="39"/>
+      <c r="AW19" s="39"/>
+      <c r="AX19" s="39"/>
+      <c r="AY19" s="39"/>
+      <c r="AZ19" s="39"/>
+      <c r="BA19" s="39"/>
+      <c r="BB19" s="39"/>
+      <c r="BC19" s="39"/>
+      <c r="BD19" s="39"/>
+      <c r="BE19" s="39"/>
+      <c r="BF19" s="39"/>
+      <c r="BG19" s="39"/>
+      <c r="BH19" s="39"/>
+      <c r="BI19" s="39"/>
+      <c r="BJ19" s="40"/>
       <c r="BK19" s="14"/>
       <c r="BL19" s="9"/>
       <c r="BM19" s="9"/>
@@ -9256,73 +9272,73 @@
     </row>
     <row r="20" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="50" t="s">
-        <v>110</v>
+      <c r="B20" s="37"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="106" t="s">
+        <v>105</v>
       </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50" t="s">
-        <v>41</v>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="106"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="106"/>
+      <c r="W20" s="106" t="s">
+        <v>39</v>
       </c>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50" t="s">
-        <v>40</v>
+      <c r="X20" s="106"/>
+      <c r="Y20" s="106"/>
+      <c r="Z20" s="106"/>
+      <c r="AA20" s="106"/>
+      <c r="AB20" s="106"/>
+      <c r="AC20" s="106"/>
+      <c r="AD20" s="106" t="s">
+        <v>38</v>
       </c>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="50"/>
-      <c r="AI20" s="50"/>
-      <c r="AJ20" s="50"/>
-      <c r="AK20" s="50"/>
-      <c r="AL20" s="50"/>
-      <c r="AM20" s="50"/>
-      <c r="AN20" s="50"/>
-      <c r="AO20" s="50"/>
-      <c r="AP20" s="50"/>
-      <c r="AQ20" s="50"/>
-      <c r="AR20" s="50"/>
-      <c r="AS20" s="50"/>
-      <c r="AT20" s="50"/>
-      <c r="AU20" s="50"/>
-      <c r="AV20" s="50"/>
-      <c r="AW20" s="50"/>
-      <c r="AX20" s="50"/>
-      <c r="AY20" s="50"/>
-      <c r="AZ20" s="50"/>
-      <c r="BA20" s="50"/>
-      <c r="BB20" s="50"/>
-      <c r="BC20" s="50"/>
-      <c r="BD20" s="50"/>
-      <c r="BE20" s="50"/>
-      <c r="BF20" s="50"/>
-      <c r="BG20" s="50"/>
-      <c r="BH20" s="50"/>
-      <c r="BI20" s="50"/>
-      <c r="BJ20" s="50"/>
+      <c r="AE20" s="106"/>
+      <c r="AF20" s="106"/>
+      <c r="AG20" s="106"/>
+      <c r="AH20" s="106"/>
+      <c r="AI20" s="106"/>
+      <c r="AJ20" s="106"/>
+      <c r="AK20" s="106"/>
+      <c r="AL20" s="106"/>
+      <c r="AM20" s="106"/>
+      <c r="AN20" s="106"/>
+      <c r="AO20" s="106"/>
+      <c r="AP20" s="106"/>
+      <c r="AQ20" s="106"/>
+      <c r="AR20" s="106"/>
+      <c r="AS20" s="106"/>
+      <c r="AT20" s="106"/>
+      <c r="AU20" s="106"/>
+      <c r="AV20" s="106"/>
+      <c r="AW20" s="106"/>
+      <c r="AX20" s="106"/>
+      <c r="AY20" s="106"/>
+      <c r="AZ20" s="106"/>
+      <c r="BA20" s="106"/>
+      <c r="BB20" s="106"/>
+      <c r="BC20" s="106"/>
+      <c r="BD20" s="106"/>
+      <c r="BE20" s="106"/>
+      <c r="BF20" s="106"/>
+      <c r="BG20" s="106"/>
+      <c r="BH20" s="106"/>
+      <c r="BI20" s="106"/>
+      <c r="BJ20" s="106"/>
       <c r="BK20" s="9"/>
       <c r="BL20" s="9"/>
       <c r="BM20" s="9"/>
@@ -9332,73 +9348,73 @@
     </row>
     <row r="21" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A21" s="9"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="50" t="s">
-        <v>113</v>
+      <c r="B21" s="37"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="106" t="s">
+        <v>107</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50" t="s">
-        <v>41</v>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="106"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106" t="s">
+        <v>39</v>
       </c>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50" t="s">
-        <v>40</v>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="106"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="106"/>
+      <c r="AD21" s="106" t="s">
+        <v>38</v>
       </c>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="50"/>
-      <c r="AI21" s="50"/>
-      <c r="AJ21" s="50"/>
-      <c r="AK21" s="50"/>
-      <c r="AL21" s="50"/>
-      <c r="AM21" s="50"/>
-      <c r="AN21" s="50"/>
-      <c r="AO21" s="50"/>
-      <c r="AP21" s="50"/>
-      <c r="AQ21" s="50"/>
-      <c r="AR21" s="50"/>
-      <c r="AS21" s="50"/>
-      <c r="AT21" s="50"/>
-      <c r="AU21" s="50"/>
-      <c r="AV21" s="50"/>
-      <c r="AW21" s="50"/>
-      <c r="AX21" s="50"/>
-      <c r="AY21" s="50"/>
-      <c r="AZ21" s="50"/>
-      <c r="BA21" s="50"/>
-      <c r="BB21" s="50"/>
-      <c r="BC21" s="50"/>
-      <c r="BD21" s="50"/>
-      <c r="BE21" s="50"/>
-      <c r="BF21" s="50"/>
-      <c r="BG21" s="50"/>
-      <c r="BH21" s="50"/>
-      <c r="BI21" s="50"/>
-      <c r="BJ21" s="50"/>
+      <c r="AE21" s="106"/>
+      <c r="AF21" s="106"/>
+      <c r="AG21" s="106"/>
+      <c r="AH21" s="106"/>
+      <c r="AI21" s="106"/>
+      <c r="AJ21" s="106"/>
+      <c r="AK21" s="106"/>
+      <c r="AL21" s="106"/>
+      <c r="AM21" s="106"/>
+      <c r="AN21" s="106"/>
+      <c r="AO21" s="106"/>
+      <c r="AP21" s="106"/>
+      <c r="AQ21" s="106"/>
+      <c r="AR21" s="106"/>
+      <c r="AS21" s="106"/>
+      <c r="AT21" s="106"/>
+      <c r="AU21" s="106"/>
+      <c r="AV21" s="106"/>
+      <c r="AW21" s="106"/>
+      <c r="AX21" s="106"/>
+      <c r="AY21" s="106"/>
+      <c r="AZ21" s="106"/>
+      <c r="BA21" s="106"/>
+      <c r="BB21" s="106"/>
+      <c r="BC21" s="106"/>
+      <c r="BD21" s="106"/>
+      <c r="BE21" s="106"/>
+      <c r="BF21" s="106"/>
+      <c r="BG21" s="106"/>
+      <c r="BH21" s="106"/>
+      <c r="BI21" s="106"/>
+      <c r="BJ21" s="106"/>
       <c r="BK21" s="9"/>
       <c r="BL21" s="9"/>
       <c r="BM21" s="9"/>
@@ -9478,21 +9494,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AN18:BJ18"/>
-    <mergeCell ref="AK18:AM18"/>
-    <mergeCell ref="AD18:AJ18"/>
-    <mergeCell ref="W18:AC18"/>
-    <mergeCell ref="D18:V18"/>
-    <mergeCell ref="E21:V21"/>
-    <mergeCell ref="W21:AC21"/>
-    <mergeCell ref="AD21:AJ21"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AN21:BJ21"/>
-    <mergeCell ref="E20:V20"/>
-    <mergeCell ref="W20:AC20"/>
-    <mergeCell ref="AD20:AJ20"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="AN20:BJ20"/>
+    <mergeCell ref="W16:AC16"/>
+    <mergeCell ref="AD16:AJ16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="AN16:BJ16"/>
+    <mergeCell ref="D17:V17"/>
+    <mergeCell ref="W17:AC17"/>
     <mergeCell ref="AD17:AJ17"/>
     <mergeCell ref="AK17:AM17"/>
     <mergeCell ref="AN17:BJ17"/>
@@ -9509,12 +9516,21 @@
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="K12:BJ12"/>
     <mergeCell ref="D16:V16"/>
-    <mergeCell ref="W16:AC16"/>
-    <mergeCell ref="AD16:AJ16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="AN16:BJ16"/>
-    <mergeCell ref="D17:V17"/>
-    <mergeCell ref="W17:AC17"/>
+    <mergeCell ref="E20:V20"/>
+    <mergeCell ref="W20:AC20"/>
+    <mergeCell ref="AD20:AJ20"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AN20:BJ20"/>
+    <mergeCell ref="E21:V21"/>
+    <mergeCell ref="W21:AC21"/>
+    <mergeCell ref="AD21:AJ21"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AN21:BJ21"/>
+    <mergeCell ref="AN18:BJ18"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="AD18:AJ18"/>
+    <mergeCell ref="W18:AC18"/>
+    <mergeCell ref="D18:V18"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9565,17 +9581,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="69" t="s">
-        <v>30</v>
+      <c r="A1" s="43" t="s">
+        <v>28</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="73" t="s">
+      <c r="B1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>96</v>
+      <c r="C1" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
@@ -9583,17 +9599,17 @@
       <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="74" t="s">
-        <v>44</v>
+      <c r="B2" s="29" t="s">
+        <v>39</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>97</v>
+      <c r="C2" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -9601,17 +9617,17 @@
       <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>98</v>
+      <c r="D3" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
@@ -9619,15 +9635,15 @@
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="70" t="s">
-        <v>48</v>
+      <c r="A4" s="44" t="s">
+        <v>46</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>49</v>
+      <c r="B4" s="29" t="s">
+        <v>47</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="45" t="s">
-        <v>99</v>
+      <c r="C4" s="48"/>
+      <c r="D4" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
@@ -9635,15 +9651,15 @@
       <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="70" t="s">
-        <v>50</v>
+      <c r="A5" s="44" t="s">
+        <v>48</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>39</v>
+      <c r="B5" s="29" t="s">
+        <v>37</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="45" t="s">
-        <v>100</v>
+      <c r="C5" s="48"/>
+      <c r="D5" s="29" t="s">
+        <v>95</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
@@ -9651,258 +9667,258 @@
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="70" t="s">
-        <v>51</v>
+      <c r="A6" s="44" t="s">
+        <v>49</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>52</v>
+      <c r="B6" s="29" t="s">
+        <v>50</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="77"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="71"/>
-      <c r="B7" s="45" t="s">
-        <v>53</v>
+      <c r="A7" s="45"/>
+      <c r="B7" s="29" t="s">
+        <v>51</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="77"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="71"/>
-      <c r="B8" s="45" t="s">
-        <v>54</v>
+      <c r="A8" s="45"/>
+      <c r="B8" s="29" t="s">
+        <v>52</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="77"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="45" t="s">
-        <v>55</v>
+      <c r="A9" s="45"/>
+      <c r="B9" s="29" t="s">
+        <v>53</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="77"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="71"/>
-      <c r="B10" s="45" t="s">
-        <v>59</v>
+      <c r="A10" s="45"/>
+      <c r="B10" s="29" t="s">
+        <v>57</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="77"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="71"/>
-      <c r="B11" s="45" t="s">
-        <v>60</v>
+      <c r="A11" s="45"/>
+      <c r="B11" s="29" t="s">
+        <v>58</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="77"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="71"/>
-      <c r="B12" s="77" t="s">
-        <v>56</v>
+      <c r="A12" s="45"/>
+      <c r="B12" s="51" t="s">
+        <v>54</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="77"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="71"/>
-      <c r="B13" s="77" t="s">
-        <v>57</v>
+      <c r="A13" s="45"/>
+      <c r="B13" s="51" t="s">
+        <v>55</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="77"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="71"/>
-      <c r="B14" s="45" t="s">
-        <v>101</v>
+      <c r="A14" s="45"/>
+      <c r="B14" s="29" t="s">
+        <v>96</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="77"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="45" t="s">
-        <v>102</v>
+      <c r="A15" s="45"/>
+      <c r="B15" s="29" t="s">
+        <v>97</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="77"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="45" t="s">
-        <v>58</v>
+      <c r="A16" s="45"/>
+      <c r="B16" s="29" t="s">
+        <v>56</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="77"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="45" t="s">
-        <v>103</v>
+      <c r="A17" s="45"/>
+      <c r="B17" s="29" t="s">
+        <v>98</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="77"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="45" t="s">
-        <v>104</v>
+      <c r="A18" s="45"/>
+      <c r="B18" s="29" t="s">
+        <v>99</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="77"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="71"/>
-      <c r="B19" s="45" t="s">
-        <v>105</v>
+      <c r="A19" s="45"/>
+      <c r="B19" s="29" t="s">
+        <v>100</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="77"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="45" t="s">
-        <v>106</v>
+      <c r="A20" s="45"/>
+      <c r="B20" s="29" t="s">
+        <v>101</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="77"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="45" t="s">
-        <v>107</v>
+      <c r="A21" s="45"/>
+      <c r="B21" s="29" t="s">
+        <v>102</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="77"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="45" t="s">
-        <v>108</v>
+      <c r="A22" s="45"/>
+      <c r="B22" s="29" t="s">
+        <v>103</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="77"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="45" t="s">
-        <v>109</v>
+      <c r="A23" s="45"/>
+      <c r="B23" s="29" t="s">
+        <v>104</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="77"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="77"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="71"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="77"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="51"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="77"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="72"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="78"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>

--- a/ha-asset/01_design/03_batch/設計書_3.0.健康情報登録バッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.0.健康情報登録バッチ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA19C2C0-EF15-4201-B3B4-D61AEB222B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F9ECCF-60C0-4C70-BEAC-D8164ACA7797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7905" yWindow="630" windowWidth="20580" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="855" windowWidth="22920" windowHeight="14625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="178">
   <si>
     <t>更新日時</t>
   </si>
@@ -636,10 +636,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>システム日時</t>
     <rPh sb="4" eb="6">
       <t>ニチジ</t>
@@ -674,10 +670,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>処理結果</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>エラー詳細</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -687,10 +679,6 @@
   </si>
   <si>
     <t>"健康管理API:健康情報登録API"</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>健康情報ファイル</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -824,6 +812,32 @@
     <t>1.00</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>2.1.健康情報登録バッチ 最新化</t>
+    <rPh sb="14" eb="16">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>HTTPメソッド</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>リクエストURL</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>"GET"</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>$host/api/${JSON.ユーザID}/healthinfo</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
@@ -832,7 +846,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -911,11 +925,19 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Meiryo"/>
       <family val="3"/>
       <charset val="128"/>
@@ -977,7 +999,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1365,21 +1387,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1660,15 +1673,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1715,6 +1719,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2037,9 +2055,9 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9:Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2152,7 +2170,7 @@
       <c r="D4" s="89"/>
       <c r="E4" s="90"/>
       <c r="F4" s="93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
@@ -2266,7 +2284,7 @@
       <c r="H7" s="86"/>
       <c r="I7" s="87"/>
       <c r="J7" s="88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K7" s="89"/>
       <c r="L7" s="89"/>
@@ -2288,18 +2306,22 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="2"/>
-      <c r="B8" s="88"/>
+      <c r="B8" s="94">
+        <v>45647</v>
+      </c>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
       <c r="E8" s="90"/>
-      <c r="F8" s="85" t="str">
+      <c r="F8" s="85">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1.04</v>
       </c>
       <c r="G8" s="86"/>
       <c r="H8" s="86"/>
       <c r="I8" s="87"/>
-      <c r="J8" s="88"/>
+      <c r="J8" s="88" t="s">
+        <v>173</v>
+      </c>
       <c r="K8" s="89"/>
       <c r="L8" s="89"/>
       <c r="M8" s="89"/>
@@ -4618,7 +4640,7 @@
   </sheetPr>
   <dimension ref="A1:BQ86"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -5057,70 +5079,70 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="151" t="s">
+      <c r="C7" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="158" t="s">
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="158"/>
-      <c r="R7" s="158"/>
-      <c r="S7" s="158"/>
-      <c r="T7" s="158"/>
-      <c r="U7" s="158"/>
-      <c r="V7" s="158"/>
-      <c r="W7" s="158"/>
-      <c r="X7" s="158"/>
-      <c r="Y7" s="158"/>
-      <c r="Z7" s="158"/>
-      <c r="AA7" s="158"/>
-      <c r="AB7" s="158"/>
-      <c r="AC7" s="158"/>
-      <c r="AD7" s="158"/>
-      <c r="AE7" s="158"/>
-      <c r="AF7" s="158"/>
-      <c r="AG7" s="158"/>
-      <c r="AH7" s="158"/>
-      <c r="AI7" s="158"/>
-      <c r="AJ7" s="158"/>
-      <c r="AK7" s="158"/>
-      <c r="AL7" s="158"/>
-      <c r="AM7" s="158"/>
-      <c r="AN7" s="158"/>
-      <c r="AO7" s="158"/>
-      <c r="AP7" s="158"/>
-      <c r="AQ7" s="158"/>
-      <c r="AR7" s="158"/>
-      <c r="AS7" s="158"/>
-      <c r="AT7" s="158"/>
-      <c r="AU7" s="158"/>
-      <c r="AV7" s="158"/>
-      <c r="AW7" s="158"/>
-      <c r="AX7" s="158"/>
-      <c r="AY7" s="158"/>
-      <c r="AZ7" s="158"/>
-      <c r="BA7" s="158"/>
-      <c r="BB7" s="158"/>
-      <c r="BC7" s="158"/>
-      <c r="BD7" s="158"/>
-      <c r="BE7" s="158"/>
-      <c r="BF7" s="158"/>
-      <c r="BG7" s="158"/>
-      <c r="BH7" s="158"/>
-      <c r="BI7" s="158"/>
-      <c r="BJ7" s="158"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="161"/>
+      <c r="S7" s="161"/>
+      <c r="T7" s="161"/>
+      <c r="U7" s="161"/>
+      <c r="V7" s="161"/>
+      <c r="W7" s="161"/>
+      <c r="X7" s="161"/>
+      <c r="Y7" s="161"/>
+      <c r="Z7" s="161"/>
+      <c r="AA7" s="161"/>
+      <c r="AB7" s="161"/>
+      <c r="AC7" s="161"/>
+      <c r="AD7" s="161"/>
+      <c r="AE7" s="161"/>
+      <c r="AF7" s="161"/>
+      <c r="AG7" s="161"/>
+      <c r="AH7" s="161"/>
+      <c r="AI7" s="161"/>
+      <c r="AJ7" s="161"/>
+      <c r="AK7" s="161"/>
+      <c r="AL7" s="161"/>
+      <c r="AM7" s="161"/>
+      <c r="AN7" s="161"/>
+      <c r="AO7" s="161"/>
+      <c r="AP7" s="161"/>
+      <c r="AQ7" s="161"/>
+      <c r="AR7" s="161"/>
+      <c r="AS7" s="161"/>
+      <c r="AT7" s="161"/>
+      <c r="AU7" s="161"/>
+      <c r="AV7" s="161"/>
+      <c r="AW7" s="161"/>
+      <c r="AX7" s="161"/>
+      <c r="AY7" s="161"/>
+      <c r="AZ7" s="161"/>
+      <c r="BA7" s="161"/>
+      <c r="BB7" s="161"/>
+      <c r="BC7" s="161"/>
+      <c r="BD7" s="161"/>
+      <c r="BE7" s="161"/>
+      <c r="BF7" s="161"/>
+      <c r="BG7" s="161"/>
+      <c r="BH7" s="161"/>
+      <c r="BI7" s="161"/>
+      <c r="BJ7" s="161"/>
       <c r="BK7" s="2"/>
       <c r="BL7" s="2"/>
       <c r="BM7" s="2"/>
@@ -5131,70 +5153,70 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="151" t="s">
+      <c r="C8" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="156" t="s">
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="156"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="156"/>
-      <c r="V8" s="156"/>
-      <c r="W8" s="156"/>
-      <c r="X8" s="156"/>
-      <c r="Y8" s="156"/>
-      <c r="Z8" s="156"/>
-      <c r="AA8" s="156"/>
-      <c r="AB8" s="156"/>
-      <c r="AC8" s="156"/>
-      <c r="AD8" s="156"/>
-      <c r="AE8" s="156"/>
-      <c r="AF8" s="156"/>
-      <c r="AG8" s="156"/>
-      <c r="AH8" s="156"/>
-      <c r="AI8" s="156"/>
-      <c r="AJ8" s="156"/>
-      <c r="AK8" s="156"/>
-      <c r="AL8" s="156"/>
-      <c r="AM8" s="156"/>
-      <c r="AN8" s="156"/>
-      <c r="AO8" s="156"/>
-      <c r="AP8" s="156"/>
-      <c r="AQ8" s="156"/>
-      <c r="AR8" s="156"/>
-      <c r="AS8" s="156"/>
-      <c r="AT8" s="156"/>
-      <c r="AU8" s="156"/>
-      <c r="AV8" s="156"/>
-      <c r="AW8" s="156"/>
-      <c r="AX8" s="156"/>
-      <c r="AY8" s="156"/>
-      <c r="AZ8" s="156"/>
-      <c r="BA8" s="156"/>
-      <c r="BB8" s="156"/>
-      <c r="BC8" s="156"/>
-      <c r="BD8" s="156"/>
-      <c r="BE8" s="156"/>
-      <c r="BF8" s="156"/>
-      <c r="BG8" s="156"/>
-      <c r="BH8" s="156"/>
-      <c r="BI8" s="156"/>
-      <c r="BJ8" s="156"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="159"/>
+      <c r="S8" s="159"/>
+      <c r="T8" s="159"/>
+      <c r="U8" s="159"/>
+      <c r="V8" s="159"/>
+      <c r="W8" s="159"/>
+      <c r="X8" s="159"/>
+      <c r="Y8" s="159"/>
+      <c r="Z8" s="159"/>
+      <c r="AA8" s="159"/>
+      <c r="AB8" s="159"/>
+      <c r="AC8" s="159"/>
+      <c r="AD8" s="159"/>
+      <c r="AE8" s="159"/>
+      <c r="AF8" s="159"/>
+      <c r="AG8" s="159"/>
+      <c r="AH8" s="159"/>
+      <c r="AI8" s="159"/>
+      <c r="AJ8" s="159"/>
+      <c r="AK8" s="159"/>
+      <c r="AL8" s="159"/>
+      <c r="AM8" s="159"/>
+      <c r="AN8" s="159"/>
+      <c r="AO8" s="159"/>
+      <c r="AP8" s="159"/>
+      <c r="AQ8" s="159"/>
+      <c r="AR8" s="159"/>
+      <c r="AS8" s="159"/>
+      <c r="AT8" s="159"/>
+      <c r="AU8" s="159"/>
+      <c r="AV8" s="159"/>
+      <c r="AW8" s="159"/>
+      <c r="AX8" s="159"/>
+      <c r="AY8" s="159"/>
+      <c r="AZ8" s="159"/>
+      <c r="BA8" s="159"/>
+      <c r="BB8" s="159"/>
+      <c r="BC8" s="159"/>
+      <c r="BD8" s="159"/>
+      <c r="BE8" s="159"/>
+      <c r="BF8" s="159"/>
+      <c r="BG8" s="159"/>
+      <c r="BH8" s="159"/>
+      <c r="BI8" s="159"/>
+      <c r="BJ8" s="159"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="2"/>
       <c r="BM8" s="2"/>
@@ -5205,68 +5227,68 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="157"/>
-      <c r="Q9" s="157"/>
-      <c r="R9" s="157"/>
-      <c r="S9" s="157"/>
-      <c r="T9" s="157"/>
-      <c r="U9" s="157"/>
-      <c r="V9" s="157"/>
-      <c r="W9" s="157"/>
-      <c r="X9" s="157"/>
-      <c r="Y9" s="157"/>
-      <c r="Z9" s="157"/>
-      <c r="AA9" s="157"/>
-      <c r="AB9" s="157"/>
-      <c r="AC9" s="157"/>
-      <c r="AD9" s="157"/>
-      <c r="AE9" s="157"/>
-      <c r="AF9" s="157"/>
-      <c r="AG9" s="157"/>
-      <c r="AH9" s="157"/>
-      <c r="AI9" s="157"/>
-      <c r="AJ9" s="157"/>
-      <c r="AK9" s="157"/>
-      <c r="AL9" s="157"/>
-      <c r="AM9" s="157"/>
-      <c r="AN9" s="157"/>
-      <c r="AO9" s="157"/>
-      <c r="AP9" s="157"/>
-      <c r="AQ9" s="157"/>
-      <c r="AR9" s="157"/>
-      <c r="AS9" s="157"/>
-      <c r="AT9" s="157"/>
-      <c r="AU9" s="157"/>
-      <c r="AV9" s="157"/>
-      <c r="AW9" s="157"/>
-      <c r="AX9" s="157"/>
-      <c r="AY9" s="157"/>
-      <c r="AZ9" s="157"/>
-      <c r="BA9" s="157"/>
-      <c r="BB9" s="157"/>
-      <c r="BC9" s="157"/>
-      <c r="BD9" s="157"/>
-      <c r="BE9" s="157"/>
-      <c r="BF9" s="157"/>
-      <c r="BG9" s="157"/>
-      <c r="BH9" s="157"/>
-      <c r="BI9" s="157"/>
-      <c r="BJ9" s="157"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="160"/>
+      <c r="L9" s="160"/>
+      <c r="M9" s="160"/>
+      <c r="N9" s="160"/>
+      <c r="O9" s="160"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="160"/>
+      <c r="R9" s="160"/>
+      <c r="S9" s="160"/>
+      <c r="T9" s="160"/>
+      <c r="U9" s="160"/>
+      <c r="V9" s="160"/>
+      <c r="W9" s="160"/>
+      <c r="X9" s="160"/>
+      <c r="Y9" s="160"/>
+      <c r="Z9" s="160"/>
+      <c r="AA9" s="160"/>
+      <c r="AB9" s="160"/>
+      <c r="AC9" s="160"/>
+      <c r="AD9" s="160"/>
+      <c r="AE9" s="160"/>
+      <c r="AF9" s="160"/>
+      <c r="AG9" s="160"/>
+      <c r="AH9" s="160"/>
+      <c r="AI9" s="160"/>
+      <c r="AJ9" s="160"/>
+      <c r="AK9" s="160"/>
+      <c r="AL9" s="160"/>
+      <c r="AM9" s="160"/>
+      <c r="AN9" s="160"/>
+      <c r="AO9" s="160"/>
+      <c r="AP9" s="160"/>
+      <c r="AQ9" s="160"/>
+      <c r="AR9" s="160"/>
+      <c r="AS9" s="160"/>
+      <c r="AT9" s="160"/>
+      <c r="AU9" s="160"/>
+      <c r="AV9" s="160"/>
+      <c r="AW9" s="160"/>
+      <c r="AX9" s="160"/>
+      <c r="AY9" s="160"/>
+      <c r="AZ9" s="160"/>
+      <c r="BA9" s="160"/>
+      <c r="BB9" s="160"/>
+      <c r="BC9" s="160"/>
+      <c r="BD9" s="160"/>
+      <c r="BE9" s="160"/>
+      <c r="BF9" s="160"/>
+      <c r="BG9" s="160"/>
+      <c r="BH9" s="160"/>
+      <c r="BI9" s="160"/>
+      <c r="BJ9" s="160"/>
       <c r="BK9" s="2"/>
       <c r="BL9" s="2"/>
       <c r="BM9" s="2"/>
@@ -5277,70 +5299,70 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="2"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="155" t="s">
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="132"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="132"/>
-      <c r="Y10" s="132"/>
-      <c r="Z10" s="132"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="132"/>
-      <c r="AC10" s="132"/>
-      <c r="AD10" s="132"/>
-      <c r="AE10" s="132"/>
-      <c r="AF10" s="132"/>
-      <c r="AG10" s="132"/>
-      <c r="AH10" s="132"/>
-      <c r="AI10" s="132"/>
-      <c r="AJ10" s="132"/>
-      <c r="AK10" s="132"/>
-      <c r="AL10" s="132"/>
-      <c r="AM10" s="132"/>
-      <c r="AN10" s="132"/>
-      <c r="AO10" s="132"/>
-      <c r="AP10" s="132"/>
-      <c r="AQ10" s="132"/>
-      <c r="AR10" s="132"/>
-      <c r="AS10" s="132"/>
-      <c r="AT10" s="132"/>
-      <c r="AU10" s="132"/>
-      <c r="AV10" s="132"/>
-      <c r="AW10" s="132"/>
-      <c r="AX10" s="132"/>
-      <c r="AY10" s="132"/>
-      <c r="AZ10" s="132"/>
-      <c r="BA10" s="132"/>
-      <c r="BB10" s="132"/>
-      <c r="BC10" s="132"/>
-      <c r="BD10" s="132"/>
-      <c r="BE10" s="132"/>
-      <c r="BF10" s="132"/>
-      <c r="BG10" s="132"/>
-      <c r="BH10" s="132"/>
-      <c r="BI10" s="132"/>
-      <c r="BJ10" s="153"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="135"/>
+      <c r="AF10" s="135"/>
+      <c r="AG10" s="135"/>
+      <c r="AH10" s="135"/>
+      <c r="AI10" s="135"/>
+      <c r="AJ10" s="135"/>
+      <c r="AK10" s="135"/>
+      <c r="AL10" s="135"/>
+      <c r="AM10" s="135"/>
+      <c r="AN10" s="135"/>
+      <c r="AO10" s="135"/>
+      <c r="AP10" s="135"/>
+      <c r="AQ10" s="135"/>
+      <c r="AR10" s="135"/>
+      <c r="AS10" s="135"/>
+      <c r="AT10" s="135"/>
+      <c r="AU10" s="135"/>
+      <c r="AV10" s="135"/>
+      <c r="AW10" s="135"/>
+      <c r="AX10" s="135"/>
+      <c r="AY10" s="135"/>
+      <c r="AZ10" s="135"/>
+      <c r="BA10" s="135"/>
+      <c r="BB10" s="135"/>
+      <c r="BC10" s="135"/>
+      <c r="BD10" s="135"/>
+      <c r="BE10" s="135"/>
+      <c r="BF10" s="135"/>
+      <c r="BG10" s="135"/>
+      <c r="BH10" s="135"/>
+      <c r="BI10" s="135"/>
+      <c r="BJ10" s="156"/>
       <c r="BK10" s="2"/>
       <c r="BL10" s="2"/>
       <c r="BM10" s="2"/>
@@ -5563,158 +5585,158 @@
     </row>
     <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150" t="s">
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="150"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="150"/>
-      <c r="P14" s="150"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="150"/>
-      <c r="T14" s="150"/>
-      <c r="U14" s="150"/>
-      <c r="V14" s="150"/>
-      <c r="W14" s="150"/>
-      <c r="X14" s="150"/>
-      <c r="Y14" s="150"/>
-      <c r="Z14" s="150"/>
-      <c r="AA14" s="150"/>
-      <c r="AB14" s="150"/>
-      <c r="AC14" s="150" t="s">
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="153"/>
+      <c r="V14" s="153"/>
+      <c r="W14" s="153"/>
+      <c r="X14" s="153"/>
+      <c r="Y14" s="153"/>
+      <c r="Z14" s="153"/>
+      <c r="AA14" s="153"/>
+      <c r="AB14" s="153"/>
+      <c r="AC14" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="AD14" s="150"/>
-      <c r="AE14" s="150"/>
-      <c r="AF14" s="150"/>
-      <c r="AG14" s="150"/>
-      <c r="AH14" s="150"/>
-      <c r="AI14" s="150"/>
-      <c r="AJ14" s="150"/>
-      <c r="AK14" s="150"/>
-      <c r="AL14" s="150" t="s">
+      <c r="AD14" s="153"/>
+      <c r="AE14" s="153"/>
+      <c r="AF14" s="153"/>
+      <c r="AG14" s="153"/>
+      <c r="AH14" s="153"/>
+      <c r="AI14" s="153"/>
+      <c r="AJ14" s="153"/>
+      <c r="AK14" s="153"/>
+      <c r="AL14" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="AM14" s="150"/>
-      <c r="AN14" s="150"/>
-      <c r="AO14" s="150"/>
-      <c r="AP14" s="150"/>
-      <c r="AQ14" s="150"/>
-      <c r="AR14" s="150"/>
-      <c r="AS14" s="150"/>
-      <c r="AT14" s="150"/>
-      <c r="AU14" s="150"/>
-      <c r="AV14" s="150"/>
-      <c r="AW14" s="150"/>
-      <c r="AX14" s="150"/>
-      <c r="AY14" s="150"/>
-      <c r="AZ14" s="150"/>
-      <c r="BA14" s="150"/>
-      <c r="BB14" s="150"/>
-      <c r="BC14" s="150"/>
-      <c r="BD14" s="150"/>
-      <c r="BE14" s="150"/>
-      <c r="BF14" s="150"/>
-      <c r="BG14" s="150"/>
-      <c r="BH14" s="150"/>
-      <c r="BI14" s="150"/>
-      <c r="BJ14" s="150"/>
-      <c r="BK14" s="150"/>
-      <c r="BL14" s="150"/>
-      <c r="BM14" s="150"/>
-      <c r="BN14" s="150"/>
-      <c r="BO14" s="150"/>
+      <c r="AM14" s="153"/>
+      <c r="AN14" s="153"/>
+      <c r="AO14" s="153"/>
+      <c r="AP14" s="153"/>
+      <c r="AQ14" s="153"/>
+      <c r="AR14" s="153"/>
+      <c r="AS14" s="153"/>
+      <c r="AT14" s="153"/>
+      <c r="AU14" s="153"/>
+      <c r="AV14" s="153"/>
+      <c r="AW14" s="153"/>
+      <c r="AX14" s="153"/>
+      <c r="AY14" s="153"/>
+      <c r="AZ14" s="153"/>
+      <c r="BA14" s="153"/>
+      <c r="BB14" s="153"/>
+      <c r="BC14" s="153"/>
+      <c r="BD14" s="153"/>
+      <c r="BE14" s="153"/>
+      <c r="BF14" s="153"/>
+      <c r="BG14" s="153"/>
+      <c r="BH14" s="153"/>
+      <c r="BI14" s="153"/>
+      <c r="BJ14" s="153"/>
+      <c r="BK14" s="153"/>
+      <c r="BL14" s="153"/>
+      <c r="BM14" s="153"/>
+      <c r="BN14" s="153"/>
+      <c r="BO14" s="153"/>
       <c r="BP14" s="21"/>
     </row>
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="150"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="150"/>
-      <c r="P15" s="150"/>
-      <c r="Q15" s="150"/>
-      <c r="R15" s="150"/>
-      <c r="S15" s="150"/>
-      <c r="T15" s="150"/>
-      <c r="U15" s="150"/>
-      <c r="V15" s="150"/>
-      <c r="W15" s="150"/>
-      <c r="X15" s="150"/>
-      <c r="Y15" s="150"/>
-      <c r="Z15" s="150"/>
-      <c r="AA15" s="150"/>
-      <c r="AB15" s="150"/>
-      <c r="AC15" s="150"/>
-      <c r="AD15" s="150"/>
-      <c r="AE15" s="150"/>
-      <c r="AF15" s="150"/>
-      <c r="AG15" s="150"/>
-      <c r="AH15" s="150"/>
-      <c r="AI15" s="150"/>
-      <c r="AJ15" s="150"/>
-      <c r="AK15" s="150"/>
-      <c r="AL15" s="150" t="s">
+      <c r="B15" s="152"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="153"/>
+      <c r="U15" s="153"/>
+      <c r="V15" s="153"/>
+      <c r="W15" s="153"/>
+      <c r="X15" s="153"/>
+      <c r="Y15" s="153"/>
+      <c r="Z15" s="153"/>
+      <c r="AA15" s="153"/>
+      <c r="AB15" s="153"/>
+      <c r="AC15" s="153"/>
+      <c r="AD15" s="153"/>
+      <c r="AE15" s="153"/>
+      <c r="AF15" s="153"/>
+      <c r="AG15" s="153"/>
+      <c r="AH15" s="153"/>
+      <c r="AI15" s="153"/>
+      <c r="AJ15" s="153"/>
+      <c r="AK15" s="153"/>
+      <c r="AL15" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="AM15" s="150"/>
-      <c r="AN15" s="150"/>
-      <c r="AO15" s="150"/>
-      <c r="AP15" s="150"/>
-      <c r="AQ15" s="150"/>
-      <c r="AR15" s="150"/>
-      <c r="AS15" s="150"/>
-      <c r="AT15" s="150"/>
-      <c r="AU15" s="150" t="s">
+      <c r="AM15" s="153"/>
+      <c r="AN15" s="153"/>
+      <c r="AO15" s="153"/>
+      <c r="AP15" s="153"/>
+      <c r="AQ15" s="153"/>
+      <c r="AR15" s="153"/>
+      <c r="AS15" s="153"/>
+      <c r="AT15" s="153"/>
+      <c r="AU15" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="AV15" s="150"/>
-      <c r="AW15" s="150"/>
-      <c r="AX15" s="150"/>
-      <c r="AY15" s="150"/>
-      <c r="AZ15" s="150" t="s">
+      <c r="AV15" s="153"/>
+      <c r="AW15" s="153"/>
+      <c r="AX15" s="153"/>
+      <c r="AY15" s="153"/>
+      <c r="AZ15" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="BA15" s="150"/>
-      <c r="BB15" s="150"/>
-      <c r="BC15" s="150"/>
-      <c r="BD15" s="150"/>
-      <c r="BE15" s="150"/>
-      <c r="BF15" s="150"/>
-      <c r="BG15" s="150"/>
-      <c r="BH15" s="150"/>
-      <c r="BI15" s="150"/>
-      <c r="BJ15" s="150"/>
-      <c r="BK15" s="150"/>
-      <c r="BL15" s="150"/>
-      <c r="BM15" s="150"/>
-      <c r="BN15" s="150"/>
-      <c r="BO15" s="150"/>
+      <c r="BA15" s="153"/>
+      <c r="BB15" s="153"/>
+      <c r="BC15" s="153"/>
+      <c r="BD15" s="153"/>
+      <c r="BE15" s="153"/>
+      <c r="BF15" s="153"/>
+      <c r="BG15" s="153"/>
+      <c r="BH15" s="153"/>
+      <c r="BI15" s="153"/>
+      <c r="BJ15" s="153"/>
+      <c r="BK15" s="153"/>
+      <c r="BL15" s="153"/>
+      <c r="BM15" s="153"/>
+      <c r="BN15" s="153"/>
+      <c r="BO15" s="153"/>
       <c r="BP15" s="21"/>
     </row>
     <row r="16" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
@@ -5723,83 +5745,83 @@
         <f ca="1">MAX(B$14:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="148" t="s">
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151" t="s">
         <v>114</v>
       </c>
-      <c r="M16" s="148"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="148"/>
-      <c r="P16" s="148"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="148"/>
-      <c r="Y16" s="148"/>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="148"/>
-      <c r="AB16" s="148"/>
-      <c r="AC16" s="148" t="s">
+      <c r="M16" s="151"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="151"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="151"/>
+      <c r="T16" s="151"/>
+      <c r="U16" s="151"/>
+      <c r="V16" s="151"/>
+      <c r="W16" s="151"/>
+      <c r="X16" s="151"/>
+      <c r="Y16" s="151"/>
+      <c r="Z16" s="151"/>
+      <c r="AA16" s="151"/>
+      <c r="AB16" s="151"/>
+      <c r="AC16" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="AD16" s="148"/>
-      <c r="AE16" s="148"/>
-      <c r="AF16" s="148"/>
-      <c r="AG16" s="148"/>
-      <c r="AH16" s="148"/>
-      <c r="AI16" s="148"/>
-      <c r="AJ16" s="148"/>
-      <c r="AK16" s="148"/>
-      <c r="AL16" s="148" t="s">
+      <c r="AD16" s="151"/>
+      <c r="AE16" s="151"/>
+      <c r="AF16" s="151"/>
+      <c r="AG16" s="151"/>
+      <c r="AH16" s="151"/>
+      <c r="AI16" s="151"/>
+      <c r="AJ16" s="151"/>
+      <c r="AK16" s="151"/>
+      <c r="AL16" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="AM16" s="148"/>
-      <c r="AN16" s="148"/>
-      <c r="AO16" s="148"/>
-      <c r="AP16" s="148"/>
-      <c r="AQ16" s="148"/>
-      <c r="AR16" s="148"/>
-      <c r="AS16" s="148"/>
-      <c r="AT16" s="148"/>
-      <c r="AU16" s="148" t="s">
+      <c r="AM16" s="151"/>
+      <c r="AN16" s="151"/>
+      <c r="AO16" s="151"/>
+      <c r="AP16" s="151"/>
+      <c r="AQ16" s="151"/>
+      <c r="AR16" s="151"/>
+      <c r="AS16" s="151"/>
+      <c r="AT16" s="151"/>
+      <c r="AU16" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="AV16" s="148"/>
-      <c r="AW16" s="148"/>
-      <c r="AX16" s="148"/>
-      <c r="AY16" s="148"/>
-      <c r="AZ16" s="148" t="s">
+      <c r="AV16" s="151"/>
+      <c r="AW16" s="151"/>
+      <c r="AX16" s="151"/>
+      <c r="AY16" s="151"/>
+      <c r="AZ16" s="151" t="s">
         <v>120</v>
       </c>
-      <c r="BA16" s="148"/>
-      <c r="BB16" s="148"/>
-      <c r="BC16" s="148"/>
-      <c r="BD16" s="148"/>
-      <c r="BE16" s="148"/>
-      <c r="BF16" s="148"/>
-      <c r="BG16" s="148"/>
-      <c r="BH16" s="148"/>
-      <c r="BI16" s="148"/>
-      <c r="BJ16" s="148"/>
-      <c r="BK16" s="148"/>
-      <c r="BL16" s="148"/>
-      <c r="BM16" s="148"/>
-      <c r="BN16" s="148"/>
-      <c r="BO16" s="148"/>
+      <c r="BA16" s="151"/>
+      <c r="BB16" s="151"/>
+      <c r="BC16" s="151"/>
+      <c r="BD16" s="151"/>
+      <c r="BE16" s="151"/>
+      <c r="BF16" s="151"/>
+      <c r="BG16" s="151"/>
+      <c r="BH16" s="151"/>
+      <c r="BI16" s="151"/>
+      <c r="BJ16" s="151"/>
+      <c r="BK16" s="151"/>
+      <c r="BL16" s="151"/>
+      <c r="BM16" s="151"/>
+      <c r="BN16" s="151"/>
+      <c r="BO16" s="151"/>
       <c r="BP16" s="2"/>
     </row>
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
@@ -5884,80 +5906,80 @@
         <v>3</v>
       </c>
       <c r="C18" s="28"/>
-      <c r="D18" s="125" t="s">
+      <c r="D18" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
-      <c r="S18" s="125"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="125"/>
-      <c r="V18" s="125"/>
-      <c r="W18" s="125"/>
-      <c r="X18" s="125"/>
-      <c r="Y18" s="125"/>
-      <c r="Z18" s="125"/>
-      <c r="AA18" s="125"/>
-      <c r="AB18" s="125"/>
-      <c r="AC18" s="125" t="s">
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="128"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="128"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="128"/>
+      <c r="X18" s="128"/>
+      <c r="Y18" s="128"/>
+      <c r="Z18" s="128"/>
+      <c r="AA18" s="128"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="AD18" s="125"/>
-      <c r="AE18" s="125"/>
-      <c r="AF18" s="125"/>
-      <c r="AG18" s="125"/>
-      <c r="AH18" s="125"/>
-      <c r="AI18" s="125"/>
-      <c r="AJ18" s="125"/>
-      <c r="AK18" s="125"/>
-      <c r="AL18" s="125" t="s">
+      <c r="AD18" s="128"/>
+      <c r="AE18" s="128"/>
+      <c r="AF18" s="128"/>
+      <c r="AG18" s="128"/>
+      <c r="AH18" s="128"/>
+      <c r="AI18" s="128"/>
+      <c r="AJ18" s="128"/>
+      <c r="AK18" s="128"/>
+      <c r="AL18" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="AM18" s="125"/>
-      <c r="AN18" s="125"/>
-      <c r="AO18" s="125"/>
-      <c r="AP18" s="125"/>
-      <c r="AQ18" s="125"/>
-      <c r="AR18" s="125"/>
-      <c r="AS18" s="125"/>
-      <c r="AT18" s="125"/>
-      <c r="AU18" s="125" t="s">
+      <c r="AM18" s="128"/>
+      <c r="AN18" s="128"/>
+      <c r="AO18" s="128"/>
+      <c r="AP18" s="128"/>
+      <c r="AQ18" s="128"/>
+      <c r="AR18" s="128"/>
+      <c r="AS18" s="128"/>
+      <c r="AT18" s="128"/>
+      <c r="AU18" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="AV18" s="125"/>
-      <c r="AW18" s="125"/>
-      <c r="AX18" s="125"/>
-      <c r="AY18" s="125"/>
-      <c r="AZ18" s="125" t="s">
+      <c r="AV18" s="128"/>
+      <c r="AW18" s="128"/>
+      <c r="AX18" s="128"/>
+      <c r="AY18" s="128"/>
+      <c r="AZ18" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="BA18" s="125"/>
-      <c r="BB18" s="125"/>
-      <c r="BC18" s="125"/>
-      <c r="BD18" s="125"/>
-      <c r="BE18" s="125"/>
-      <c r="BF18" s="125"/>
-      <c r="BG18" s="125"/>
-      <c r="BH18" s="125"/>
-      <c r="BI18" s="125"/>
-      <c r="BJ18" s="125"/>
-      <c r="BK18" s="125"/>
-      <c r="BL18" s="125"/>
-      <c r="BM18" s="125"/>
-      <c r="BN18" s="125"/>
-      <c r="BO18" s="125"/>
+      <c r="BA18" s="128"/>
+      <c r="BB18" s="128"/>
+      <c r="BC18" s="128"/>
+      <c r="BD18" s="128"/>
+      <c r="BE18" s="128"/>
+      <c r="BF18" s="128"/>
+      <c r="BG18" s="128"/>
+      <c r="BH18" s="128"/>
+      <c r="BI18" s="128"/>
+      <c r="BJ18" s="128"/>
+      <c r="BK18" s="128"/>
+      <c r="BL18" s="128"/>
+      <c r="BM18" s="128"/>
+      <c r="BN18" s="128"/>
+      <c r="BO18" s="128"/>
       <c r="BP18" s="2"/>
     </row>
     <row r="19" spans="1:68" ht="48.75" customHeight="1" outlineLevel="1">
@@ -5967,74 +5989,74 @@
         <v>4</v>
       </c>
       <c r="C19" s="28"/>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125" t="s">
-        <v>161</v>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128" t="s">
+        <v>158</v>
       </c>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="125"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="125"/>
-      <c r="V19" s="125"/>
-      <c r="W19" s="125"/>
-      <c r="X19" s="125"/>
-      <c r="Y19" s="125"/>
-      <c r="Z19" s="125"/>
-      <c r="AA19" s="125"/>
-      <c r="AB19" s="125"/>
-      <c r="AC19" s="125"/>
-      <c r="AD19" s="125"/>
-      <c r="AE19" s="125"/>
-      <c r="AF19" s="125"/>
-      <c r="AG19" s="125"/>
-      <c r="AH19" s="125"/>
-      <c r="AI19" s="125"/>
-      <c r="AJ19" s="125"/>
-      <c r="AK19" s="125"/>
-      <c r="AL19" s="125"/>
-      <c r="AM19" s="125"/>
-      <c r="AN19" s="125"/>
-      <c r="AO19" s="125"/>
-      <c r="AP19" s="125"/>
-      <c r="AQ19" s="125"/>
-      <c r="AR19" s="125"/>
-      <c r="AS19" s="125"/>
-      <c r="AT19" s="125"/>
-      <c r="AU19" s="125"/>
-      <c r="AV19" s="125"/>
-      <c r="AW19" s="125"/>
-      <c r="AX19" s="125"/>
-      <c r="AY19" s="125"/>
-      <c r="AZ19" s="125"/>
-      <c r="BA19" s="125"/>
-      <c r="BB19" s="125"/>
-      <c r="BC19" s="125"/>
-      <c r="BD19" s="125"/>
-      <c r="BE19" s="125"/>
-      <c r="BF19" s="125"/>
-      <c r="BG19" s="125"/>
-      <c r="BH19" s="125"/>
-      <c r="BI19" s="125"/>
-      <c r="BJ19" s="125"/>
-      <c r="BK19" s="125"/>
-      <c r="BL19" s="125"/>
-      <c r="BM19" s="125"/>
-      <c r="BN19" s="125"/>
-      <c r="BO19" s="125"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="128"/>
+      <c r="AA19" s="128"/>
+      <c r="AB19" s="128"/>
+      <c r="AC19" s="128"/>
+      <c r="AD19" s="128"/>
+      <c r="AE19" s="128"/>
+      <c r="AF19" s="128"/>
+      <c r="AG19" s="128"/>
+      <c r="AH19" s="128"/>
+      <c r="AI19" s="128"/>
+      <c r="AJ19" s="128"/>
+      <c r="AK19" s="128"/>
+      <c r="AL19" s="128"/>
+      <c r="AM19" s="128"/>
+      <c r="AN19" s="128"/>
+      <c r="AO19" s="128"/>
+      <c r="AP19" s="128"/>
+      <c r="AQ19" s="128"/>
+      <c r="AR19" s="128"/>
+      <c r="AS19" s="128"/>
+      <c r="AT19" s="128"/>
+      <c r="AU19" s="128"/>
+      <c r="AV19" s="128"/>
+      <c r="AW19" s="128"/>
+      <c r="AX19" s="128"/>
+      <c r="AY19" s="128"/>
+      <c r="AZ19" s="128"/>
+      <c r="BA19" s="128"/>
+      <c r="BB19" s="128"/>
+      <c r="BC19" s="128"/>
+      <c r="BD19" s="128"/>
+      <c r="BE19" s="128"/>
+      <c r="BF19" s="128"/>
+      <c r="BG19" s="128"/>
+      <c r="BH19" s="128"/>
+      <c r="BI19" s="128"/>
+      <c r="BJ19" s="128"/>
+      <c r="BK19" s="128"/>
+      <c r="BL19" s="128"/>
+      <c r="BM19" s="128"/>
+      <c r="BN19" s="128"/>
+      <c r="BO19" s="128"/>
       <c r="BP19" s="2"/>
     </row>
     <row r="20" spans="1:68" ht="16.5" customHeight="1" outlineLevel="1">
@@ -6192,82 +6214,82 @@
         <v>7</v>
       </c>
       <c r="C22" s="62"/>
-      <c r="D22" s="129" t="s">
+      <c r="D22" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="125" t="s">
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="125"/>
-      <c r="S22" s="125"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="125"/>
-      <c r="V22" s="125"/>
-      <c r="W22" s="125"/>
-      <c r="X22" s="125"/>
-      <c r="Y22" s="125"/>
-      <c r="Z22" s="125"/>
-      <c r="AA22" s="125"/>
-      <c r="AB22" s="125"/>
-      <c r="AC22" s="125" t="s">
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="128"/>
+      <c r="U22" s="128"/>
+      <c r="V22" s="128"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="AD22" s="125"/>
-      <c r="AE22" s="125"/>
-      <c r="AF22" s="125"/>
-      <c r="AG22" s="125"/>
-      <c r="AH22" s="125"/>
-      <c r="AI22" s="125"/>
-      <c r="AJ22" s="125"/>
-      <c r="AK22" s="125"/>
-      <c r="AL22" s="148" t="s">
+      <c r="AD22" s="128"/>
+      <c r="AE22" s="128"/>
+      <c r="AF22" s="128"/>
+      <c r="AG22" s="128"/>
+      <c r="AH22" s="128"/>
+      <c r="AI22" s="128"/>
+      <c r="AJ22" s="128"/>
+      <c r="AK22" s="128"/>
+      <c r="AL22" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="AM22" s="148"/>
-      <c r="AN22" s="148"/>
-      <c r="AO22" s="148"/>
-      <c r="AP22" s="148"/>
-      <c r="AQ22" s="148"/>
-      <c r="AR22" s="148"/>
-      <c r="AS22" s="148"/>
-      <c r="AT22" s="148"/>
-      <c r="AU22" s="125" t="s">
+      <c r="AM22" s="151"/>
+      <c r="AN22" s="151"/>
+      <c r="AO22" s="151"/>
+      <c r="AP22" s="151"/>
+      <c r="AQ22" s="151"/>
+      <c r="AR22" s="151"/>
+      <c r="AS22" s="151"/>
+      <c r="AT22" s="151"/>
+      <c r="AU22" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="AV22" s="125"/>
-      <c r="AW22" s="125"/>
-      <c r="AX22" s="125"/>
-      <c r="AY22" s="125"/>
-      <c r="AZ22" s="125" t="s">
+      <c r="AV22" s="128"/>
+      <c r="AW22" s="128"/>
+      <c r="AX22" s="128"/>
+      <c r="AY22" s="128"/>
+      <c r="AZ22" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="BA22" s="125"/>
-      <c r="BB22" s="125"/>
-      <c r="BC22" s="125"/>
-      <c r="BD22" s="125"/>
-      <c r="BE22" s="125"/>
-      <c r="BF22" s="125"/>
-      <c r="BG22" s="125"/>
-      <c r="BH22" s="125"/>
-      <c r="BI22" s="125"/>
-      <c r="BJ22" s="125"/>
-      <c r="BK22" s="125"/>
-      <c r="BL22" s="125"/>
-      <c r="BM22" s="125"/>
-      <c r="BN22" s="125"/>
-      <c r="BO22" s="125"/>
+      <c r="BA22" s="128"/>
+      <c r="BB22" s="128"/>
+      <c r="BC22" s="128"/>
+      <c r="BD22" s="128"/>
+      <c r="BE22" s="128"/>
+      <c r="BF22" s="128"/>
+      <c r="BG22" s="128"/>
+      <c r="BH22" s="128"/>
+      <c r="BI22" s="128"/>
+      <c r="BJ22" s="128"/>
+      <c r="BK22" s="128"/>
+      <c r="BL22" s="128"/>
+      <c r="BM22" s="128"/>
+      <c r="BN22" s="128"/>
+      <c r="BO22" s="128"/>
       <c r="BP22" s="2"/>
     </row>
     <row r="23" spans="1:68" ht="34.5" customHeight="1" outlineLevel="1">
@@ -6277,82 +6299,82 @@
         <v>8</v>
       </c>
       <c r="C23" s="63"/>
-      <c r="D23" s="126" t="s">
+      <c r="D23" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="125" t="s">
-        <v>162</v>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="128" t="s">
+        <v>159</v>
       </c>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="125"/>
-      <c r="W23" s="125"/>
-      <c r="X23" s="125"/>
-      <c r="Y23" s="125"/>
-      <c r="Z23" s="125"/>
-      <c r="AA23" s="125"/>
-      <c r="AB23" s="125"/>
-      <c r="AC23" s="125" t="s">
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="128"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="128"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="128"/>
+      <c r="X23" s="128"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="128"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="AD23" s="125"/>
-      <c r="AE23" s="125"/>
-      <c r="AF23" s="125"/>
-      <c r="AG23" s="125"/>
-      <c r="AH23" s="125"/>
-      <c r="AI23" s="125"/>
-      <c r="AJ23" s="125"/>
-      <c r="AK23" s="125"/>
-      <c r="AL23" s="148" t="s">
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="128"/>
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="128"/>
+      <c r="AH23" s="128"/>
+      <c r="AI23" s="128"/>
+      <c r="AJ23" s="128"/>
+      <c r="AK23" s="128"/>
+      <c r="AL23" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="AM23" s="148"/>
-      <c r="AN23" s="148"/>
-      <c r="AO23" s="148"/>
-      <c r="AP23" s="148"/>
-      <c r="AQ23" s="148"/>
-      <c r="AR23" s="148"/>
-      <c r="AS23" s="148"/>
-      <c r="AT23" s="148"/>
-      <c r="AU23" s="148" t="s">
+      <c r="AM23" s="151"/>
+      <c r="AN23" s="151"/>
+      <c r="AO23" s="151"/>
+      <c r="AP23" s="151"/>
+      <c r="AQ23" s="151"/>
+      <c r="AR23" s="151"/>
+      <c r="AS23" s="151"/>
+      <c r="AT23" s="151"/>
+      <c r="AU23" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="AV23" s="148"/>
-      <c r="AW23" s="148"/>
-      <c r="AX23" s="148"/>
-      <c r="AY23" s="148"/>
-      <c r="AZ23" s="148" t="s">
+      <c r="AV23" s="151"/>
+      <c r="AW23" s="151"/>
+      <c r="AX23" s="151"/>
+      <c r="AY23" s="151"/>
+      <c r="AZ23" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="BA23" s="148"/>
-      <c r="BB23" s="148"/>
-      <c r="BC23" s="148"/>
-      <c r="BD23" s="148"/>
-      <c r="BE23" s="148"/>
-      <c r="BF23" s="148"/>
-      <c r="BG23" s="148"/>
-      <c r="BH23" s="148"/>
-      <c r="BI23" s="148"/>
-      <c r="BJ23" s="148"/>
-      <c r="BK23" s="148"/>
-      <c r="BL23" s="148"/>
-      <c r="BM23" s="148"/>
-      <c r="BN23" s="148"/>
-      <c r="BO23" s="148"/>
+      <c r="BA23" s="151"/>
+      <c r="BB23" s="151"/>
+      <c r="BC23" s="151"/>
+      <c r="BD23" s="151"/>
+      <c r="BE23" s="151"/>
+      <c r="BF23" s="151"/>
+      <c r="BG23" s="151"/>
+      <c r="BH23" s="151"/>
+      <c r="BI23" s="151"/>
+      <c r="BJ23" s="151"/>
+      <c r="BK23" s="151"/>
+      <c r="BL23" s="151"/>
+      <c r="BM23" s="151"/>
+      <c r="BN23" s="151"/>
+      <c r="BO23" s="151"/>
       <c r="BP23" s="2"/>
     </row>
     <row r="24" spans="1:68" ht="34.5" customHeight="1" outlineLevel="1">
@@ -6362,74 +6384,74 @@
         <v>9</v>
       </c>
       <c r="C24" s="63"/>
-      <c r="D24" s="126" t="s">
+      <c r="D24" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="125" t="s">
-        <v>163</v>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="128" t="s">
+        <v>160</v>
       </c>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="125"/>
-      <c r="V24" s="125"/>
-      <c r="W24" s="125"/>
-      <c r="X24" s="125"/>
-      <c r="Y24" s="125"/>
-      <c r="Z24" s="125"/>
-      <c r="AA24" s="125"/>
-      <c r="AB24" s="125"/>
-      <c r="AC24" s="125"/>
-      <c r="AD24" s="125"/>
-      <c r="AE24" s="125"/>
-      <c r="AF24" s="125"/>
-      <c r="AG24" s="125"/>
-      <c r="AH24" s="125"/>
-      <c r="AI24" s="125"/>
-      <c r="AJ24" s="125"/>
-      <c r="AK24" s="125"/>
-      <c r="AL24" s="125"/>
-      <c r="AM24" s="125"/>
-      <c r="AN24" s="125"/>
-      <c r="AO24" s="125"/>
-      <c r="AP24" s="125"/>
-      <c r="AQ24" s="125"/>
-      <c r="AR24" s="125"/>
-      <c r="AS24" s="125"/>
-      <c r="AT24" s="125"/>
-      <c r="AU24" s="125"/>
-      <c r="AV24" s="125"/>
-      <c r="AW24" s="125"/>
-      <c r="AX24" s="125"/>
-      <c r="AY24" s="125"/>
-      <c r="AZ24" s="125"/>
-      <c r="BA24" s="125"/>
-      <c r="BB24" s="125"/>
-      <c r="BC24" s="125"/>
-      <c r="BD24" s="125"/>
-      <c r="BE24" s="125"/>
-      <c r="BF24" s="125"/>
-      <c r="BG24" s="125"/>
-      <c r="BH24" s="125"/>
-      <c r="BI24" s="125"/>
-      <c r="BJ24" s="125"/>
-      <c r="BK24" s="125"/>
-      <c r="BL24" s="125"/>
-      <c r="BM24" s="125"/>
-      <c r="BN24" s="125"/>
-      <c r="BO24" s="125"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="128"/>
+      <c r="P24" s="128"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="128"/>
+      <c r="U24" s="128"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="128"/>
+      <c r="X24" s="128"/>
+      <c r="Y24" s="128"/>
+      <c r="Z24" s="128"/>
+      <c r="AA24" s="128"/>
+      <c r="AB24" s="128"/>
+      <c r="AC24" s="128"/>
+      <c r="AD24" s="128"/>
+      <c r="AE24" s="128"/>
+      <c r="AF24" s="128"/>
+      <c r="AG24" s="128"/>
+      <c r="AH24" s="128"/>
+      <c r="AI24" s="128"/>
+      <c r="AJ24" s="128"/>
+      <c r="AK24" s="128"/>
+      <c r="AL24" s="128"/>
+      <c r="AM24" s="128"/>
+      <c r="AN24" s="128"/>
+      <c r="AO24" s="128"/>
+      <c r="AP24" s="128"/>
+      <c r="AQ24" s="128"/>
+      <c r="AR24" s="128"/>
+      <c r="AS24" s="128"/>
+      <c r="AT24" s="128"/>
+      <c r="AU24" s="128"/>
+      <c r="AV24" s="128"/>
+      <c r="AW24" s="128"/>
+      <c r="AX24" s="128"/>
+      <c r="AY24" s="128"/>
+      <c r="AZ24" s="128"/>
+      <c r="BA24" s="128"/>
+      <c r="BB24" s="128"/>
+      <c r="BC24" s="128"/>
+      <c r="BD24" s="128"/>
+      <c r="BE24" s="128"/>
+      <c r="BF24" s="128"/>
+      <c r="BG24" s="128"/>
+      <c r="BH24" s="128"/>
+      <c r="BI24" s="128"/>
+      <c r="BJ24" s="128"/>
+      <c r="BK24" s="128"/>
+      <c r="BL24" s="128"/>
+      <c r="BM24" s="128"/>
+      <c r="BN24" s="128"/>
+      <c r="BO24" s="128"/>
       <c r="BP24" s="2"/>
     </row>
     <row r="25" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
@@ -6439,74 +6461,74 @@
         <v>10</v>
       </c>
       <c r="C25" s="63"/>
-      <c r="D25" s="126" t="s">
+      <c r="D25" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="125" t="s">
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="128" t="s">
         <v>112</v>
       </c>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="125"/>
-      <c r="T25" s="125"/>
-      <c r="U25" s="125"/>
-      <c r="V25" s="125"/>
-      <c r="W25" s="125"/>
-      <c r="X25" s="125"/>
-      <c r="Y25" s="125"/>
-      <c r="Z25" s="125"/>
-      <c r="AA25" s="125"/>
-      <c r="AB25" s="125"/>
-      <c r="AC25" s="125"/>
-      <c r="AD25" s="125"/>
-      <c r="AE25" s="125"/>
-      <c r="AF25" s="125"/>
-      <c r="AG25" s="125"/>
-      <c r="AH25" s="125"/>
-      <c r="AI25" s="125"/>
-      <c r="AJ25" s="125"/>
-      <c r="AK25" s="125"/>
-      <c r="AL25" s="125"/>
-      <c r="AM25" s="125"/>
-      <c r="AN25" s="125"/>
-      <c r="AO25" s="125"/>
-      <c r="AP25" s="125"/>
-      <c r="AQ25" s="125"/>
-      <c r="AR25" s="125"/>
-      <c r="AS25" s="125"/>
-      <c r="AT25" s="125"/>
-      <c r="AU25" s="125"/>
-      <c r="AV25" s="125"/>
-      <c r="AW25" s="125"/>
-      <c r="AX25" s="125"/>
-      <c r="AY25" s="125"/>
-      <c r="AZ25" s="125"/>
-      <c r="BA25" s="125"/>
-      <c r="BB25" s="125"/>
-      <c r="BC25" s="125"/>
-      <c r="BD25" s="125"/>
-      <c r="BE25" s="125"/>
-      <c r="BF25" s="125"/>
-      <c r="BG25" s="125"/>
-      <c r="BH25" s="125"/>
-      <c r="BI25" s="125"/>
-      <c r="BJ25" s="125"/>
-      <c r="BK25" s="125"/>
-      <c r="BL25" s="125"/>
-      <c r="BM25" s="125"/>
-      <c r="BN25" s="125"/>
-      <c r="BO25" s="125"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="128"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="128"/>
+      <c r="X25" s="128"/>
+      <c r="Y25" s="128"/>
+      <c r="Z25" s="128"/>
+      <c r="AA25" s="128"/>
+      <c r="AB25" s="128"/>
+      <c r="AC25" s="128"/>
+      <c r="AD25" s="128"/>
+      <c r="AE25" s="128"/>
+      <c r="AF25" s="128"/>
+      <c r="AG25" s="128"/>
+      <c r="AH25" s="128"/>
+      <c r="AI25" s="128"/>
+      <c r="AJ25" s="128"/>
+      <c r="AK25" s="128"/>
+      <c r="AL25" s="128"/>
+      <c r="AM25" s="128"/>
+      <c r="AN25" s="128"/>
+      <c r="AO25" s="128"/>
+      <c r="AP25" s="128"/>
+      <c r="AQ25" s="128"/>
+      <c r="AR25" s="128"/>
+      <c r="AS25" s="128"/>
+      <c r="AT25" s="128"/>
+      <c r="AU25" s="128"/>
+      <c r="AV25" s="128"/>
+      <c r="AW25" s="128"/>
+      <c r="AX25" s="128"/>
+      <c r="AY25" s="128"/>
+      <c r="AZ25" s="128"/>
+      <c r="BA25" s="128"/>
+      <c r="BB25" s="128"/>
+      <c r="BC25" s="128"/>
+      <c r="BD25" s="128"/>
+      <c r="BE25" s="128"/>
+      <c r="BF25" s="128"/>
+      <c r="BG25" s="128"/>
+      <c r="BH25" s="128"/>
+      <c r="BI25" s="128"/>
+      <c r="BJ25" s="128"/>
+      <c r="BK25" s="128"/>
+      <c r="BL25" s="128"/>
+      <c r="BM25" s="128"/>
+      <c r="BN25" s="128"/>
+      <c r="BO25" s="128"/>
       <c r="BP25" s="2"/>
     </row>
     <row r="26" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
@@ -6516,74 +6538,74 @@
         <v>11</v>
       </c>
       <c r="C26" s="63"/>
-      <c r="D26" s="126" t="s">
+      <c r="D26" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="125" t="s">
-        <v>170</v>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="128" t="s">
+        <v>167</v>
       </c>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="125"/>
-      <c r="S26" s="125"/>
-      <c r="T26" s="125"/>
-      <c r="U26" s="125"/>
-      <c r="V26" s="125"/>
-      <c r="W26" s="125"/>
-      <c r="X26" s="125"/>
-      <c r="Y26" s="125"/>
-      <c r="Z26" s="125"/>
-      <c r="AA26" s="125"/>
-      <c r="AB26" s="125"/>
-      <c r="AC26" s="125"/>
-      <c r="AD26" s="125"/>
-      <c r="AE26" s="125"/>
-      <c r="AF26" s="125"/>
-      <c r="AG26" s="125"/>
-      <c r="AH26" s="125"/>
-      <c r="AI26" s="125"/>
-      <c r="AJ26" s="125"/>
-      <c r="AK26" s="125"/>
-      <c r="AL26" s="125"/>
-      <c r="AM26" s="125"/>
-      <c r="AN26" s="125"/>
-      <c r="AO26" s="125"/>
-      <c r="AP26" s="125"/>
-      <c r="AQ26" s="125"/>
-      <c r="AR26" s="125"/>
-      <c r="AS26" s="125"/>
-      <c r="AT26" s="125"/>
-      <c r="AU26" s="125"/>
-      <c r="AV26" s="125"/>
-      <c r="AW26" s="125"/>
-      <c r="AX26" s="125"/>
-      <c r="AY26" s="125"/>
-      <c r="AZ26" s="125"/>
-      <c r="BA26" s="125"/>
-      <c r="BB26" s="125"/>
-      <c r="BC26" s="125"/>
-      <c r="BD26" s="125"/>
-      <c r="BE26" s="125"/>
-      <c r="BF26" s="125"/>
-      <c r="BG26" s="125"/>
-      <c r="BH26" s="125"/>
-      <c r="BI26" s="125"/>
-      <c r="BJ26" s="125"/>
-      <c r="BK26" s="125"/>
-      <c r="BL26" s="125"/>
-      <c r="BM26" s="125"/>
-      <c r="BN26" s="125"/>
-      <c r="BO26" s="125"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="128"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="128"/>
+      <c r="X26" s="128"/>
+      <c r="Y26" s="128"/>
+      <c r="Z26" s="128"/>
+      <c r="AA26" s="128"/>
+      <c r="AB26" s="128"/>
+      <c r="AC26" s="128"/>
+      <c r="AD26" s="128"/>
+      <c r="AE26" s="128"/>
+      <c r="AF26" s="128"/>
+      <c r="AG26" s="128"/>
+      <c r="AH26" s="128"/>
+      <c r="AI26" s="128"/>
+      <c r="AJ26" s="128"/>
+      <c r="AK26" s="128"/>
+      <c r="AL26" s="128"/>
+      <c r="AM26" s="128"/>
+      <c r="AN26" s="128"/>
+      <c r="AO26" s="128"/>
+      <c r="AP26" s="128"/>
+      <c r="AQ26" s="128"/>
+      <c r="AR26" s="128"/>
+      <c r="AS26" s="128"/>
+      <c r="AT26" s="128"/>
+      <c r="AU26" s="128"/>
+      <c r="AV26" s="128"/>
+      <c r="AW26" s="128"/>
+      <c r="AX26" s="128"/>
+      <c r="AY26" s="128"/>
+      <c r="AZ26" s="128"/>
+      <c r="BA26" s="128"/>
+      <c r="BB26" s="128"/>
+      <c r="BC26" s="128"/>
+      <c r="BD26" s="128"/>
+      <c r="BE26" s="128"/>
+      <c r="BF26" s="128"/>
+      <c r="BG26" s="128"/>
+      <c r="BH26" s="128"/>
+      <c r="BI26" s="128"/>
+      <c r="BJ26" s="128"/>
+      <c r="BK26" s="128"/>
+      <c r="BL26" s="128"/>
+      <c r="BM26" s="128"/>
+      <c r="BN26" s="128"/>
+      <c r="BO26" s="128"/>
       <c r="BP26" s="2"/>
     </row>
     <row r="27" spans="1:68" ht="16.5" customHeight="1" outlineLevel="1">
@@ -6665,73 +6687,73 @@
         <f ca="1">MAX(B$14:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>13</v>
       </c>
-      <c r="C28" s="125" t="s">
+      <c r="C28" s="128" t="s">
         <v>136</v>
       </c>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="125"/>
-      <c r="R28" s="125"/>
-      <c r="S28" s="125"/>
-      <c r="T28" s="125"/>
-      <c r="U28" s="125"/>
-      <c r="V28" s="125"/>
-      <c r="W28" s="125"/>
-      <c r="X28" s="125"/>
-      <c r="Y28" s="125"/>
-      <c r="Z28" s="125"/>
-      <c r="AA28" s="125"/>
-      <c r="AB28" s="125"/>
-      <c r="AC28" s="125"/>
-      <c r="AD28" s="125"/>
-      <c r="AE28" s="125"/>
-      <c r="AF28" s="125"/>
-      <c r="AG28" s="125"/>
-      <c r="AH28" s="125"/>
-      <c r="AI28" s="125"/>
-      <c r="AJ28" s="125"/>
-      <c r="AK28" s="125"/>
-      <c r="AL28" s="125"/>
-      <c r="AM28" s="125"/>
-      <c r="AN28" s="125"/>
-      <c r="AO28" s="125"/>
-      <c r="AP28" s="125"/>
-      <c r="AQ28" s="125"/>
-      <c r="AR28" s="125"/>
-      <c r="AS28" s="125"/>
-      <c r="AT28" s="125"/>
-      <c r="AU28" s="125"/>
-      <c r="AV28" s="125"/>
-      <c r="AW28" s="125"/>
-      <c r="AX28" s="125"/>
-      <c r="AY28" s="125"/>
-      <c r="AZ28" s="125"/>
-      <c r="BA28" s="125"/>
-      <c r="BB28" s="125"/>
-      <c r="BC28" s="125"/>
-      <c r="BD28" s="125"/>
-      <c r="BE28" s="125"/>
-      <c r="BF28" s="125"/>
-      <c r="BG28" s="125"/>
-      <c r="BH28" s="125"/>
-      <c r="BI28" s="125"/>
-      <c r="BJ28" s="125"/>
-      <c r="BK28" s="125"/>
-      <c r="BL28" s="125"/>
-      <c r="BM28" s="125"/>
-      <c r="BN28" s="125"/>
-      <c r="BO28" s="125"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="128"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="128"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="128"/>
+      <c r="X28" s="128"/>
+      <c r="Y28" s="128"/>
+      <c r="Z28" s="128"/>
+      <c r="AA28" s="128"/>
+      <c r="AB28" s="128"/>
+      <c r="AC28" s="128"/>
+      <c r="AD28" s="128"/>
+      <c r="AE28" s="128"/>
+      <c r="AF28" s="128"/>
+      <c r="AG28" s="128"/>
+      <c r="AH28" s="128"/>
+      <c r="AI28" s="128"/>
+      <c r="AJ28" s="128"/>
+      <c r="AK28" s="128"/>
+      <c r="AL28" s="128"/>
+      <c r="AM28" s="128"/>
+      <c r="AN28" s="128"/>
+      <c r="AO28" s="128"/>
+      <c r="AP28" s="128"/>
+      <c r="AQ28" s="128"/>
+      <c r="AR28" s="128"/>
+      <c r="AS28" s="128"/>
+      <c r="AT28" s="128"/>
+      <c r="AU28" s="128"/>
+      <c r="AV28" s="128"/>
+      <c r="AW28" s="128"/>
+      <c r="AX28" s="128"/>
+      <c r="AY28" s="128"/>
+      <c r="AZ28" s="128"/>
+      <c r="BA28" s="128"/>
+      <c r="BB28" s="128"/>
+      <c r="BC28" s="128"/>
+      <c r="BD28" s="128"/>
+      <c r="BE28" s="128"/>
+      <c r="BF28" s="128"/>
+      <c r="BG28" s="128"/>
+      <c r="BH28" s="128"/>
+      <c r="BI28" s="128"/>
+      <c r="BJ28" s="128"/>
+      <c r="BK28" s="128"/>
+      <c r="BL28" s="128"/>
+      <c r="BM28" s="128"/>
+      <c r="BN28" s="128"/>
+      <c r="BO28" s="128"/>
       <c r="BP28" s="2"/>
     </row>
     <row r="29" spans="1:68" ht="16.5">
@@ -6950,7 +6972,7 @@
     <row r="32" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A32" s="21"/>
       <c r="B32" s="80" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -7240,7 +7262,7 @@
       <c r="B36" s="81"/>
       <c r="C36" s="82"/>
       <c r="D36" s="82" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E36" s="82"/>
       <c r="F36" s="82"/>
@@ -7311,7 +7333,7 @@
       <c r="A37" s="21"/>
       <c r="B37" s="81"/>
       <c r="C37" s="82" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D37" s="82"/>
       <c r="E37" s="82"/>
@@ -7384,7 +7406,7 @@
       <c r="B38" s="81"/>
       <c r="C38" s="82"/>
       <c r="D38" s="82" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E38" s="82"/>
       <c r="F38" s="82"/>
@@ -7455,7 +7477,7 @@
       <c r="A39" s="21"/>
       <c r="B39" s="81"/>
       <c r="C39" s="82" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D39" s="82"/>
       <c r="E39" s="82"/>
@@ -7596,7 +7618,7 @@
     <row r="41" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C41" s="57"/>
       <c r="D41" s="57"/>
@@ -8170,7 +8192,7 @@
     <row r="49" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A49" s="2"/>
       <c r="B49" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C49" s="57"/>
       <c r="D49" s="57"/>
@@ -8337,27 +8359,27 @@
       <c r="O51" s="99"/>
       <c r="P51" s="99"/>
       <c r="Q51" s="99"/>
-      <c r="R51" s="113" t="s">
+      <c r="R51" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="S51" s="114"/>
-      <c r="T51" s="114"/>
-      <c r="U51" s="114"/>
-      <c r="V51" s="114"/>
-      <c r="W51" s="114"/>
-      <c r="X51" s="114"/>
-      <c r="Y51" s="114"/>
-      <c r="Z51" s="114"/>
-      <c r="AA51" s="114"/>
-      <c r="AB51" s="114"/>
-      <c r="AC51" s="114"/>
-      <c r="AD51" s="114"/>
-      <c r="AE51" s="114"/>
-      <c r="AF51" s="114"/>
-      <c r="AG51" s="114"/>
-      <c r="AH51" s="114"/>
-      <c r="AI51" s="114"/>
-      <c r="AJ51" s="115"/>
+      <c r="S51" s="111"/>
+      <c r="T51" s="111"/>
+      <c r="U51" s="111"/>
+      <c r="V51" s="111"/>
+      <c r="W51" s="111"/>
+      <c r="X51" s="111"/>
+      <c r="Y51" s="111"/>
+      <c r="Z51" s="111"/>
+      <c r="AA51" s="111"/>
+      <c r="AB51" s="111"/>
+      <c r="AC51" s="111"/>
+      <c r="AD51" s="111"/>
+      <c r="AE51" s="111"/>
+      <c r="AF51" s="111"/>
+      <c r="AG51" s="111"/>
+      <c r="AH51" s="111"/>
+      <c r="AI51" s="111"/>
+      <c r="AJ51" s="112"/>
       <c r="AK51" s="74" t="s">
         <v>140</v>
       </c>
@@ -8368,15 +8390,15 @@
       <c r="AP51" s="75"/>
       <c r="AQ51" s="75"/>
       <c r="AR51" s="76"/>
-      <c r="AS51" s="116" t="s">
+      <c r="AS51" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="AT51" s="117"/>
-      <c r="AU51" s="117"/>
-      <c r="AV51" s="117"/>
-      <c r="AW51" s="117"/>
-      <c r="AX51" s="117"/>
-      <c r="AY51" s="118"/>
+      <c r="AT51" s="114"/>
+      <c r="AU51" s="114"/>
+      <c r="AV51" s="114"/>
+      <c r="AW51" s="114"/>
+      <c r="AX51" s="114"/>
+      <c r="AY51" s="115"/>
       <c r="AZ51" s="2"/>
       <c r="BA51" s="2"/>
       <c r="BB51" s="2"/>
@@ -8413,27 +8435,27 @@
       <c r="O52" s="99"/>
       <c r="P52" s="99"/>
       <c r="Q52" s="99"/>
-      <c r="R52" s="113" t="s">
-        <v>157</v>
+      <c r="R52" s="110" t="s">
+        <v>154</v>
       </c>
-      <c r="S52" s="114"/>
-      <c r="T52" s="114"/>
-      <c r="U52" s="114"/>
-      <c r="V52" s="114"/>
-      <c r="W52" s="114"/>
-      <c r="X52" s="114"/>
-      <c r="Y52" s="114"/>
-      <c r="Z52" s="114"/>
-      <c r="AA52" s="114"/>
-      <c r="AB52" s="114"/>
-      <c r="AC52" s="114"/>
-      <c r="AD52" s="114"/>
-      <c r="AE52" s="114"/>
-      <c r="AF52" s="114"/>
-      <c r="AG52" s="114"/>
-      <c r="AH52" s="114"/>
-      <c r="AI52" s="114"/>
-      <c r="AJ52" s="115"/>
+      <c r="S52" s="111"/>
+      <c r="T52" s="111"/>
+      <c r="U52" s="111"/>
+      <c r="V52" s="111"/>
+      <c r="W52" s="111"/>
+      <c r="X52" s="111"/>
+      <c r="Y52" s="111"/>
+      <c r="Z52" s="111"/>
+      <c r="AA52" s="111"/>
+      <c r="AB52" s="111"/>
+      <c r="AC52" s="111"/>
+      <c r="AD52" s="111"/>
+      <c r="AE52" s="111"/>
+      <c r="AF52" s="111"/>
+      <c r="AG52" s="111"/>
+      <c r="AH52" s="111"/>
+      <c r="AI52" s="111"/>
+      <c r="AJ52" s="112"/>
       <c r="AK52" s="74"/>
       <c r="AL52" s="74"/>
       <c r="AM52" s="74"/>
@@ -8442,15 +8464,15 @@
       <c r="AP52" s="75"/>
       <c r="AQ52" s="75"/>
       <c r="AR52" s="76"/>
-      <c r="AS52" s="116" t="s">
-        <v>156</v>
+      <c r="AS52" s="113" t="s">
+        <v>153</v>
       </c>
-      <c r="AT52" s="117"/>
-      <c r="AU52" s="117"/>
-      <c r="AV52" s="117"/>
-      <c r="AW52" s="117"/>
-      <c r="AX52" s="117"/>
-      <c r="AY52" s="118"/>
+      <c r="AT52" s="114"/>
+      <c r="AU52" s="114"/>
+      <c r="AV52" s="114"/>
+      <c r="AW52" s="114"/>
+      <c r="AX52" s="114"/>
+      <c r="AY52" s="115"/>
       <c r="AZ52" s="2"/>
       <c r="BA52" s="2"/>
       <c r="BB52" s="2"/>
@@ -8480,15 +8502,15 @@
       <c r="H53" s="99"/>
       <c r="I53" s="99"/>
       <c r="J53" s="103"/>
-      <c r="K53" s="116"/>
-      <c r="L53" s="117"/>
-      <c r="M53" s="117"/>
-      <c r="N53" s="117"/>
-      <c r="O53" s="117"/>
-      <c r="P53" s="117"/>
-      <c r="Q53" s="117"/>
+      <c r="K53" s="113"/>
+      <c r="L53" s="114"/>
+      <c r="M53" s="114"/>
+      <c r="N53" s="114"/>
+      <c r="O53" s="114"/>
+      <c r="P53" s="114"/>
+      <c r="Q53" s="114"/>
       <c r="R53" s="100" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="S53" s="101"/>
       <c r="T53" s="101"/>
@@ -8516,15 +8538,15 @@
       <c r="AP53" s="75"/>
       <c r="AQ53" s="75"/>
       <c r="AR53" s="76"/>
-      <c r="AS53" s="116" t="s">
+      <c r="AS53" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="AT53" s="117"/>
-      <c r="AU53" s="117"/>
-      <c r="AV53" s="117"/>
-      <c r="AW53" s="117"/>
-      <c r="AX53" s="117"/>
-      <c r="AY53" s="118"/>
+      <c r="AT53" s="114"/>
+      <c r="AU53" s="114"/>
+      <c r="AV53" s="114"/>
+      <c r="AW53" s="114"/>
+      <c r="AX53" s="114"/>
+      <c r="AY53" s="115"/>
       <c r="AZ53" s="2"/>
       <c r="BA53" s="2"/>
       <c r="BB53" s="2"/>
@@ -8546,9 +8568,7 @@
     <row r="54" spans="1:68" s="18" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A54" s="2"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="98" t="s">
-        <v>155</v>
-      </c>
+      <c r="C54" s="98"/>
       <c r="D54" s="99"/>
       <c r="E54" s="99"/>
       <c r="F54" s="99"/>
@@ -8556,34 +8576,34 @@
       <c r="H54" s="99"/>
       <c r="I54" s="99"/>
       <c r="J54" s="103"/>
-      <c r="K54" s="116" t="s">
-        <v>143</v>
+      <c r="K54" s="113"/>
+      <c r="L54" s="114"/>
+      <c r="M54" s="114"/>
+      <c r="N54" s="114"/>
+      <c r="O54" s="114"/>
+      <c r="P54" s="114"/>
+      <c r="Q54" s="114"/>
+      <c r="R54" s="122" t="s">
+        <v>176</v>
       </c>
-      <c r="L54" s="117"/>
-      <c r="M54" s="117"/>
-      <c r="N54" s="117"/>
-      <c r="O54" s="117"/>
-      <c r="P54" s="117"/>
-      <c r="Q54" s="117"/>
-      <c r="R54" s="100"/>
-      <c r="S54" s="101"/>
-      <c r="T54" s="101"/>
-      <c r="U54" s="101"/>
-      <c r="V54" s="101"/>
-      <c r="W54" s="101"/>
-      <c r="X54" s="101"/>
-      <c r="Y54" s="101"/>
-      <c r="Z54" s="101"/>
-      <c r="AA54" s="101"/>
-      <c r="AB54" s="101"/>
-      <c r="AC54" s="101"/>
-      <c r="AD54" s="101"/>
-      <c r="AE54" s="101"/>
-      <c r="AF54" s="101"/>
-      <c r="AG54" s="101"/>
-      <c r="AH54" s="101"/>
-      <c r="AI54" s="101"/>
-      <c r="AJ54" s="102"/>
+      <c r="S54" s="123"/>
+      <c r="T54" s="123"/>
+      <c r="U54" s="123"/>
+      <c r="V54" s="123"/>
+      <c r="W54" s="123"/>
+      <c r="X54" s="123"/>
+      <c r="Y54" s="123"/>
+      <c r="Z54" s="123"/>
+      <c r="AA54" s="123"/>
+      <c r="AB54" s="123"/>
+      <c r="AC54" s="123"/>
+      <c r="AD54" s="123"/>
+      <c r="AE54" s="123"/>
+      <c r="AF54" s="123"/>
+      <c r="AG54" s="123"/>
+      <c r="AH54" s="123"/>
+      <c r="AI54" s="123"/>
+      <c r="AJ54" s="124"/>
       <c r="AK54" s="74"/>
       <c r="AL54" s="75"/>
       <c r="AM54" s="75"/>
@@ -8592,15 +8612,15 @@
       <c r="AP54" s="75"/>
       <c r="AQ54" s="75"/>
       <c r="AR54" s="76"/>
-      <c r="AS54" s="98" t="s">
-        <v>143</v>
+      <c r="AS54" s="125" t="s">
+        <v>174</v>
       </c>
-      <c r="AT54" s="99"/>
-      <c r="AU54" s="99"/>
-      <c r="AV54" s="99"/>
-      <c r="AW54" s="99"/>
-      <c r="AX54" s="99"/>
-      <c r="AY54" s="103"/>
+      <c r="AT54" s="126"/>
+      <c r="AU54" s="126"/>
+      <c r="AV54" s="126"/>
+      <c r="AW54" s="126"/>
+      <c r="AX54" s="126"/>
+      <c r="AY54" s="127"/>
       <c r="AZ54" s="2"/>
       <c r="BA54" s="2"/>
       <c r="BB54" s="2"/>
@@ -8630,34 +8650,34 @@
       <c r="H55" s="99"/>
       <c r="I55" s="99"/>
       <c r="J55" s="103"/>
-      <c r="K55" s="98"/>
-      <c r="L55" s="99"/>
-      <c r="M55" s="99"/>
-      <c r="N55" s="99"/>
-      <c r="O55" s="99"/>
-      <c r="P55" s="99"/>
-      <c r="Q55" s="99"/>
-      <c r="R55" s="100" t="s">
-        <v>144</v>
+      <c r="K55" s="113"/>
+      <c r="L55" s="114"/>
+      <c r="M55" s="114"/>
+      <c r="N55" s="114"/>
+      <c r="O55" s="114"/>
+      <c r="P55" s="114"/>
+      <c r="Q55" s="114"/>
+      <c r="R55" s="122" t="s">
+        <v>177</v>
       </c>
-      <c r="S55" s="101"/>
-      <c r="T55" s="101"/>
-      <c r="U55" s="101"/>
-      <c r="V55" s="101"/>
-      <c r="W55" s="101"/>
-      <c r="X55" s="101"/>
-      <c r="Y55" s="101"/>
-      <c r="Z55" s="101"/>
-      <c r="AA55" s="101"/>
-      <c r="AB55" s="101"/>
-      <c r="AC55" s="101"/>
-      <c r="AD55" s="101"/>
-      <c r="AE55" s="101"/>
-      <c r="AF55" s="101"/>
-      <c r="AG55" s="101"/>
-      <c r="AH55" s="101"/>
-      <c r="AI55" s="101"/>
-      <c r="AJ55" s="102"/>
+      <c r="S55" s="123"/>
+      <c r="T55" s="123"/>
+      <c r="U55" s="123"/>
+      <c r="V55" s="123"/>
+      <c r="W55" s="123"/>
+      <c r="X55" s="123"/>
+      <c r="Y55" s="123"/>
+      <c r="Z55" s="123"/>
+      <c r="AA55" s="123"/>
+      <c r="AB55" s="123"/>
+      <c r="AC55" s="123"/>
+      <c r="AD55" s="123"/>
+      <c r="AE55" s="123"/>
+      <c r="AF55" s="123"/>
+      <c r="AG55" s="123"/>
+      <c r="AH55" s="123"/>
+      <c r="AI55" s="123"/>
+      <c r="AJ55" s="124"/>
       <c r="AK55" s="74"/>
       <c r="AL55" s="75"/>
       <c r="AM55" s="75"/>
@@ -8666,15 +8686,15 @@
       <c r="AP55" s="75"/>
       <c r="AQ55" s="75"/>
       <c r="AR55" s="76"/>
-      <c r="AS55" s="98" t="s">
-        <v>145</v>
+      <c r="AS55" s="125" t="s">
+        <v>175</v>
       </c>
-      <c r="AT55" s="99"/>
-      <c r="AU55" s="99"/>
-      <c r="AV55" s="99"/>
-      <c r="AW55" s="99"/>
-      <c r="AX55" s="99"/>
-      <c r="AY55" s="103"/>
+      <c r="AT55" s="126"/>
+      <c r="AU55" s="126"/>
+      <c r="AV55" s="126"/>
+      <c r="AW55" s="126"/>
+      <c r="AX55" s="126"/>
+      <c r="AY55" s="127"/>
       <c r="AZ55" s="2"/>
       <c r="BA55" s="2"/>
       <c r="BB55" s="2"/>
@@ -8712,7 +8732,7 @@
       <c r="P56" s="99"/>
       <c r="Q56" s="99"/>
       <c r="R56" s="100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S56" s="101"/>
       <c r="T56" s="101"/>
@@ -8741,7 +8761,7 @@
       <c r="AQ56" s="75"/>
       <c r="AR56" s="76"/>
       <c r="AS56" s="98" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AT56" s="99"/>
       <c r="AU56" s="99"/>
@@ -8785,37 +8805,37 @@
       <c r="O57" s="99"/>
       <c r="P57" s="99"/>
       <c r="Q57" s="99"/>
-      <c r="R57" s="122" t="s">
-        <v>144</v>
+      <c r="R57" s="100" t="s">
+        <v>143</v>
       </c>
-      <c r="S57" s="123"/>
-      <c r="T57" s="123"/>
-      <c r="U57" s="123"/>
-      <c r="V57" s="123"/>
-      <c r="W57" s="123"/>
-      <c r="X57" s="123"/>
-      <c r="Y57" s="123"/>
-      <c r="Z57" s="123"/>
-      <c r="AA57" s="123"/>
-      <c r="AB57" s="123"/>
-      <c r="AC57" s="123"/>
-      <c r="AD57" s="123"/>
-      <c r="AE57" s="123"/>
-      <c r="AF57" s="123"/>
-      <c r="AG57" s="123"/>
-      <c r="AH57" s="123"/>
-      <c r="AI57" s="123"/>
-      <c r="AJ57" s="124"/>
-      <c r="AK57" s="77"/>
-      <c r="AL57" s="77"/>
-      <c r="AM57" s="77"/>
-      <c r="AN57" s="77"/>
-      <c r="AO57" s="77"/>
-      <c r="AP57" s="77"/>
-      <c r="AQ57" s="77"/>
-      <c r="AR57" s="78"/>
+      <c r="S57" s="101"/>
+      <c r="T57" s="101"/>
+      <c r="U57" s="101"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
+      <c r="X57" s="101"/>
+      <c r="Y57" s="101"/>
+      <c r="Z57" s="101"/>
+      <c r="AA57" s="101"/>
+      <c r="AB57" s="101"/>
+      <c r="AC57" s="101"/>
+      <c r="AD57" s="101"/>
+      <c r="AE57" s="101"/>
+      <c r="AF57" s="101"/>
+      <c r="AG57" s="101"/>
+      <c r="AH57" s="101"/>
+      <c r="AI57" s="101"/>
+      <c r="AJ57" s="102"/>
+      <c r="AK57" s="74"/>
+      <c r="AL57" s="75"/>
+      <c r="AM57" s="75"/>
+      <c r="AN57" s="75"/>
+      <c r="AO57" s="75"/>
+      <c r="AP57" s="75"/>
+      <c r="AQ57" s="75"/>
+      <c r="AR57" s="76"/>
       <c r="AS57" s="98" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AT57" s="99"/>
       <c r="AU57" s="99"/>
@@ -8841,58 +8861,62 @@
       <c r="BO57" s="2"/>
       <c r="BP57" s="2"/>
     </row>
-    <row r="58" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="58" spans="1:68" s="18" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A58" s="2"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
-      <c r="AA58" s="2"/>
-      <c r="AB58" s="2"/>
-      <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
-      <c r="AE58" s="2"/>
-      <c r="AF58" s="2"/>
-      <c r="AG58" s="2"/>
-      <c r="AH58" s="2"/>
-      <c r="AI58" s="2"/>
-      <c r="AJ58" s="2"/>
-      <c r="AK58" s="2"/>
-      <c r="AL58" s="2"/>
-      <c r="AM58" s="2"/>
-      <c r="AN58" s="2"/>
-      <c r="AO58" s="2"/>
-      <c r="AP58" s="2"/>
-      <c r="AQ58" s="2"/>
-      <c r="AR58" s="2"/>
-      <c r="AS58" s="2"/>
-      <c r="AT58" s="2"/>
-      <c r="AU58" s="2"/>
-      <c r="AV58" s="2"/>
-      <c r="AW58" s="2"/>
-      <c r="AX58" s="2"/>
-      <c r="AY58" s="2"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="98"/>
+      <c r="L58" s="99"/>
+      <c r="M58" s="99"/>
+      <c r="N58" s="99"/>
+      <c r="O58" s="99"/>
+      <c r="P58" s="99"/>
+      <c r="Q58" s="99"/>
+      <c r="R58" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="S58" s="120"/>
+      <c r="T58" s="120"/>
+      <c r="U58" s="120"/>
+      <c r="V58" s="120"/>
+      <c r="W58" s="120"/>
+      <c r="X58" s="120"/>
+      <c r="Y58" s="120"/>
+      <c r="Z58" s="120"/>
+      <c r="AA58" s="120"/>
+      <c r="AB58" s="120"/>
+      <c r="AC58" s="120"/>
+      <c r="AD58" s="120"/>
+      <c r="AE58" s="120"/>
+      <c r="AF58" s="120"/>
+      <c r="AG58" s="120"/>
+      <c r="AH58" s="120"/>
+      <c r="AI58" s="120"/>
+      <c r="AJ58" s="121"/>
+      <c r="AK58" s="77"/>
+      <c r="AL58" s="77"/>
+      <c r="AM58" s="77"/>
+      <c r="AN58" s="77"/>
+      <c r="AO58" s="77"/>
+      <c r="AP58" s="77"/>
+      <c r="AQ58" s="77"/>
+      <c r="AR58" s="78"/>
+      <c r="AS58" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT58" s="99"/>
+      <c r="AU58" s="99"/>
+      <c r="AV58" s="99"/>
+      <c r="AW58" s="99"/>
+      <c r="AX58" s="99"/>
+      <c r="AY58" s="103"/>
       <c r="AZ58" s="2"/>
       <c r="BA58" s="2"/>
       <c r="BB58" s="2"/>
@@ -8913,19 +8937,17 @@
     </row>
     <row r="59" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="58"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8983,68 +9005,60 @@
       <c r="BO59" s="2"/>
       <c r="BP59" s="2"/>
     </row>
-    <row r="60" spans="1:68" s="18" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="60" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A60" s="2"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="67" t="s">
-        <v>20</v>
+      <c r="B60" s="6" t="s">
+        <v>168</v>
       </c>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="69"/>
-      <c r="R60" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="S60" s="72"/>
-      <c r="T60" s="72"/>
-      <c r="U60" s="72"/>
-      <c r="V60" s="72"/>
-      <c r="W60" s="72"/>
-      <c r="X60" s="72"/>
-      <c r="Y60" s="72"/>
-      <c r="Z60" s="72"/>
-      <c r="AA60" s="72"/>
-      <c r="AB60" s="72"/>
-      <c r="AC60" s="72"/>
-      <c r="AD60" s="72"/>
-      <c r="AE60" s="72"/>
-      <c r="AF60" s="72"/>
-      <c r="AG60" s="72"/>
-      <c r="AH60" s="72"/>
-      <c r="AI60" s="72"/>
-      <c r="AJ60" s="73"/>
-      <c r="AK60" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL60" s="68"/>
-      <c r="AM60" s="68"/>
-      <c r="AN60" s="68"/>
-      <c r="AO60" s="68"/>
-      <c r="AP60" s="68"/>
-      <c r="AQ60" s="68"/>
-      <c r="AR60" s="69"/>
-      <c r="AS60" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT60" s="68"/>
-      <c r="AU60" s="68"/>
-      <c r="AV60" s="68"/>
-      <c r="AW60" s="68"/>
-      <c r="AX60" s="68"/>
-      <c r="AY60" s="69"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="58"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="2"/>
+      <c r="AL60" s="2"/>
+      <c r="AM60" s="2"/>
+      <c r="AN60" s="2"/>
+      <c r="AO60" s="2"/>
+      <c r="AP60" s="2"/>
+      <c r="AQ60" s="2"/>
+      <c r="AR60" s="2"/>
+      <c r="AS60" s="2"/>
+      <c r="AT60" s="2"/>
+      <c r="AU60" s="2"/>
+      <c r="AV60" s="2"/>
+      <c r="AW60" s="2"/>
+      <c r="AX60" s="2"/>
+      <c r="AY60" s="2"/>
       <c r="AZ60" s="2"/>
       <c r="BA60" s="2"/>
       <c r="BB60" s="2"/>
@@ -9066,65 +9080,65 @@
     <row r="61" spans="1:68" s="18" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A61" s="2"/>
       <c r="B61" s="9"/>
-      <c r="C61" s="110" t="s">
-        <v>148</v>
+      <c r="C61" s="67" t="s">
+        <v>20</v>
       </c>
-      <c r="D61" s="111"/>
-      <c r="E61" s="111"/>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="111"/>
-      <c r="I61" s="111"/>
-      <c r="J61" s="112"/>
-      <c r="K61" s="98" t="s">
-        <v>141</v>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="70" t="s">
+        <v>21</v>
       </c>
-      <c r="L61" s="99"/>
-      <c r="M61" s="99"/>
-      <c r="N61" s="99"/>
-      <c r="O61" s="99"/>
-      <c r="P61" s="99"/>
-      <c r="Q61" s="99"/>
-      <c r="R61" s="113" t="s">
-        <v>158</v>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="69"/>
+      <c r="R61" s="71" t="s">
+        <v>137</v>
       </c>
-      <c r="S61" s="114"/>
-      <c r="T61" s="114"/>
-      <c r="U61" s="114"/>
-      <c r="V61" s="114"/>
-      <c r="W61" s="114"/>
-      <c r="X61" s="114"/>
-      <c r="Y61" s="114"/>
-      <c r="Z61" s="114"/>
-      <c r="AA61" s="114"/>
-      <c r="AB61" s="114"/>
-      <c r="AC61" s="114"/>
-      <c r="AD61" s="114"/>
-      <c r="AE61" s="114"/>
-      <c r="AF61" s="114"/>
-      <c r="AG61" s="114"/>
-      <c r="AH61" s="114"/>
-      <c r="AI61" s="114"/>
-      <c r="AJ61" s="115"/>
-      <c r="AK61" s="74" t="s">
-        <v>140</v>
+      <c r="S61" s="72"/>
+      <c r="T61" s="72"/>
+      <c r="U61" s="72"/>
+      <c r="V61" s="72"/>
+      <c r="W61" s="72"/>
+      <c r="X61" s="72"/>
+      <c r="Y61" s="72"/>
+      <c r="Z61" s="72"/>
+      <c r="AA61" s="72"/>
+      <c r="AB61" s="72"/>
+      <c r="AC61" s="72"/>
+      <c r="AD61" s="72"/>
+      <c r="AE61" s="72"/>
+      <c r="AF61" s="72"/>
+      <c r="AG61" s="72"/>
+      <c r="AH61" s="72"/>
+      <c r="AI61" s="72"/>
+      <c r="AJ61" s="73"/>
+      <c r="AK61" s="70" t="s">
+        <v>138</v>
       </c>
-      <c r="AL61" s="74"/>
-      <c r="AM61" s="74"/>
-      <c r="AN61" s="74"/>
-      <c r="AO61" s="75"/>
-      <c r="AP61" s="75"/>
-      <c r="AQ61" s="75"/>
-      <c r="AR61" s="76"/>
-      <c r="AS61" s="116" t="s">
-        <v>141</v>
+      <c r="AL61" s="68"/>
+      <c r="AM61" s="68"/>
+      <c r="AN61" s="68"/>
+      <c r="AO61" s="68"/>
+      <c r="AP61" s="68"/>
+      <c r="AQ61" s="68"/>
+      <c r="AR61" s="69"/>
+      <c r="AS61" s="70" t="s">
+        <v>21</v>
       </c>
-      <c r="AT61" s="117"/>
-      <c r="AU61" s="117"/>
-      <c r="AV61" s="117"/>
-      <c r="AW61" s="117"/>
-      <c r="AX61" s="117"/>
-      <c r="AY61" s="118"/>
+      <c r="AT61" s="68"/>
+      <c r="AU61" s="68"/>
+      <c r="AV61" s="68"/>
+      <c r="AW61" s="68"/>
+      <c r="AX61" s="68"/>
+      <c r="AY61" s="69"/>
       <c r="AZ61" s="2"/>
       <c r="BA61" s="2"/>
       <c r="BB61" s="2"/>
@@ -9146,18 +9160,18 @@
     <row r="62" spans="1:68" s="18" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A62" s="2"/>
       <c r="B62" s="9"/>
-      <c r="C62" s="119" t="s">
-        <v>149</v>
+      <c r="C62" s="107" t="s">
+        <v>147</v>
       </c>
-      <c r="D62" s="120"/>
-      <c r="E62" s="120"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="120"/>
-      <c r="H62" s="120"/>
-      <c r="I62" s="120"/>
-      <c r="J62" s="121"/>
-      <c r="K62" s="99" t="s">
-        <v>150</v>
+      <c r="D62" s="108"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="108"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="108"/>
+      <c r="I62" s="108"/>
+      <c r="J62" s="109"/>
+      <c r="K62" s="98" t="s">
+        <v>141</v>
       </c>
       <c r="L62" s="99"/>
       <c r="M62" s="99"/>
@@ -9165,42 +9179,46 @@
       <c r="O62" s="99"/>
       <c r="P62" s="99"/>
       <c r="Q62" s="99"/>
-      <c r="R62" s="100"/>
-      <c r="S62" s="101"/>
-      <c r="T62" s="101"/>
-      <c r="U62" s="101"/>
-      <c r="V62" s="101"/>
-      <c r="W62" s="101"/>
-      <c r="X62" s="101"/>
-      <c r="Y62" s="101"/>
-      <c r="Z62" s="101"/>
-      <c r="AA62" s="101"/>
-      <c r="AB62" s="101"/>
-      <c r="AC62" s="101"/>
-      <c r="AD62" s="101"/>
-      <c r="AE62" s="101"/>
-      <c r="AF62" s="101"/>
-      <c r="AG62" s="101"/>
-      <c r="AH62" s="101"/>
-      <c r="AI62" s="101"/>
-      <c r="AJ62" s="102"/>
-      <c r="AK62" s="74"/>
-      <c r="AL62" s="75"/>
-      <c r="AM62" s="75"/>
-      <c r="AN62" s="75"/>
+      <c r="R62" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="S62" s="111"/>
+      <c r="T62" s="111"/>
+      <c r="U62" s="111"/>
+      <c r="V62" s="111"/>
+      <c r="W62" s="111"/>
+      <c r="X62" s="111"/>
+      <c r="Y62" s="111"/>
+      <c r="Z62" s="111"/>
+      <c r="AA62" s="111"/>
+      <c r="AB62" s="111"/>
+      <c r="AC62" s="111"/>
+      <c r="AD62" s="111"/>
+      <c r="AE62" s="111"/>
+      <c r="AF62" s="111"/>
+      <c r="AG62" s="111"/>
+      <c r="AH62" s="111"/>
+      <c r="AI62" s="111"/>
+      <c r="AJ62" s="112"/>
+      <c r="AK62" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL62" s="74"/>
+      <c r="AM62" s="74"/>
+      <c r="AN62" s="74"/>
       <c r="AO62" s="75"/>
       <c r="AP62" s="75"/>
       <c r="AQ62" s="75"/>
       <c r="AR62" s="76"/>
-      <c r="AS62" s="98" t="s">
-        <v>150</v>
+      <c r="AS62" s="113" t="s">
+        <v>141</v>
       </c>
-      <c r="AT62" s="99"/>
-      <c r="AU62" s="99"/>
-      <c r="AV62" s="99"/>
-      <c r="AW62" s="99"/>
-      <c r="AX62" s="99"/>
-      <c r="AY62" s="103"/>
+      <c r="AT62" s="114"/>
+      <c r="AU62" s="114"/>
+      <c r="AV62" s="114"/>
+      <c r="AW62" s="114"/>
+      <c r="AX62" s="114"/>
+      <c r="AY62" s="115"/>
       <c r="AZ62" s="2"/>
       <c r="BA62" s="2"/>
       <c r="BB62" s="2"/>
@@ -9222,23 +9240,25 @@
     <row r="63" spans="1:68" s="18" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A63" s="2"/>
       <c r="B63" s="9"/>
-      <c r="C63" s="104"/>
-      <c r="D63" s="105"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="105"/>
-      <c r="I63" s="105"/>
-      <c r="J63" s="106"/>
+      <c r="C63" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="117"/>
+      <c r="E63" s="117"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="117"/>
+      <c r="H63" s="117"/>
+      <c r="I63" s="117"/>
+      <c r="J63" s="118"/>
       <c r="K63" s="99" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L63" s="99"/>
       <c r="M63" s="99"/>
       <c r="N63" s="99"/>
       <c r="O63" s="99"/>
       <c r="P63" s="99"/>
-      <c r="Q63" s="103"/>
+      <c r="Q63" s="99"/>
       <c r="R63" s="100"/>
       <c r="S63" s="101"/>
       <c r="T63" s="101"/>
@@ -9267,7 +9287,7 @@
       <c r="AQ63" s="75"/>
       <c r="AR63" s="76"/>
       <c r="AS63" s="98" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AT63" s="99"/>
       <c r="AU63" s="99"/>
@@ -9296,16 +9316,16 @@
     <row r="64" spans="1:68" s="18" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A64" s="2"/>
       <c r="B64" s="9"/>
-      <c r="C64" s="107"/>
-      <c r="D64" s="108"/>
-      <c r="E64" s="108"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="108"/>
-      <c r="H64" s="108"/>
-      <c r="I64" s="108"/>
-      <c r="J64" s="109"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="105"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="105"/>
+      <c r="H64" s="105"/>
+      <c r="I64" s="105"/>
+      <c r="J64" s="106"/>
       <c r="K64" s="99" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L64" s="99"/>
       <c r="M64" s="99"/>
@@ -9341,7 +9361,7 @@
       <c r="AQ64" s="75"/>
       <c r="AR64" s="76"/>
       <c r="AS64" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AT64" s="99"/>
       <c r="AU64" s="99"/>
@@ -9386,7 +9406,7 @@
       <c r="P65" s="99"/>
       <c r="Q65" s="99"/>
       <c r="R65" s="100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S65" s="101"/>
       <c r="T65" s="101"/>
@@ -9415,7 +9435,7 @@
       <c r="AQ65" s="75"/>
       <c r="AR65" s="76"/>
       <c r="AS65" s="98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AT65" s="99"/>
       <c r="AU65" s="99"/>
@@ -9460,7 +9480,7 @@
       <c r="P66" s="99"/>
       <c r="Q66" s="99"/>
       <c r="R66" s="100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S66" s="101"/>
       <c r="T66" s="101"/>
@@ -9489,7 +9509,7 @@
       <c r="AQ66" s="77"/>
       <c r="AR66" s="78"/>
       <c r="AS66" s="98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT66" s="99"/>
       <c r="AU66" s="99"/>
@@ -9945,146 +9965,146 @@
     <row r="73" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A73" s="2"/>
       <c r="C73" s="36"/>
-      <c r="D73" s="134" t="s">
+      <c r="D73" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="135"/>
-      <c r="F73" s="135"/>
-      <c r="G73" s="135"/>
-      <c r="H73" s="135"/>
-      <c r="I73" s="136"/>
-      <c r="J73" s="126" t="s">
+      <c r="E73" s="138"/>
+      <c r="F73" s="138"/>
+      <c r="G73" s="138"/>
+      <c r="H73" s="138"/>
+      <c r="I73" s="139"/>
+      <c r="J73" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="K73" s="127"/>
-      <c r="L73" s="127"/>
-      <c r="M73" s="127"/>
-      <c r="N73" s="127"/>
-      <c r="O73" s="127"/>
-      <c r="P73" s="127"/>
-      <c r="Q73" s="127"/>
-      <c r="R73" s="127"/>
-      <c r="S73" s="127"/>
-      <c r="T73" s="127"/>
-      <c r="U73" s="127"/>
-      <c r="V73" s="127"/>
-      <c r="W73" s="127"/>
-      <c r="X73" s="127"/>
-      <c r="Y73" s="127"/>
-      <c r="Z73" s="127"/>
-      <c r="AA73" s="127"/>
-      <c r="AB73" s="127"/>
-      <c r="AC73" s="127"/>
-      <c r="AD73" s="127"/>
-      <c r="AE73" s="127"/>
-      <c r="AF73" s="127"/>
-      <c r="AG73" s="127"/>
-      <c r="AH73" s="127"/>
-      <c r="AI73" s="127"/>
-      <c r="AJ73" s="127"/>
-      <c r="AK73" s="127"/>
-      <c r="AL73" s="127"/>
-      <c r="AM73" s="127"/>
-      <c r="AN73" s="127"/>
-      <c r="AO73" s="127"/>
-      <c r="AP73" s="127"/>
-      <c r="AQ73" s="127"/>
-      <c r="AR73" s="127"/>
-      <c r="AS73" s="127"/>
-      <c r="AT73" s="127"/>
-      <c r="AU73" s="127"/>
-      <c r="AV73" s="127"/>
-      <c r="AW73" s="127"/>
-      <c r="AX73" s="127"/>
-      <c r="AY73" s="127"/>
-      <c r="AZ73" s="127"/>
-      <c r="BA73" s="127"/>
-      <c r="BB73" s="127"/>
-      <c r="BC73" s="127"/>
-      <c r="BD73" s="127"/>
-      <c r="BE73" s="127"/>
-      <c r="BF73" s="127"/>
-      <c r="BG73" s="127"/>
-      <c r="BH73" s="127"/>
-      <c r="BI73" s="127"/>
-      <c r="BJ73" s="127"/>
-      <c r="BK73" s="127"/>
-      <c r="BL73" s="127"/>
-      <c r="BM73" s="127"/>
-      <c r="BN73" s="127"/>
-      <c r="BO73" s="128"/>
+      <c r="K73" s="130"/>
+      <c r="L73" s="130"/>
+      <c r="M73" s="130"/>
+      <c r="N73" s="130"/>
+      <c r="O73" s="130"/>
+      <c r="P73" s="130"/>
+      <c r="Q73" s="130"/>
+      <c r="R73" s="130"/>
+      <c r="S73" s="130"/>
+      <c r="T73" s="130"/>
+      <c r="U73" s="130"/>
+      <c r="V73" s="130"/>
+      <c r="W73" s="130"/>
+      <c r="X73" s="130"/>
+      <c r="Y73" s="130"/>
+      <c r="Z73" s="130"/>
+      <c r="AA73" s="130"/>
+      <c r="AB73" s="130"/>
+      <c r="AC73" s="130"/>
+      <c r="AD73" s="130"/>
+      <c r="AE73" s="130"/>
+      <c r="AF73" s="130"/>
+      <c r="AG73" s="130"/>
+      <c r="AH73" s="130"/>
+      <c r="AI73" s="130"/>
+      <c r="AJ73" s="130"/>
+      <c r="AK73" s="130"/>
+      <c r="AL73" s="130"/>
+      <c r="AM73" s="130"/>
+      <c r="AN73" s="130"/>
+      <c r="AO73" s="130"/>
+      <c r="AP73" s="130"/>
+      <c r="AQ73" s="130"/>
+      <c r="AR73" s="130"/>
+      <c r="AS73" s="130"/>
+      <c r="AT73" s="130"/>
+      <c r="AU73" s="130"/>
+      <c r="AV73" s="130"/>
+      <c r="AW73" s="130"/>
+      <c r="AX73" s="130"/>
+      <c r="AY73" s="130"/>
+      <c r="AZ73" s="130"/>
+      <c r="BA73" s="130"/>
+      <c r="BB73" s="130"/>
+      <c r="BC73" s="130"/>
+      <c r="BD73" s="130"/>
+      <c r="BE73" s="130"/>
+      <c r="BF73" s="130"/>
+      <c r="BG73" s="130"/>
+      <c r="BH73" s="130"/>
+      <c r="BI73" s="130"/>
+      <c r="BJ73" s="130"/>
+      <c r="BK73" s="130"/>
+      <c r="BL73" s="130"/>
+      <c r="BM73" s="130"/>
+      <c r="BN73" s="130"/>
+      <c r="BO73" s="131"/>
     </row>
     <row r="74" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A74" s="2"/>
       <c r="C74" s="36"/>
-      <c r="D74" s="142" t="s">
+      <c r="D74" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="E74" s="143"/>
-      <c r="F74" s="143"/>
-      <c r="G74" s="143"/>
-      <c r="H74" s="143"/>
-      <c r="I74" s="144"/>
-      <c r="J74" s="145" t="s">
+      <c r="E74" s="146"/>
+      <c r="F74" s="146"/>
+      <c r="G74" s="146"/>
+      <c r="H74" s="146"/>
+      <c r="I74" s="147"/>
+      <c r="J74" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="K74" s="146"/>
-      <c r="L74" s="146"/>
-      <c r="M74" s="146"/>
-      <c r="N74" s="146"/>
-      <c r="O74" s="146"/>
-      <c r="P74" s="146"/>
-      <c r="Q74" s="146"/>
-      <c r="R74" s="146"/>
-      <c r="S74" s="146"/>
-      <c r="T74" s="146"/>
-      <c r="U74" s="146"/>
-      <c r="V74" s="146"/>
-      <c r="W74" s="146"/>
-      <c r="X74" s="146"/>
-      <c r="Y74" s="146"/>
-      <c r="Z74" s="146"/>
-      <c r="AA74" s="146"/>
-      <c r="AB74" s="146"/>
-      <c r="AC74" s="146"/>
-      <c r="AD74" s="146"/>
-      <c r="AE74" s="146"/>
-      <c r="AF74" s="146"/>
-      <c r="AG74" s="146"/>
-      <c r="AH74" s="146"/>
-      <c r="AI74" s="146"/>
-      <c r="AJ74" s="146"/>
-      <c r="AK74" s="146"/>
-      <c r="AL74" s="146"/>
-      <c r="AM74" s="146"/>
-      <c r="AN74" s="146"/>
-      <c r="AO74" s="146"/>
-      <c r="AP74" s="146"/>
-      <c r="AQ74" s="146"/>
-      <c r="AR74" s="146"/>
-      <c r="AS74" s="146"/>
-      <c r="AT74" s="146"/>
-      <c r="AU74" s="146"/>
-      <c r="AV74" s="146"/>
-      <c r="AW74" s="146"/>
-      <c r="AX74" s="146"/>
-      <c r="AY74" s="146"/>
-      <c r="AZ74" s="146"/>
-      <c r="BA74" s="146"/>
-      <c r="BB74" s="146"/>
-      <c r="BC74" s="146"/>
-      <c r="BD74" s="146"/>
-      <c r="BE74" s="146"/>
-      <c r="BF74" s="146"/>
-      <c r="BG74" s="146"/>
-      <c r="BH74" s="146"/>
-      <c r="BI74" s="146"/>
-      <c r="BJ74" s="146"/>
-      <c r="BK74" s="146"/>
-      <c r="BL74" s="146"/>
-      <c r="BM74" s="146"/>
-      <c r="BN74" s="146"/>
-      <c r="BO74" s="147"/>
+      <c r="K74" s="149"/>
+      <c r="L74" s="149"/>
+      <c r="M74" s="149"/>
+      <c r="N74" s="149"/>
+      <c r="O74" s="149"/>
+      <c r="P74" s="149"/>
+      <c r="Q74" s="149"/>
+      <c r="R74" s="149"/>
+      <c r="S74" s="149"/>
+      <c r="T74" s="149"/>
+      <c r="U74" s="149"/>
+      <c r="V74" s="149"/>
+      <c r="W74" s="149"/>
+      <c r="X74" s="149"/>
+      <c r="Y74" s="149"/>
+      <c r="Z74" s="149"/>
+      <c r="AA74" s="149"/>
+      <c r="AB74" s="149"/>
+      <c r="AC74" s="149"/>
+      <c r="AD74" s="149"/>
+      <c r="AE74" s="149"/>
+      <c r="AF74" s="149"/>
+      <c r="AG74" s="149"/>
+      <c r="AH74" s="149"/>
+      <c r="AI74" s="149"/>
+      <c r="AJ74" s="149"/>
+      <c r="AK74" s="149"/>
+      <c r="AL74" s="149"/>
+      <c r="AM74" s="149"/>
+      <c r="AN74" s="149"/>
+      <c r="AO74" s="149"/>
+      <c r="AP74" s="149"/>
+      <c r="AQ74" s="149"/>
+      <c r="AR74" s="149"/>
+      <c r="AS74" s="149"/>
+      <c r="AT74" s="149"/>
+      <c r="AU74" s="149"/>
+      <c r="AV74" s="149"/>
+      <c r="AW74" s="149"/>
+      <c r="AX74" s="149"/>
+      <c r="AY74" s="149"/>
+      <c r="AZ74" s="149"/>
+      <c r="BA74" s="149"/>
+      <c r="BB74" s="149"/>
+      <c r="BC74" s="149"/>
+      <c r="BD74" s="149"/>
+      <c r="BE74" s="149"/>
+      <c r="BF74" s="149"/>
+      <c r="BG74" s="149"/>
+      <c r="BH74" s="149"/>
+      <c r="BI74" s="149"/>
+      <c r="BJ74" s="149"/>
+      <c r="BK74" s="149"/>
+      <c r="BL74" s="149"/>
+      <c r="BM74" s="149"/>
+      <c r="BN74" s="149"/>
+      <c r="BO74" s="150"/>
     </row>
     <row r="75" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A75" s="2"/>
@@ -10162,217 +10182,217 @@
       <c r="A76" s="2"/>
       <c r="C76" s="36"/>
       <c r="D76" s="52"/>
-      <c r="E76" s="116" t="s">
+      <c r="E76" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="F76" s="132"/>
-      <c r="G76" s="132"/>
-      <c r="H76" s="132"/>
-      <c r="I76" s="132"/>
-      <c r="J76" s="141" t="s">
+      <c r="F76" s="135"/>
+      <c r="G76" s="135"/>
+      <c r="H76" s="135"/>
+      <c r="I76" s="135"/>
+      <c r="J76" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="K76" s="141"/>
-      <c r="L76" s="141"/>
-      <c r="M76" s="141"/>
-      <c r="N76" s="141"/>
-      <c r="O76" s="141"/>
-      <c r="P76" s="141"/>
-      <c r="Q76" s="141"/>
-      <c r="R76" s="141"/>
-      <c r="S76" s="141"/>
-      <c r="T76" s="141"/>
-      <c r="U76" s="141"/>
-      <c r="V76" s="141"/>
-      <c r="W76" s="141"/>
-      <c r="X76" s="141"/>
-      <c r="Y76" s="141"/>
-      <c r="Z76" s="141"/>
-      <c r="AA76" s="141"/>
-      <c r="AB76" s="141"/>
-      <c r="AC76" s="141"/>
-      <c r="AD76" s="141"/>
-      <c r="AE76" s="141"/>
-      <c r="AF76" s="141"/>
-      <c r="AG76" s="141"/>
-      <c r="AH76" s="141"/>
-      <c r="AI76" s="141"/>
-      <c r="AJ76" s="141"/>
-      <c r="AK76" s="141"/>
-      <c r="AL76" s="141"/>
-      <c r="AM76" s="141"/>
-      <c r="AN76" s="141"/>
-      <c r="AO76" s="141"/>
-      <c r="AP76" s="141"/>
-      <c r="AQ76" s="141"/>
-      <c r="AR76" s="141"/>
-      <c r="AS76" s="141"/>
-      <c r="AT76" s="141"/>
-      <c r="AU76" s="141"/>
-      <c r="AV76" s="141"/>
-      <c r="AW76" s="141"/>
-      <c r="AX76" s="141"/>
-      <c r="AY76" s="141"/>
-      <c r="AZ76" s="141"/>
-      <c r="BA76" s="141"/>
-      <c r="BB76" s="141"/>
-      <c r="BC76" s="141"/>
-      <c r="BD76" s="141"/>
-      <c r="BE76" s="141"/>
-      <c r="BF76" s="141"/>
-      <c r="BG76" s="141"/>
-      <c r="BH76" s="141"/>
-      <c r="BI76" s="141"/>
-      <c r="BJ76" s="141"/>
-      <c r="BK76" s="141"/>
-      <c r="BL76" s="141"/>
-      <c r="BM76" s="141"/>
-      <c r="BN76" s="141"/>
-      <c r="BO76" s="141"/>
+      <c r="K76" s="144"/>
+      <c r="L76" s="144"/>
+      <c r="M76" s="144"/>
+      <c r="N76" s="144"/>
+      <c r="O76" s="144"/>
+      <c r="P76" s="144"/>
+      <c r="Q76" s="144"/>
+      <c r="R76" s="144"/>
+      <c r="S76" s="144"/>
+      <c r="T76" s="144"/>
+      <c r="U76" s="144"/>
+      <c r="V76" s="144"/>
+      <c r="W76" s="144"/>
+      <c r="X76" s="144"/>
+      <c r="Y76" s="144"/>
+      <c r="Z76" s="144"/>
+      <c r="AA76" s="144"/>
+      <c r="AB76" s="144"/>
+      <c r="AC76" s="144"/>
+      <c r="AD76" s="144"/>
+      <c r="AE76" s="144"/>
+      <c r="AF76" s="144"/>
+      <c r="AG76" s="144"/>
+      <c r="AH76" s="144"/>
+      <c r="AI76" s="144"/>
+      <c r="AJ76" s="144"/>
+      <c r="AK76" s="144"/>
+      <c r="AL76" s="144"/>
+      <c r="AM76" s="144"/>
+      <c r="AN76" s="144"/>
+      <c r="AO76" s="144"/>
+      <c r="AP76" s="144"/>
+      <c r="AQ76" s="144"/>
+      <c r="AR76" s="144"/>
+      <c r="AS76" s="144"/>
+      <c r="AT76" s="144"/>
+      <c r="AU76" s="144"/>
+      <c r="AV76" s="144"/>
+      <c r="AW76" s="144"/>
+      <c r="AX76" s="144"/>
+      <c r="AY76" s="144"/>
+      <c r="AZ76" s="144"/>
+      <c r="BA76" s="144"/>
+      <c r="BB76" s="144"/>
+      <c r="BC76" s="144"/>
+      <c r="BD76" s="144"/>
+      <c r="BE76" s="144"/>
+      <c r="BF76" s="144"/>
+      <c r="BG76" s="144"/>
+      <c r="BH76" s="144"/>
+      <c r="BI76" s="144"/>
+      <c r="BJ76" s="144"/>
+      <c r="BK76" s="144"/>
+      <c r="BL76" s="144"/>
+      <c r="BM76" s="144"/>
+      <c r="BN76" s="144"/>
+      <c r="BO76" s="144"/>
     </row>
     <row r="77" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A77" s="2"/>
       <c r="C77" s="36"/>
       <c r="D77" s="52"/>
-      <c r="E77" s="116" t="s">
+      <c r="E77" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="F77" s="132"/>
-      <c r="G77" s="132"/>
-      <c r="H77" s="132"/>
-      <c r="I77" s="132"/>
-      <c r="J77" s="133" t="s">
+      <c r="F77" s="135"/>
+      <c r="G77" s="135"/>
+      <c r="H77" s="135"/>
+      <c r="I77" s="135"/>
+      <c r="J77" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="K77" s="133"/>
-      <c r="L77" s="133"/>
-      <c r="M77" s="133"/>
-      <c r="N77" s="133"/>
-      <c r="O77" s="133"/>
-      <c r="P77" s="133"/>
-      <c r="Q77" s="133"/>
-      <c r="R77" s="133"/>
-      <c r="S77" s="133"/>
-      <c r="T77" s="133"/>
-      <c r="U77" s="133"/>
-      <c r="V77" s="133"/>
-      <c r="W77" s="133"/>
-      <c r="X77" s="133"/>
-      <c r="Y77" s="133"/>
-      <c r="Z77" s="133"/>
-      <c r="AA77" s="133"/>
-      <c r="AB77" s="133"/>
-      <c r="AC77" s="133"/>
-      <c r="AD77" s="133"/>
-      <c r="AE77" s="133"/>
-      <c r="AF77" s="133"/>
-      <c r="AG77" s="133"/>
-      <c r="AH77" s="133"/>
-      <c r="AI77" s="133"/>
-      <c r="AJ77" s="133"/>
-      <c r="AK77" s="133"/>
-      <c r="AL77" s="133"/>
-      <c r="AM77" s="133"/>
-      <c r="AN77" s="133"/>
-      <c r="AO77" s="133"/>
-      <c r="AP77" s="133"/>
-      <c r="AQ77" s="133"/>
-      <c r="AR77" s="133"/>
-      <c r="AS77" s="133"/>
-      <c r="AT77" s="133"/>
-      <c r="AU77" s="133"/>
-      <c r="AV77" s="133"/>
-      <c r="AW77" s="133"/>
-      <c r="AX77" s="133"/>
-      <c r="AY77" s="133"/>
-      <c r="AZ77" s="133"/>
-      <c r="BA77" s="133"/>
-      <c r="BB77" s="133"/>
-      <c r="BC77" s="133"/>
-      <c r="BD77" s="133"/>
-      <c r="BE77" s="133"/>
-      <c r="BF77" s="133"/>
-      <c r="BG77" s="133"/>
-      <c r="BH77" s="133"/>
-      <c r="BI77" s="133"/>
-      <c r="BJ77" s="133"/>
-      <c r="BK77" s="133"/>
-      <c r="BL77" s="133"/>
-      <c r="BM77" s="133"/>
-      <c r="BN77" s="133"/>
-      <c r="BO77" s="133"/>
+      <c r="K77" s="136"/>
+      <c r="L77" s="136"/>
+      <c r="M77" s="136"/>
+      <c r="N77" s="136"/>
+      <c r="O77" s="136"/>
+      <c r="P77" s="136"/>
+      <c r="Q77" s="136"/>
+      <c r="R77" s="136"/>
+      <c r="S77" s="136"/>
+      <c r="T77" s="136"/>
+      <c r="U77" s="136"/>
+      <c r="V77" s="136"/>
+      <c r="W77" s="136"/>
+      <c r="X77" s="136"/>
+      <c r="Y77" s="136"/>
+      <c r="Z77" s="136"/>
+      <c r="AA77" s="136"/>
+      <c r="AB77" s="136"/>
+      <c r="AC77" s="136"/>
+      <c r="AD77" s="136"/>
+      <c r="AE77" s="136"/>
+      <c r="AF77" s="136"/>
+      <c r="AG77" s="136"/>
+      <c r="AH77" s="136"/>
+      <c r="AI77" s="136"/>
+      <c r="AJ77" s="136"/>
+      <c r="AK77" s="136"/>
+      <c r="AL77" s="136"/>
+      <c r="AM77" s="136"/>
+      <c r="AN77" s="136"/>
+      <c r="AO77" s="136"/>
+      <c r="AP77" s="136"/>
+      <c r="AQ77" s="136"/>
+      <c r="AR77" s="136"/>
+      <c r="AS77" s="136"/>
+      <c r="AT77" s="136"/>
+      <c r="AU77" s="136"/>
+      <c r="AV77" s="136"/>
+      <c r="AW77" s="136"/>
+      <c r="AX77" s="136"/>
+      <c r="AY77" s="136"/>
+      <c r="AZ77" s="136"/>
+      <c r="BA77" s="136"/>
+      <c r="BB77" s="136"/>
+      <c r="BC77" s="136"/>
+      <c r="BD77" s="136"/>
+      <c r="BE77" s="136"/>
+      <c r="BF77" s="136"/>
+      <c r="BG77" s="136"/>
+      <c r="BH77" s="136"/>
+      <c r="BI77" s="136"/>
+      <c r="BJ77" s="136"/>
+      <c r="BK77" s="136"/>
+      <c r="BL77" s="136"/>
+      <c r="BM77" s="136"/>
+      <c r="BN77" s="136"/>
+      <c r="BO77" s="136"/>
     </row>
     <row r="78" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A78" s="2"/>
       <c r="C78" s="36"/>
       <c r="D78" s="53"/>
-      <c r="E78" s="116" t="s">
+      <c r="E78" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="F78" s="132"/>
-      <c r="G78" s="132"/>
-      <c r="H78" s="132"/>
-      <c r="I78" s="132"/>
-      <c r="J78" s="133" t="s">
-        <v>173</v>
+      <c r="F78" s="135"/>
+      <c r="G78" s="135"/>
+      <c r="H78" s="135"/>
+      <c r="I78" s="135"/>
+      <c r="J78" s="136" t="s">
+        <v>170</v>
       </c>
-      <c r="K78" s="133"/>
-      <c r="L78" s="133"/>
-      <c r="M78" s="133"/>
-      <c r="N78" s="133"/>
-      <c r="O78" s="133"/>
-      <c r="P78" s="133"/>
-      <c r="Q78" s="133"/>
-      <c r="R78" s="133"/>
-      <c r="S78" s="133"/>
-      <c r="T78" s="133"/>
-      <c r="U78" s="133"/>
-      <c r="V78" s="133"/>
-      <c r="W78" s="133"/>
-      <c r="X78" s="133"/>
-      <c r="Y78" s="133"/>
-      <c r="Z78" s="133"/>
-      <c r="AA78" s="133"/>
-      <c r="AB78" s="133"/>
-      <c r="AC78" s="133"/>
-      <c r="AD78" s="133"/>
-      <c r="AE78" s="133"/>
-      <c r="AF78" s="133"/>
-      <c r="AG78" s="133"/>
-      <c r="AH78" s="133"/>
-      <c r="AI78" s="133"/>
-      <c r="AJ78" s="133"/>
-      <c r="AK78" s="133"/>
-      <c r="AL78" s="133"/>
-      <c r="AM78" s="133"/>
-      <c r="AN78" s="133"/>
-      <c r="AO78" s="133"/>
-      <c r="AP78" s="133"/>
-      <c r="AQ78" s="133"/>
-      <c r="AR78" s="133"/>
-      <c r="AS78" s="133"/>
-      <c r="AT78" s="133"/>
-      <c r="AU78" s="133"/>
-      <c r="AV78" s="133"/>
-      <c r="AW78" s="133"/>
-      <c r="AX78" s="133"/>
-      <c r="AY78" s="133"/>
-      <c r="AZ78" s="133"/>
-      <c r="BA78" s="133"/>
-      <c r="BB78" s="133"/>
-      <c r="BC78" s="133"/>
-      <c r="BD78" s="133"/>
-      <c r="BE78" s="133"/>
-      <c r="BF78" s="133"/>
-      <c r="BG78" s="133"/>
-      <c r="BH78" s="133"/>
-      <c r="BI78" s="133"/>
-      <c r="BJ78" s="133"/>
-      <c r="BK78" s="133"/>
-      <c r="BL78" s="133"/>
-      <c r="BM78" s="133"/>
-      <c r="BN78" s="133"/>
-      <c r="BO78" s="133"/>
+      <c r="K78" s="136"/>
+      <c r="L78" s="136"/>
+      <c r="M78" s="136"/>
+      <c r="N78" s="136"/>
+      <c r="O78" s="136"/>
+      <c r="P78" s="136"/>
+      <c r="Q78" s="136"/>
+      <c r="R78" s="136"/>
+      <c r="S78" s="136"/>
+      <c r="T78" s="136"/>
+      <c r="U78" s="136"/>
+      <c r="V78" s="136"/>
+      <c r="W78" s="136"/>
+      <c r="X78" s="136"/>
+      <c r="Y78" s="136"/>
+      <c r="Z78" s="136"/>
+      <c r="AA78" s="136"/>
+      <c r="AB78" s="136"/>
+      <c r="AC78" s="136"/>
+      <c r="AD78" s="136"/>
+      <c r="AE78" s="136"/>
+      <c r="AF78" s="136"/>
+      <c r="AG78" s="136"/>
+      <c r="AH78" s="136"/>
+      <c r="AI78" s="136"/>
+      <c r="AJ78" s="136"/>
+      <c r="AK78" s="136"/>
+      <c r="AL78" s="136"/>
+      <c r="AM78" s="136"/>
+      <c r="AN78" s="136"/>
+      <c r="AO78" s="136"/>
+      <c r="AP78" s="136"/>
+      <c r="AQ78" s="136"/>
+      <c r="AR78" s="136"/>
+      <c r="AS78" s="136"/>
+      <c r="AT78" s="136"/>
+      <c r="AU78" s="136"/>
+      <c r="AV78" s="136"/>
+      <c r="AW78" s="136"/>
+      <c r="AX78" s="136"/>
+      <c r="AY78" s="136"/>
+      <c r="AZ78" s="136"/>
+      <c r="BA78" s="136"/>
+      <c r="BB78" s="136"/>
+      <c r="BC78" s="136"/>
+      <c r="BD78" s="136"/>
+      <c r="BE78" s="136"/>
+      <c r="BF78" s="136"/>
+      <c r="BG78" s="136"/>
+      <c r="BH78" s="136"/>
+      <c r="BI78" s="136"/>
+      <c r="BJ78" s="136"/>
+      <c r="BK78" s="136"/>
+      <c r="BL78" s="136"/>
+      <c r="BM78" s="136"/>
+      <c r="BN78" s="136"/>
+      <c r="BO78" s="136"/>
     </row>
     <row r="79" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A79" s="2"/>
@@ -10447,388 +10467,388 @@
     <row r="80" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A80" s="2"/>
       <c r="C80" s="36"/>
-      <c r="D80" s="134" t="s">
+      <c r="D80" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="E80" s="135"/>
-      <c r="F80" s="135"/>
-      <c r="G80" s="135"/>
-      <c r="H80" s="135"/>
-      <c r="I80" s="135"/>
-      <c r="J80" s="135"/>
-      <c r="K80" s="135"/>
-      <c r="L80" s="135"/>
-      <c r="M80" s="135"/>
-      <c r="N80" s="135"/>
-      <c r="O80" s="135"/>
-      <c r="P80" s="135"/>
-      <c r="Q80" s="136"/>
-      <c r="R80" s="134" t="s">
+      <c r="E80" s="138"/>
+      <c r="F80" s="138"/>
+      <c r="G80" s="138"/>
+      <c r="H80" s="138"/>
+      <c r="I80" s="138"/>
+      <c r="J80" s="138"/>
+      <c r="K80" s="138"/>
+      <c r="L80" s="138"/>
+      <c r="M80" s="138"/>
+      <c r="N80" s="138"/>
+      <c r="O80" s="138"/>
+      <c r="P80" s="138"/>
+      <c r="Q80" s="139"/>
+      <c r="R80" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="S80" s="135"/>
-      <c r="T80" s="135"/>
-      <c r="U80" s="135"/>
-      <c r="V80" s="135"/>
-      <c r="W80" s="135"/>
-      <c r="X80" s="136"/>
-      <c r="Y80" s="134" t="s">
+      <c r="S80" s="138"/>
+      <c r="T80" s="138"/>
+      <c r="U80" s="138"/>
+      <c r="V80" s="138"/>
+      <c r="W80" s="138"/>
+      <c r="X80" s="139"/>
+      <c r="Y80" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="Z80" s="135"/>
-      <c r="AA80" s="135"/>
-      <c r="AB80" s="135"/>
-      <c r="AC80" s="135"/>
-      <c r="AD80" s="135"/>
-      <c r="AE80" s="136"/>
-      <c r="AF80" s="134" t="s">
+      <c r="Z80" s="138"/>
+      <c r="AA80" s="138"/>
+      <c r="AB80" s="138"/>
+      <c r="AC80" s="138"/>
+      <c r="AD80" s="138"/>
+      <c r="AE80" s="139"/>
+      <c r="AF80" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="AG80" s="135"/>
-      <c r="AH80" s="136"/>
-      <c r="AI80" s="137" t="s">
+      <c r="AG80" s="138"/>
+      <c r="AH80" s="139"/>
+      <c r="AI80" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="AJ80" s="138"/>
-      <c r="AK80" s="139"/>
-      <c r="AL80" s="134" t="s">
+      <c r="AJ80" s="141"/>
+      <c r="AK80" s="142"/>
+      <c r="AL80" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="AM80" s="135"/>
-      <c r="AN80" s="135"/>
-      <c r="AO80" s="135"/>
-      <c r="AP80" s="135"/>
-      <c r="AQ80" s="135"/>
-      <c r="AR80" s="135"/>
-      <c r="AS80" s="135"/>
-      <c r="AT80" s="135"/>
-      <c r="AU80" s="135"/>
-      <c r="AV80" s="135"/>
-      <c r="AW80" s="135"/>
-      <c r="AX80" s="135"/>
-      <c r="AY80" s="135"/>
-      <c r="AZ80" s="135"/>
-      <c r="BA80" s="135"/>
-      <c r="BB80" s="135"/>
-      <c r="BC80" s="135"/>
-      <c r="BD80" s="135"/>
-      <c r="BE80" s="135"/>
-      <c r="BF80" s="135"/>
-      <c r="BG80" s="135"/>
-      <c r="BH80" s="135"/>
-      <c r="BI80" s="135"/>
-      <c r="BJ80" s="135"/>
-      <c r="BK80" s="135"/>
-      <c r="BL80" s="135"/>
-      <c r="BM80" s="135"/>
-      <c r="BN80" s="135"/>
-      <c r="BO80" s="136"/>
+      <c r="AM80" s="138"/>
+      <c r="AN80" s="138"/>
+      <c r="AO80" s="138"/>
+      <c r="AP80" s="138"/>
+      <c r="AQ80" s="138"/>
+      <c r="AR80" s="138"/>
+      <c r="AS80" s="138"/>
+      <c r="AT80" s="138"/>
+      <c r="AU80" s="138"/>
+      <c r="AV80" s="138"/>
+      <c r="AW80" s="138"/>
+      <c r="AX80" s="138"/>
+      <c r="AY80" s="138"/>
+      <c r="AZ80" s="138"/>
+      <c r="BA80" s="138"/>
+      <c r="BB80" s="138"/>
+      <c r="BC80" s="138"/>
+      <c r="BD80" s="138"/>
+      <c r="BE80" s="138"/>
+      <c r="BF80" s="138"/>
+      <c r="BG80" s="138"/>
+      <c r="BH80" s="138"/>
+      <c r="BI80" s="138"/>
+      <c r="BJ80" s="138"/>
+      <c r="BK80" s="138"/>
+      <c r="BL80" s="138"/>
+      <c r="BM80" s="138"/>
+      <c r="BN80" s="138"/>
+      <c r="BO80" s="139"/>
     </row>
     <row r="81" spans="1:68" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A81" s="2"/>
       <c r="C81" s="36"/>
-      <c r="D81" s="126" t="s">
+      <c r="D81" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="E81" s="127"/>
-      <c r="F81" s="127"/>
-      <c r="G81" s="127"/>
-      <c r="H81" s="127"/>
-      <c r="I81" s="127"/>
-      <c r="J81" s="127"/>
-      <c r="K81" s="127"/>
-      <c r="L81" s="127"/>
-      <c r="M81" s="127"/>
-      <c r="N81" s="127"/>
-      <c r="O81" s="127"/>
-      <c r="P81" s="127"/>
-      <c r="Q81" s="128"/>
-      <c r="R81" s="126" t="s">
+      <c r="E81" s="130"/>
+      <c r="F81" s="130"/>
+      <c r="G81" s="130"/>
+      <c r="H81" s="130"/>
+      <c r="I81" s="130"/>
+      <c r="J81" s="130"/>
+      <c r="K81" s="130"/>
+      <c r="L81" s="130"/>
+      <c r="M81" s="130"/>
+      <c r="N81" s="130"/>
+      <c r="O81" s="130"/>
+      <c r="P81" s="130"/>
+      <c r="Q81" s="131"/>
+      <c r="R81" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="S81" s="127"/>
-      <c r="T81" s="127"/>
-      <c r="U81" s="127"/>
-      <c r="V81" s="127"/>
-      <c r="W81" s="127"/>
-      <c r="X81" s="128"/>
-      <c r="Y81" s="126" t="s">
+      <c r="S81" s="130"/>
+      <c r="T81" s="130"/>
+      <c r="U81" s="130"/>
+      <c r="V81" s="130"/>
+      <c r="W81" s="130"/>
+      <c r="X81" s="131"/>
+      <c r="Y81" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="Z81" s="127"/>
-      <c r="AA81" s="127"/>
-      <c r="AB81" s="127"/>
-      <c r="AC81" s="127"/>
-      <c r="AD81" s="127"/>
-      <c r="AE81" s="128"/>
-      <c r="AF81" s="126"/>
-      <c r="AG81" s="127"/>
-      <c r="AH81" s="128"/>
-      <c r="AI81" s="126"/>
-      <c r="AJ81" s="127"/>
-      <c r="AK81" s="128"/>
-      <c r="AL81" s="126" t="s">
+      <c r="Z81" s="130"/>
+      <c r="AA81" s="130"/>
+      <c r="AB81" s="130"/>
+      <c r="AC81" s="130"/>
+      <c r="AD81" s="130"/>
+      <c r="AE81" s="131"/>
+      <c r="AF81" s="129"/>
+      <c r="AG81" s="130"/>
+      <c r="AH81" s="131"/>
+      <c r="AI81" s="129"/>
+      <c r="AJ81" s="130"/>
+      <c r="AK81" s="131"/>
+      <c r="AL81" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="AM81" s="127"/>
-      <c r="AN81" s="127"/>
-      <c r="AO81" s="127"/>
-      <c r="AP81" s="127"/>
-      <c r="AQ81" s="127"/>
-      <c r="AR81" s="127"/>
-      <c r="AS81" s="127"/>
-      <c r="AT81" s="127"/>
-      <c r="AU81" s="127"/>
-      <c r="AV81" s="127"/>
-      <c r="AW81" s="127"/>
-      <c r="AX81" s="127"/>
-      <c r="AY81" s="127"/>
-      <c r="AZ81" s="127"/>
-      <c r="BA81" s="127"/>
-      <c r="BB81" s="127"/>
-      <c r="BC81" s="127"/>
-      <c r="BD81" s="127"/>
-      <c r="BE81" s="127"/>
-      <c r="BF81" s="127"/>
-      <c r="BG81" s="127"/>
-      <c r="BH81" s="127"/>
-      <c r="BI81" s="127"/>
-      <c r="BJ81" s="127"/>
-      <c r="BK81" s="127"/>
-      <c r="BL81" s="127"/>
-      <c r="BM81" s="127"/>
-      <c r="BN81" s="127"/>
-      <c r="BO81" s="128"/>
+      <c r="AM81" s="130"/>
+      <c r="AN81" s="130"/>
+      <c r="AO81" s="130"/>
+      <c r="AP81" s="130"/>
+      <c r="AQ81" s="130"/>
+      <c r="AR81" s="130"/>
+      <c r="AS81" s="130"/>
+      <c r="AT81" s="130"/>
+      <c r="AU81" s="130"/>
+      <c r="AV81" s="130"/>
+      <c r="AW81" s="130"/>
+      <c r="AX81" s="130"/>
+      <c r="AY81" s="130"/>
+      <c r="AZ81" s="130"/>
+      <c r="BA81" s="130"/>
+      <c r="BB81" s="130"/>
+      <c r="BC81" s="130"/>
+      <c r="BD81" s="130"/>
+      <c r="BE81" s="130"/>
+      <c r="BF81" s="130"/>
+      <c r="BG81" s="130"/>
+      <c r="BH81" s="130"/>
+      <c r="BI81" s="130"/>
+      <c r="BJ81" s="130"/>
+      <c r="BK81" s="130"/>
+      <c r="BL81" s="130"/>
+      <c r="BM81" s="130"/>
+      <c r="BN81" s="130"/>
+      <c r="BO81" s="131"/>
     </row>
     <row r="82" spans="1:68" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A82" s="2"/>
       <c r="C82" s="36"/>
-      <c r="D82" s="126" t="s">
+      <c r="D82" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="E82" s="127"/>
-      <c r="F82" s="127"/>
-      <c r="G82" s="127"/>
-      <c r="H82" s="127"/>
-      <c r="I82" s="127"/>
-      <c r="J82" s="127"/>
-      <c r="K82" s="127"/>
-      <c r="L82" s="127"/>
-      <c r="M82" s="127"/>
-      <c r="N82" s="127"/>
-      <c r="O82" s="127"/>
-      <c r="P82" s="127"/>
-      <c r="Q82" s="128"/>
-      <c r="R82" s="126" t="s">
+      <c r="E82" s="130"/>
+      <c r="F82" s="130"/>
+      <c r="G82" s="130"/>
+      <c r="H82" s="130"/>
+      <c r="I82" s="130"/>
+      <c r="J82" s="130"/>
+      <c r="K82" s="130"/>
+      <c r="L82" s="130"/>
+      <c r="M82" s="130"/>
+      <c r="N82" s="130"/>
+      <c r="O82" s="130"/>
+      <c r="P82" s="130"/>
+      <c r="Q82" s="131"/>
+      <c r="R82" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="S82" s="127"/>
-      <c r="T82" s="127"/>
-      <c r="U82" s="127"/>
-      <c r="V82" s="127"/>
-      <c r="W82" s="127"/>
-      <c r="X82" s="128"/>
-      <c r="Y82" s="126" t="s">
+      <c r="S82" s="130"/>
+      <c r="T82" s="130"/>
+      <c r="U82" s="130"/>
+      <c r="V82" s="130"/>
+      <c r="W82" s="130"/>
+      <c r="X82" s="131"/>
+      <c r="Y82" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="Z82" s="127"/>
-      <c r="AA82" s="127"/>
-      <c r="AB82" s="127"/>
-      <c r="AC82" s="127"/>
-      <c r="AD82" s="127"/>
-      <c r="AE82" s="128"/>
-      <c r="AF82" s="126"/>
-      <c r="AG82" s="127"/>
-      <c r="AH82" s="128"/>
-      <c r="AI82" s="126"/>
-      <c r="AJ82" s="127"/>
-      <c r="AK82" s="128"/>
-      <c r="AL82" s="126" t="s">
+      <c r="Z82" s="130"/>
+      <c r="AA82" s="130"/>
+      <c r="AB82" s="130"/>
+      <c r="AC82" s="130"/>
+      <c r="AD82" s="130"/>
+      <c r="AE82" s="131"/>
+      <c r="AF82" s="129"/>
+      <c r="AG82" s="130"/>
+      <c r="AH82" s="131"/>
+      <c r="AI82" s="129"/>
+      <c r="AJ82" s="130"/>
+      <c r="AK82" s="131"/>
+      <c r="AL82" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="AM82" s="127"/>
-      <c r="AN82" s="127"/>
-      <c r="AO82" s="127"/>
-      <c r="AP82" s="127"/>
-      <c r="AQ82" s="127"/>
-      <c r="AR82" s="127"/>
-      <c r="AS82" s="127"/>
-      <c r="AT82" s="127"/>
-      <c r="AU82" s="127"/>
-      <c r="AV82" s="127"/>
-      <c r="AW82" s="127"/>
-      <c r="AX82" s="127"/>
-      <c r="AY82" s="127"/>
-      <c r="AZ82" s="127"/>
-      <c r="BA82" s="127"/>
-      <c r="BB82" s="127"/>
-      <c r="BC82" s="127"/>
-      <c r="BD82" s="127"/>
-      <c r="BE82" s="127"/>
-      <c r="BF82" s="127"/>
-      <c r="BG82" s="127"/>
-      <c r="BH82" s="127"/>
-      <c r="BI82" s="127"/>
-      <c r="BJ82" s="127"/>
-      <c r="BK82" s="127"/>
-      <c r="BL82" s="127"/>
-      <c r="BM82" s="127"/>
-      <c r="BN82" s="127"/>
-      <c r="BO82" s="128"/>
+      <c r="AM82" s="130"/>
+      <c r="AN82" s="130"/>
+      <c r="AO82" s="130"/>
+      <c r="AP82" s="130"/>
+      <c r="AQ82" s="130"/>
+      <c r="AR82" s="130"/>
+      <c r="AS82" s="130"/>
+      <c r="AT82" s="130"/>
+      <c r="AU82" s="130"/>
+      <c r="AV82" s="130"/>
+      <c r="AW82" s="130"/>
+      <c r="AX82" s="130"/>
+      <c r="AY82" s="130"/>
+      <c r="AZ82" s="130"/>
+      <c r="BA82" s="130"/>
+      <c r="BB82" s="130"/>
+      <c r="BC82" s="130"/>
+      <c r="BD82" s="130"/>
+      <c r="BE82" s="130"/>
+      <c r="BF82" s="130"/>
+      <c r="BG82" s="130"/>
+      <c r="BH82" s="130"/>
+      <c r="BI82" s="130"/>
+      <c r="BJ82" s="130"/>
+      <c r="BK82" s="130"/>
+      <c r="BL82" s="130"/>
+      <c r="BM82" s="130"/>
+      <c r="BN82" s="130"/>
+      <c r="BO82" s="131"/>
     </row>
     <row r="83" spans="1:68" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A83" s="2"/>
       <c r="C83" s="36"/>
-      <c r="D83" s="126" t="s">
+      <c r="D83" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="E83" s="127"/>
-      <c r="F83" s="127"/>
-      <c r="G83" s="127"/>
-      <c r="H83" s="127"/>
-      <c r="I83" s="127"/>
-      <c r="J83" s="127"/>
-      <c r="K83" s="127"/>
-      <c r="L83" s="127"/>
-      <c r="M83" s="127"/>
-      <c r="N83" s="127"/>
-      <c r="O83" s="127"/>
-      <c r="P83" s="127"/>
-      <c r="Q83" s="128"/>
-      <c r="R83" s="126" t="s">
+      <c r="E83" s="130"/>
+      <c r="F83" s="130"/>
+      <c r="G83" s="130"/>
+      <c r="H83" s="130"/>
+      <c r="I83" s="130"/>
+      <c r="J83" s="130"/>
+      <c r="K83" s="130"/>
+      <c r="L83" s="130"/>
+      <c r="M83" s="130"/>
+      <c r="N83" s="130"/>
+      <c r="O83" s="130"/>
+      <c r="P83" s="130"/>
+      <c r="Q83" s="131"/>
+      <c r="R83" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="S83" s="127"/>
-      <c r="T83" s="127"/>
-      <c r="U83" s="127"/>
-      <c r="V83" s="127"/>
-      <c r="W83" s="127"/>
-      <c r="X83" s="128"/>
-      <c r="Y83" s="126" t="s">
+      <c r="S83" s="130"/>
+      <c r="T83" s="130"/>
+      <c r="U83" s="130"/>
+      <c r="V83" s="130"/>
+      <c r="W83" s="130"/>
+      <c r="X83" s="131"/>
+      <c r="Y83" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="Z83" s="127"/>
-      <c r="AA83" s="127"/>
-      <c r="AB83" s="127"/>
-      <c r="AC83" s="127"/>
-      <c r="AD83" s="127"/>
-      <c r="AE83" s="128"/>
-      <c r="AF83" s="126">
+      <c r="Z83" s="130"/>
+      <c r="AA83" s="130"/>
+      <c r="AB83" s="130"/>
+      <c r="AC83" s="130"/>
+      <c r="AD83" s="130"/>
+      <c r="AE83" s="131"/>
+      <c r="AF83" s="129">
         <v>1</v>
       </c>
-      <c r="AG83" s="127"/>
-      <c r="AH83" s="128"/>
-      <c r="AI83" s="126"/>
-      <c r="AJ83" s="127"/>
-      <c r="AK83" s="128"/>
-      <c r="AL83" s="126" t="s">
+      <c r="AG83" s="130"/>
+      <c r="AH83" s="131"/>
+      <c r="AI83" s="129"/>
+      <c r="AJ83" s="130"/>
+      <c r="AK83" s="131"/>
+      <c r="AL83" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="AM83" s="127"/>
-      <c r="AN83" s="127"/>
-      <c r="AO83" s="127"/>
-      <c r="AP83" s="127"/>
-      <c r="AQ83" s="127"/>
-      <c r="AR83" s="127"/>
-      <c r="AS83" s="127"/>
-      <c r="AT83" s="127"/>
-      <c r="AU83" s="127"/>
-      <c r="AV83" s="127"/>
-      <c r="AW83" s="127"/>
-      <c r="AX83" s="127"/>
-      <c r="AY83" s="127"/>
-      <c r="AZ83" s="127"/>
-      <c r="BA83" s="127"/>
-      <c r="BB83" s="127"/>
-      <c r="BC83" s="127"/>
-      <c r="BD83" s="127"/>
-      <c r="BE83" s="127"/>
-      <c r="BF83" s="127"/>
-      <c r="BG83" s="127"/>
-      <c r="BH83" s="127"/>
-      <c r="BI83" s="127"/>
-      <c r="BJ83" s="127"/>
-      <c r="BK83" s="127"/>
-      <c r="BL83" s="127"/>
-      <c r="BM83" s="127"/>
-      <c r="BN83" s="127"/>
-      <c r="BO83" s="128"/>
+      <c r="AM83" s="130"/>
+      <c r="AN83" s="130"/>
+      <c r="AO83" s="130"/>
+      <c r="AP83" s="130"/>
+      <c r="AQ83" s="130"/>
+      <c r="AR83" s="130"/>
+      <c r="AS83" s="130"/>
+      <c r="AT83" s="130"/>
+      <c r="AU83" s="130"/>
+      <c r="AV83" s="130"/>
+      <c r="AW83" s="130"/>
+      <c r="AX83" s="130"/>
+      <c r="AY83" s="130"/>
+      <c r="AZ83" s="130"/>
+      <c r="BA83" s="130"/>
+      <c r="BB83" s="130"/>
+      <c r="BC83" s="130"/>
+      <c r="BD83" s="130"/>
+      <c r="BE83" s="130"/>
+      <c r="BF83" s="130"/>
+      <c r="BG83" s="130"/>
+      <c r="BH83" s="130"/>
+      <c r="BI83" s="130"/>
+      <c r="BJ83" s="130"/>
+      <c r="BK83" s="130"/>
+      <c r="BL83" s="130"/>
+      <c r="BM83" s="130"/>
+      <c r="BN83" s="130"/>
+      <c r="BO83" s="131"/>
     </row>
     <row r="84" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A84" s="2"/>
       <c r="C84" s="37"/>
-      <c r="D84" s="126" t="s">
-        <v>159</v>
+      <c r="D84" s="129" t="s">
+        <v>156</v>
       </c>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
-      <c r="G84" s="127"/>
-      <c r="H84" s="127"/>
-      <c r="I84" s="127"/>
-      <c r="J84" s="127"/>
-      <c r="K84" s="127"/>
-      <c r="L84" s="127"/>
-      <c r="M84" s="127"/>
-      <c r="N84" s="127"/>
-      <c r="O84" s="127"/>
-      <c r="P84" s="127"/>
-      <c r="Q84" s="128"/>
-      <c r="R84" s="140" t="s">
+      <c r="E84" s="130"/>
+      <c r="F84" s="130"/>
+      <c r="G84" s="130"/>
+      <c r="H84" s="130"/>
+      <c r="I84" s="130"/>
+      <c r="J84" s="130"/>
+      <c r="K84" s="130"/>
+      <c r="L84" s="130"/>
+      <c r="M84" s="130"/>
+      <c r="N84" s="130"/>
+      <c r="O84" s="130"/>
+      <c r="P84" s="130"/>
+      <c r="Q84" s="131"/>
+      <c r="R84" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="S84" s="140"/>
-      <c r="T84" s="140"/>
-      <c r="U84" s="140"/>
-      <c r="V84" s="140"/>
-      <c r="W84" s="140"/>
-      <c r="X84" s="140"/>
-      <c r="Y84" s="126" t="s">
+      <c r="S84" s="143"/>
+      <c r="T84" s="143"/>
+      <c r="U84" s="143"/>
+      <c r="V84" s="143"/>
+      <c r="W84" s="143"/>
+      <c r="X84" s="143"/>
+      <c r="Y84" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="Z84" s="127"/>
-      <c r="AA84" s="127"/>
-      <c r="AB84" s="127"/>
-      <c r="AC84" s="127"/>
-      <c r="AD84" s="127"/>
-      <c r="AE84" s="128"/>
-      <c r="AF84" s="126"/>
-      <c r="AG84" s="127"/>
-      <c r="AH84" s="128"/>
-      <c r="AI84" s="126"/>
-      <c r="AJ84" s="127"/>
-      <c r="AK84" s="128"/>
-      <c r="AL84" s="126" t="s">
-        <v>160</v>
+      <c r="Z84" s="130"/>
+      <c r="AA84" s="130"/>
+      <c r="AB84" s="130"/>
+      <c r="AC84" s="130"/>
+      <c r="AD84" s="130"/>
+      <c r="AE84" s="131"/>
+      <c r="AF84" s="129"/>
+      <c r="AG84" s="130"/>
+      <c r="AH84" s="131"/>
+      <c r="AI84" s="129"/>
+      <c r="AJ84" s="130"/>
+      <c r="AK84" s="131"/>
+      <c r="AL84" s="129" t="s">
+        <v>157</v>
       </c>
-      <c r="AM84" s="127"/>
-      <c r="AN84" s="127"/>
-      <c r="AO84" s="127"/>
-      <c r="AP84" s="127"/>
-      <c r="AQ84" s="127"/>
-      <c r="AR84" s="127"/>
-      <c r="AS84" s="127"/>
-      <c r="AT84" s="127"/>
-      <c r="AU84" s="127"/>
-      <c r="AV84" s="127"/>
-      <c r="AW84" s="127"/>
-      <c r="AX84" s="127"/>
-      <c r="AY84" s="127"/>
-      <c r="AZ84" s="127"/>
-      <c r="BA84" s="127"/>
-      <c r="BB84" s="127"/>
-      <c r="BC84" s="127"/>
-      <c r="BD84" s="127"/>
-      <c r="BE84" s="127"/>
-      <c r="BF84" s="127"/>
-      <c r="BG84" s="127"/>
-      <c r="BH84" s="127"/>
-      <c r="BI84" s="127"/>
-      <c r="BJ84" s="127"/>
-      <c r="BK84" s="127"/>
-      <c r="BL84" s="127"/>
-      <c r="BM84" s="127"/>
-      <c r="BN84" s="127"/>
-      <c r="BO84" s="128"/>
+      <c r="AM84" s="130"/>
+      <c r="AN84" s="130"/>
+      <c r="AO84" s="130"/>
+      <c r="AP84" s="130"/>
+      <c r="AQ84" s="130"/>
+      <c r="AR84" s="130"/>
+      <c r="AS84" s="130"/>
+      <c r="AT84" s="130"/>
+      <c r="AU84" s="130"/>
+      <c r="AV84" s="130"/>
+      <c r="AW84" s="130"/>
+      <c r="AX84" s="130"/>
+      <c r="AY84" s="130"/>
+      <c r="AZ84" s="130"/>
+      <c r="BA84" s="130"/>
+      <c r="BB84" s="130"/>
+      <c r="BC84" s="130"/>
+      <c r="BD84" s="130"/>
+      <c r="BE84" s="130"/>
+      <c r="BF84" s="130"/>
+      <c r="BG84" s="130"/>
+      <c r="BH84" s="130"/>
+      <c r="BI84" s="130"/>
+      <c r="BJ84" s="130"/>
+      <c r="BK84" s="130"/>
+      <c r="BL84" s="130"/>
+      <c r="BM84" s="130"/>
+      <c r="BN84" s="130"/>
+      <c r="BO84" s="131"/>
     </row>
     <row r="85" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A85" s="2"/>
@@ -11086,10 +11106,10 @@
     <mergeCell ref="K54:Q54"/>
     <mergeCell ref="R54:AJ54"/>
     <mergeCell ref="AS54:AY54"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="R55:AJ55"/>
-    <mergeCell ref="AS55:AY55"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="R56:AJ56"/>
+    <mergeCell ref="AS56:AY56"/>
     <mergeCell ref="C51:J51"/>
     <mergeCell ref="K51:Q51"/>
     <mergeCell ref="R51:AJ51"/>
@@ -11102,22 +11122,26 @@
     <mergeCell ref="C52:J52"/>
     <mergeCell ref="K52:Q52"/>
     <mergeCell ref="R52:AJ52"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="K61:Q61"/>
-    <mergeCell ref="R61:AJ61"/>
-    <mergeCell ref="AS61:AY61"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="R55:AJ55"/>
+    <mergeCell ref="AS55:AY55"/>
     <mergeCell ref="C62:J62"/>
     <mergeCell ref="K62:Q62"/>
     <mergeCell ref="R62:AJ62"/>
     <mergeCell ref="AS62:AY62"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="R56:AJ56"/>
-    <mergeCell ref="AS56:AY56"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="R63:AJ63"/>
+    <mergeCell ref="AS63:AY63"/>
     <mergeCell ref="C57:J57"/>
     <mergeCell ref="K57:Q57"/>
     <mergeCell ref="R57:AJ57"/>
     <mergeCell ref="AS57:AY57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="R58:AJ58"/>
+    <mergeCell ref="AS58:AY58"/>
     <mergeCell ref="C65:J65"/>
     <mergeCell ref="K65:Q65"/>
     <mergeCell ref="R65:AJ65"/>
@@ -11126,10 +11150,6 @@
     <mergeCell ref="K66:Q66"/>
     <mergeCell ref="R66:AJ66"/>
     <mergeCell ref="AS66:AY66"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="K63:Q63"/>
-    <mergeCell ref="R63:AJ63"/>
-    <mergeCell ref="AS63:AY63"/>
     <mergeCell ref="C64:J64"/>
     <mergeCell ref="K64:Q64"/>
     <mergeCell ref="R64:AJ64"/>
@@ -11619,70 +11639,70 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="160" t="s">
+      <c r="C7" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="159" t="s">
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="159"/>
-      <c r="Y7" s="159"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="159"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="159"/>
-      <c r="AF7" s="159"/>
-      <c r="AG7" s="159"/>
-      <c r="AH7" s="159"/>
-      <c r="AI7" s="159"/>
-      <c r="AJ7" s="159"/>
-      <c r="AK7" s="159"/>
-      <c r="AL7" s="159"/>
-      <c r="AM7" s="159"/>
-      <c r="AN7" s="159"/>
-      <c r="AO7" s="159"/>
-      <c r="AP7" s="159"/>
-      <c r="AQ7" s="159"/>
-      <c r="AR7" s="159"/>
-      <c r="AS7" s="159"/>
-      <c r="AT7" s="159"/>
-      <c r="AU7" s="159"/>
-      <c r="AV7" s="159"/>
-      <c r="AW7" s="159"/>
-      <c r="AX7" s="159"/>
-      <c r="AY7" s="159"/>
-      <c r="AZ7" s="159"/>
-      <c r="BA7" s="159"/>
-      <c r="BB7" s="159"/>
-      <c r="BC7" s="159"/>
-      <c r="BD7" s="159"/>
-      <c r="BE7" s="159"/>
-      <c r="BF7" s="159"/>
-      <c r="BG7" s="159"/>
-      <c r="BH7" s="159"/>
-      <c r="BI7" s="159"/>
-      <c r="BJ7" s="159"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
+      <c r="T7" s="162"/>
+      <c r="U7" s="162"/>
+      <c r="V7" s="162"/>
+      <c r="W7" s="162"/>
+      <c r="X7" s="162"/>
+      <c r="Y7" s="162"/>
+      <c r="Z7" s="162"/>
+      <c r="AA7" s="162"/>
+      <c r="AB7" s="162"/>
+      <c r="AC7" s="162"/>
+      <c r="AD7" s="162"/>
+      <c r="AE7" s="162"/>
+      <c r="AF7" s="162"/>
+      <c r="AG7" s="162"/>
+      <c r="AH7" s="162"/>
+      <c r="AI7" s="162"/>
+      <c r="AJ7" s="162"/>
+      <c r="AK7" s="162"/>
+      <c r="AL7" s="162"/>
+      <c r="AM7" s="162"/>
+      <c r="AN7" s="162"/>
+      <c r="AO7" s="162"/>
+      <c r="AP7" s="162"/>
+      <c r="AQ7" s="162"/>
+      <c r="AR7" s="162"/>
+      <c r="AS7" s="162"/>
+      <c r="AT7" s="162"/>
+      <c r="AU7" s="162"/>
+      <c r="AV7" s="162"/>
+      <c r="AW7" s="162"/>
+      <c r="AX7" s="162"/>
+      <c r="AY7" s="162"/>
+      <c r="AZ7" s="162"/>
+      <c r="BA7" s="162"/>
+      <c r="BB7" s="162"/>
+      <c r="BC7" s="162"/>
+      <c r="BD7" s="162"/>
+      <c r="BE7" s="162"/>
+      <c r="BF7" s="162"/>
+      <c r="BG7" s="162"/>
+      <c r="BH7" s="162"/>
+      <c r="BI7" s="162"/>
+      <c r="BJ7" s="162"/>
       <c r="BK7" s="2"/>
       <c r="BL7" s="2"/>
       <c r="BM7" s="2"/>
@@ -11693,70 +11713,70 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="160" t="s">
+      <c r="C8" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="159" t="s">
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="159"/>
-      <c r="Q8" s="159"/>
-      <c r="R8" s="159"/>
-      <c r="S8" s="159"/>
-      <c r="T8" s="159"/>
-      <c r="U8" s="159"/>
-      <c r="V8" s="159"/>
-      <c r="W8" s="159"/>
-      <c r="X8" s="159"/>
-      <c r="Y8" s="159"/>
-      <c r="Z8" s="159"/>
-      <c r="AA8" s="159"/>
-      <c r="AB8" s="159"/>
-      <c r="AC8" s="159"/>
-      <c r="AD8" s="159"/>
-      <c r="AE8" s="159"/>
-      <c r="AF8" s="159"/>
-      <c r="AG8" s="159"/>
-      <c r="AH8" s="159"/>
-      <c r="AI8" s="159"/>
-      <c r="AJ8" s="159"/>
-      <c r="AK8" s="159"/>
-      <c r="AL8" s="159"/>
-      <c r="AM8" s="159"/>
-      <c r="AN8" s="159"/>
-      <c r="AO8" s="159"/>
-      <c r="AP8" s="159"/>
-      <c r="AQ8" s="159"/>
-      <c r="AR8" s="159"/>
-      <c r="AS8" s="159"/>
-      <c r="AT8" s="159"/>
-      <c r="AU8" s="159"/>
-      <c r="AV8" s="159"/>
-      <c r="AW8" s="159"/>
-      <c r="AX8" s="159"/>
-      <c r="AY8" s="159"/>
-      <c r="AZ8" s="159"/>
-      <c r="BA8" s="159"/>
-      <c r="BB8" s="159"/>
-      <c r="BC8" s="159"/>
-      <c r="BD8" s="159"/>
-      <c r="BE8" s="159"/>
-      <c r="BF8" s="159"/>
-      <c r="BG8" s="159"/>
-      <c r="BH8" s="159"/>
-      <c r="BI8" s="159"/>
-      <c r="BJ8" s="159"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
+      <c r="P8" s="162"/>
+      <c r="Q8" s="162"/>
+      <c r="R8" s="162"/>
+      <c r="S8" s="162"/>
+      <c r="T8" s="162"/>
+      <c r="U8" s="162"/>
+      <c r="V8" s="162"/>
+      <c r="W8" s="162"/>
+      <c r="X8" s="162"/>
+      <c r="Y8" s="162"/>
+      <c r="Z8" s="162"/>
+      <c r="AA8" s="162"/>
+      <c r="AB8" s="162"/>
+      <c r="AC8" s="162"/>
+      <c r="AD8" s="162"/>
+      <c r="AE8" s="162"/>
+      <c r="AF8" s="162"/>
+      <c r="AG8" s="162"/>
+      <c r="AH8" s="162"/>
+      <c r="AI8" s="162"/>
+      <c r="AJ8" s="162"/>
+      <c r="AK8" s="162"/>
+      <c r="AL8" s="162"/>
+      <c r="AM8" s="162"/>
+      <c r="AN8" s="162"/>
+      <c r="AO8" s="162"/>
+      <c r="AP8" s="162"/>
+      <c r="AQ8" s="162"/>
+      <c r="AR8" s="162"/>
+      <c r="AS8" s="162"/>
+      <c r="AT8" s="162"/>
+      <c r="AU8" s="162"/>
+      <c r="AV8" s="162"/>
+      <c r="AW8" s="162"/>
+      <c r="AX8" s="162"/>
+      <c r="AY8" s="162"/>
+      <c r="AZ8" s="162"/>
+      <c r="BA8" s="162"/>
+      <c r="BB8" s="162"/>
+      <c r="BC8" s="162"/>
+      <c r="BD8" s="162"/>
+      <c r="BE8" s="162"/>
+      <c r="BF8" s="162"/>
+      <c r="BG8" s="162"/>
+      <c r="BH8" s="162"/>
+      <c r="BI8" s="162"/>
+      <c r="BJ8" s="162"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="2"/>
       <c r="BM8" s="2"/>
@@ -11767,70 +11787,70 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="160" t="s">
+      <c r="C9" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="159" t="s">
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="159"/>
-      <c r="S9" s="159"/>
-      <c r="T9" s="159"/>
-      <c r="U9" s="159"/>
-      <c r="V9" s="159"/>
-      <c r="W9" s="159"/>
-      <c r="X9" s="159"/>
-      <c r="Y9" s="159"/>
-      <c r="Z9" s="159"/>
-      <c r="AA9" s="159"/>
-      <c r="AB9" s="159"/>
-      <c r="AC9" s="159"/>
-      <c r="AD9" s="159"/>
-      <c r="AE9" s="159"/>
-      <c r="AF9" s="159"/>
-      <c r="AG9" s="159"/>
-      <c r="AH9" s="159"/>
-      <c r="AI9" s="159"/>
-      <c r="AJ9" s="159"/>
-      <c r="AK9" s="159"/>
-      <c r="AL9" s="159"/>
-      <c r="AM9" s="159"/>
-      <c r="AN9" s="159"/>
-      <c r="AO9" s="159"/>
-      <c r="AP9" s="159"/>
-      <c r="AQ9" s="159"/>
-      <c r="AR9" s="159"/>
-      <c r="AS9" s="159"/>
-      <c r="AT9" s="159"/>
-      <c r="AU9" s="159"/>
-      <c r="AV9" s="159"/>
-      <c r="AW9" s="159"/>
-      <c r="AX9" s="159"/>
-      <c r="AY9" s="159"/>
-      <c r="AZ9" s="159"/>
-      <c r="BA9" s="159"/>
-      <c r="BB9" s="159"/>
-      <c r="BC9" s="159"/>
-      <c r="BD9" s="159"/>
-      <c r="BE9" s="159"/>
-      <c r="BF9" s="159"/>
-      <c r="BG9" s="159"/>
-      <c r="BH9" s="159"/>
-      <c r="BI9" s="159"/>
-      <c r="BJ9" s="159"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="162"/>
+      <c r="Q9" s="162"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="162"/>
+      <c r="T9" s="162"/>
+      <c r="U9" s="162"/>
+      <c r="V9" s="162"/>
+      <c r="W9" s="162"/>
+      <c r="X9" s="162"/>
+      <c r="Y9" s="162"/>
+      <c r="Z9" s="162"/>
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="162"/>
+      <c r="AC9" s="162"/>
+      <c r="AD9" s="162"/>
+      <c r="AE9" s="162"/>
+      <c r="AF9" s="162"/>
+      <c r="AG9" s="162"/>
+      <c r="AH9" s="162"/>
+      <c r="AI9" s="162"/>
+      <c r="AJ9" s="162"/>
+      <c r="AK9" s="162"/>
+      <c r="AL9" s="162"/>
+      <c r="AM9" s="162"/>
+      <c r="AN9" s="162"/>
+      <c r="AO9" s="162"/>
+      <c r="AP9" s="162"/>
+      <c r="AQ9" s="162"/>
+      <c r="AR9" s="162"/>
+      <c r="AS9" s="162"/>
+      <c r="AT9" s="162"/>
+      <c r="AU9" s="162"/>
+      <c r="AV9" s="162"/>
+      <c r="AW9" s="162"/>
+      <c r="AX9" s="162"/>
+      <c r="AY9" s="162"/>
+      <c r="AZ9" s="162"/>
+      <c r="BA9" s="162"/>
+      <c r="BB9" s="162"/>
+      <c r="BC9" s="162"/>
+      <c r="BD9" s="162"/>
+      <c r="BE9" s="162"/>
+      <c r="BF9" s="162"/>
+      <c r="BG9" s="162"/>
+      <c r="BH9" s="162"/>
+      <c r="BI9" s="162"/>
+      <c r="BJ9" s="162"/>
       <c r="BK9" s="2"/>
       <c r="BL9" s="2"/>
       <c r="BM9" s="2"/>
@@ -11841,70 +11861,70 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="160" t="s">
+      <c r="C10" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="159" t="s">
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="159"/>
-      <c r="R10" s="159"/>
-      <c r="S10" s="159"/>
-      <c r="T10" s="159"/>
-      <c r="U10" s="159"/>
-      <c r="V10" s="159"/>
-      <c r="W10" s="159"/>
-      <c r="X10" s="159"/>
-      <c r="Y10" s="159"/>
-      <c r="Z10" s="159"/>
-      <c r="AA10" s="159"/>
-      <c r="AB10" s="159"/>
-      <c r="AC10" s="159"/>
-      <c r="AD10" s="159"/>
-      <c r="AE10" s="159"/>
-      <c r="AF10" s="159"/>
-      <c r="AG10" s="159"/>
-      <c r="AH10" s="159"/>
-      <c r="AI10" s="159"/>
-      <c r="AJ10" s="159"/>
-      <c r="AK10" s="159"/>
-      <c r="AL10" s="159"/>
-      <c r="AM10" s="159"/>
-      <c r="AN10" s="159"/>
-      <c r="AO10" s="159"/>
-      <c r="AP10" s="159"/>
-      <c r="AQ10" s="159"/>
-      <c r="AR10" s="159"/>
-      <c r="AS10" s="159"/>
-      <c r="AT10" s="159"/>
-      <c r="AU10" s="159"/>
-      <c r="AV10" s="159"/>
-      <c r="AW10" s="159"/>
-      <c r="AX10" s="159"/>
-      <c r="AY10" s="159"/>
-      <c r="AZ10" s="159"/>
-      <c r="BA10" s="159"/>
-      <c r="BB10" s="159"/>
-      <c r="BC10" s="159"/>
-      <c r="BD10" s="159"/>
-      <c r="BE10" s="159"/>
-      <c r="BF10" s="159"/>
-      <c r="BG10" s="159"/>
-      <c r="BH10" s="159"/>
-      <c r="BI10" s="159"/>
-      <c r="BJ10" s="159"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="162"/>
+      <c r="T10" s="162"/>
+      <c r="U10" s="162"/>
+      <c r="V10" s="162"/>
+      <c r="W10" s="162"/>
+      <c r="X10" s="162"/>
+      <c r="Y10" s="162"/>
+      <c r="Z10" s="162"/>
+      <c r="AA10" s="162"/>
+      <c r="AB10" s="162"/>
+      <c r="AC10" s="162"/>
+      <c r="AD10" s="162"/>
+      <c r="AE10" s="162"/>
+      <c r="AF10" s="162"/>
+      <c r="AG10" s="162"/>
+      <c r="AH10" s="162"/>
+      <c r="AI10" s="162"/>
+      <c r="AJ10" s="162"/>
+      <c r="AK10" s="162"/>
+      <c r="AL10" s="162"/>
+      <c r="AM10" s="162"/>
+      <c r="AN10" s="162"/>
+      <c r="AO10" s="162"/>
+      <c r="AP10" s="162"/>
+      <c r="AQ10" s="162"/>
+      <c r="AR10" s="162"/>
+      <c r="AS10" s="162"/>
+      <c r="AT10" s="162"/>
+      <c r="AU10" s="162"/>
+      <c r="AV10" s="162"/>
+      <c r="AW10" s="162"/>
+      <c r="AX10" s="162"/>
+      <c r="AY10" s="162"/>
+      <c r="AZ10" s="162"/>
+      <c r="BA10" s="162"/>
+      <c r="BB10" s="162"/>
+      <c r="BC10" s="162"/>
+      <c r="BD10" s="162"/>
+      <c r="BE10" s="162"/>
+      <c r="BF10" s="162"/>
+      <c r="BG10" s="162"/>
+      <c r="BH10" s="162"/>
+      <c r="BI10" s="162"/>
+      <c r="BJ10" s="162"/>
       <c r="BK10" s="2"/>
       <c r="BL10" s="2"/>
       <c r="BM10" s="2"/>
@@ -11915,70 +11935,70 @@
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="160" t="s">
+      <c r="C11" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="159" t="s">
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="159"/>
-      <c r="P11" s="159"/>
-      <c r="Q11" s="159"/>
-      <c r="R11" s="159"/>
-      <c r="S11" s="159"/>
-      <c r="T11" s="159"/>
-      <c r="U11" s="159"/>
-      <c r="V11" s="159"/>
-      <c r="W11" s="159"/>
-      <c r="X11" s="159"/>
-      <c r="Y11" s="159"/>
-      <c r="Z11" s="159"/>
-      <c r="AA11" s="159"/>
-      <c r="AB11" s="159"/>
-      <c r="AC11" s="159"/>
-      <c r="AD11" s="159"/>
-      <c r="AE11" s="159"/>
-      <c r="AF11" s="159"/>
-      <c r="AG11" s="159"/>
-      <c r="AH11" s="159"/>
-      <c r="AI11" s="159"/>
-      <c r="AJ11" s="159"/>
-      <c r="AK11" s="159"/>
-      <c r="AL11" s="159"/>
-      <c r="AM11" s="159"/>
-      <c r="AN11" s="159"/>
-      <c r="AO11" s="159"/>
-      <c r="AP11" s="159"/>
-      <c r="AQ11" s="159"/>
-      <c r="AR11" s="159"/>
-      <c r="AS11" s="159"/>
-      <c r="AT11" s="159"/>
-      <c r="AU11" s="159"/>
-      <c r="AV11" s="159"/>
-      <c r="AW11" s="159"/>
-      <c r="AX11" s="159"/>
-      <c r="AY11" s="159"/>
-      <c r="AZ11" s="159"/>
-      <c r="BA11" s="159"/>
-      <c r="BB11" s="159"/>
-      <c r="BC11" s="159"/>
-      <c r="BD11" s="159"/>
-      <c r="BE11" s="159"/>
-      <c r="BF11" s="159"/>
-      <c r="BG11" s="159"/>
-      <c r="BH11" s="159"/>
-      <c r="BI11" s="159"/>
-      <c r="BJ11" s="159"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="162"/>
+      <c r="T11" s="162"/>
+      <c r="U11" s="162"/>
+      <c r="V11" s="162"/>
+      <c r="W11" s="162"/>
+      <c r="X11" s="162"/>
+      <c r="Y11" s="162"/>
+      <c r="Z11" s="162"/>
+      <c r="AA11" s="162"/>
+      <c r="AB11" s="162"/>
+      <c r="AC11" s="162"/>
+      <c r="AD11" s="162"/>
+      <c r="AE11" s="162"/>
+      <c r="AF11" s="162"/>
+      <c r="AG11" s="162"/>
+      <c r="AH11" s="162"/>
+      <c r="AI11" s="162"/>
+      <c r="AJ11" s="162"/>
+      <c r="AK11" s="162"/>
+      <c r="AL11" s="162"/>
+      <c r="AM11" s="162"/>
+      <c r="AN11" s="162"/>
+      <c r="AO11" s="162"/>
+      <c r="AP11" s="162"/>
+      <c r="AQ11" s="162"/>
+      <c r="AR11" s="162"/>
+      <c r="AS11" s="162"/>
+      <c r="AT11" s="162"/>
+      <c r="AU11" s="162"/>
+      <c r="AV11" s="162"/>
+      <c r="AW11" s="162"/>
+      <c r="AX11" s="162"/>
+      <c r="AY11" s="162"/>
+      <c r="AZ11" s="162"/>
+      <c r="BA11" s="162"/>
+      <c r="BB11" s="162"/>
+      <c r="BC11" s="162"/>
+      <c r="BD11" s="162"/>
+      <c r="BE11" s="162"/>
+      <c r="BF11" s="162"/>
+      <c r="BG11" s="162"/>
+      <c r="BH11" s="162"/>
+      <c r="BI11" s="162"/>
+      <c r="BJ11" s="162"/>
       <c r="BK11" s="2"/>
       <c r="BL11" s="2"/>
       <c r="BM11" s="2"/>
@@ -11989,70 +12009,70 @@
     <row r="12" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="163" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="159" t="s">
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="159"/>
-      <c r="Q12" s="159"/>
-      <c r="R12" s="159"/>
-      <c r="S12" s="159"/>
-      <c r="T12" s="159"/>
-      <c r="U12" s="159"/>
-      <c r="V12" s="159"/>
-      <c r="W12" s="159"/>
-      <c r="X12" s="159"/>
-      <c r="Y12" s="159"/>
-      <c r="Z12" s="159"/>
-      <c r="AA12" s="159"/>
-      <c r="AB12" s="159"/>
-      <c r="AC12" s="159"/>
-      <c r="AD12" s="159"/>
-      <c r="AE12" s="159"/>
-      <c r="AF12" s="159"/>
-      <c r="AG12" s="159"/>
-      <c r="AH12" s="159"/>
-      <c r="AI12" s="159"/>
-      <c r="AJ12" s="159"/>
-      <c r="AK12" s="159"/>
-      <c r="AL12" s="159"/>
-      <c r="AM12" s="159"/>
-      <c r="AN12" s="159"/>
-      <c r="AO12" s="159"/>
-      <c r="AP12" s="159"/>
-      <c r="AQ12" s="159"/>
-      <c r="AR12" s="159"/>
-      <c r="AS12" s="159"/>
-      <c r="AT12" s="159"/>
-      <c r="AU12" s="159"/>
-      <c r="AV12" s="159"/>
-      <c r="AW12" s="159"/>
-      <c r="AX12" s="159"/>
-      <c r="AY12" s="159"/>
-      <c r="AZ12" s="159"/>
-      <c r="BA12" s="159"/>
-      <c r="BB12" s="159"/>
-      <c r="BC12" s="159"/>
-      <c r="BD12" s="159"/>
-      <c r="BE12" s="159"/>
-      <c r="BF12" s="159"/>
-      <c r="BG12" s="159"/>
-      <c r="BH12" s="159"/>
-      <c r="BI12" s="159"/>
-      <c r="BJ12" s="159"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="162"/>
+      <c r="Q12" s="162"/>
+      <c r="R12" s="162"/>
+      <c r="S12" s="162"/>
+      <c r="T12" s="162"/>
+      <c r="U12" s="162"/>
+      <c r="V12" s="162"/>
+      <c r="W12" s="162"/>
+      <c r="X12" s="162"/>
+      <c r="Y12" s="162"/>
+      <c r="Z12" s="162"/>
+      <c r="AA12" s="162"/>
+      <c r="AB12" s="162"/>
+      <c r="AC12" s="162"/>
+      <c r="AD12" s="162"/>
+      <c r="AE12" s="162"/>
+      <c r="AF12" s="162"/>
+      <c r="AG12" s="162"/>
+      <c r="AH12" s="162"/>
+      <c r="AI12" s="162"/>
+      <c r="AJ12" s="162"/>
+      <c r="AK12" s="162"/>
+      <c r="AL12" s="162"/>
+      <c r="AM12" s="162"/>
+      <c r="AN12" s="162"/>
+      <c r="AO12" s="162"/>
+      <c r="AP12" s="162"/>
+      <c r="AQ12" s="162"/>
+      <c r="AR12" s="162"/>
+      <c r="AS12" s="162"/>
+      <c r="AT12" s="162"/>
+      <c r="AU12" s="162"/>
+      <c r="AV12" s="162"/>
+      <c r="AW12" s="162"/>
+      <c r="AX12" s="162"/>
+      <c r="AY12" s="162"/>
+      <c r="AZ12" s="162"/>
+      <c r="BA12" s="162"/>
+      <c r="BB12" s="162"/>
+      <c r="BC12" s="162"/>
+      <c r="BD12" s="162"/>
+      <c r="BE12" s="162"/>
+      <c r="BF12" s="162"/>
+      <c r="BG12" s="162"/>
+      <c r="BH12" s="162"/>
+      <c r="BI12" s="162"/>
+      <c r="BJ12" s="162"/>
       <c r="BK12" s="2"/>
       <c r="BL12" s="2"/>
       <c r="BM12" s="2"/>
@@ -12278,75 +12298,75 @@
       <c r="A16" s="2"/>
       <c r="B16" s="32"/>
       <c r="C16" s="36"/>
-      <c r="D16" s="161" t="s">
+      <c r="D16" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="161"/>
-      <c r="S16" s="161"/>
-      <c r="T16" s="161"/>
-      <c r="U16" s="161"/>
-      <c r="V16" s="161"/>
-      <c r="W16" s="161" t="s">
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="164"/>
+      <c r="S16" s="164"/>
+      <c r="T16" s="164"/>
+      <c r="U16" s="164"/>
+      <c r="V16" s="164"/>
+      <c r="W16" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="X16" s="161"/>
-      <c r="Y16" s="161"/>
-      <c r="Z16" s="161"/>
-      <c r="AA16" s="161"/>
-      <c r="AB16" s="161"/>
-      <c r="AC16" s="161"/>
-      <c r="AD16" s="161" t="s">
+      <c r="X16" s="164"/>
+      <c r="Y16" s="164"/>
+      <c r="Z16" s="164"/>
+      <c r="AA16" s="164"/>
+      <c r="AB16" s="164"/>
+      <c r="AC16" s="164"/>
+      <c r="AD16" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="AE16" s="161"/>
-      <c r="AF16" s="161"/>
-      <c r="AG16" s="161"/>
-      <c r="AH16" s="161"/>
-      <c r="AI16" s="161"/>
-      <c r="AJ16" s="161"/>
-      <c r="AK16" s="161" t="s">
+      <c r="AE16" s="164"/>
+      <c r="AF16" s="164"/>
+      <c r="AG16" s="164"/>
+      <c r="AH16" s="164"/>
+      <c r="AI16" s="164"/>
+      <c r="AJ16" s="164"/>
+      <c r="AK16" s="164" t="s">
         <v>77</v>
       </c>
-      <c r="AL16" s="161"/>
-      <c r="AM16" s="161"/>
-      <c r="AN16" s="161" t="s">
+      <c r="AL16" s="164"/>
+      <c r="AM16" s="164"/>
+      <c r="AN16" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="AO16" s="161"/>
-      <c r="AP16" s="161"/>
-      <c r="AQ16" s="161"/>
-      <c r="AR16" s="161"/>
-      <c r="AS16" s="161"/>
-      <c r="AT16" s="161"/>
-      <c r="AU16" s="161"/>
-      <c r="AV16" s="161"/>
-      <c r="AW16" s="161"/>
-      <c r="AX16" s="161"/>
-      <c r="AY16" s="161"/>
-      <c r="AZ16" s="161"/>
-      <c r="BA16" s="161"/>
-      <c r="BB16" s="161"/>
-      <c r="BC16" s="161"/>
-      <c r="BD16" s="161"/>
-      <c r="BE16" s="161"/>
-      <c r="BF16" s="161"/>
-      <c r="BG16" s="161"/>
-      <c r="BH16" s="161"/>
-      <c r="BI16" s="161"/>
-      <c r="BJ16" s="161"/>
+      <c r="AO16" s="164"/>
+      <c r="AP16" s="164"/>
+      <c r="AQ16" s="164"/>
+      <c r="AR16" s="164"/>
+      <c r="AS16" s="164"/>
+      <c r="AT16" s="164"/>
+      <c r="AU16" s="164"/>
+      <c r="AV16" s="164"/>
+      <c r="AW16" s="164"/>
+      <c r="AX16" s="164"/>
+      <c r="AY16" s="164"/>
+      <c r="AZ16" s="164"/>
+      <c r="BA16" s="164"/>
+      <c r="BB16" s="164"/>
+      <c r="BC16" s="164"/>
+      <c r="BD16" s="164"/>
+      <c r="BE16" s="164"/>
+      <c r="BF16" s="164"/>
+      <c r="BG16" s="164"/>
+      <c r="BH16" s="164"/>
+      <c r="BI16" s="164"/>
+      <c r="BJ16" s="164"/>
       <c r="BK16" s="2"/>
       <c r="BL16" s="2"/>
       <c r="BM16" s="2"/>
@@ -12358,71 +12378,71 @@
       <c r="A17" s="2"/>
       <c r="B17" s="32"/>
       <c r="C17" s="36"/>
-      <c r="D17" s="159" t="s">
+      <c r="D17" s="162" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="159"/>
-      <c r="M17" s="159"/>
-      <c r="N17" s="159"/>
-      <c r="O17" s="159"/>
-      <c r="P17" s="159"/>
-      <c r="Q17" s="159"/>
-      <c r="R17" s="159"/>
-      <c r="S17" s="159"/>
-      <c r="T17" s="159"/>
-      <c r="U17" s="159"/>
-      <c r="V17" s="159"/>
-      <c r="W17" s="159" t="s">
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
+      <c r="Q17" s="162"/>
+      <c r="R17" s="162"/>
+      <c r="S17" s="162"/>
+      <c r="T17" s="162"/>
+      <c r="U17" s="162"/>
+      <c r="V17" s="162"/>
+      <c r="W17" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="X17" s="159"/>
-      <c r="Y17" s="159"/>
-      <c r="Z17" s="159"/>
-      <c r="AA17" s="159"/>
-      <c r="AB17" s="159"/>
-      <c r="AC17" s="159"/>
-      <c r="AD17" s="159" t="s">
+      <c r="X17" s="162"/>
+      <c r="Y17" s="162"/>
+      <c r="Z17" s="162"/>
+      <c r="AA17" s="162"/>
+      <c r="AB17" s="162"/>
+      <c r="AC17" s="162"/>
+      <c r="AD17" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="AE17" s="159"/>
-      <c r="AF17" s="159"/>
-      <c r="AG17" s="159"/>
-      <c r="AH17" s="159"/>
-      <c r="AI17" s="159"/>
-      <c r="AJ17" s="159"/>
-      <c r="AK17" s="159"/>
-      <c r="AL17" s="159"/>
-      <c r="AM17" s="159"/>
-      <c r="AN17" s="159"/>
-      <c r="AO17" s="159"/>
-      <c r="AP17" s="159"/>
-      <c r="AQ17" s="159"/>
-      <c r="AR17" s="159"/>
-      <c r="AS17" s="159"/>
-      <c r="AT17" s="159"/>
-      <c r="AU17" s="159"/>
-      <c r="AV17" s="159"/>
-      <c r="AW17" s="159"/>
-      <c r="AX17" s="159"/>
-      <c r="AY17" s="159"/>
-      <c r="AZ17" s="159"/>
-      <c r="BA17" s="159"/>
-      <c r="BB17" s="159"/>
-      <c r="BC17" s="159"/>
-      <c r="BD17" s="159"/>
-      <c r="BE17" s="159"/>
-      <c r="BF17" s="159"/>
-      <c r="BG17" s="159"/>
-      <c r="BH17" s="159"/>
-      <c r="BI17" s="159"/>
-      <c r="BJ17" s="159"/>
+      <c r="AE17" s="162"/>
+      <c r="AF17" s="162"/>
+      <c r="AG17" s="162"/>
+      <c r="AH17" s="162"/>
+      <c r="AI17" s="162"/>
+      <c r="AJ17" s="162"/>
+      <c r="AK17" s="162"/>
+      <c r="AL17" s="162"/>
+      <c r="AM17" s="162"/>
+      <c r="AN17" s="162"/>
+      <c r="AO17" s="162"/>
+      <c r="AP17" s="162"/>
+      <c r="AQ17" s="162"/>
+      <c r="AR17" s="162"/>
+      <c r="AS17" s="162"/>
+      <c r="AT17" s="162"/>
+      <c r="AU17" s="162"/>
+      <c r="AV17" s="162"/>
+      <c r="AW17" s="162"/>
+      <c r="AX17" s="162"/>
+      <c r="AY17" s="162"/>
+      <c r="AZ17" s="162"/>
+      <c r="BA17" s="162"/>
+      <c r="BB17" s="162"/>
+      <c r="BC17" s="162"/>
+      <c r="BD17" s="162"/>
+      <c r="BE17" s="162"/>
+      <c r="BF17" s="162"/>
+      <c r="BG17" s="162"/>
+      <c r="BH17" s="162"/>
+      <c r="BI17" s="162"/>
+      <c r="BJ17" s="162"/>
       <c r="BK17" s="2"/>
       <c r="BL17" s="2"/>
       <c r="BM17" s="2"/>
@@ -12434,69 +12454,69 @@
       <c r="A18" s="2"/>
       <c r="B18" s="32"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="129" t="s">
+      <c r="D18" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="130"/>
-      <c r="R18" s="130"/>
-      <c r="S18" s="130"/>
-      <c r="T18" s="130"/>
-      <c r="U18" s="130"/>
-      <c r="V18" s="131"/>
-      <c r="W18" s="129"/>
-      <c r="X18" s="130"/>
-      <c r="Y18" s="130"/>
-      <c r="Z18" s="130"/>
-      <c r="AA18" s="130"/>
-      <c r="AB18" s="130"/>
-      <c r="AC18" s="131"/>
-      <c r="AD18" s="129" t="s">
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="133"/>
+      <c r="R18" s="133"/>
+      <c r="S18" s="133"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="133"/>
+      <c r="V18" s="134"/>
+      <c r="W18" s="132"/>
+      <c r="X18" s="133"/>
+      <c r="Y18" s="133"/>
+      <c r="Z18" s="133"/>
+      <c r="AA18" s="133"/>
+      <c r="AB18" s="133"/>
+      <c r="AC18" s="134"/>
+      <c r="AD18" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="AE18" s="130"/>
-      <c r="AF18" s="130"/>
-      <c r="AG18" s="130"/>
-      <c r="AH18" s="130"/>
-      <c r="AI18" s="130"/>
-      <c r="AJ18" s="131"/>
-      <c r="AK18" s="129"/>
-      <c r="AL18" s="130"/>
-      <c r="AM18" s="131"/>
-      <c r="AN18" s="129"/>
-      <c r="AO18" s="130"/>
-      <c r="AP18" s="130"/>
-      <c r="AQ18" s="130"/>
-      <c r="AR18" s="130"/>
-      <c r="AS18" s="130"/>
-      <c r="AT18" s="130"/>
-      <c r="AU18" s="130"/>
-      <c r="AV18" s="130"/>
-      <c r="AW18" s="130"/>
-      <c r="AX18" s="130"/>
-      <c r="AY18" s="130"/>
-      <c r="AZ18" s="130"/>
-      <c r="BA18" s="130"/>
-      <c r="BB18" s="130"/>
-      <c r="BC18" s="130"/>
-      <c r="BD18" s="130"/>
-      <c r="BE18" s="130"/>
-      <c r="BF18" s="130"/>
-      <c r="BG18" s="130"/>
-      <c r="BH18" s="130"/>
-      <c r="BI18" s="130"/>
-      <c r="BJ18" s="131"/>
+      <c r="AE18" s="133"/>
+      <c r="AF18" s="133"/>
+      <c r="AG18" s="133"/>
+      <c r="AH18" s="133"/>
+      <c r="AI18" s="133"/>
+      <c r="AJ18" s="134"/>
+      <c r="AK18" s="132"/>
+      <c r="AL18" s="133"/>
+      <c r="AM18" s="134"/>
+      <c r="AN18" s="132"/>
+      <c r="AO18" s="133"/>
+      <c r="AP18" s="133"/>
+      <c r="AQ18" s="133"/>
+      <c r="AR18" s="133"/>
+      <c r="AS18" s="133"/>
+      <c r="AT18" s="133"/>
+      <c r="AU18" s="133"/>
+      <c r="AV18" s="133"/>
+      <c r="AW18" s="133"/>
+      <c r="AX18" s="133"/>
+      <c r="AY18" s="133"/>
+      <c r="AZ18" s="133"/>
+      <c r="BA18" s="133"/>
+      <c r="BB18" s="133"/>
+      <c r="BC18" s="133"/>
+      <c r="BD18" s="133"/>
+      <c r="BE18" s="133"/>
+      <c r="BF18" s="133"/>
+      <c r="BG18" s="133"/>
+      <c r="BH18" s="133"/>
+      <c r="BI18" s="133"/>
+      <c r="BJ18" s="134"/>
       <c r="BK18" s="2"/>
       <c r="BL18" s="2"/>
       <c r="BM18" s="2"/>
@@ -12581,70 +12601,70 @@
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="159" t="s">
+      <c r="E20" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="159"/>
-      <c r="L20" s="159"/>
-      <c r="M20" s="159"/>
-      <c r="N20" s="159"/>
-      <c r="O20" s="159"/>
-      <c r="P20" s="159"/>
-      <c r="Q20" s="159"/>
-      <c r="R20" s="159"/>
-      <c r="S20" s="159"/>
-      <c r="T20" s="159"/>
-      <c r="U20" s="159"/>
-      <c r="V20" s="159"/>
-      <c r="W20" s="159" t="s">
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="162"/>
+      <c r="R20" s="162"/>
+      <c r="S20" s="162"/>
+      <c r="T20" s="162"/>
+      <c r="U20" s="162"/>
+      <c r="V20" s="162"/>
+      <c r="W20" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="X20" s="159"/>
-      <c r="Y20" s="159"/>
-      <c r="Z20" s="159"/>
-      <c r="AA20" s="159"/>
-      <c r="AB20" s="159"/>
-      <c r="AC20" s="159"/>
-      <c r="AD20" s="159" t="s">
+      <c r="X20" s="162"/>
+      <c r="Y20" s="162"/>
+      <c r="Z20" s="162"/>
+      <c r="AA20" s="162"/>
+      <c r="AB20" s="162"/>
+      <c r="AC20" s="162"/>
+      <c r="AD20" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="AE20" s="159"/>
-      <c r="AF20" s="159"/>
-      <c r="AG20" s="159"/>
-      <c r="AH20" s="159"/>
-      <c r="AI20" s="159"/>
-      <c r="AJ20" s="159"/>
-      <c r="AK20" s="159"/>
-      <c r="AL20" s="159"/>
-      <c r="AM20" s="159"/>
-      <c r="AN20" s="159"/>
-      <c r="AO20" s="159"/>
-      <c r="AP20" s="159"/>
-      <c r="AQ20" s="159"/>
-      <c r="AR20" s="159"/>
-      <c r="AS20" s="159"/>
-      <c r="AT20" s="159"/>
-      <c r="AU20" s="159"/>
-      <c r="AV20" s="159"/>
-      <c r="AW20" s="159"/>
-      <c r="AX20" s="159"/>
-      <c r="AY20" s="159"/>
-      <c r="AZ20" s="159"/>
-      <c r="BA20" s="159"/>
-      <c r="BB20" s="159"/>
-      <c r="BC20" s="159"/>
-      <c r="BD20" s="159"/>
-      <c r="BE20" s="159"/>
-      <c r="BF20" s="159"/>
-      <c r="BG20" s="159"/>
-      <c r="BH20" s="159"/>
-      <c r="BI20" s="159"/>
-      <c r="BJ20" s="159"/>
+      <c r="AE20" s="162"/>
+      <c r="AF20" s="162"/>
+      <c r="AG20" s="162"/>
+      <c r="AH20" s="162"/>
+      <c r="AI20" s="162"/>
+      <c r="AJ20" s="162"/>
+      <c r="AK20" s="162"/>
+      <c r="AL20" s="162"/>
+      <c r="AM20" s="162"/>
+      <c r="AN20" s="162"/>
+      <c r="AO20" s="162"/>
+      <c r="AP20" s="162"/>
+      <c r="AQ20" s="162"/>
+      <c r="AR20" s="162"/>
+      <c r="AS20" s="162"/>
+      <c r="AT20" s="162"/>
+      <c r="AU20" s="162"/>
+      <c r="AV20" s="162"/>
+      <c r="AW20" s="162"/>
+      <c r="AX20" s="162"/>
+      <c r="AY20" s="162"/>
+      <c r="AZ20" s="162"/>
+      <c r="BA20" s="162"/>
+      <c r="BB20" s="162"/>
+      <c r="BC20" s="162"/>
+      <c r="BD20" s="162"/>
+      <c r="BE20" s="162"/>
+      <c r="BF20" s="162"/>
+      <c r="BG20" s="162"/>
+      <c r="BH20" s="162"/>
+      <c r="BI20" s="162"/>
+      <c r="BJ20" s="162"/>
       <c r="BK20" s="2"/>
       <c r="BL20" s="2"/>
       <c r="BM20" s="2"/>
@@ -12657,70 +12677,70 @@
       <c r="B21" s="32"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="159" t="s">
+      <c r="E21" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="159"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="159"/>
-      <c r="N21" s="159"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="159"/>
-      <c r="Q21" s="159"/>
-      <c r="R21" s="159"/>
-      <c r="S21" s="159"/>
-      <c r="T21" s="159"/>
-      <c r="U21" s="159"/>
-      <c r="V21" s="159"/>
-      <c r="W21" s="159" t="s">
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="162"/>
+      <c r="O21" s="162"/>
+      <c r="P21" s="162"/>
+      <c r="Q21" s="162"/>
+      <c r="R21" s="162"/>
+      <c r="S21" s="162"/>
+      <c r="T21" s="162"/>
+      <c r="U21" s="162"/>
+      <c r="V21" s="162"/>
+      <c r="W21" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="X21" s="159"/>
-      <c r="Y21" s="159"/>
-      <c r="Z21" s="159"/>
-      <c r="AA21" s="159"/>
-      <c r="AB21" s="159"/>
-      <c r="AC21" s="159"/>
-      <c r="AD21" s="159" t="s">
+      <c r="X21" s="162"/>
+      <c r="Y21" s="162"/>
+      <c r="Z21" s="162"/>
+      <c r="AA21" s="162"/>
+      <c r="AB21" s="162"/>
+      <c r="AC21" s="162"/>
+      <c r="AD21" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="AE21" s="159"/>
-      <c r="AF21" s="159"/>
-      <c r="AG21" s="159"/>
-      <c r="AH21" s="159"/>
-      <c r="AI21" s="159"/>
-      <c r="AJ21" s="159"/>
-      <c r="AK21" s="159"/>
-      <c r="AL21" s="159"/>
-      <c r="AM21" s="159"/>
-      <c r="AN21" s="159"/>
-      <c r="AO21" s="159"/>
-      <c r="AP21" s="159"/>
-      <c r="AQ21" s="159"/>
-      <c r="AR21" s="159"/>
-      <c r="AS21" s="159"/>
-      <c r="AT21" s="159"/>
-      <c r="AU21" s="159"/>
-      <c r="AV21" s="159"/>
-      <c r="AW21" s="159"/>
-      <c r="AX21" s="159"/>
-      <c r="AY21" s="159"/>
-      <c r="AZ21" s="159"/>
-      <c r="BA21" s="159"/>
-      <c r="BB21" s="159"/>
-      <c r="BC21" s="159"/>
-      <c r="BD21" s="159"/>
-      <c r="BE21" s="159"/>
-      <c r="BF21" s="159"/>
-      <c r="BG21" s="159"/>
-      <c r="BH21" s="159"/>
-      <c r="BI21" s="159"/>
-      <c r="BJ21" s="159"/>
+      <c r="AE21" s="162"/>
+      <c r="AF21" s="162"/>
+      <c r="AG21" s="162"/>
+      <c r="AH21" s="162"/>
+      <c r="AI21" s="162"/>
+      <c r="AJ21" s="162"/>
+      <c r="AK21" s="162"/>
+      <c r="AL21" s="162"/>
+      <c r="AM21" s="162"/>
+      <c r="AN21" s="162"/>
+      <c r="AO21" s="162"/>
+      <c r="AP21" s="162"/>
+      <c r="AQ21" s="162"/>
+      <c r="AR21" s="162"/>
+      <c r="AS21" s="162"/>
+      <c r="AT21" s="162"/>
+      <c r="AU21" s="162"/>
+      <c r="AV21" s="162"/>
+      <c r="AW21" s="162"/>
+      <c r="AX21" s="162"/>
+      <c r="AY21" s="162"/>
+      <c r="AZ21" s="162"/>
+      <c r="BA21" s="162"/>
+      <c r="BB21" s="162"/>
+      <c r="BC21" s="162"/>
+      <c r="BD21" s="162"/>
+      <c r="BE21" s="162"/>
+      <c r="BF21" s="162"/>
+      <c r="BG21" s="162"/>
+      <c r="BH21" s="162"/>
+      <c r="BI21" s="162"/>
+      <c r="BJ21" s="162"/>
       <c r="BK21" s="2"/>
       <c r="BL21" s="2"/>
       <c r="BM21" s="2"/>
